--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,12 @@
     <t>['25', '31']</t>
   </si>
   <si>
+    <t>['89']</t>
+  </si>
+  <si>
+    <t>['26', '79']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -719,6 +725,12 @@
   </si>
   <si>
     <t>['29', '36']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['7', '65']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1417,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1545,7 +1557,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1623,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="AQ3">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1751,7 +1763,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -1832,7 +1844,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1957,7 +1969,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2035,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2163,7 +2175,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2241,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2369,7 +2381,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2447,10 +2459,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AQ7">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2575,7 +2587,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2653,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.29</v>
+        <v>1.62</v>
       </c>
       <c r="AQ8">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2781,7 +2793,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2859,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AQ9">
-        <v>0.29</v>
+        <v>1.21</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2987,7 +2999,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3065,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="AQ10">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3271,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ11">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3399,7 +3411,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3477,19 +3489,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AU12">
         <v>6</v>
@@ -3605,7 +3617,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -3680,22 +3692,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>1.31</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AT13">
-        <v>1.31</v>
+        <v>2.98</v>
       </c>
       <c r="AU13">
         <v>8</v>
@@ -3811,7 +3823,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3883,25 +3895,25 @@
         <v>2.15</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP14">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ14">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="AU14">
         <v>2</v>
@@ -4095,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AQ15">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>1.84</v>
@@ -4301,19 +4313,19 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="AS16">
         <v>1.43</v>
       </c>
       <c r="AT16">
-        <v>1.43</v>
+        <v>2.32</v>
       </c>
       <c r="AU16">
         <v>5</v>
@@ -4429,7 +4441,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4501,25 +4513,25 @@
         <v>1.62</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP17">
-        <v>2.67</v>
+        <v>2.08</v>
       </c>
       <c r="AQ17">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4713,10 +4725,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AR18">
         <v>1.49</v>
@@ -4913,25 +4925,25 @@
         <v>1.85</v>
       </c>
       <c r="AN19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="AQ19">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AS19">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AT19">
-        <v>0</v>
+        <v>3.44</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5047,7 +5059,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5119,25 +5131,25 @@
         <v>1.67</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP20">
-        <v>2.33</v>
+        <v>1.21</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AU20">
         <v>7</v>
@@ -5331,10 +5343,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="AQ21">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AR21">
         <v>1.33</v>
@@ -5459,7 +5471,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5534,22 +5546,22 @@
         <v>0</v>
       </c>
       <c r="AO22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP22">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="AQ22">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="AR22">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AS22">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="AT22">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5740,22 +5752,22 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AQ23">
         <v>1</v>
       </c>
       <c r="AR23">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AS23">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AT23">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -5871,7 +5883,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -5943,25 +5955,25 @@
         <v>1.58</v>
       </c>
       <c r="AN24">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO24">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP24">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AR24">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AS24">
-        <v>1.53</v>
+        <v>1.1</v>
       </c>
       <c r="AT24">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="AU24">
         <v>9</v>
@@ -6077,7 +6089,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q25">
         <v>3.24</v>
@@ -6149,25 +6161,25 @@
         <v>1.49</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP25">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6355,25 +6367,25 @@
         <v>1.58</v>
       </c>
       <c r="AN26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP26">
+        <v>1.08</v>
+      </c>
+      <c r="AQ26">
         <v>1.29</v>
       </c>
-      <c r="AQ26">
-        <v>1.17</v>
-      </c>
       <c r="AR26">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="AS26">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AT26">
-        <v>1.28</v>
+        <v>3.22</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -6489,7 +6501,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -6561,25 +6573,25 @@
         <v>1.68</v>
       </c>
       <c r="AN27">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO27">
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AR27">
-        <v>1.54</v>
+        <v>1.22</v>
       </c>
       <c r="AS27">
         <v>1.26</v>
       </c>
       <c r="AT27">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6767,25 +6779,25 @@
         <v>1.63</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP28">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AR28">
-        <v>2.15</v>
+        <v>1.6</v>
       </c>
       <c r="AS28">
-        <v>0.83</v>
+        <v>1.19</v>
       </c>
       <c r="AT28">
-        <v>2.98</v>
+        <v>2.79</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -6973,25 +6985,25 @@
         <v>1.67</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP29">
-        <v>2.29</v>
+        <v>1.62</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR29">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AT29">
-        <v>1.89</v>
+        <v>3.03</v>
       </c>
       <c r="AU29">
         <v>8</v>
@@ -7179,25 +7191,25 @@
         <v>1.38</v>
       </c>
       <c r="AN30">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ30">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="AR30">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="AS30">
-        <v>0.85</v>
+        <v>1.18</v>
       </c>
       <c r="AT30">
-        <v>2.5</v>
+        <v>3.28</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7385,25 +7397,25 @@
         <v>1.71</v>
       </c>
       <c r="AN31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP31">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AQ31">
-        <v>0.29</v>
+        <v>1.21</v>
       </c>
       <c r="AR31">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AS31">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AT31">
-        <v>1.36</v>
+        <v>2.35</v>
       </c>
       <c r="AU31">
         <v>4</v>
@@ -7591,25 +7603,25 @@
         <v>1.85</v>
       </c>
       <c r="AN32">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP32">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AR32">
-        <v>0.67</v>
+        <v>1.14</v>
       </c>
       <c r="AS32">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AT32">
-        <v>2.16</v>
+        <v>2.7</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7725,7 +7737,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7797,25 +7809,25 @@
         <v>1.7</v>
       </c>
       <c r="AN33">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO33">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP33">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="AQ33">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AR33">
-        <v>1.54</v>
+        <v>1.17</v>
       </c>
       <c r="AS33">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AT33">
-        <v>2.71</v>
+        <v>2.33</v>
       </c>
       <c r="AU33">
         <v>7</v>
@@ -7931,7 +7943,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8003,25 +8015,25 @@
         <v>2.1</v>
       </c>
       <c r="AN34">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO34">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP34">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="AR34">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="AS34">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AT34">
-        <v>2.61</v>
+        <v>2.56</v>
       </c>
       <c r="AU34">
         <v>6</v>
@@ -8137,7 +8149,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8209,25 +8221,25 @@
         <v>1.57</v>
       </c>
       <c r="AN35">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="AQ35">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR35">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AS35">
-        <v>0.89</v>
+        <v>1.38</v>
       </c>
       <c r="AT35">
-        <v>2.25</v>
+        <v>2.6</v>
       </c>
       <c r="AU35">
         <v>5</v>
@@ -8343,7 +8355,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8415,25 +8427,25 @@
         <v>1.65</v>
       </c>
       <c r="AN36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP36">
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR36">
-        <v>1.54</v>
+        <v>1.42</v>
       </c>
       <c r="AS36">
-        <v>1.34</v>
+        <v>1.77</v>
       </c>
       <c r="AT36">
-        <v>2.88</v>
+        <v>3.19</v>
       </c>
       <c r="AU36">
         <v>8</v>
@@ -8621,25 +8633,25 @@
         <v>1.95</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO37">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP37">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AQ37">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AR37">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="AS37">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="AT37">
-        <v>2.66</v>
+        <v>2.44</v>
       </c>
       <c r="AU37">
         <v>4</v>
@@ -8827,25 +8839,25 @@
         <v>1.45</v>
       </c>
       <c r="AN38">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP38">
-        <v>2.33</v>
+        <v>1.21</v>
       </c>
       <c r="AQ38">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR38">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AS38">
-        <v>1.13</v>
+        <v>1.6</v>
       </c>
       <c r="AT38">
-        <v>2.31</v>
+        <v>2.75</v>
       </c>
       <c r="AU38">
         <v>3</v>
@@ -8961,7 +8973,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9033,25 +9045,25 @@
         <v>1.77</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR39">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AS39">
-        <v>2.56</v>
+        <v>1.72</v>
       </c>
       <c r="AT39">
-        <v>2.56</v>
+        <v>2.77</v>
       </c>
       <c r="AU39">
         <v>10</v>
@@ -9167,7 +9179,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9239,25 +9251,25 @@
         <v>1.52</v>
       </c>
       <c r="AN40">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP40">
-        <v>2.67</v>
+        <v>2.08</v>
       </c>
       <c r="AQ40">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AR40">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AS40">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AT40">
-        <v>3.35</v>
+        <v>2.92</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9373,7 +9385,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9445,25 +9457,25 @@
         <v>1.72</v>
       </c>
       <c r="AN41">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP41">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="AQ41">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="AR41">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="AS41">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AT41">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="AU41">
         <v>9</v>
@@ -9579,7 +9591,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9651,25 +9663,25 @@
         <v>1.66</v>
       </c>
       <c r="AN42">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP42">
-        <v>2.29</v>
+        <v>1.62</v>
       </c>
       <c r="AQ42">
-        <v>0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AR42">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AS42">
-        <v>0.98</v>
+        <v>1.36</v>
       </c>
       <c r="AT42">
-        <v>2.73</v>
+        <v>3.09</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -9857,25 +9869,25 @@
         <v>1.6</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AO43">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP43">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR43">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AS43">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="AT43">
-        <v>2.54</v>
+        <v>2.59</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10066,22 +10078,22 @@
         <v>0.5</v>
       </c>
       <c r="AO44">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP44">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="AQ44">
-        <v>0.29</v>
+        <v>1.21</v>
       </c>
       <c r="AR44">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AS44">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="AT44">
-        <v>2.74</v>
+        <v>2.75</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10272,22 +10284,22 @@
         <v>1.5</v>
       </c>
       <c r="AO45">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AP45">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AQ45">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR45">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="AS45">
-        <v>1.05</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>3.03</v>
+        <v>2.83</v>
       </c>
       <c r="AU45">
         <v>8</v>
@@ -10403,7 +10415,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10475,25 +10487,25 @@
         <v>1.38</v>
       </c>
       <c r="AN46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO46">
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AR46">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.05</v>
+        <v>1.32</v>
       </c>
       <c r="AT46">
-        <v>2.01</v>
+        <v>2.32</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10609,7 +10621,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10684,22 +10696,22 @@
         <v>1.5</v>
       </c>
       <c r="AO47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="AR47">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="AS47">
-        <v>0.97</v>
+        <v>1.19</v>
       </c>
       <c r="AT47">
-        <v>2.59</v>
+        <v>2.56</v>
       </c>
       <c r="AU47">
         <v>5</v>
@@ -10815,7 +10827,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -10887,25 +10899,25 @@
         <v>1.5</v>
       </c>
       <c r="AN48">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO48">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AQ48">
         <v>1</v>
       </c>
       <c r="AR48">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AS48">
-        <v>1.19</v>
+        <v>1.57</v>
       </c>
       <c r="AT48">
-        <v>2.44</v>
+        <v>2.85</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -11021,7 +11033,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11093,25 +11105,25 @@
         <v>1.35</v>
       </c>
       <c r="AN49">
-        <v>3</v>
+        <v>0.75</v>
       </c>
       <c r="AO49">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP49">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AQ49">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="AR49">
-        <v>0.9399999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="AS49">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AT49">
-        <v>2.09</v>
+        <v>2.23</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11227,7 +11239,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11299,25 +11311,25 @@
         <v>1.45</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO50">
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ50">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AR50">
-        <v>1.3</v>
+        <v>1.59</v>
       </c>
       <c r="AS50">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="AT50">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11433,7 +11445,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11505,25 +11517,25 @@
         <v>1.52</v>
       </c>
       <c r="AN51">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR51">
-        <v>1.83</v>
+        <v>1.41</v>
       </c>
       <c r="AS51">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="AT51">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="AU51">
         <v>8</v>
@@ -11639,7 +11651,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -11711,25 +11723,25 @@
         <v>1.35</v>
       </c>
       <c r="AN52">
-        <v>1.67</v>
+        <v>1.2</v>
       </c>
       <c r="AO52">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP52">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="AQ52">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR52">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="AS52">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="AT52">
-        <v>2.54</v>
+        <v>2.65</v>
       </c>
       <c r="AU52">
         <v>4</v>
@@ -11917,25 +11929,25 @@
         <v>1.35</v>
       </c>
       <c r="AN53">
-        <v>2.33</v>
+        <v>1.6</v>
       </c>
       <c r="AO53">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP53">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ53">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="AR53">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="AS53">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AT53">
-        <v>2.67</v>
+        <v>2.88</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12123,25 +12135,25 @@
         <v>1.65</v>
       </c>
       <c r="AN54">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AO54">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AQ54">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AR54">
-        <v>2.1</v>
+        <v>1.31</v>
       </c>
       <c r="AS54">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="AT54">
-        <v>3.82</v>
+        <v>2.97</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -12257,7 +12269,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12329,25 +12341,25 @@
         <v>1.83</v>
       </c>
       <c r="AN55">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AO55">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP55">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR55">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AS55">
-        <v>1.02</v>
+        <v>1.54</v>
       </c>
       <c r="AT55">
-        <v>2.44</v>
+        <v>2.84</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -12535,25 +12547,25 @@
         <v>1.57</v>
       </c>
       <c r="AN56">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="AO56">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP56">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AQ56">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR56">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AT56">
-        <v>2.46</v>
+        <v>2.88</v>
       </c>
       <c r="AU56">
         <v>3</v>
@@ -12741,25 +12753,25 @@
         <v>1.75</v>
       </c>
       <c r="AN57">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO57">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AP57">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ57">
         <v>1</v>
       </c>
       <c r="AR57">
-        <v>0.86</v>
+        <v>1.1</v>
       </c>
       <c r="AS57">
-        <v>1.29</v>
+        <v>1.53</v>
       </c>
       <c r="AT57">
-        <v>2.15</v>
+        <v>2.63</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -12947,25 +12959,25 @@
         <v>1.75</v>
       </c>
       <c r="AN58">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AO58">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AP58">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="AQ58">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AR58">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="AS58">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="AT58">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="AU58">
         <v>6</v>
@@ -13081,7 +13093,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13153,25 +13165,25 @@
         <v>1.57</v>
       </c>
       <c r="AN59">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AO59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP59">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AR59">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="AS59">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="AT59">
-        <v>3.21</v>
+        <v>2.83</v>
       </c>
       <c r="AU59">
         <v>7</v>
@@ -13359,25 +13371,25 @@
         <v>1.67</v>
       </c>
       <c r="AN60">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="AO60">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP60">
-        <v>2.33</v>
+        <v>1.21</v>
       </c>
       <c r="AQ60">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AR60">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="AS60">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AT60">
-        <v>2.16</v>
+        <v>2.23</v>
       </c>
       <c r="AU60">
         <v>8</v>
@@ -13493,7 +13505,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13565,25 +13577,25 @@
         <v>2.1</v>
       </c>
       <c r="AN61">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="AP61">
-        <v>2.67</v>
+        <v>2.08</v>
       </c>
       <c r="AQ61">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="AR61">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="AS61">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AT61">
-        <v>2.46</v>
+        <v>2.29</v>
       </c>
       <c r="AU61">
         <v>12</v>
@@ -13699,7 +13711,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -13771,25 +13783,25 @@
         <v>1.45</v>
       </c>
       <c r="AN62">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO62">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR62">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="AS62">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="AT62">
-        <v>2.35</v>
+        <v>2.57</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -13977,25 +13989,25 @@
         <v>1.7</v>
       </c>
       <c r="AN63">
-        <v>1.5</v>
+        <v>1.83</v>
       </c>
       <c r="AO63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="AQ63">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="AR63">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AS63">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="AT63">
-        <v>2.39</v>
+        <v>2.78</v>
       </c>
       <c r="AU63">
         <v>4</v>
@@ -14111,7 +14123,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q64">
         <v>2.9</v>
@@ -14186,22 +14198,22 @@
         <v>1.33</v>
       </c>
       <c r="AO64">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR64">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AS64">
-        <v>1.89</v>
+        <v>1.57</v>
       </c>
       <c r="AT64">
-        <v>3.33</v>
+        <v>3.17</v>
       </c>
       <c r="AU64">
         <v>2</v>
@@ -14389,25 +14401,25 @@
         <v>1.57</v>
       </c>
       <c r="AN65">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AO65">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="AR65">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AS65">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="AT65">
-        <v>2.41</v>
+        <v>2.47</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14523,7 +14535,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14595,25 +14607,25 @@
         <v>2</v>
       </c>
       <c r="AN66">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO66">
-        <v>0.33</v>
+        <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>2.29</v>
+        <v>1.62</v>
       </c>
       <c r="AQ66">
-        <v>0.29</v>
+        <v>1.21</v>
       </c>
       <c r="AR66">
         <v>1.61</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>1.09</v>
       </c>
       <c r="AT66">
-        <v>2.61</v>
+        <v>2.7</v>
       </c>
       <c r="AU66">
         <v>10</v>
@@ -14801,25 +14813,25 @@
         <v>1.4</v>
       </c>
       <c r="AN67">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO67">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AP67">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AQ67">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR67">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AS67">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AT67">
-        <v>2.33</v>
+        <v>2.42</v>
       </c>
       <c r="AU67">
         <v>7</v>
@@ -14935,7 +14947,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15007,25 +15019,25 @@
         <v>1.57</v>
       </c>
       <c r="AN68">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO68">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP68">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="AQ68">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AR68">
-        <v>1.55</v>
+        <v>1.3</v>
       </c>
       <c r="AS68">
-        <v>1.27</v>
+        <v>1.12</v>
       </c>
       <c r="AT68">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15213,25 +15225,25 @@
         <v>1.65</v>
       </c>
       <c r="AN69">
-        <v>2</v>
+        <v>1.17</v>
       </c>
       <c r="AO69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP69">
+        <v>1</v>
+      </c>
+      <c r="AQ69">
         <v>1.14</v>
       </c>
-      <c r="AQ69">
-        <v>0.83</v>
-      </c>
       <c r="AR69">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="AS69">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT69">
-        <v>2.88</v>
+        <v>2.77</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15347,7 +15359,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15419,25 +15431,25 @@
         <v>1.45</v>
       </c>
       <c r="AN70">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO70">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP70">
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AR70">
-        <v>1.7</v>
+        <v>1.43</v>
       </c>
       <c r="AS70">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AT70">
-        <v>2.81</v>
+        <v>2.73</v>
       </c>
       <c r="AU70">
         <v>6</v>
@@ -15553,7 +15565,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15625,25 +15637,25 @@
         <v>1.4</v>
       </c>
       <c r="AN71">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO71">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP71">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AQ71">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
-        <v>1.89</v>
+        <v>1.51</v>
       </c>
       <c r="AS71">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AT71">
-        <v>3.11</v>
+        <v>2.89</v>
       </c>
       <c r="AU71">
         <v>8</v>
@@ -15759,7 +15771,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -15831,25 +15843,25 @@
         <v>1.95</v>
       </c>
       <c r="AN72">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO72">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="AP72">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ72">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AR72">
-        <v>0.97</v>
+        <v>1.19</v>
       </c>
       <c r="AS72">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="AT72">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -15965,7 +15977,7 @@
         <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16037,25 +16049,25 @@
         <v>1.83</v>
       </c>
       <c r="AN73">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
       <c r="AO73">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="AP73">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AQ73">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="AR73">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="AS73">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="AT73">
-        <v>2.63</v>
+        <v>2.53</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16171,7 +16183,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16243,25 +16255,25 @@
         <v>1.9</v>
       </c>
       <c r="AN74">
+        <v>1.71</v>
+      </c>
+      <c r="AO74">
+        <v>1.14</v>
+      </c>
+      <c r="AP74">
+        <v>2.15</v>
+      </c>
+      <c r="AQ74">
+        <v>1</v>
+      </c>
+      <c r="AR74">
         <v>1.33</v>
       </c>
-      <c r="AO74">
-        <v>1.5</v>
-      </c>
-      <c r="AP74">
-        <v>2.17</v>
-      </c>
-      <c r="AQ74">
-        <v>1.29</v>
-      </c>
-      <c r="AR74">
-        <v>1.29</v>
-      </c>
       <c r="AS74">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AT74">
-        <v>2.46</v>
+        <v>2.6</v>
       </c>
       <c r="AU74">
         <v>7</v>
@@ -16449,25 +16461,25 @@
         <v>1.9</v>
       </c>
       <c r="AN75">
-        <v>3</v>
+        <v>1.86</v>
       </c>
       <c r="AO75">
+        <v>1.29</v>
+      </c>
+      <c r="AP75">
+        <v>2.08</v>
+      </c>
+      <c r="AQ75">
+        <v>1.08</v>
+      </c>
+      <c r="AR75">
+        <v>1.36</v>
+      </c>
+      <c r="AS75">
         <v>1.33</v>
       </c>
-      <c r="AP75">
-        <v>2.67</v>
-      </c>
-      <c r="AQ75">
-        <v>0.83</v>
-      </c>
-      <c r="AR75">
-        <v>1.77</v>
-      </c>
-      <c r="AS75">
-        <v>1.27</v>
-      </c>
       <c r="AT75">
-        <v>3.04</v>
+        <v>2.69</v>
       </c>
       <c r="AU75">
         <v>2</v>
@@ -16583,7 +16595,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -16655,25 +16667,25 @@
         <v>1.57</v>
       </c>
       <c r="AN76">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO76">
-        <v>0.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP76">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AR76">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="AS76">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AT76">
-        <v>3.04</v>
+        <v>2.91</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -16789,7 +16801,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -16861,25 +16873,25 @@
         <v>1.57</v>
       </c>
       <c r="AN77">
-        <v>1.75</v>
+        <v>1.29</v>
       </c>
       <c r="AO77">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AP77">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ77">
         <v>1</v>
       </c>
       <c r="AR77">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>1.16</v>
+        <v>1.44</v>
       </c>
       <c r="AT77">
-        <v>2.57</v>
+        <v>2.94</v>
       </c>
       <c r="AU77">
         <v>9</v>
@@ -16995,7 +17007,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17067,25 +17079,25 @@
         <v>1.53</v>
       </c>
       <c r="AN78">
-        <v>3</v>
+        <v>1.43</v>
       </c>
       <c r="AO78">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AP78">
-        <v>2.33</v>
+        <v>1.21</v>
       </c>
       <c r="AQ78">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR78">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AS78">
-        <v>1.13</v>
+        <v>1.51</v>
       </c>
       <c r="AT78">
-        <v>2.31</v>
+        <v>2.67</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17201,7 +17213,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17273,25 +17285,25 @@
         <v>1.85</v>
       </c>
       <c r="AN79">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="AO79">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AP79">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AR79">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="AS79">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="AT79">
-        <v>3.28</v>
+        <v>2.97</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17407,7 +17419,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17479,25 +17491,25 @@
         <v>1.45</v>
       </c>
       <c r="AN80">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AO80">
-        <v>0.67</v>
+        <v>1.14</v>
       </c>
       <c r="AP80">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="AQ80">
-        <v>0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AR80">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="AS80">
-        <v>1.04</v>
+        <v>1.29</v>
       </c>
       <c r="AT80">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17685,25 +17697,25 @@
         <v>1.8</v>
       </c>
       <c r="AN81">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AO81">
-        <v>0.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AQ81">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR81">
-        <v>1.68</v>
+        <v>1.25</v>
       </c>
       <c r="AS81">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="AT81">
-        <v>2.95</v>
+        <v>2.78</v>
       </c>
       <c r="AU81">
         <v>5</v>
@@ -17894,22 +17906,22 @@
         <v>1.25</v>
       </c>
       <c r="AO82">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AP82">
+        <v>1.31</v>
+      </c>
+      <c r="AQ82">
         <v>1.14</v>
       </c>
-      <c r="AQ82">
-        <v>0.83</v>
-      </c>
       <c r="AR82">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AS82">
-        <v>0.86</v>
+        <v>1.11</v>
       </c>
       <c r="AT82">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18025,7 +18037,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18100,22 +18112,22 @@
         <v>1.5</v>
       </c>
       <c r="AO83">
-        <v>1.33</v>
+        <v>2.13</v>
       </c>
       <c r="AP83">
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR83">
-        <v>1.66</v>
+        <v>1.4</v>
       </c>
       <c r="AS83">
-        <v>1.05</v>
+        <v>1.24</v>
       </c>
       <c r="AT83">
-        <v>2.71</v>
+        <v>2.64</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18231,7 +18243,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18303,25 +18315,25 @@
         <v>1.45</v>
       </c>
       <c r="AN84">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AO84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP84">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ84">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="AR84">
-        <v>1.72</v>
+        <v>1.45</v>
       </c>
       <c r="AS84">
-        <v>1.06</v>
+        <v>1.3</v>
       </c>
       <c r="AT84">
-        <v>2.78</v>
+        <v>2.75</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18509,25 +18521,25 @@
         <v>1.53</v>
       </c>
       <c r="AN85">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO85">
-        <v>0.67</v>
+        <v>1.13</v>
       </c>
       <c r="AP85">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR85">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="AS85">
         <v>1.63</v>
       </c>
       <c r="AT85">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="AU85">
         <v>7</v>
@@ -18643,7 +18655,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18715,25 +18727,25 @@
         <v>1.55</v>
       </c>
       <c r="AN86">
-        <v>1.5</v>
+        <v>1.13</v>
       </c>
       <c r="AO86">
-        <v>1.8</v>
+        <v>1.38</v>
       </c>
       <c r="AP86">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AR86">
-        <v>1.48</v>
+        <v>1.24</v>
       </c>
       <c r="AS86">
-        <v>1.08</v>
+        <v>1.28</v>
       </c>
       <c r="AT86">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -18849,7 +18861,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -18921,25 +18933,25 @@
         <v>1.5</v>
       </c>
       <c r="AN87">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="AO87">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AP87">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AQ87">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="AR87">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="AS87">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="AT87">
-        <v>3.16</v>
+        <v>2.74</v>
       </c>
       <c r="AU87">
         <v>9</v>
@@ -19055,7 +19067,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19127,25 +19139,25 @@
         <v>1.35</v>
       </c>
       <c r="AN88">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO88">
+        <v>1.38</v>
+      </c>
+      <c r="AP88">
+        <v>1.29</v>
+      </c>
+      <c r="AQ88">
+        <v>1.38</v>
+      </c>
+      <c r="AR88">
+        <v>1.14</v>
+      </c>
+      <c r="AS88">
         <v>1.5</v>
       </c>
-      <c r="AP88">
-        <v>1.17</v>
-      </c>
-      <c r="AQ88">
-        <v>1.43</v>
-      </c>
-      <c r="AR88">
-        <v>1.29</v>
-      </c>
-      <c r="AS88">
-        <v>1.45</v>
-      </c>
       <c r="AT88">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19261,7 +19273,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19333,25 +19345,25 @@
         <v>1.75</v>
       </c>
       <c r="AN89">
-        <v>1.33</v>
+        <v>0.88</v>
       </c>
       <c r="AO89">
-        <v>0.25</v>
+        <v>1.38</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AQ89">
-        <v>0.29</v>
+        <v>1.21</v>
       </c>
       <c r="AR89">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AS89">
-        <v>1.13</v>
+        <v>1.23</v>
       </c>
       <c r="AT89">
-        <v>2.34</v>
+        <v>2.35</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19539,25 +19551,25 @@
         <v>1.52</v>
       </c>
       <c r="AN90">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="AO90">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AQ90">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR90">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AS90">
-        <v>1.18</v>
+        <v>1.39</v>
       </c>
       <c r="AT90">
-        <v>2.56</v>
+        <v>2.69</v>
       </c>
       <c r="AU90">
         <v>5</v>
@@ -19673,7 +19685,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -19745,25 +19757,25 @@
         <v>1.63</v>
       </c>
       <c r="AN91">
-        <v>2.5</v>
+        <v>1.38</v>
       </c>
       <c r="AO91">
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2.29</v>
+        <v>1.62</v>
       </c>
       <c r="AQ91">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AR91">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AS91">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="AT91">
-        <v>3.02</v>
+        <v>2.8</v>
       </c>
       <c r="AU91">
         <v>5</v>
@@ -19951,25 +19963,25 @@
         <v>1.6</v>
       </c>
       <c r="AN92">
-        <v>3</v>
+        <v>2.11</v>
       </c>
       <c r="AO92">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AP92">
-        <v>2.67</v>
+        <v>2.08</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AR92">
-        <v>1.53</v>
+        <v>1.31</v>
       </c>
       <c r="AS92">
-        <v>1.65</v>
+        <v>1.46</v>
       </c>
       <c r="AT92">
-        <v>3.18</v>
+        <v>2.77</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20157,25 +20169,25 @@
         <v>1.9</v>
       </c>
       <c r="AN93">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="AO93">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AP93">
-        <v>2.29</v>
+        <v>1.62</v>
       </c>
       <c r="AQ93">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AS93">
-        <v>1</v>
+        <v>1.48</v>
       </c>
       <c r="AT93">
-        <v>2.54</v>
+        <v>2.98</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20363,25 +20375,25 @@
         <v>1.7</v>
       </c>
       <c r="AN94">
-        <v>1.4</v>
+        <v>1.11</v>
       </c>
       <c r="AO94">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="AP94">
+        <v>1.36</v>
+      </c>
+      <c r="AQ94">
         <v>1.29</v>
       </c>
-      <c r="AQ94">
-        <v>1.43</v>
-      </c>
       <c r="AR94">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="AS94">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="AT94">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="AU94">
         <v>6</v>
@@ -20497,7 +20509,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q95">
         <v>2.4</v>
@@ -20569,25 +20581,25 @@
         <v>1.91</v>
       </c>
       <c r="AN95">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AO95">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ95">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR95">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="AS95">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="AT95">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="AU95">
         <v>4</v>
@@ -20775,25 +20787,25 @@
         <v>2</v>
       </c>
       <c r="AN96">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO96">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AQ96">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="AR96">
-        <v>1.62</v>
+        <v>1.29</v>
       </c>
       <c r="AS96">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AT96">
-        <v>2.84</v>
+        <v>2.55</v>
       </c>
       <c r="AU96">
         <v>5</v>
@@ -20981,25 +20993,25 @@
         <v>1.85</v>
       </c>
       <c r="AN97">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO97">
-        <v>0.75</v>
+        <v>1.11</v>
       </c>
       <c r="AP97">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="AQ97">
-        <v>0.5</v>
+        <v>1.07</v>
       </c>
       <c r="AR97">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
       <c r="AS97">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="AT97">
-        <v>2.33</v>
+        <v>2.68</v>
       </c>
       <c r="AU97">
         <v>6</v>
@@ -21187,25 +21199,25 @@
         <v>1.53</v>
       </c>
       <c r="AN98">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
       <c r="AO98">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AQ98">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AR98">
-        <v>1.24</v>
+        <v>1.15</v>
       </c>
       <c r="AS98">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AT98">
-        <v>2.41</v>
+        <v>2.48</v>
       </c>
       <c r="AU98">
         <v>5</v>
@@ -21393,25 +21405,25 @@
         <v>1.53</v>
       </c>
       <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
+        <v>1.33</v>
+      </c>
+      <c r="AP99">
+        <v>1.14</v>
+      </c>
+      <c r="AQ99">
+        <v>1</v>
+      </c>
+      <c r="AR99">
         <v>1.2</v>
       </c>
-      <c r="AO99">
-        <v>1.5</v>
-      </c>
-      <c r="AP99">
-        <v>1.43</v>
-      </c>
-      <c r="AQ99">
-        <v>1</v>
-      </c>
-      <c r="AR99">
-        <v>1.26</v>
-      </c>
       <c r="AS99">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="AT99">
-        <v>2.39</v>
+        <v>2.55</v>
       </c>
       <c r="AU99">
         <v>7</v>
@@ -21599,25 +21611,25 @@
         <v>1.47</v>
       </c>
       <c r="AN100">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AO100">
-        <v>1.75</v>
+        <v>2.22</v>
       </c>
       <c r="AP100">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AQ100">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR100">
-        <v>1.52</v>
+        <v>1.37</v>
       </c>
       <c r="AS100">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="AT100">
-        <v>2.54</v>
+        <v>2.57</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -21805,25 +21817,25 @@
         <v>2</v>
       </c>
       <c r="AN101">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AO101">
-        <v>0.4</v>
+        <v>1.33</v>
       </c>
       <c r="AP101">
+        <v>1.15</v>
+      </c>
+      <c r="AQ101">
+        <v>1.21</v>
+      </c>
+      <c r="AR101">
+        <v>1.23</v>
+      </c>
+      <c r="AS101">
         <v>1.17</v>
       </c>
-      <c r="AQ101">
-        <v>0.29</v>
-      </c>
-      <c r="AR101">
-        <v>1.13</v>
-      </c>
-      <c r="AS101">
-        <v>1.04</v>
-      </c>
       <c r="AT101">
-        <v>2.17</v>
+        <v>2.4</v>
       </c>
       <c r="AU101">
         <v>8</v>
@@ -22014,22 +22026,22 @@
         <v>1.2</v>
       </c>
       <c r="AO102">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="AP102">
+        <v>1.31</v>
+      </c>
+      <c r="AQ102">
         <v>1.14</v>
       </c>
-      <c r="AQ102">
-        <v>0.57</v>
-      </c>
       <c r="AR102">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AS102">
-        <v>1.07</v>
+        <v>1.15</v>
       </c>
       <c r="AT102">
-        <v>2.37</v>
+        <v>2.51</v>
       </c>
       <c r="AU102">
         <v>7</v>
@@ -22145,7 +22157,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>3.3</v>
@@ -22217,25 +22229,25 @@
         <v>1.44</v>
       </c>
       <c r="AN103">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="AO103">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AQ103">
-        <v>1.57</v>
+        <v>2.08</v>
       </c>
       <c r="AR103">
-        <v>1.86</v>
+        <v>1.47</v>
       </c>
       <c r="AS103">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="AT103">
-        <v>3</v>
+        <v>2.82</v>
       </c>
       <c r="AU103">
         <v>4</v>
@@ -22351,7 +22363,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22426,22 +22438,22 @@
         <v>1.5</v>
       </c>
       <c r="AO104">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AP104">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AQ104">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="AR104">
-        <v>1.28</v>
+        <v>1.16</v>
       </c>
       <c r="AS104">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AT104">
-        <v>2.77</v>
+        <v>2.58</v>
       </c>
       <c r="AU104">
         <v>8</v>
@@ -22557,7 +22569,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -22629,25 +22641,25 @@
         <v>1.45</v>
       </c>
       <c r="AN105">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AO105">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AP105">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="AQ105">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR105">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="AS105">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AT105">
-        <v>2.84</v>
+        <v>2.67</v>
       </c>
       <c r="AU105">
         <v>9</v>
@@ -22835,25 +22847,25 @@
         <v>1.5</v>
       </c>
       <c r="AN106">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AO106">
-        <v>0.75</v>
+        <v>1.1</v>
       </c>
       <c r="AP106">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR106">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AS106">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AT106">
-        <v>2.73</v>
+        <v>2.77</v>
       </c>
       <c r="AU106">
         <v>3</v>
@@ -22969,7 +22981,7 @@
         <v>131</v>
       </c>
       <c r="P107" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23041,25 +23053,25 @@
         <v>1.45</v>
       </c>
       <c r="AN107">
+        <v>1.1</v>
+      </c>
+      <c r="AO107">
         <v>1.4</v>
       </c>
-      <c r="AO107">
-        <v>0.25</v>
-      </c>
       <c r="AP107">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ107">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AR107">
-        <v>1.73</v>
+        <v>1.42</v>
       </c>
       <c r="AS107">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="AT107">
-        <v>3.19</v>
+        <v>2.92</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23175,7 +23187,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>3.1</v>
@@ -23250,22 +23262,22 @@
         <v>1.2</v>
       </c>
       <c r="AO108">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="AP108">
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR108">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="AS108">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AT108">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AU108">
         <v>6</v>
@@ -23453,25 +23465,25 @@
         <v>1.36</v>
       </c>
       <c r="AN109">
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="AO109">
         <v>1.4</v>
       </c>
       <c r="AP109">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AR109">
-        <v>1.52</v>
+        <v>1.33</v>
       </c>
       <c r="AS109">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="AT109">
-        <v>2.83</v>
+        <v>2.62</v>
       </c>
       <c r="AU109">
         <v>2</v>
@@ -23659,25 +23671,25 @@
         <v>1.42</v>
       </c>
       <c r="AN110">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="AO110">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP110">
-        <v>2.33</v>
+        <v>1.21</v>
       </c>
       <c r="AQ110">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AR110">
+        <v>1.17</v>
+      </c>
+      <c r="AS110">
         <v>1.32</v>
       </c>
-      <c r="AS110">
-        <v>1.13</v>
-      </c>
       <c r="AT110">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="AU110">
         <v>3</v>
@@ -23865,22 +23877,22 @@
         <v>1.85</v>
       </c>
       <c r="AN111">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="AO111">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AP111">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AQ111">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR111">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="AS111">
-        <v>1.13</v>
+        <v>1.21</v>
       </c>
       <c r="AT111">
         <v>2.48</v>
@@ -24071,25 +24083,25 @@
         <v>1.66</v>
       </c>
       <c r="AN112">
-        <v>2.6</v>
+        <v>1.91</v>
       </c>
       <c r="AO112">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AP112">
+        <v>2.08</v>
+      </c>
+      <c r="AQ112">
+        <v>1.07</v>
+      </c>
+      <c r="AR112">
+        <v>1.34</v>
+      </c>
+      <c r="AS112">
+        <v>1.33</v>
+      </c>
+      <c r="AT112">
         <v>2.67</v>
-      </c>
-      <c r="AQ112">
-        <v>0.5</v>
-      </c>
-      <c r="AR112">
-        <v>1.57</v>
-      </c>
-      <c r="AS112">
-        <v>1.07</v>
-      </c>
-      <c r="AT112">
-        <v>2.64</v>
       </c>
       <c r="AU112">
         <v>4</v>
@@ -24205,7 +24217,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24277,25 +24289,25 @@
         <v>1.75</v>
       </c>
       <c r="AN113">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="AO113">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AP113">
-        <v>1.14</v>
+        <v>1.31</v>
       </c>
       <c r="AQ113">
-        <v>0.83</v>
+        <v>1.08</v>
       </c>
       <c r="AR113">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AS113">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="AT113">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="AU113">
         <v>6</v>
@@ -24483,25 +24495,25 @@
         <v>1.5</v>
       </c>
       <c r="AN114">
-        <v>1.6</v>
+        <v>1.09</v>
       </c>
       <c r="AO114">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AP114">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AQ114">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AR114">
-        <v>1.23</v>
+        <v>1.16</v>
       </c>
       <c r="AS114">
-        <v>1.08</v>
+        <v>1.2</v>
       </c>
       <c r="AT114">
-        <v>2.31</v>
+        <v>2.36</v>
       </c>
       <c r="AU114">
         <v>0</v>
@@ -24689,25 +24701,25 @@
         <v>1.62</v>
       </c>
       <c r="AN115">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="AO115">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="AP115">
-        <v>1.43</v>
+        <v>1.14</v>
       </c>
       <c r="AQ115">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AR115">
-        <v>1.26</v>
+        <v>1.18</v>
       </c>
       <c r="AS115">
-        <v>1.16</v>
+        <v>1.32</v>
       </c>
       <c r="AT115">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="AU115">
         <v>4</v>
@@ -24895,25 +24907,25 @@
         <v>1.87</v>
       </c>
       <c r="AN116">
-        <v>2.17</v>
+        <v>1.36</v>
       </c>
       <c r="AO116">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AP116">
-        <v>2.29</v>
+        <v>1.62</v>
       </c>
       <c r="AQ116">
         <v>1</v>
       </c>
       <c r="AR116">
-        <v>1.53</v>
+        <v>1.42</v>
       </c>
       <c r="AS116">
-        <v>1.13</v>
+        <v>1.34</v>
       </c>
       <c r="AT116">
-        <v>2.66</v>
+        <v>2.76</v>
       </c>
       <c r="AU116">
         <v>5</v>
@@ -25029,7 +25041,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25101,25 +25113,25 @@
         <v>1.57</v>
       </c>
       <c r="AN117">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AO117">
-        <v>0.8</v>
+        <v>1.09</v>
       </c>
       <c r="AP117">
-        <v>1.29</v>
+        <v>1.36</v>
       </c>
       <c r="AQ117">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR117">
-        <v>1.61</v>
+        <v>1.48</v>
       </c>
       <c r="AS117">
-        <v>1.12</v>
+        <v>1.39</v>
       </c>
       <c r="AT117">
-        <v>2.73</v>
+        <v>2.87</v>
       </c>
       <c r="AU117">
         <v>3</v>
@@ -25235,7 +25247,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25307,25 +25319,25 @@
         <v>1.7</v>
       </c>
       <c r="AN118">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AO118">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP118">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AQ118">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR118">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="AS118">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AT118">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25513,25 +25525,25 @@
         <v>2</v>
       </c>
       <c r="AN119">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="AO119">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AQ119">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AR119">
-        <v>1.61</v>
+        <v>1.31</v>
       </c>
       <c r="AS119">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AT119">
-        <v>2.82</v>
+        <v>2.61</v>
       </c>
       <c r="AU119">
         <v>7</v>
@@ -25647,7 +25659,7 @@
         <v>102</v>
       </c>
       <c r="P120" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25719,25 +25731,25 @@
         <v>2</v>
       </c>
       <c r="AN120">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AO120">
-        <v>0.8</v>
+        <v>1.27</v>
       </c>
       <c r="AP120">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AQ120">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="AR120">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AS120">
-        <v>1.08</v>
+        <v>1.44</v>
       </c>
       <c r="AT120">
-        <v>2.36</v>
+        <v>2.69</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -25928,22 +25940,22 @@
         <v>2</v>
       </c>
       <c r="AO121">
-        <v>0.33</v>
+        <v>1.18</v>
       </c>
       <c r="AP121">
-        <v>2.17</v>
+        <v>2.15</v>
       </c>
       <c r="AQ121">
-        <v>0.29</v>
+        <v>1.21</v>
       </c>
       <c r="AR121">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AS121">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AT121">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="AU121">
         <v>8</v>
@@ -26059,7 +26071,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26131,25 +26143,25 @@
         <v>1.4</v>
       </c>
       <c r="AN122">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AO122">
-        <v>1.57</v>
+        <v>1.33</v>
       </c>
       <c r="AP122">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="AQ122">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AR122">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="AS122">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="AT122">
-        <v>2.61</v>
+        <v>2.65</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26265,7 +26277,7 @@
         <v>102</v>
       </c>
       <c r="P123" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q123">
         <v>3.8</v>
@@ -26337,25 +26349,25 @@
         <v>1.3</v>
       </c>
       <c r="AN123">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AO123">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AP123">
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>2.14</v>
+        <v>2.15</v>
       </c>
       <c r="AR123">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="AS123">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AT123">
-        <v>2.94</v>
+        <v>2.74</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26543,25 +26555,25 @@
         <v>1.6</v>
       </c>
       <c r="AN124">
-        <v>2.33</v>
+        <v>2.08</v>
       </c>
       <c r="AO124">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AP124">
-        <v>2.43</v>
+        <v>2</v>
       </c>
       <c r="AQ124">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="AR124">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
       <c r="AS124">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AT124">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="AU124">
         <v>6</v>
@@ -26749,25 +26761,25 @@
         <v>2</v>
       </c>
       <c r="AN125">
-        <v>1.33</v>
+        <v>0.92</v>
       </c>
       <c r="AO125">
-        <v>0.67</v>
+        <v>1.08</v>
       </c>
       <c r="AP125">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="AQ125">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="AR125">
-        <v>1.55</v>
+        <v>1.31</v>
       </c>
       <c r="AS125">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="AT125">
-        <v>2.66</v>
+        <v>2.43</v>
       </c>
       <c r="AU125">
         <v>4</v>
@@ -26883,7 +26895,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -26955,25 +26967,25 @@
         <v>1.55</v>
       </c>
       <c r="AN126">
-        <v>1.67</v>
+        <v>1.42</v>
       </c>
       <c r="AO126">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AP126">
-        <v>1.43</v>
+        <v>1.29</v>
       </c>
       <c r="AQ126">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR126">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="AS126">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT126">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="AU126">
         <v>8</v>
@@ -27161,25 +27173,25 @@
         <v>1.25</v>
       </c>
       <c r="AN127">
-        <v>2.2</v>
+        <v>1.08</v>
       </c>
       <c r="AO127">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP127">
-        <v>2.33</v>
+        <v>1.21</v>
       </c>
       <c r="AQ127">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR127">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AS127">
         <v>1.36</v>
       </c>
       <c r="AT127">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27295,7 +27307,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27367,25 +27379,25 @@
         <v>1.38</v>
       </c>
       <c r="AN128">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="AO128">
+        <v>2</v>
+      </c>
+      <c r="AP128">
+        <v>1.29</v>
+      </c>
+      <c r="AQ128">
+        <v>2.08</v>
+      </c>
+      <c r="AR128">
+        <v>1.2</v>
+      </c>
+      <c r="AS128">
         <v>1.33</v>
       </c>
-      <c r="AP128">
-        <v>1.17</v>
-      </c>
-      <c r="AQ128">
-        <v>1.57</v>
-      </c>
-      <c r="AR128">
-        <v>1.36</v>
-      </c>
-      <c r="AS128">
-        <v>1.14</v>
-      </c>
       <c r="AT128">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AU128">
         <v>2</v>
@@ -27501,7 +27513,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -27573,25 +27585,25 @@
         <v>1.4</v>
       </c>
       <c r="AN129">
-        <v>0.8</v>
+        <v>1.08</v>
       </c>
       <c r="AO129">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP129">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ129">
-        <v>0.83</v>
+        <v>1.62</v>
       </c>
       <c r="AR129">
+        <v>1.28</v>
+      </c>
+      <c r="AS129">
         <v>1.41</v>
       </c>
-      <c r="AS129">
-        <v>1.29</v>
-      </c>
       <c r="AT129">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AU129">
         <v>3</v>
@@ -27707,7 +27719,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27779,25 +27791,25 @@
         <v>1.55</v>
       </c>
       <c r="AN130">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AO130">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AP130">
-        <v>1.29</v>
+        <v>1.08</v>
       </c>
       <c r="AQ130">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR130">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="AS130">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AT130">
-        <v>2.32</v>
+        <v>2.45</v>
       </c>
       <c r="AU130">
         <v>4</v>
@@ -27913,7 +27925,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -27985,25 +27997,25 @@
         <v>1.53</v>
       </c>
       <c r="AN131">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="AO131">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AP131">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.31</v>
       </c>
       <c r="AR131">
-        <v>1.62</v>
+        <v>1.34</v>
       </c>
       <c r="AS131">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="AT131">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="AU131">
         <v>6</v>
@@ -28070,6 +28082,830 @@
       </c>
       <c r="BP131">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7509711</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45618.6875</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>79</v>
+      </c>
+      <c r="H132" t="s">
+        <v>80</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>119</v>
+      </c>
+      <c r="P132" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q132">
+        <v>3.4</v>
+      </c>
+      <c r="R132">
+        <v>1.91</v>
+      </c>
+      <c r="S132">
+        <v>3.75</v>
+      </c>
+      <c r="T132">
+        <v>1.57</v>
+      </c>
+      <c r="U132">
+        <v>2.25</v>
+      </c>
+      <c r="V132">
+        <v>3.75</v>
+      </c>
+      <c r="W132">
+        <v>1.25</v>
+      </c>
+      <c r="X132">
+        <v>11</v>
+      </c>
+      <c r="Y132">
+        <v>1.05</v>
+      </c>
+      <c r="Z132">
+        <v>2.55</v>
+      </c>
+      <c r="AA132">
+        <v>2.8</v>
+      </c>
+      <c r="AB132">
+        <v>3.1</v>
+      </c>
+      <c r="AC132">
+        <v>1.1</v>
+      </c>
+      <c r="AD132">
+        <v>6.5</v>
+      </c>
+      <c r="AE132">
+        <v>1.47</v>
+      </c>
+      <c r="AF132">
+        <v>2.55</v>
+      </c>
+      <c r="AG132">
+        <v>2.43</v>
+      </c>
+      <c r="AH132">
+        <v>1.49</v>
+      </c>
+      <c r="AI132">
+        <v>2.05</v>
+      </c>
+      <c r="AJ132">
+        <v>1.7</v>
+      </c>
+      <c r="AK132">
+        <v>1.38</v>
+      </c>
+      <c r="AL132">
+        <v>1.3</v>
+      </c>
+      <c r="AM132">
+        <v>1.5</v>
+      </c>
+      <c r="AN132">
+        <v>1.38</v>
+      </c>
+      <c r="AO132">
+        <v>1.08</v>
+      </c>
+      <c r="AP132">
+        <v>1.36</v>
+      </c>
+      <c r="AQ132">
+        <v>1.07</v>
+      </c>
+      <c r="AR132">
+        <v>1.46</v>
+      </c>
+      <c r="AS132">
+        <v>1.3</v>
+      </c>
+      <c r="AT132">
+        <v>2.76</v>
+      </c>
+      <c r="AU132">
+        <v>6</v>
+      </c>
+      <c r="AV132">
+        <v>4</v>
+      </c>
+      <c r="AW132">
+        <v>10</v>
+      </c>
+      <c r="AX132">
+        <v>4</v>
+      </c>
+      <c r="AY132">
+        <v>27</v>
+      </c>
+      <c r="AZ132">
+        <v>9</v>
+      </c>
+      <c r="BA132">
+        <v>10</v>
+      </c>
+      <c r="BB132">
+        <v>1</v>
+      </c>
+      <c r="BC132">
+        <v>11</v>
+      </c>
+      <c r="BD132">
+        <v>2.1</v>
+      </c>
+      <c r="BE132">
+        <v>8</v>
+      </c>
+      <c r="BF132">
+        <v>1.95</v>
+      </c>
+      <c r="BG132">
+        <v>1.29</v>
+      </c>
+      <c r="BH132">
+        <v>3.25</v>
+      </c>
+      <c r="BI132">
+        <v>1.52</v>
+      </c>
+      <c r="BJ132">
+        <v>2.36</v>
+      </c>
+      <c r="BK132">
+        <v>1.95</v>
+      </c>
+      <c r="BL132">
+        <v>1.85</v>
+      </c>
+      <c r="BM132">
+        <v>2.39</v>
+      </c>
+      <c r="BN132">
+        <v>1.51</v>
+      </c>
+      <c r="BO132">
+        <v>3.2</v>
+      </c>
+      <c r="BP132">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7509713</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45619.45833333334</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>88</v>
+      </c>
+      <c r="H133" t="s">
+        <v>70</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>0</v>
+      </c>
+      <c r="O133" t="s">
+        <v>102</v>
+      </c>
+      <c r="P133" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q133">
+        <v>3</v>
+      </c>
+      <c r="R133">
+        <v>2</v>
+      </c>
+      <c r="S133">
+        <v>4</v>
+      </c>
+      <c r="T133">
+        <v>1.5</v>
+      </c>
+      <c r="U133">
+        <v>2.5</v>
+      </c>
+      <c r="V133">
+        <v>3.4</v>
+      </c>
+      <c r="W133">
+        <v>1.3</v>
+      </c>
+      <c r="X133">
+        <v>10</v>
+      </c>
+      <c r="Y133">
+        <v>1.06</v>
+      </c>
+      <c r="Z133">
+        <v>2.23</v>
+      </c>
+      <c r="AA133">
+        <v>3.06</v>
+      </c>
+      <c r="AB133">
+        <v>3.06</v>
+      </c>
+      <c r="AC133">
+        <v>1.09</v>
+      </c>
+      <c r="AD133">
+        <v>7</v>
+      </c>
+      <c r="AE133">
+        <v>1.4</v>
+      </c>
+      <c r="AF133">
+        <v>2.8</v>
+      </c>
+      <c r="AG133">
+        <v>2.2</v>
+      </c>
+      <c r="AH133">
+        <v>1.6</v>
+      </c>
+      <c r="AI133">
+        <v>1.95</v>
+      </c>
+      <c r="AJ133">
+        <v>1.8</v>
+      </c>
+      <c r="AK133">
+        <v>1.3</v>
+      </c>
+      <c r="AL133">
+        <v>1.3</v>
+      </c>
+      <c r="AM133">
+        <v>1.6</v>
+      </c>
+      <c r="AN133">
+        <v>1.31</v>
+      </c>
+      <c r="AO133">
+        <v>1.31</v>
+      </c>
+      <c r="AP133">
+        <v>1.29</v>
+      </c>
+      <c r="AQ133">
+        <v>1.29</v>
+      </c>
+      <c r="AR133">
+        <v>1.18</v>
+      </c>
+      <c r="AS133">
+        <v>1.48</v>
+      </c>
+      <c r="AT133">
+        <v>2.66</v>
+      </c>
+      <c r="AU133">
+        <v>2</v>
+      </c>
+      <c r="AV133">
+        <v>6</v>
+      </c>
+      <c r="AW133">
+        <v>15</v>
+      </c>
+      <c r="AX133">
+        <v>13</v>
+      </c>
+      <c r="AY133">
+        <v>27</v>
+      </c>
+      <c r="AZ133">
+        <v>27</v>
+      </c>
+      <c r="BA133">
+        <v>8</v>
+      </c>
+      <c r="BB133">
+        <v>5</v>
+      </c>
+      <c r="BC133">
+        <v>13</v>
+      </c>
+      <c r="BD133">
+        <v>1.82</v>
+      </c>
+      <c r="BE133">
+        <v>8</v>
+      </c>
+      <c r="BF133">
+        <v>2.39</v>
+      </c>
+      <c r="BG133">
+        <v>1.34</v>
+      </c>
+      <c r="BH133">
+        <v>2.98</v>
+      </c>
+      <c r="BI133">
+        <v>1.6</v>
+      </c>
+      <c r="BJ133">
+        <v>2.19</v>
+      </c>
+      <c r="BK133">
+        <v>2</v>
+      </c>
+      <c r="BL133">
+        <v>1.72</v>
+      </c>
+      <c r="BM133">
+        <v>2.6</v>
+      </c>
+      <c r="BN133">
+        <v>1.44</v>
+      </c>
+      <c r="BO133">
+        <v>3.5</v>
+      </c>
+      <c r="BP133">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7509708</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45619.45833333334</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>86</v>
+      </c>
+      <c r="H134" t="s">
+        <v>73</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>171</v>
+      </c>
+      <c r="P134" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q134">
+        <v>4.33</v>
+      </c>
+      <c r="R134">
+        <v>1.95</v>
+      </c>
+      <c r="S134">
+        <v>3</v>
+      </c>
+      <c r="T134">
+        <v>1.53</v>
+      </c>
+      <c r="U134">
+        <v>2.38</v>
+      </c>
+      <c r="V134">
+        <v>3.75</v>
+      </c>
+      <c r="W134">
+        <v>1.25</v>
+      </c>
+      <c r="X134">
+        <v>11</v>
+      </c>
+      <c r="Y134">
+        <v>1.05</v>
+      </c>
+      <c r="Z134">
+        <v>3.2</v>
+      </c>
+      <c r="AA134">
+        <v>3.03</v>
+      </c>
+      <c r="AB134">
+        <v>2.18</v>
+      </c>
+      <c r="AC134">
+        <v>1.09</v>
+      </c>
+      <c r="AD134">
+        <v>7</v>
+      </c>
+      <c r="AE134">
+        <v>1.45</v>
+      </c>
+      <c r="AF134">
+        <v>2.65</v>
+      </c>
+      <c r="AG134">
+        <v>2.35</v>
+      </c>
+      <c r="AH134">
+        <v>1.53</v>
+      </c>
+      <c r="AI134">
+        <v>2.05</v>
+      </c>
+      <c r="AJ134">
+        <v>1.7</v>
+      </c>
+      <c r="AK134">
+        <v>1.66</v>
+      </c>
+      <c r="AL134">
+        <v>1.28</v>
+      </c>
+      <c r="AM134">
+        <v>1.3</v>
+      </c>
+      <c r="AN134">
+        <v>1</v>
+      </c>
+      <c r="AO134">
+        <v>2.15</v>
+      </c>
+      <c r="AP134">
+        <v>1.14</v>
+      </c>
+      <c r="AQ134">
+        <v>2</v>
+      </c>
+      <c r="AR134">
+        <v>1.1</v>
+      </c>
+      <c r="AS134">
+        <v>1.26</v>
+      </c>
+      <c r="AT134">
+        <v>2.36</v>
+      </c>
+      <c r="AU134">
+        <v>7</v>
+      </c>
+      <c r="AV134">
+        <v>0</v>
+      </c>
+      <c r="AW134">
+        <v>9</v>
+      </c>
+      <c r="AX134">
+        <v>6</v>
+      </c>
+      <c r="AY134">
+        <v>19</v>
+      </c>
+      <c r="AZ134">
+        <v>9</v>
+      </c>
+      <c r="BA134">
+        <v>6</v>
+      </c>
+      <c r="BB134">
+        <v>2</v>
+      </c>
+      <c r="BC134">
+        <v>8</v>
+      </c>
+      <c r="BD134">
+        <v>2.1</v>
+      </c>
+      <c r="BE134">
+        <v>7.5</v>
+      </c>
+      <c r="BF134">
+        <v>1.95</v>
+      </c>
+      <c r="BG134">
+        <v>1.44</v>
+      </c>
+      <c r="BH134">
+        <v>2.6</v>
+      </c>
+      <c r="BI134">
+        <v>1.75</v>
+      </c>
+      <c r="BJ134">
+        <v>1.96</v>
+      </c>
+      <c r="BK134">
+        <v>2.24</v>
+      </c>
+      <c r="BL134">
+        <v>1.57</v>
+      </c>
+      <c r="BM134">
+        <v>3</v>
+      </c>
+      <c r="BN134">
+        <v>1.34</v>
+      </c>
+      <c r="BO134">
+        <v>4.5</v>
+      </c>
+      <c r="BP134">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7509709</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45619.45833333334</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>78</v>
+      </c>
+      <c r="H135" t="s">
+        <v>85</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135" t="s">
+        <v>172</v>
+      </c>
+      <c r="P135" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q135">
+        <v>2.5</v>
+      </c>
+      <c r="R135">
+        <v>2.2</v>
+      </c>
+      <c r="S135">
+        <v>4.75</v>
+      </c>
+      <c r="T135">
+        <v>1.4</v>
+      </c>
+      <c r="U135">
+        <v>2.75</v>
+      </c>
+      <c r="V135">
+        <v>3</v>
+      </c>
+      <c r="W135">
+        <v>1.36</v>
+      </c>
+      <c r="X135">
+        <v>8</v>
+      </c>
+      <c r="Y135">
+        <v>1.08</v>
+      </c>
+      <c r="Z135">
+        <v>1.82</v>
+      </c>
+      <c r="AA135">
+        <v>3.19</v>
+      </c>
+      <c r="AB135">
+        <v>3.79</v>
+      </c>
+      <c r="AC135">
+        <v>1.06</v>
+      </c>
+      <c r="AD135">
+        <v>8.5</v>
+      </c>
+      <c r="AE135">
+        <v>1.3</v>
+      </c>
+      <c r="AF135">
+        <v>3.3</v>
+      </c>
+      <c r="AG135">
+        <v>2.01</v>
+      </c>
+      <c r="AH135">
+        <v>1.83</v>
+      </c>
+      <c r="AI135">
+        <v>1.8</v>
+      </c>
+      <c r="AJ135">
+        <v>1.95</v>
+      </c>
+      <c r="AK135">
+        <v>1.18</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.9</v>
+      </c>
+      <c r="AN135">
+        <v>1.15</v>
+      </c>
+      <c r="AO135">
+        <v>1.23</v>
+      </c>
+      <c r="AP135">
+        <v>1.14</v>
+      </c>
+      <c r="AQ135">
+        <v>1.21</v>
+      </c>
+      <c r="AR135">
+        <v>1.23</v>
+      </c>
+      <c r="AS135">
+        <v>1.14</v>
+      </c>
+      <c r="AT135">
+        <v>2.37</v>
+      </c>
+      <c r="AU135">
+        <v>4</v>
+      </c>
+      <c r="AV135">
+        <v>7</v>
+      </c>
+      <c r="AW135">
+        <v>12</v>
+      </c>
+      <c r="AX135">
+        <v>4</v>
+      </c>
+      <c r="AY135">
+        <v>18</v>
+      </c>
+      <c r="AZ135">
+        <v>13</v>
+      </c>
+      <c r="BA135">
+        <v>8</v>
+      </c>
+      <c r="BB135">
+        <v>3</v>
+      </c>
+      <c r="BC135">
+        <v>11</v>
+      </c>
+      <c r="BD135">
+        <v>1.75</v>
+      </c>
+      <c r="BE135">
+        <v>7.5</v>
+      </c>
+      <c r="BF135">
+        <v>2.45</v>
+      </c>
+      <c r="BG135">
+        <v>1.4</v>
+      </c>
+      <c r="BH135">
+        <v>2.73</v>
+      </c>
+      <c r="BI135">
+        <v>1.69</v>
+      </c>
+      <c r="BJ135">
+        <v>2.04</v>
+      </c>
+      <c r="BK135">
+        <v>2.15</v>
+      </c>
+      <c r="BL135">
+        <v>1.62</v>
+      </c>
+      <c r="BM135">
+        <v>2.83</v>
+      </c>
+      <c r="BN135">
+        <v>1.37</v>
+      </c>
+      <c r="BO135">
+        <v>3.88</v>
+      </c>
+      <c r="BP135">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,10 +529,16 @@
     <t>['25', '31']</t>
   </si>
   <si>
+    <t>['64', '82', '90', '90+6']</t>
+  </si>
+  <si>
     <t>['89']</t>
   </si>
   <si>
     <t>['26', '79']</t>
+  </si>
+  <si>
+    <t>['65']</t>
   </si>
   <si>
     <t>['24', '45+2', '80']</t>
@@ -602,9 +608,6 @@
   </si>
   <si>
     <t>['18', '43', '79']</t>
-  </si>
-  <si>
-    <t>['65']</t>
   </si>
   <si>
     <t>['7', '40', '78']</t>
@@ -1092,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP135"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1557,7 +1560,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1763,7 +1766,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -1969,7 +1972,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2175,7 +2178,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2253,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2381,7 +2384,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2587,7 +2590,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2665,7 +2668,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ8">
         <v>1.14</v>
@@ -2793,7 +2796,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2871,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ9">
         <v>1.21</v>
@@ -2999,7 +3002,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3080,7 +3083,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ10">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3411,7 +3414,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3617,7 +3620,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -3698,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR13">
         <v>1.31</v>
@@ -3823,7 +3826,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3904,7 +3907,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ14">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR14">
         <v>1.53</v>
@@ -4441,7 +4444,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4931,10 +4934,10 @@
         <v>3</v>
       </c>
       <c r="AP19">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ19">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR19">
         <v>1.55</v>
@@ -5059,7 +5062,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5471,7 +5474,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5552,7 +5555,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ22">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR22">
         <v>1.55</v>
@@ -5883,7 +5886,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -5961,7 +5964,7 @@
         <v>0.5</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ24">
         <v>1.15</v>
@@ -6089,7 +6092,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q25">
         <v>3.24</v>
@@ -6373,7 +6376,7 @@
         <v>1.5</v>
       </c>
       <c r="AP26">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ26">
         <v>1.29</v>
@@ -6501,7 +6504,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -6991,7 +6994,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ29">
         <v>1.14</v>
@@ -7737,7 +7740,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7943,7 +7946,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8024,7 +8027,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR34">
         <v>1.32</v>
@@ -8149,7 +8152,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8227,7 +8230,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ35">
         <v>1.38</v>
@@ -8355,7 +8358,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8848,7 +8851,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR38">
         <v>1.15</v>
@@ -8973,7 +8976,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9179,7 +9182,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9260,7 +9263,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ40">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR40">
         <v>1.14</v>
@@ -9385,7 +9388,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9591,7 +9594,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9669,7 +9672,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ42">
         <v>1.07</v>
@@ -10415,7 +10418,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10621,7 +10624,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10827,7 +10830,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -10905,7 +10908,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11033,7 +11036,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11114,7 +11117,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ49">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR49">
         <v>1.01</v>
@@ -11239,7 +11242,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11445,7 +11448,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11523,7 +11526,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ51">
         <v>2</v>
@@ -11651,7 +11654,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -11938,7 +11941,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ53">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR53">
         <v>1.55</v>
@@ -12144,7 +12147,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ54">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR54">
         <v>1.31</v>
@@ -12269,7 +12272,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12553,10 +12556,10 @@
         <v>1.2</v>
       </c>
       <c r="AP56">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR56">
         <v>1.4</v>
@@ -13093,7 +13096,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13505,7 +13508,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13711,7 +13714,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -13995,7 +13998,7 @@
         <v>2</v>
       </c>
       <c r="AP63">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ63">
         <v>2.08</v>
@@ -14123,7 +14126,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>2.9</v>
@@ -14410,7 +14413,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ65">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR65">
         <v>1.11</v>
@@ -14535,7 +14538,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14613,7 +14616,7 @@
         <v>1.67</v>
       </c>
       <c r="AP66">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ66">
         <v>1.21</v>
@@ -14947,7 +14950,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15231,7 +15234,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ69">
         <v>1.14</v>
@@ -15359,7 +15362,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15565,7 +15568,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15771,7 +15774,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -15977,7 +15980,7 @@
         <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16183,7 +16186,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16261,7 +16264,7 @@
         <v>1.14</v>
       </c>
       <c r="AP74">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16470,7 +16473,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ75">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR75">
         <v>1.36</v>
@@ -16595,7 +16598,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -16676,7 +16679,7 @@
         <v>2</v>
       </c>
       <c r="AQ76">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR76">
         <v>1.27</v>
@@ -16801,7 +16804,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17007,7 +17010,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17213,7 +17216,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17419,7 +17422,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17706,7 +17709,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR81">
         <v>1.25</v>
@@ -18037,7 +18040,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18243,7 +18246,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18321,7 +18324,7 @@
         <v>2</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ84">
         <v>2.08</v>
@@ -18655,7 +18658,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18861,7 +18864,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -18942,7 +18945,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ87">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR87">
         <v>1.4</v>
@@ -19067,7 +19070,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19273,7 +19276,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19557,7 +19560,7 @@
         <v>0.75</v>
       </c>
       <c r="AP90">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ90">
         <v>0.77</v>
@@ -19685,7 +19688,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -19763,7 +19766,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ91">
         <v>1.15</v>
@@ -20175,7 +20178,7 @@
         <v>1.44</v>
       </c>
       <c r="AP93">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ93">
         <v>1.29</v>
@@ -20509,7 +20512,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q95">
         <v>2.4</v>
@@ -20590,7 +20593,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR95">
         <v>1.44</v>
@@ -20796,7 +20799,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ96">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR96">
         <v>1.29</v>
@@ -20999,7 +21002,7 @@
         <v>1.11</v>
       </c>
       <c r="AP97">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ97">
         <v>1.07</v>
@@ -22157,7 +22160,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q103">
         <v>3.3</v>
@@ -22363,7 +22366,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22444,7 +22447,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ104">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR104">
         <v>1.16</v>
@@ -22569,7 +22572,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -22853,7 +22856,7 @@
         <v>1.1</v>
       </c>
       <c r="AP106">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ106">
         <v>1.36</v>
@@ -22981,7 +22984,7 @@
         <v>131</v>
       </c>
       <c r="P107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23059,10 +23062,10 @@
         <v>1.4</v>
       </c>
       <c r="AP107">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ107">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR107">
         <v>1.42</v>
@@ -23187,7 +23190,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>3.1</v>
@@ -24217,7 +24220,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24298,7 +24301,7 @@
         <v>1.31</v>
       </c>
       <c r="AQ113">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AR113">
         <v>1.39</v>
@@ -24913,7 +24916,7 @@
         <v>1.18</v>
       </c>
       <c r="AP116">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -25041,7 +25044,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25122,7 +25125,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AR117">
         <v>1.48</v>
@@ -25247,7 +25250,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25659,7 +25662,7 @@
         <v>102</v>
       </c>
       <c r="P120" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25943,7 +25946,7 @@
         <v>1.18</v>
       </c>
       <c r="AP121">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AQ121">
         <v>1.21</v>
@@ -26071,7 +26074,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26277,7 +26280,7 @@
         <v>102</v>
       </c>
       <c r="P123" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q123">
         <v>3.8</v>
@@ -26358,7 +26361,7 @@
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AR123">
         <v>1.3</v>
@@ -26895,7 +26898,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27307,7 +27310,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27513,7 +27516,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -27594,7 +27597,7 @@
         <v>1</v>
       </c>
       <c r="AQ129">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AR129">
         <v>1.28</v>
@@ -27719,7 +27722,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27797,7 +27800,7 @@
         <v>1.17</v>
       </c>
       <c r="AP130">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AQ130">
         <v>1.14</v>
@@ -27925,7 +27928,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28003,7 +28006,7 @@
         <v>1.17</v>
       </c>
       <c r="AP131">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="AQ131">
         <v>1.31</v>
@@ -28098,7 +28101,7 @@
         <v>69</v>
       </c>
       <c r="E132" s="2">
-        <v>45618.6875</v>
+        <v>45617.875</v>
       </c>
       <c r="F132">
         <v>14</v>
@@ -28131,7 +28134,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28295,7 +28298,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7509713</v>
+        <v>7509715</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28310,10 +28313,10 @@
         <v>14</v>
       </c>
       <c r="G133" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H133" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -28325,172 +28328,172 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M133">
         <v>0</v>
       </c>
       <c r="N133">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O133" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="P133" t="s">
         <v>102</v>
       </c>
       <c r="Q133">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="R133">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="S133">
+        <v>4.75</v>
+      </c>
+      <c r="T133">
+        <v>1.33</v>
+      </c>
+      <c r="U133">
+        <v>3.25</v>
+      </c>
+      <c r="V133">
+        <v>2.63</v>
+      </c>
+      <c r="W133">
+        <v>1.44</v>
+      </c>
+      <c r="X133">
+        <v>6.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.11</v>
+      </c>
+      <c r="Z133">
+        <v>2.01</v>
+      </c>
+      <c r="AA133">
+        <v>2.65</v>
+      </c>
+      <c r="AB133">
+        <v>4.29</v>
+      </c>
+      <c r="AC133">
+        <v>1.05</v>
+      </c>
+      <c r="AD133">
+        <v>9.5</v>
+      </c>
+      <c r="AE133">
+        <v>1.22</v>
+      </c>
+      <c r="AF133">
         <v>4</v>
       </c>
-      <c r="T133">
-        <v>1.5</v>
-      </c>
-      <c r="U133">
-        <v>2.5</v>
-      </c>
-      <c r="V133">
-        <v>3.4</v>
-      </c>
-      <c r="W133">
+      <c r="AG133">
+        <v>1.7</v>
+      </c>
+      <c r="AH133">
+        <v>2</v>
+      </c>
+      <c r="AI133">
+        <v>1.7</v>
+      </c>
+      <c r="AJ133">
+        <v>2.05</v>
+      </c>
+      <c r="AK133">
+        <v>1.16</v>
+      </c>
+      <c r="AL133">
+        <v>1.2</v>
+      </c>
+      <c r="AM133">
+        <v>2.05</v>
+      </c>
+      <c r="AN133">
+        <v>2.15</v>
+      </c>
+      <c r="AO133">
+        <v>1</v>
+      </c>
+      <c r="AP133">
+        <v>2.21</v>
+      </c>
+      <c r="AQ133">
+        <v>0.93</v>
+      </c>
+      <c r="AR133">
+        <v>1.47</v>
+      </c>
+      <c r="AS133">
+        <v>1.39</v>
+      </c>
+      <c r="AT133">
+        <v>2.86</v>
+      </c>
+      <c r="AU133">
+        <v>9</v>
+      </c>
+      <c r="AV133">
+        <v>4</v>
+      </c>
+      <c r="AW133">
+        <v>10</v>
+      </c>
+      <c r="AX133">
+        <v>2</v>
+      </c>
+      <c r="AY133">
+        <v>24</v>
+      </c>
+      <c r="AZ133">
+        <v>10</v>
+      </c>
+      <c r="BA133">
+        <v>5</v>
+      </c>
+      <c r="BB133">
+        <v>3</v>
+      </c>
+      <c r="BC133">
+        <v>8</v>
+      </c>
+      <c r="BD133">
+        <v>1.45</v>
+      </c>
+      <c r="BE133">
+        <v>8.5</v>
+      </c>
+      <c r="BF133">
+        <v>3.33</v>
+      </c>
+      <c r="BG133">
         <v>1.3</v>
       </c>
-      <c r="X133">
-        <v>10</v>
-      </c>
-      <c r="Y133">
-        <v>1.06</v>
-      </c>
-      <c r="Z133">
-        <v>2.23</v>
-      </c>
-      <c r="AA133">
-        <v>3.06</v>
-      </c>
-      <c r="AB133">
-        <v>3.06</v>
-      </c>
-      <c r="AC133">
-        <v>1.09</v>
-      </c>
-      <c r="AD133">
-        <v>7</v>
-      </c>
-      <c r="AE133">
-        <v>1.4</v>
-      </c>
-      <c r="AF133">
-        <v>2.8</v>
-      </c>
-      <c r="AG133">
-        <v>2.2</v>
-      </c>
-      <c r="AH133">
-        <v>1.6</v>
-      </c>
-      <c r="AI133">
-        <v>1.95</v>
-      </c>
-      <c r="AJ133">
-        <v>1.8</v>
-      </c>
-      <c r="AK133">
-        <v>1.3</v>
-      </c>
-      <c r="AL133">
-        <v>1.3</v>
-      </c>
-      <c r="AM133">
-        <v>1.6</v>
-      </c>
-      <c r="AN133">
-        <v>1.31</v>
-      </c>
-      <c r="AO133">
-        <v>1.31</v>
-      </c>
-      <c r="AP133">
-        <v>1.29</v>
-      </c>
-      <c r="AQ133">
-        <v>1.29</v>
-      </c>
-      <c r="AR133">
-        <v>1.18</v>
-      </c>
-      <c r="AS133">
-        <v>1.48</v>
-      </c>
-      <c r="AT133">
-        <v>2.66</v>
-      </c>
-      <c r="AU133">
-        <v>2</v>
-      </c>
-      <c r="AV133">
-        <v>6</v>
-      </c>
-      <c r="AW133">
-        <v>15</v>
-      </c>
-      <c r="AX133">
-        <v>13</v>
-      </c>
-      <c r="AY133">
-        <v>27</v>
-      </c>
-      <c r="AZ133">
-        <v>27</v>
-      </c>
-      <c r="BA133">
-        <v>8</v>
-      </c>
-      <c r="BB133">
-        <v>5</v>
-      </c>
-      <c r="BC133">
-        <v>13</v>
-      </c>
-      <c r="BD133">
+      <c r="BH133">
+        <v>3.35</v>
+      </c>
+      <c r="BI133">
+        <v>1.55</v>
+      </c>
+      <c r="BJ133">
+        <v>2.38</v>
+      </c>
+      <c r="BK133">
+        <v>1.98</v>
+      </c>
+      <c r="BL133">
         <v>1.82</v>
-      </c>
-      <c r="BE133">
-        <v>8</v>
-      </c>
-      <c r="BF133">
-        <v>2.39</v>
-      </c>
-      <c r="BG133">
-        <v>1.34</v>
-      </c>
-      <c r="BH133">
-        <v>2.98</v>
-      </c>
-      <c r="BI133">
-        <v>1.6</v>
-      </c>
-      <c r="BJ133">
-        <v>2.19</v>
-      </c>
-      <c r="BK133">
-        <v>2</v>
-      </c>
-      <c r="BL133">
-        <v>1.72</v>
       </c>
       <c r="BM133">
         <v>2.6</v>
       </c>
       <c r="BN133">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="BO133">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="BP133">
         <v>1.26</v>
@@ -28501,7 +28504,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7509708</v>
+        <v>7509713</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28516,10 +28519,10 @@
         <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H134" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -28531,55 +28534,55 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M134">
         <v>0</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O134" t="s">
-        <v>171</v>
+        <v>102</v>
       </c>
       <c r="P134" t="s">
         <v>102</v>
       </c>
       <c r="Q134">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="R134">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T134">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U134">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V134">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="W134">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X134">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y134">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z134">
-        <v>3.2</v>
+        <v>2.23</v>
       </c>
       <c r="AA134">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="AB134">
-        <v>2.18</v>
+        <v>3.06</v>
       </c>
       <c r="AC134">
         <v>1.09</v>
@@ -28588,118 +28591,118 @@
         <v>7</v>
       </c>
       <c r="AE134">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AF134">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AG134">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AH134">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AI134">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AJ134">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AK134">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="AL134">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM134">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AN134">
-        <v>1</v>
+        <v>1.31</v>
       </c>
       <c r="AO134">
-        <v>2.15</v>
+        <v>1.31</v>
       </c>
       <c r="AP134">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AQ134">
-        <v>2</v>
+        <v>1.29</v>
       </c>
       <c r="AR134">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="AS134">
+        <v>1.48</v>
+      </c>
+      <c r="AT134">
+        <v>2.66</v>
+      </c>
+      <c r="AU134">
+        <v>3</v>
+      </c>
+      <c r="AV134">
+        <v>5</v>
+      </c>
+      <c r="AW134">
+        <v>5</v>
+      </c>
+      <c r="AX134">
+        <v>7</v>
+      </c>
+      <c r="AY134">
+        <v>17</v>
+      </c>
+      <c r="AZ134">
+        <v>20</v>
+      </c>
+      <c r="BA134">
+        <v>8</v>
+      </c>
+      <c r="BB134">
+        <v>5</v>
+      </c>
+      <c r="BC134">
+        <v>13</v>
+      </c>
+      <c r="BD134">
+        <v>1.82</v>
+      </c>
+      <c r="BE134">
+        <v>8</v>
+      </c>
+      <c r="BF134">
+        <v>2.39</v>
+      </c>
+      <c r="BG134">
+        <v>1.34</v>
+      </c>
+      <c r="BH134">
+        <v>2.98</v>
+      </c>
+      <c r="BI134">
+        <v>1.6</v>
+      </c>
+      <c r="BJ134">
+        <v>2.19</v>
+      </c>
+      <c r="BK134">
+        <v>2</v>
+      </c>
+      <c r="BL134">
+        <v>1.72</v>
+      </c>
+      <c r="BM134">
+        <v>2.6</v>
+      </c>
+      <c r="BN134">
+        <v>1.44</v>
+      </c>
+      <c r="BO134">
+        <v>3.5</v>
+      </c>
+      <c r="BP134">
         <v>1.26</v>
-      </c>
-      <c r="AT134">
-        <v>2.36</v>
-      </c>
-      <c r="AU134">
-        <v>7</v>
-      </c>
-      <c r="AV134">
-        <v>0</v>
-      </c>
-      <c r="AW134">
-        <v>9</v>
-      </c>
-      <c r="AX134">
-        <v>6</v>
-      </c>
-      <c r="AY134">
-        <v>19</v>
-      </c>
-      <c r="AZ134">
-        <v>9</v>
-      </c>
-      <c r="BA134">
-        <v>6</v>
-      </c>
-      <c r="BB134">
-        <v>2</v>
-      </c>
-      <c r="BC134">
-        <v>8</v>
-      </c>
-      <c r="BD134">
-        <v>2.1</v>
-      </c>
-      <c r="BE134">
-        <v>7.5</v>
-      </c>
-      <c r="BF134">
-        <v>1.95</v>
-      </c>
-      <c r="BG134">
-        <v>1.44</v>
-      </c>
-      <c r="BH134">
-        <v>2.6</v>
-      </c>
-      <c r="BI134">
-        <v>1.75</v>
-      </c>
-      <c r="BJ134">
-        <v>1.96</v>
-      </c>
-      <c r="BK134">
-        <v>2.24</v>
-      </c>
-      <c r="BL134">
-        <v>1.57</v>
-      </c>
-      <c r="BM134">
-        <v>3</v>
-      </c>
-      <c r="BN134">
-        <v>1.34</v>
-      </c>
-      <c r="BO134">
-        <v>4.5</v>
-      </c>
-      <c r="BP134">
-        <v>1.19</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28707,7 +28710,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7509709</v>
+        <v>7509708</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28722,189 +28725,601 @@
         <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H135" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L135">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M135">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N135">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O135" t="s">
         <v>172</v>
       </c>
       <c r="P135" t="s">
-        <v>238</v>
+        <v>102</v>
       </c>
       <c r="Q135">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="R135">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>4.75</v>
+        <v>3</v>
       </c>
       <c r="T135">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="U135">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="V135">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="W135">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="X135">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y135">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="Z135">
-        <v>1.82</v>
+        <v>3.2</v>
       </c>
       <c r="AA135">
-        <v>3.19</v>
+        <v>3.03</v>
       </c>
       <c r="AB135">
-        <v>3.79</v>
+        <v>2.18</v>
       </c>
       <c r="AC135">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AD135">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE135">
+        <v>1.45</v>
+      </c>
+      <c r="AF135">
+        <v>2.65</v>
+      </c>
+      <c r="AG135">
+        <v>2.35</v>
+      </c>
+      <c r="AH135">
+        <v>1.53</v>
+      </c>
+      <c r="AI135">
+        <v>2.05</v>
+      </c>
+      <c r="AJ135">
+        <v>1.7</v>
+      </c>
+      <c r="AK135">
+        <v>1.66</v>
+      </c>
+      <c r="AL135">
+        <v>1.28</v>
+      </c>
+      <c r="AM135">
         <v>1.3</v>
       </c>
-      <c r="AF135">
-        <v>3.3</v>
-      </c>
-      <c r="AG135">
-        <v>2.01</v>
-      </c>
-      <c r="AH135">
-        <v>1.83</v>
-      </c>
-      <c r="AI135">
-        <v>1.8</v>
-      </c>
-      <c r="AJ135">
-        <v>1.95</v>
-      </c>
-      <c r="AK135">
-        <v>1.18</v>
-      </c>
-      <c r="AL135">
-        <v>1.25</v>
-      </c>
-      <c r="AM135">
-        <v>1.9</v>
-      </c>
       <c r="AN135">
-        <v>1.15</v>
+        <v>1</v>
       </c>
       <c r="AO135">
-        <v>1.23</v>
+        <v>2.15</v>
       </c>
       <c r="AP135">
         <v>1.14</v>
       </c>
       <c r="AQ135">
-        <v>1.21</v>
+        <v>2</v>
       </c>
       <c r="AR135">
-        <v>1.23</v>
+        <v>1.1</v>
       </c>
       <c r="AS135">
-        <v>1.14</v>
+        <v>1.26</v>
       </c>
       <c r="AT135">
-        <v>2.37</v>
+        <v>2.36</v>
       </c>
       <c r="AU135">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV135">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW135">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AX135">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY135">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ135">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BA135">
+        <v>6</v>
+      </c>
+      <c r="BB135">
+        <v>2</v>
+      </c>
+      <c r="BC135">
         <v>8</v>
       </c>
-      <c r="BB135">
-        <v>3</v>
-      </c>
-      <c r="BC135">
-        <v>11</v>
-      </c>
       <c r="BD135">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="BE135">
         <v>7.5</v>
       </c>
       <c r="BF135">
+        <v>1.95</v>
+      </c>
+      <c r="BG135">
+        <v>1.44</v>
+      </c>
+      <c r="BH135">
+        <v>2.6</v>
+      </c>
+      <c r="BI135">
+        <v>1.75</v>
+      </c>
+      <c r="BJ135">
+        <v>1.96</v>
+      </c>
+      <c r="BK135">
+        <v>2.24</v>
+      </c>
+      <c r="BL135">
+        <v>1.57</v>
+      </c>
+      <c r="BM135">
+        <v>3</v>
+      </c>
+      <c r="BN135">
+        <v>1.34</v>
+      </c>
+      <c r="BO135">
+        <v>4.5</v>
+      </c>
+      <c r="BP135">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7509709</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45619.45833333334</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>78</v>
+      </c>
+      <c r="H136" t="s">
+        <v>85</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>2</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>4</v>
+      </c>
+      <c r="O136" t="s">
+        <v>173</v>
+      </c>
+      <c r="P136" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q136">
+        <v>2.5</v>
+      </c>
+      <c r="R136">
+        <v>2.2</v>
+      </c>
+      <c r="S136">
+        <v>4.75</v>
+      </c>
+      <c r="T136">
+        <v>1.4</v>
+      </c>
+      <c r="U136">
+        <v>2.75</v>
+      </c>
+      <c r="V136">
+        <v>3</v>
+      </c>
+      <c r="W136">
+        <v>1.36</v>
+      </c>
+      <c r="X136">
+        <v>8</v>
+      </c>
+      <c r="Y136">
+        <v>1.08</v>
+      </c>
+      <c r="Z136">
+        <v>1.82</v>
+      </c>
+      <c r="AA136">
+        <v>3.19</v>
+      </c>
+      <c r="AB136">
+        <v>3.79</v>
+      </c>
+      <c r="AC136">
+        <v>1.06</v>
+      </c>
+      <c r="AD136">
+        <v>8.5</v>
+      </c>
+      <c r="AE136">
+        <v>1.3</v>
+      </c>
+      <c r="AF136">
+        <v>3.3</v>
+      </c>
+      <c r="AG136">
+        <v>2.01</v>
+      </c>
+      <c r="AH136">
+        <v>1.83</v>
+      </c>
+      <c r="AI136">
+        <v>1.8</v>
+      </c>
+      <c r="AJ136">
+        <v>1.95</v>
+      </c>
+      <c r="AK136">
+        <v>1.18</v>
+      </c>
+      <c r="AL136">
+        <v>1.25</v>
+      </c>
+      <c r="AM136">
+        <v>1.9</v>
+      </c>
+      <c r="AN136">
+        <v>1.15</v>
+      </c>
+      <c r="AO136">
+        <v>1.23</v>
+      </c>
+      <c r="AP136">
+        <v>1.14</v>
+      </c>
+      <c r="AQ136">
+        <v>1.21</v>
+      </c>
+      <c r="AR136">
+        <v>1.23</v>
+      </c>
+      <c r="AS136">
+        <v>1.14</v>
+      </c>
+      <c r="AT136">
+        <v>2.37</v>
+      </c>
+      <c r="AU136">
+        <v>3</v>
+      </c>
+      <c r="AV136">
+        <v>8</v>
+      </c>
+      <c r="AW136">
+        <v>10</v>
+      </c>
+      <c r="AX136">
+        <v>3</v>
+      </c>
+      <c r="AY136">
+        <v>15</v>
+      </c>
+      <c r="AZ136">
+        <v>14</v>
+      </c>
+      <c r="BA136">
+        <v>8</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
+        <v>11</v>
+      </c>
+      <c r="BD136">
+        <v>1.75</v>
+      </c>
+      <c r="BE136">
+        <v>7.5</v>
+      </c>
+      <c r="BF136">
         <v>2.45</v>
       </c>
-      <c r="BG135">
+      <c r="BG136">
         <v>1.4</v>
       </c>
-      <c r="BH135">
+      <c r="BH136">
         <v>2.73</v>
       </c>
-      <c r="BI135">
+      <c r="BI136">
         <v>1.69</v>
       </c>
-      <c r="BJ135">
+      <c r="BJ136">
         <v>2.04</v>
       </c>
-      <c r="BK135">
+      <c r="BK136">
         <v>2.15</v>
       </c>
-      <c r="BL135">
+      <c r="BL136">
         <v>1.62</v>
       </c>
-      <c r="BM135">
+      <c r="BM136">
         <v>2.83</v>
       </c>
-      <c r="BN135">
+      <c r="BN136">
         <v>1.37</v>
       </c>
-      <c r="BO135">
+      <c r="BO136">
         <v>3.88</v>
       </c>
-      <c r="BP135">
+      <c r="BP136">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7509710</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45619.55208333334</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>76</v>
+      </c>
+      <c r="H137" t="s">
+        <v>77</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>174</v>
+      </c>
+      <c r="P137" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q137">
+        <v>2.6</v>
+      </c>
+      <c r="R137">
+        <v>2.1</v>
+      </c>
+      <c r="S137">
+        <v>4.75</v>
+      </c>
+      <c r="T137">
+        <v>1.44</v>
+      </c>
+      <c r="U137">
+        <v>2.63</v>
+      </c>
+      <c r="V137">
+        <v>3.25</v>
+      </c>
+      <c r="W137">
+        <v>1.33</v>
+      </c>
+      <c r="X137">
+        <v>9</v>
+      </c>
+      <c r="Y137">
+        <v>1.07</v>
+      </c>
+      <c r="Z137">
+        <v>1.94</v>
+      </c>
+      <c r="AA137">
+        <v>3.05</v>
+      </c>
+      <c r="AB137">
+        <v>3.5</v>
+      </c>
+      <c r="AC137">
+        <v>1.07</v>
+      </c>
+      <c r="AD137">
+        <v>8</v>
+      </c>
+      <c r="AE137">
+        <v>1.36</v>
+      </c>
+      <c r="AF137">
+        <v>3</v>
+      </c>
+      <c r="AG137">
+        <v>2.1</v>
+      </c>
+      <c r="AH137">
+        <v>1.65</v>
+      </c>
+      <c r="AI137">
+        <v>1.95</v>
+      </c>
+      <c r="AJ137">
+        <v>1.8</v>
+      </c>
+      <c r="AK137">
+        <v>1.2</v>
+      </c>
+      <c r="AL137">
+        <v>1.25</v>
+      </c>
+      <c r="AM137">
+        <v>1.85</v>
+      </c>
+      <c r="AN137">
+        <v>1.62</v>
+      </c>
+      <c r="AO137">
+        <v>1.08</v>
+      </c>
+      <c r="AP137">
+        <v>1.57</v>
+      </c>
+      <c r="AQ137">
+        <v>1.07</v>
+      </c>
+      <c r="AR137">
+        <v>1.46</v>
+      </c>
+      <c r="AS137">
+        <v>1.24</v>
+      </c>
+      <c r="AT137">
+        <v>2.7</v>
+      </c>
+      <c r="AU137">
+        <v>10</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>7</v>
+      </c>
+      <c r="AX137">
+        <v>3</v>
+      </c>
+      <c r="AY137">
+        <v>24</v>
+      </c>
+      <c r="AZ137">
+        <v>8</v>
+      </c>
+      <c r="BA137">
+        <v>11</v>
+      </c>
+      <c r="BB137">
+        <v>2</v>
+      </c>
+      <c r="BC137">
+        <v>13</v>
+      </c>
+      <c r="BD137">
+        <v>1.64</v>
+      </c>
+      <c r="BE137">
+        <v>8</v>
+      </c>
+      <c r="BF137">
+        <v>2.77</v>
+      </c>
+      <c r="BG137">
+        <v>1.4</v>
+      </c>
+      <c r="BH137">
+        <v>2.73</v>
+      </c>
+      <c r="BI137">
+        <v>1.69</v>
+      </c>
+      <c r="BJ137">
+        <v>2.04</v>
+      </c>
+      <c r="BK137">
+        <v>2.15</v>
+      </c>
+      <c r="BL137">
+        <v>1.62</v>
+      </c>
+      <c r="BM137">
+        <v>2.83</v>
+      </c>
+      <c r="BN137">
+        <v>1.37</v>
+      </c>
+      <c r="BO137">
+        <v>3.88</v>
+      </c>
+      <c r="BP137">
         <v>1.21</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,16 +529,28 @@
     <t>['25', '31']</t>
   </si>
   <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['26', '79']</t>
+  </si>
+  <si>
     <t>['64', '82', '90', '90+6']</t>
   </si>
   <si>
     <t>['89']</t>
   </si>
   <si>
-    <t>['26', '79']</t>
+    <t>['5', '45', '45+2']</t>
   </si>
   <si>
-    <t>['65']</t>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['7', '41', '70']</t>
+  </si>
+  <si>
+    <t>['45+3']</t>
   </si>
   <si>
     <t>['24', '45+2', '80']</t>
@@ -554,9 +566,6 @@
   </si>
   <si>
     <t>['54', '67']</t>
-  </si>
-  <si>
-    <t>['55']</t>
   </si>
   <si>
     <t>['75', '90+4']</t>
@@ -697,9 +706,6 @@
     <t>['12', '64']</t>
   </si>
   <si>
-    <t>['45+3']</t>
-  </si>
-  <si>
     <t>['56']</t>
   </si>
   <si>
@@ -734,6 +740,9 @@
   </si>
   <si>
     <t>['7', '65']</t>
+  </si>
+  <si>
+    <t>['52', '55']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AQ2">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1560,7 +1569,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1638,10 +1647,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ3">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1766,7 +1775,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -1847,7 +1856,7 @@
         <v>1</v>
       </c>
       <c r="AQ4">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1972,7 +1981,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2050,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="AQ5">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2178,7 +2187,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2256,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2384,7 +2393,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2462,10 +2471,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ7">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2590,7 +2599,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -2668,10 +2677,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.57</v>
+        <v>2.13</v>
       </c>
       <c r="AQ8">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2796,7 +2805,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2874,10 +2883,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AQ9">
-        <v>1.21</v>
+        <v>0.38</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3002,7 +3011,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3080,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ10">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3286,10 +3295,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ11">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3414,7 +3423,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3492,19 +3501,19 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="AQ12">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AU12">
         <v>6</v>
@@ -3620,7 +3629,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -3695,22 +3704,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AR13">
         <v>1.31</v>
       </c>
       <c r="AS13">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.98</v>
+        <v>1.31</v>
       </c>
       <c r="AU13">
         <v>8</v>
@@ -3826,7 +3835,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3898,25 +3907,25 @@
         <v>2.15</v>
       </c>
       <c r="AN14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AQ14">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="AR14">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>2.81</v>
+        <v>0</v>
       </c>
       <c r="AU14">
         <v>2</v>
@@ -4110,10 +4119,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR15">
         <v>1.84</v>
@@ -4316,19 +4325,19 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AQ16">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="AR16">
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="AS16">
         <v>1.43</v>
       </c>
       <c r="AT16">
-        <v>2.32</v>
+        <v>1.43</v>
       </c>
       <c r="AU16">
         <v>5</v>
@@ -4444,7 +4453,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4516,25 +4525,25 @@
         <v>1.62</v>
       </c>
       <c r="AN17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.08</v>
+        <v>2.71</v>
       </c>
       <c r="AQ17">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR17">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>7</v>
@@ -4728,10 +4737,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="AQ18">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>1.49</v>
@@ -4928,25 +4937,25 @@
         <v>1.85</v>
       </c>
       <c r="AN19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.21</v>
+        <v>2.29</v>
       </c>
       <c r="AQ19">
-        <v>1.57</v>
+        <v>0.83</v>
       </c>
       <c r="AR19">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>3.44</v>
+        <v>0</v>
       </c>
       <c r="AU19">
         <v>7</v>
@@ -5062,7 +5071,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5134,25 +5143,25 @@
         <v>1.67</v>
       </c>
       <c r="AN20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.21</v>
+        <v>2.33</v>
       </c>
       <c r="AQ20">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AT20">
-        <v>3.01</v>
+        <v>0</v>
       </c>
       <c r="AU20">
         <v>7</v>
@@ -5346,10 +5355,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ21">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AR21">
         <v>1.33</v>
@@ -5474,7 +5483,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5549,22 +5558,22 @@
         <v>0</v>
       </c>
       <c r="AO22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ22">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="AR22">
+        <v>1.6</v>
+      </c>
+      <c r="AS22">
         <v>1.55</v>
       </c>
-      <c r="AS22">
-        <v>1.45</v>
-      </c>
       <c r="AT22">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5755,22 +5764,22 @@
         <v>0</v>
       </c>
       <c r="AO23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR23">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="AT23">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="AU23">
         <v>4</v>
@@ -5886,7 +5895,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -5958,25 +5967,25 @@
         <v>1.58</v>
       </c>
       <c r="AN24">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP24">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AQ24">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AS24">
-        <v>1.1</v>
+        <v>1.53</v>
       </c>
       <c r="AT24">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="AU24">
         <v>9</v>
@@ -6092,7 +6101,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q25">
         <v>3.24</v>
@@ -6164,25 +6173,25 @@
         <v>1.49</v>
       </c>
       <c r="AN25">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AO25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AR25">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="AS25">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AT25">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6370,25 +6379,25 @@
         <v>1.58</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO26">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AQ26">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR26">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AS26">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>3.22</v>
+        <v>1.28</v>
       </c>
       <c r="AU26">
         <v>6</v>
@@ -6504,7 +6513,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -6576,25 +6585,25 @@
         <v>1.68</v>
       </c>
       <c r="AN27">
+        <v>3</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>1.57</v>
+      </c>
+      <c r="AQ27">
         <v>1.5</v>
       </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>1.38</v>
-      </c>
-      <c r="AQ27">
-        <v>1.31</v>
-      </c>
       <c r="AR27">
-        <v>1.22</v>
+        <v>1.54</v>
       </c>
       <c r="AS27">
         <v>1.26</v>
       </c>
       <c r="AT27">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="AU27">
         <v>5</v>
@@ -6782,25 +6791,25 @@
         <v>1.63</v>
       </c>
       <c r="AN28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO28">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ28">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="AR28">
-        <v>1.6</v>
+        <v>2.15</v>
       </c>
       <c r="AS28">
-        <v>1.19</v>
+        <v>0.83</v>
       </c>
       <c r="AT28">
-        <v>2.79</v>
+        <v>2.98</v>
       </c>
       <c r="AU28">
         <v>4</v>
@@ -6988,25 +6997,25 @@
         <v>1.67</v>
       </c>
       <c r="AN29">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.57</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="AS29">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AT29">
-        <v>3.03</v>
+        <v>1.89</v>
       </c>
       <c r="AU29">
         <v>8</v>
@@ -7194,25 +7203,25 @@
         <v>1.38</v>
       </c>
       <c r="AN30">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ30">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="AR30">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="AS30">
-        <v>1.18</v>
+        <v>0.85</v>
       </c>
       <c r="AT30">
-        <v>3.28</v>
+        <v>2.5</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7400,25 +7409,25 @@
         <v>1.71</v>
       </c>
       <c r="AN31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AO31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AQ31">
-        <v>1.21</v>
+        <v>0.38</v>
       </c>
       <c r="AR31">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AS31">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AT31">
-        <v>2.35</v>
+        <v>1.36</v>
       </c>
       <c r="AU31">
         <v>4</v>
@@ -7606,25 +7615,25 @@
         <v>1.85</v>
       </c>
       <c r="AN32">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AO32">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AQ32">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AR32">
-        <v>1.14</v>
+        <v>0.67</v>
       </c>
       <c r="AS32">
-        <v>1.56</v>
+        <v>1.49</v>
       </c>
       <c r="AT32">
-        <v>2.7</v>
+        <v>2.16</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7740,7 +7749,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7812,25 +7821,25 @@
         <v>1.7</v>
       </c>
       <c r="AN33">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO33">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR33">
+        <v>1.54</v>
+      </c>
+      <c r="AS33">
         <v>1.17</v>
       </c>
-      <c r="AS33">
-        <v>1.16</v>
-      </c>
       <c r="AT33">
-        <v>2.33</v>
+        <v>2.71</v>
       </c>
       <c r="AU33">
         <v>7</v>
@@ -7946,7 +7955,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8018,25 +8027,25 @@
         <v>2.1</v>
       </c>
       <c r="AN34">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO34">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="AQ34">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="AR34">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AS34">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="AT34">
-        <v>2.56</v>
+        <v>2.61</v>
       </c>
       <c r="AU34">
         <v>6</v>
@@ -8152,7 +8161,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8224,25 +8233,25 @@
         <v>1.57</v>
       </c>
       <c r="AN35">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.21</v>
+        <v>2.29</v>
       </c>
       <c r="AQ35">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AR35">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AS35">
-        <v>1.38</v>
+        <v>0.89</v>
       </c>
       <c r="AT35">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="AU35">
         <v>5</v>
@@ -8358,7 +8367,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8430,25 +8439,25 @@
         <v>1.65</v>
       </c>
       <c r="AN36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP36">
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR36">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AS36">
-        <v>1.77</v>
+        <v>1.34</v>
       </c>
       <c r="AT36">
-        <v>3.19</v>
+        <v>2.88</v>
       </c>
       <c r="AU36">
         <v>8</v>
@@ -8636,25 +8645,25 @@
         <v>1.95</v>
       </c>
       <c r="AN37">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO37">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AP37">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ37">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AR37">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="AS37">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AT37">
-        <v>2.44</v>
+        <v>2.66</v>
       </c>
       <c r="AU37">
         <v>4</v>
@@ -8842,25 +8851,25 @@
         <v>1.45</v>
       </c>
       <c r="AN38">
-        <v>1.33</v>
+        <v>3</v>
       </c>
       <c r="AO38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.21</v>
+        <v>2.33</v>
       </c>
       <c r="AQ38">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AR38">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AS38">
-        <v>1.6</v>
+        <v>1.13</v>
       </c>
       <c r="AT38">
-        <v>2.75</v>
+        <v>2.31</v>
       </c>
       <c r="AU38">
         <v>3</v>
@@ -8976,7 +8985,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9048,25 +9057,25 @@
         <v>1.77</v>
       </c>
       <c r="AN39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO39">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AS39">
-        <v>1.72</v>
+        <v>2.56</v>
       </c>
       <c r="AT39">
-        <v>2.77</v>
+        <v>2.56</v>
       </c>
       <c r="AU39">
         <v>10</v>
@@ -9182,7 +9191,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9254,25 +9263,25 @@
         <v>1.52</v>
       </c>
       <c r="AN40">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.08</v>
+        <v>2.71</v>
       </c>
       <c r="AQ40">
-        <v>1.57</v>
+        <v>0.83</v>
       </c>
       <c r="AR40">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AT40">
-        <v>2.92</v>
+        <v>3.35</v>
       </c>
       <c r="AU40">
         <v>4</v>
@@ -9388,7 +9397,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9460,25 +9469,25 @@
         <v>1.72</v>
       </c>
       <c r="AN41">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ41">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="AR41">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="AS41">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AT41">
-        <v>2.39</v>
+        <v>2.42</v>
       </c>
       <c r="AU41">
         <v>9</v>
@@ -9594,7 +9603,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9666,25 +9675,25 @@
         <v>1.66</v>
       </c>
       <c r="AN42">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO42">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>1.57</v>
+        <v>2.13</v>
       </c>
       <c r="AQ42">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="AR42">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AS42">
-        <v>1.36</v>
+        <v>0.98</v>
       </c>
       <c r="AT42">
-        <v>3.09</v>
+        <v>2.73</v>
       </c>
       <c r="AU42">
         <v>5</v>
@@ -9872,25 +9881,25 @@
         <v>1.6</v>
       </c>
       <c r="AN43">
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ43">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AR43">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AS43">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="AT43">
-        <v>2.59</v>
+        <v>2.54</v>
       </c>
       <c r="AU43">
         <v>5</v>
@@ -10081,22 +10090,22 @@
         <v>0.5</v>
       </c>
       <c r="AO44">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44">
-        <v>1.21</v>
+        <v>0.38</v>
       </c>
       <c r="AR44">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="AS44">
-        <v>1.06</v>
+        <v>1.14</v>
       </c>
       <c r="AT44">
-        <v>2.75</v>
+        <v>2.74</v>
       </c>
       <c r="AU44">
         <v>3</v>
@@ -10287,22 +10296,22 @@
         <v>1.5</v>
       </c>
       <c r="AO45">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AQ45">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR45">
-        <v>1.5</v>
+        <v>1.98</v>
       </c>
       <c r="AS45">
-        <v>1.33</v>
+        <v>1.05</v>
       </c>
       <c r="AT45">
-        <v>2.83</v>
+        <v>3.03</v>
       </c>
       <c r="AU45">
         <v>8</v>
@@ -10418,7 +10427,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10490,25 +10499,25 @@
         <v>1.38</v>
       </c>
       <c r="AN46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO46">
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AQ46">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="AS46">
-        <v>1.32</v>
+        <v>1.05</v>
       </c>
       <c r="AT46">
-        <v>2.32</v>
+        <v>2.01</v>
       </c>
       <c r="AU46">
         <v>6</v>
@@ -10624,7 +10633,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -10699,22 +10708,22 @@
         <v>1.5</v>
       </c>
       <c r="AO47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AQ47">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="AR47">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="AS47">
-        <v>1.19</v>
+        <v>0.97</v>
       </c>
       <c r="AT47">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="AU47">
         <v>5</v>
@@ -10830,7 +10839,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -10902,25 +10911,25 @@
         <v>1.5</v>
       </c>
       <c r="AN48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO48">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR48">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AS48">
-        <v>1.57</v>
+        <v>1.19</v>
       </c>
       <c r="AT48">
-        <v>2.85</v>
+        <v>2.44</v>
       </c>
       <c r="AU48">
         <v>7</v>
@@ -11036,7 +11045,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11108,25 +11117,25 @@
         <v>1.35</v>
       </c>
       <c r="AN49">
-        <v>0.75</v>
+        <v>3</v>
       </c>
       <c r="AO49">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AQ49">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="AR49">
-        <v>1.01</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AS49">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AT49">
-        <v>2.23</v>
+        <v>2.09</v>
       </c>
       <c r="AU49">
         <v>4</v>
@@ -11242,7 +11251,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11314,25 +11323,25 @@
         <v>1.45</v>
       </c>
       <c r="AN50">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO50">
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AR50">
-        <v>1.59</v>
+        <v>1.3</v>
       </c>
       <c r="AS50">
-        <v>1.12</v>
+        <v>1.37</v>
       </c>
       <c r="AT50">
-        <v>2.71</v>
+        <v>2.67</v>
       </c>
       <c r="AU50">
         <v>7</v>
@@ -11448,7 +11457,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11520,25 +11529,25 @@
         <v>1.52</v>
       </c>
       <c r="AN51">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP51">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AQ51">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AR51">
-        <v>1.41</v>
+        <v>1.83</v>
       </c>
       <c r="AS51">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="AT51">
-        <v>2.77</v>
+        <v>3</v>
       </c>
       <c r="AU51">
         <v>8</v>
@@ -11654,7 +11663,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -11726,25 +11735,25 @@
         <v>1.35</v>
       </c>
       <c r="AN52">
-        <v>1.2</v>
+        <v>1.67</v>
       </c>
       <c r="AO52">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AR52">
-        <v>1.28</v>
+        <v>1.42</v>
       </c>
       <c r="AS52">
-        <v>1.37</v>
+        <v>1.12</v>
       </c>
       <c r="AT52">
-        <v>2.65</v>
+        <v>2.54</v>
       </c>
       <c r="AU52">
         <v>4</v>
@@ -11932,25 +11941,25 @@
         <v>1.35</v>
       </c>
       <c r="AN53">
-        <v>1.6</v>
+        <v>2.33</v>
       </c>
       <c r="AO53">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ53">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="AR53">
-        <v>1.55</v>
+        <v>1.32</v>
       </c>
       <c r="AS53">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AT53">
-        <v>2.88</v>
+        <v>2.67</v>
       </c>
       <c r="AU53">
         <v>6</v>
@@ -12138,25 +12147,25 @@
         <v>1.65</v>
       </c>
       <c r="AN54">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="AO54">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.57</v>
+        <v>0.83</v>
       </c>
       <c r="AR54">
-        <v>1.31</v>
+        <v>2.1</v>
       </c>
       <c r="AS54">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="AT54">
-        <v>2.97</v>
+        <v>3.82</v>
       </c>
       <c r="AU54">
         <v>2</v>
@@ -12272,7 +12281,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12344,25 +12353,25 @@
         <v>1.83</v>
       </c>
       <c r="AN55">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AO55">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="AQ55">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR55">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AS55">
-        <v>1.54</v>
+        <v>1.02</v>
       </c>
       <c r="AT55">
-        <v>2.84</v>
+        <v>2.44</v>
       </c>
       <c r="AU55">
         <v>6</v>
@@ -12550,25 +12559,25 @@
         <v>1.57</v>
       </c>
       <c r="AN56">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO56">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AQ56">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AR56">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="AS56">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="AT56">
-        <v>2.88</v>
+        <v>2.46</v>
       </c>
       <c r="AU56">
         <v>3</v>
@@ -12756,25 +12765,25 @@
         <v>1.75</v>
       </c>
       <c r="AN57">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO57">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR57">
-        <v>1.1</v>
+        <v>0.86</v>
       </c>
       <c r="AS57">
-        <v>1.53</v>
+        <v>1.29</v>
       </c>
       <c r="AT57">
-        <v>2.63</v>
+        <v>2.15</v>
       </c>
       <c r="AU57">
         <v>4</v>
@@ -12962,25 +12971,25 @@
         <v>1.75</v>
       </c>
       <c r="AN58">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AO58">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="AQ58">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AR58">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="AS58">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AT58">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="AU58">
         <v>6</v>
@@ -13096,7 +13105,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13168,25 +13177,25 @@
         <v>1.57</v>
       </c>
       <c r="AN59">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AO59">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ59">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AR59">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="AS59">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="AT59">
-        <v>2.83</v>
+        <v>3.21</v>
       </c>
       <c r="AU59">
         <v>7</v>
@@ -13374,25 +13383,25 @@
         <v>1.67</v>
       </c>
       <c r="AN60">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="AO60">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.21</v>
+        <v>2.33</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR60">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="AS60">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AT60">
-        <v>2.23</v>
+        <v>2.16</v>
       </c>
       <c r="AU60">
         <v>8</v>
@@ -13508,7 +13517,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13580,25 +13589,25 @@
         <v>2.1</v>
       </c>
       <c r="AN61">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="AP61">
-        <v>2.08</v>
+        <v>2.71</v>
       </c>
       <c r="AQ61">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="AR61">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="AS61">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AT61">
-        <v>2.29</v>
+        <v>2.46</v>
       </c>
       <c r="AU61">
         <v>12</v>
@@ -13714,7 +13723,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -13786,25 +13795,25 @@
         <v>1.45</v>
       </c>
       <c r="AN62">
+        <v>1</v>
+      </c>
+      <c r="AO62">
+        <v>0</v>
+      </c>
+      <c r="AP62">
+        <v>0.67</v>
+      </c>
+      <c r="AQ62">
+        <v>0.71</v>
+      </c>
+      <c r="AR62">
         <v>1.33</v>
       </c>
-      <c r="AO62">
-        <v>0.5</v>
-      </c>
-      <c r="AP62">
-        <v>1</v>
-      </c>
-      <c r="AQ62">
-        <v>0.77</v>
-      </c>
-      <c r="AR62">
-        <v>1.22</v>
-      </c>
       <c r="AS62">
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="AT62">
-        <v>2.57</v>
+        <v>2.35</v>
       </c>
       <c r="AU62">
         <v>5</v>
@@ -13992,25 +14001,25 @@
         <v>1.7</v>
       </c>
       <c r="AN63">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="AO63">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.21</v>
+        <v>2.29</v>
       </c>
       <c r="AQ63">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="AR63">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="AS63">
-        <v>1.44</v>
+        <v>1.1</v>
       </c>
       <c r="AT63">
-        <v>2.78</v>
+        <v>2.39</v>
       </c>
       <c r="AU63">
         <v>4</v>
@@ -14126,7 +14135,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>2.9</v>
@@ -14201,22 +14210,22 @@
         <v>1.33</v>
       </c>
       <c r="AO64">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="AS64">
-        <v>1.57</v>
+        <v>1.89</v>
       </c>
       <c r="AT64">
-        <v>3.17</v>
+        <v>3.33</v>
       </c>
       <c r="AU64">
         <v>2</v>
@@ -14404,25 +14413,25 @@
         <v>1.57</v>
       </c>
       <c r="AN65">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AO65">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AQ65">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="AR65">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AS65">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="AT65">
-        <v>2.47</v>
+        <v>2.41</v>
       </c>
       <c r="AU65">
         <v>7</v>
@@ -14538,7 +14547,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14610,25 +14619,25 @@
         <v>2</v>
       </c>
       <c r="AN66">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AO66">
-        <v>1.67</v>
+        <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>1.57</v>
+        <v>2.13</v>
       </c>
       <c r="AQ66">
-        <v>1.21</v>
+        <v>0.38</v>
       </c>
       <c r="AR66">
         <v>1.61</v>
       </c>
       <c r="AS66">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AT66">
-        <v>2.7</v>
+        <v>2.61</v>
       </c>
       <c r="AU66">
         <v>10</v>
@@ -14816,25 +14825,25 @@
         <v>1.4</v>
       </c>
       <c r="AN67">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO67">
+        <v>2</v>
+      </c>
+      <c r="AP67">
+        <v>1.14</v>
+      </c>
+      <c r="AQ67">
+        <v>1.57</v>
+      </c>
+      <c r="AR67">
+        <v>1.2</v>
+      </c>
+      <c r="AS67">
+        <v>1.13</v>
+      </c>
+      <c r="AT67">
         <v>2.33</v>
-      </c>
-      <c r="AP67">
-        <v>1.29</v>
-      </c>
-      <c r="AQ67">
-        <v>2</v>
-      </c>
-      <c r="AR67">
-        <v>1.08</v>
-      </c>
-      <c r="AS67">
-        <v>1.34</v>
-      </c>
-      <c r="AT67">
-        <v>2.42</v>
       </c>
       <c r="AU67">
         <v>7</v>
@@ -14950,7 +14959,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15022,25 +15031,25 @@
         <v>1.57</v>
       </c>
       <c r="AN68">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO68">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="AQ68">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AR68">
-        <v>1.3</v>
+        <v>1.55</v>
       </c>
       <c r="AS68">
-        <v>1.12</v>
+        <v>1.27</v>
       </c>
       <c r="AT68">
-        <v>2.42</v>
+        <v>2.82</v>
       </c>
       <c r="AU68">
         <v>6</v>
@@ -15228,25 +15237,25 @@
         <v>1.65</v>
       </c>
       <c r="AN69">
-        <v>1.17</v>
+        <v>2</v>
       </c>
       <c r="AO69">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AQ69">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="AS69">
-        <v>1.23</v>
+        <v>1.08</v>
       </c>
       <c r="AT69">
-        <v>2.77</v>
+        <v>2.88</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15362,7 +15371,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15434,25 +15443,25 @@
         <v>1.45</v>
       </c>
       <c r="AN70">
+        <v>2</v>
+      </c>
+      <c r="AO70">
         <v>1.5</v>
       </c>
-      <c r="AO70">
-        <v>1.33</v>
-      </c>
       <c r="AP70">
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AS70">
-        <v>1.3</v>
+        <v>1.11</v>
       </c>
       <c r="AT70">
-        <v>2.73</v>
+        <v>2.81</v>
       </c>
       <c r="AU70">
         <v>6</v>
@@ -15568,7 +15577,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15640,25 +15649,25 @@
         <v>1.4</v>
       </c>
       <c r="AN71">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO71">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AR71">
-        <v>1.51</v>
+        <v>1.89</v>
       </c>
       <c r="AS71">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT71">
-        <v>2.89</v>
+        <v>3.11</v>
       </c>
       <c r="AU71">
         <v>8</v>
@@ -15774,7 +15783,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -15846,25 +15855,25 @@
         <v>1.95</v>
       </c>
       <c r="AN72">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AO72">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="AP72">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AQ72">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AR72">
-        <v>1.19</v>
+        <v>0.97</v>
       </c>
       <c r="AS72">
-        <v>1.14</v>
+        <v>1.03</v>
       </c>
       <c r="AT72">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -15980,7 +15989,7 @@
         <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16052,25 +16061,25 @@
         <v>1.83</v>
       </c>
       <c r="AN73">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AO73">
+        <v>0</v>
+      </c>
+      <c r="AP73">
+        <v>0.71</v>
+      </c>
+      <c r="AQ73">
         <v>0.57</v>
       </c>
-      <c r="AP73">
-        <v>0.77</v>
-      </c>
-      <c r="AQ73">
-        <v>1.14</v>
-      </c>
       <c r="AR73">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="AS73">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="AT73">
-        <v>2.53</v>
+        <v>2.63</v>
       </c>
       <c r="AU73">
         <v>4</v>
@@ -16186,7 +16195,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16258,25 +16267,25 @@
         <v>1.9</v>
       </c>
       <c r="AN74">
-        <v>1.71</v>
+        <v>1.33</v>
       </c>
       <c r="AO74">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="AP74">
-        <v>2.21</v>
+        <v>2.29</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR74">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AS74">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT74">
-        <v>2.6</v>
+        <v>2.46</v>
       </c>
       <c r="AU74">
         <v>7</v>
@@ -16464,25 +16473,25 @@
         <v>1.9</v>
       </c>
       <c r="AN75">
-        <v>1.86</v>
+        <v>3</v>
       </c>
       <c r="AO75">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.08</v>
+        <v>2.71</v>
       </c>
       <c r="AQ75">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="AR75">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="AS75">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="AT75">
-        <v>2.69</v>
+        <v>3.04</v>
       </c>
       <c r="AU75">
         <v>2</v>
@@ -16598,7 +16607,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -16670,25 +16679,25 @@
         <v>1.57</v>
       </c>
       <c r="AN76">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO76">
-        <v>1.57</v>
+        <v>0.33</v>
       </c>
       <c r="AP76">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="AQ76">
-        <v>1.57</v>
+        <v>0.83</v>
       </c>
       <c r="AR76">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
       <c r="AS76">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AT76">
-        <v>2.91</v>
+        <v>3.04</v>
       </c>
       <c r="AU76">
         <v>4</v>
@@ -16804,7 +16813,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -16876,25 +16885,25 @@
         <v>1.57</v>
       </c>
       <c r="AN77">
-        <v>1.29</v>
+        <v>1.75</v>
       </c>
       <c r="AO77">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR77">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AS77">
-        <v>1.44</v>
+        <v>1.16</v>
       </c>
       <c r="AT77">
-        <v>2.94</v>
+        <v>2.57</v>
       </c>
       <c r="AU77">
         <v>9</v>
@@ -17010,7 +17019,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17082,25 +17091,25 @@
         <v>1.53</v>
       </c>
       <c r="AN78">
-        <v>1.43</v>
+        <v>3</v>
       </c>
       <c r="AO78">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.21</v>
+        <v>2.33</v>
       </c>
       <c r="AQ78">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR78">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="AS78">
-        <v>1.51</v>
+        <v>1.13</v>
       </c>
       <c r="AT78">
-        <v>2.67</v>
+        <v>2.31</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17216,7 +17225,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17288,25 +17297,25 @@
         <v>1.85</v>
       </c>
       <c r="AN79">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="AO79">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AQ79">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AR79">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="AS79">
-        <v>1.48</v>
+        <v>1.75</v>
       </c>
       <c r="AT79">
-        <v>2.97</v>
+        <v>3.28</v>
       </c>
       <c r="AU79">
         <v>6</v>
@@ -17422,7 +17431,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17494,25 +17503,25 @@
         <v>1.45</v>
       </c>
       <c r="AN80">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO80">
-        <v>1.14</v>
+        <v>0.67</v>
       </c>
       <c r="AP80">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ80">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="AR80">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AS80">
-        <v>1.29</v>
+        <v>1.04</v>
       </c>
       <c r="AT80">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="AU80">
         <v>4</v>
@@ -17700,25 +17709,25 @@
         <v>1.8</v>
       </c>
       <c r="AN81">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AO81">
-        <v>1.14</v>
+        <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AR81">
-        <v>1.25</v>
+        <v>1.68</v>
       </c>
       <c r="AS81">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="AT81">
-        <v>2.78</v>
+        <v>2.95</v>
       </c>
       <c r="AU81">
         <v>5</v>
@@ -17909,22 +17918,22 @@
         <v>1.25</v>
       </c>
       <c r="AO82">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AR82">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AS82">
-        <v>1.11</v>
+        <v>0.86</v>
       </c>
       <c r="AT82">
-        <v>2.58</v>
+        <v>2.14</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -18040,7 +18049,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18115,22 +18124,22 @@
         <v>1.5</v>
       </c>
       <c r="AO83">
-        <v>2.13</v>
+        <v>1.33</v>
       </c>
       <c r="AP83">
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AR83">
-        <v>1.4</v>
+        <v>1.66</v>
       </c>
       <c r="AS83">
-        <v>1.24</v>
+        <v>1.05</v>
       </c>
       <c r="AT83">
-        <v>2.64</v>
+        <v>2.71</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18246,7 +18255,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18318,25 +18327,25 @@
         <v>1.45</v>
       </c>
       <c r="AN84">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AO84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP84">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AQ84">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="AR84">
-        <v>1.45</v>
+        <v>1.72</v>
       </c>
       <c r="AS84">
-        <v>1.3</v>
+        <v>1.06</v>
       </c>
       <c r="AT84">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18524,25 +18533,25 @@
         <v>1.53</v>
       </c>
       <c r="AN85">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO85">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ85">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR85">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="AS85">
         <v>1.63</v>
       </c>
       <c r="AT85">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="AU85">
         <v>7</v>
@@ -18658,7 +18667,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18730,25 +18739,25 @@
         <v>1.55</v>
       </c>
       <c r="AN86">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="AO86">
-        <v>1.38</v>
+        <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="AQ86">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AR86">
-        <v>1.24</v>
+        <v>1.48</v>
       </c>
       <c r="AS86">
-        <v>1.28</v>
+        <v>1.08</v>
       </c>
       <c r="AT86">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="AU86">
         <v>5</v>
@@ -18864,7 +18873,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -18936,25 +18945,25 @@
         <v>1.5</v>
       </c>
       <c r="AN87">
-        <v>1.63</v>
+        <v>2.25</v>
       </c>
       <c r="AO87">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AQ87">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="AR87">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AS87">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AT87">
-        <v>2.74</v>
+        <v>3.16</v>
       </c>
       <c r="AU87">
         <v>9</v>
@@ -19070,7 +19079,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19142,25 +19151,25 @@
         <v>1.35</v>
       </c>
       <c r="AN88">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO88">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AP88">
+        <v>1.14</v>
+      </c>
+      <c r="AQ88">
+        <v>1.43</v>
+      </c>
+      <c r="AR88">
         <v>1.29</v>
       </c>
-      <c r="AQ88">
-        <v>1.38</v>
-      </c>
-      <c r="AR88">
-        <v>1.14</v>
-      </c>
       <c r="AS88">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT88">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="AU88">
         <v>4</v>
@@ -19276,7 +19285,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19348,25 +19357,25 @@
         <v>1.75</v>
       </c>
       <c r="AN89">
-        <v>0.88</v>
+        <v>1.33</v>
       </c>
       <c r="AO89">
-        <v>1.38</v>
+        <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AQ89">
+        <v>0.38</v>
+      </c>
+      <c r="AR89">
         <v>1.21</v>
       </c>
-      <c r="AR89">
-        <v>1.12</v>
-      </c>
       <c r="AS89">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AT89">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="AU89">
         <v>5</v>
@@ -19554,25 +19563,25 @@
         <v>1.52</v>
       </c>
       <c r="AN90">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AO90">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AQ90">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR90">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AS90">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="AT90">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="AU90">
         <v>5</v>
@@ -19688,7 +19697,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -19760,25 +19769,25 @@
         <v>1.63</v>
       </c>
       <c r="AN91">
-        <v>1.38</v>
+        <v>2.5</v>
       </c>
       <c r="AO91">
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>1.57</v>
+        <v>2.13</v>
       </c>
       <c r="AQ91">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AR91">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AS91">
-        <v>1.24</v>
+        <v>1.35</v>
       </c>
       <c r="AT91">
-        <v>2.8</v>
+        <v>3.02</v>
       </c>
       <c r="AU91">
         <v>5</v>
@@ -19966,25 +19975,25 @@
         <v>1.6</v>
       </c>
       <c r="AN92">
-        <v>2.11</v>
+        <v>3</v>
       </c>
       <c r="AO92">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>2.08</v>
+        <v>2.71</v>
       </c>
       <c r="AQ92">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
       <c r="AS92">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="AT92">
-        <v>2.77</v>
+        <v>3.18</v>
       </c>
       <c r="AU92">
         <v>6</v>
@@ -20172,25 +20181,25 @@
         <v>1.9</v>
       </c>
       <c r="AN93">
-        <v>1.22</v>
+        <v>2</v>
       </c>
       <c r="AO93">
-        <v>1.44</v>
+        <v>1</v>
       </c>
       <c r="AP93">
-        <v>1.57</v>
+        <v>2.13</v>
       </c>
       <c r="AQ93">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR93">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="AS93">
-        <v>1.48</v>
+        <v>1</v>
       </c>
       <c r="AT93">
-        <v>2.98</v>
+        <v>2.54</v>
       </c>
       <c r="AU93">
         <v>6</v>
@@ -20378,25 +20387,25 @@
         <v>1.7</v>
       </c>
       <c r="AN94">
-        <v>1.11</v>
+        <v>1.4</v>
       </c>
       <c r="AO94">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ94">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AR94">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="AS94">
-        <v>1.16</v>
+        <v>1.05</v>
       </c>
       <c r="AT94">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="AU94">
         <v>6</v>
@@ -20512,7 +20521,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q95">
         <v>2.4</v>
@@ -20584,25 +20593,25 @@
         <v>1.91</v>
       </c>
       <c r="AN95">
-        <v>1.56</v>
+        <v>1.25</v>
       </c>
       <c r="AO95">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AQ95">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AR95">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="AS95">
-        <v>1.48</v>
+        <v>1.17</v>
       </c>
       <c r="AT95">
-        <v>2.92</v>
+        <v>2.72</v>
       </c>
       <c r="AU95">
         <v>4</v>
@@ -20790,25 +20799,25 @@
         <v>2</v>
       </c>
       <c r="AN96">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO96">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="AR96">
-        <v>1.29</v>
+        <v>1.62</v>
       </c>
       <c r="AS96">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AT96">
-        <v>2.55</v>
+        <v>2.84</v>
       </c>
       <c r="AU96">
         <v>5</v>
@@ -20996,25 +21005,25 @@
         <v>1.85</v>
       </c>
       <c r="AN97">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO97">
-        <v>1.11</v>
+        <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>2.21</v>
+        <v>2.29</v>
       </c>
       <c r="AQ97">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="AR97">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AS97">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="AT97">
-        <v>2.68</v>
+        <v>2.33</v>
       </c>
       <c r="AU97">
         <v>6</v>
@@ -21202,25 +21211,25 @@
         <v>1.53</v>
       </c>
       <c r="AN98">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AO98">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP98">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR98">
-        <v>1.15</v>
+        <v>1.24</v>
       </c>
       <c r="AS98">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AT98">
-        <v>2.48</v>
+        <v>2.41</v>
       </c>
       <c r="AU98">
         <v>5</v>
@@ -21408,25 +21417,25 @@
         <v>1.53</v>
       </c>
       <c r="AN99">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AO99">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ99">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR99">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AS99">
-        <v>1.35</v>
+        <v>1.13</v>
       </c>
       <c r="AT99">
-        <v>2.55</v>
+        <v>2.39</v>
       </c>
       <c r="AU99">
         <v>7</v>
@@ -21614,25 +21623,25 @@
         <v>1.47</v>
       </c>
       <c r="AN100">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AO100">
-        <v>2.22</v>
+        <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ100">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AR100">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="AS100">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="AT100">
-        <v>2.57</v>
+        <v>2.54</v>
       </c>
       <c r="AU100">
         <v>4</v>
@@ -21820,25 +21829,25 @@
         <v>2</v>
       </c>
       <c r="AN101">
-        <v>1.22</v>
+        <v>1</v>
       </c>
       <c r="AO101">
-        <v>1.33</v>
+        <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AQ101">
-        <v>1.21</v>
+        <v>0.38</v>
       </c>
       <c r="AR101">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="AS101">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="AT101">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AU101">
         <v>8</v>
@@ -22029,22 +22038,22 @@
         <v>1.2</v>
       </c>
       <c r="AO102">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="AP102">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ102">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="AR102">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AS102">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AT102">
-        <v>2.51</v>
+        <v>2.37</v>
       </c>
       <c r="AU102">
         <v>7</v>
@@ -22160,7 +22169,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q103">
         <v>3.3</v>
@@ -22232,25 +22241,25 @@
         <v>1.44</v>
       </c>
       <c r="AN103">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="AO103">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AQ103">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="AR103">
-        <v>1.47</v>
+        <v>1.86</v>
       </c>
       <c r="AS103">
-        <v>1.35</v>
+        <v>1.14</v>
       </c>
       <c r="AT103">
-        <v>2.82</v>
+        <v>3</v>
       </c>
       <c r="AU103">
         <v>4</v>
@@ -22366,7 +22375,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22441,22 +22450,22 @@
         <v>1.5</v>
       </c>
       <c r="AO104">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AP104">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AQ104">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="AR104">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="AS104">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AT104">
-        <v>2.58</v>
+        <v>2.77</v>
       </c>
       <c r="AU104">
         <v>8</v>
@@ -22572,7 +22581,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -22644,25 +22653,25 @@
         <v>1.45</v>
       </c>
       <c r="AN105">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AO105">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AP105">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="AQ105">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AR105">
-        <v>1.28</v>
+        <v>1.48</v>
       </c>
       <c r="AS105">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AT105">
-        <v>2.67</v>
+        <v>2.84</v>
       </c>
       <c r="AU105">
         <v>9</v>
@@ -22850,25 +22859,25 @@
         <v>1.5</v>
       </c>
       <c r="AN106">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AO106">
-        <v>1.1</v>
+        <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>1.07</v>
+        <v>1.29</v>
       </c>
       <c r="AQ106">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AS106">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AT106">
-        <v>2.77</v>
+        <v>2.73</v>
       </c>
       <c r="AU106">
         <v>3</v>
@@ -22984,7 +22993,7 @@
         <v>131</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23056,25 +23065,25 @@
         <v>1.45</v>
       </c>
       <c r="AN107">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AO107">
-        <v>1.4</v>
+        <v>0.25</v>
       </c>
       <c r="AP107">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AQ107">
-        <v>1.57</v>
+        <v>0.83</v>
       </c>
       <c r="AR107">
-        <v>1.42</v>
+        <v>1.73</v>
       </c>
       <c r="AS107">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT107">
-        <v>2.92</v>
+        <v>3.19</v>
       </c>
       <c r="AU107">
         <v>4</v>
@@ -23190,7 +23199,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>3.1</v>
@@ -23265,22 +23274,22 @@
         <v>1.2</v>
       </c>
       <c r="AO108">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AP108">
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR108">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="AS108">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AT108">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="AU108">
         <v>6</v>
@@ -23468,25 +23477,25 @@
         <v>1.36</v>
       </c>
       <c r="AN109">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="AO109">
         <v>1.4</v>
       </c>
       <c r="AP109">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ109">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AR109">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="AS109">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AT109">
-        <v>2.62</v>
+        <v>2.83</v>
       </c>
       <c r="AU109">
         <v>2</v>
@@ -23674,25 +23683,25 @@
         <v>1.42</v>
       </c>
       <c r="AN110">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="AO110">
+        <v>1.67</v>
+      </c>
+      <c r="AP110">
+        <v>2.33</v>
+      </c>
+      <c r="AQ110">
         <v>1.5</v>
       </c>
-      <c r="AP110">
-        <v>1.21</v>
-      </c>
-      <c r="AQ110">
-        <v>1.31</v>
-      </c>
       <c r="AR110">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="AS110">
-        <v>1.32</v>
+        <v>1.13</v>
       </c>
       <c r="AT110">
-        <v>2.49</v>
+        <v>2.45</v>
       </c>
       <c r="AU110">
         <v>3</v>
@@ -23880,22 +23889,22 @@
         <v>1.85</v>
       </c>
       <c r="AN111">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="AO111">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AP111">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="AQ111">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AR111">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="AS111">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AT111">
         <v>2.48</v>
@@ -24086,25 +24095,25 @@
         <v>1.66</v>
       </c>
       <c r="AN112">
-        <v>1.91</v>
+        <v>2.6</v>
       </c>
       <c r="AO112">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AP112">
-        <v>2.08</v>
+        <v>2.71</v>
       </c>
       <c r="AQ112">
+        <v>0.57</v>
+      </c>
+      <c r="AR112">
+        <v>1.57</v>
+      </c>
+      <c r="AS112">
         <v>1.07</v>
       </c>
-      <c r="AR112">
-        <v>1.34</v>
-      </c>
-      <c r="AS112">
-        <v>1.33</v>
-      </c>
       <c r="AT112">
-        <v>2.67</v>
+        <v>2.64</v>
       </c>
       <c r="AU112">
         <v>4</v>
@@ -24220,7 +24229,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24292,25 +24301,25 @@
         <v>1.75</v>
       </c>
       <c r="AN113">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AO113">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AQ113">
-        <v>1.07</v>
+        <v>0.86</v>
       </c>
       <c r="AR113">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="AS113">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="AT113">
-        <v>2.6</v>
+        <v>2.53</v>
       </c>
       <c r="AU113">
         <v>6</v>
@@ -24498,25 +24507,25 @@
         <v>1.5</v>
       </c>
       <c r="AN114">
-        <v>1.09</v>
+        <v>1.6</v>
       </c>
       <c r="AO114">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AQ114">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AR114">
-        <v>1.16</v>
+        <v>1.23</v>
       </c>
       <c r="AS114">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="AT114">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="AU114">
         <v>0</v>
@@ -24704,25 +24713,25 @@
         <v>1.62</v>
       </c>
       <c r="AN115">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="AO115">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="AP115">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ115">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AR115">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AS115">
-        <v>1.32</v>
+        <v>1.16</v>
       </c>
       <c r="AT115">
-        <v>2.5</v>
+        <v>2.42</v>
       </c>
       <c r="AU115">
         <v>4</v>
@@ -24910,25 +24919,25 @@
         <v>1.87</v>
       </c>
       <c r="AN116">
-        <v>1.36</v>
+        <v>2.17</v>
       </c>
       <c r="AO116">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AP116">
-        <v>1.57</v>
+        <v>2.13</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR116">
-        <v>1.42</v>
+        <v>1.53</v>
       </c>
       <c r="AS116">
-        <v>1.34</v>
+        <v>1.13</v>
       </c>
       <c r="AT116">
-        <v>2.76</v>
+        <v>2.66</v>
       </c>
       <c r="AU116">
         <v>5</v>
@@ -25044,7 +25053,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25116,25 +25125,25 @@
         <v>1.57</v>
       </c>
       <c r="AN117">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AO117">
-        <v>1.09</v>
+        <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ117">
-        <v>0.93</v>
+        <v>0.71</v>
       </c>
       <c r="AR117">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="AS117">
-        <v>1.39</v>
+        <v>1.12</v>
       </c>
       <c r="AT117">
-        <v>2.87</v>
+        <v>2.73</v>
       </c>
       <c r="AU117">
         <v>3</v>
@@ -25250,7 +25259,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25322,25 +25331,25 @@
         <v>1.7</v>
       </c>
       <c r="AN118">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AO118">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AP118">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AQ118">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="AR118">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="AS118">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AT118">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AU118">
         <v>3</v>
@@ -25528,25 +25537,25 @@
         <v>2</v>
       </c>
       <c r="AN119">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="AO119">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.31</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR119">
-        <v>1.31</v>
+        <v>1.61</v>
       </c>
       <c r="AS119">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="AT119">
-        <v>2.61</v>
+        <v>2.82</v>
       </c>
       <c r="AU119">
         <v>7</v>
@@ -25662,7 +25671,7 @@
         <v>102</v>
       </c>
       <c r="P120" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25734,25 +25743,25 @@
         <v>2</v>
       </c>
       <c r="AN120">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AO120">
-        <v>1.27</v>
+        <v>0.8</v>
       </c>
       <c r="AP120">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AQ120">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AR120">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AS120">
-        <v>1.44</v>
+        <v>1.08</v>
       </c>
       <c r="AT120">
-        <v>2.69</v>
+        <v>2.36</v>
       </c>
       <c r="AU120">
         <v>7</v>
@@ -25943,22 +25952,22 @@
         <v>2</v>
       </c>
       <c r="AO121">
-        <v>1.18</v>
+        <v>0.33</v>
       </c>
       <c r="AP121">
-        <v>2.21</v>
+        <v>2.29</v>
       </c>
       <c r="AQ121">
-        <v>1.21</v>
+        <v>0.38</v>
       </c>
       <c r="AR121">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="AS121">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="AT121">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="AU121">
         <v>8</v>
@@ -26074,7 +26083,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26146,25 +26155,25 @@
         <v>1.4</v>
       </c>
       <c r="AN122">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AO122">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AP122">
-        <v>0.77</v>
+        <v>0.71</v>
       </c>
       <c r="AQ122">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AR122">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="AS122">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="AT122">
-        <v>2.65</v>
+        <v>2.61</v>
       </c>
       <c r="AU122">
         <v>2</v>
@@ -26280,7 +26289,7 @@
         <v>102</v>
       </c>
       <c r="P123" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q123">
         <v>3.8</v>
@@ -26352,25 +26361,25 @@
         <v>1.3</v>
       </c>
       <c r="AN123">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AO123">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AP123">
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>2.21</v>
+        <v>2.14</v>
       </c>
       <c r="AR123">
-        <v>1.3</v>
+        <v>1.52</v>
       </c>
       <c r="AS123">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT123">
-        <v>2.74</v>
+        <v>2.94</v>
       </c>
       <c r="AU123">
         <v>3</v>
@@ -26558,25 +26567,25 @@
         <v>1.6</v>
       </c>
       <c r="AN124">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="AO124">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AP124">
-        <v>2</v>
+        <v>2.43</v>
       </c>
       <c r="AQ124">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="AR124">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AS124">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AT124">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="AU124">
         <v>6</v>
@@ -26764,25 +26773,25 @@
         <v>2</v>
       </c>
       <c r="AN125">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="AO125">
-        <v>1.08</v>
+        <v>0.67</v>
       </c>
       <c r="AP125">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="AQ125">
-        <v>1.14</v>
+        <v>0.57</v>
       </c>
       <c r="AR125">
-        <v>1.31</v>
+        <v>1.55</v>
       </c>
       <c r="AS125">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT125">
-        <v>2.43</v>
+        <v>2.66</v>
       </c>
       <c r="AU125">
         <v>4</v>
@@ -26898,7 +26907,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -26970,25 +26979,25 @@
         <v>1.55</v>
       </c>
       <c r="AN126">
-        <v>1.42</v>
+        <v>1.67</v>
       </c>
       <c r="AO126">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP126">
-        <v>1.29</v>
+        <v>1.43</v>
       </c>
       <c r="AQ126">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AR126">
-        <v>1.46</v>
+        <v>1.73</v>
       </c>
       <c r="AS126">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT126">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="AU126">
         <v>8</v>
@@ -27176,25 +27185,25 @@
         <v>1.25</v>
       </c>
       <c r="AN127">
-        <v>1.08</v>
+        <v>2.2</v>
       </c>
       <c r="AO127">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AP127">
-        <v>1.21</v>
+        <v>2.33</v>
       </c>
       <c r="AQ127">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AR127">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AS127">
         <v>1.36</v>
       </c>
       <c r="AT127">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AU127">
         <v>4</v>
@@ -27310,7 +27319,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27382,25 +27391,25 @@
         <v>1.38</v>
       </c>
       <c r="AN128">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AO128">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP128">
-        <v>1.29</v>
+        <v>1.14</v>
       </c>
       <c r="AQ128">
-        <v>2.08</v>
+        <v>1.57</v>
       </c>
       <c r="AR128">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AS128">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AT128">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
       <c r="AU128">
         <v>2</v>
@@ -27516,7 +27525,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -27588,25 +27597,25 @@
         <v>1.4</v>
       </c>
       <c r="AN129">
-        <v>1.08</v>
+        <v>0.8</v>
       </c>
       <c r="AO129">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AQ129">
-        <v>1.57</v>
+        <v>0.83</v>
       </c>
       <c r="AR129">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="AS129">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
       <c r="AT129">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="AU129">
         <v>3</v>
@@ -27722,7 +27731,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27794,25 +27803,25 @@
         <v>1.55</v>
       </c>
       <c r="AN130">
+        <v>1.33</v>
+      </c>
+      <c r="AO130">
+        <v>0.8</v>
+      </c>
+      <c r="AP130">
+        <v>1.29</v>
+      </c>
+      <c r="AQ130">
+        <v>0.83</v>
+      </c>
+      <c r="AR130">
+        <v>1.24</v>
+      </c>
+      <c r="AS130">
         <v>1.08</v>
       </c>
-      <c r="AO130">
-        <v>1.17</v>
-      </c>
-      <c r="AP130">
-        <v>1.07</v>
-      </c>
-      <c r="AQ130">
-        <v>1.14</v>
-      </c>
-      <c r="AR130">
-        <v>1.27</v>
-      </c>
-      <c r="AS130">
-        <v>1.18</v>
-      </c>
       <c r="AT130">
-        <v>2.45</v>
+        <v>2.32</v>
       </c>
       <c r="AU130">
         <v>4</v>
@@ -27928,7 +27937,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28000,25 +28009,25 @@
         <v>1.53</v>
       </c>
       <c r="AN131">
-        <v>1.08</v>
+        <v>1.33</v>
       </c>
       <c r="AO131">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>0.93</v>
+        <v>1.14</v>
       </c>
       <c r="AQ131">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
-        <v>1.34</v>
+        <v>1.62</v>
       </c>
       <c r="AS131">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="AT131">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="AU131">
         <v>6</v>
@@ -28101,7 +28110,7 @@
         <v>69</v>
       </c>
       <c r="E132" s="2">
-        <v>45617.875</v>
+        <v>45618.6875</v>
       </c>
       <c r="F132">
         <v>14</v>
@@ -28134,7 +28143,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28206,43 +28215,43 @@
         <v>1.5</v>
       </c>
       <c r="AN132">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AO132">
-        <v>1.08</v>
+        <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AQ132">
+        <v>0.57</v>
+      </c>
+      <c r="AR132">
+        <v>1.56</v>
+      </c>
+      <c r="AS132">
         <v>1.07</v>
       </c>
-      <c r="AR132">
-        <v>1.46</v>
-      </c>
-      <c r="AS132">
-        <v>1.3</v>
-      </c>
       <c r="AT132">
-        <v>2.76</v>
+        <v>2.63</v>
       </c>
       <c r="AU132">
+        <v>5</v>
+      </c>
+      <c r="AV132">
+        <v>3</v>
+      </c>
+      <c r="AW132">
+        <v>8</v>
+      </c>
+      <c r="AX132">
+        <v>3</v>
+      </c>
+      <c r="AY132">
+        <v>13</v>
+      </c>
+      <c r="AZ132">
         <v>6</v>
-      </c>
-      <c r="AV132">
-        <v>4</v>
-      </c>
-      <c r="AW132">
-        <v>10</v>
-      </c>
-      <c r="AX132">
-        <v>4</v>
-      </c>
-      <c r="AY132">
-        <v>27</v>
-      </c>
-      <c r="AZ132">
-        <v>9</v>
       </c>
       <c r="BA132">
         <v>10</v>
@@ -28298,7 +28307,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7509715</v>
+        <v>7509710</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28307,16 +28316,16 @@
         <v>69</v>
       </c>
       <c r="E133" s="2">
-        <v>45619.45833333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F133">
         <v>14</v>
       </c>
       <c r="G133" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H133" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -28328,175 +28337,175 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N133">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O133" t="s">
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="Q133">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="R133">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S133">
         <v>4.75</v>
       </c>
       <c r="T133">
+        <v>1.44</v>
+      </c>
+      <c r="U133">
+        <v>2.63</v>
+      </c>
+      <c r="V133">
+        <v>3.25</v>
+      </c>
+      <c r="W133">
         <v>1.33</v>
       </c>
-      <c r="U133">
-        <v>3.25</v>
-      </c>
-      <c r="V133">
-        <v>2.63</v>
-      </c>
-      <c r="W133">
-        <v>1.44</v>
-      </c>
       <c r="X133">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y133">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z133">
-        <v>2.01</v>
+        <v>1.94</v>
       </c>
       <c r="AA133">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="AB133">
-        <v>4.29</v>
+        <v>3.5</v>
       </c>
       <c r="AC133">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD133">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AE133">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AF133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG133">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AH133">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AI133">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AJ133">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AK133">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AL133">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM133">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AN133">
-        <v>2.15</v>
+        <v>2.29</v>
       </c>
       <c r="AO133">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP133">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="AQ133">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AR133">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="AS133">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
       <c r="AT133">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="AU133">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV133">
         <v>4</v>
       </c>
       <c r="AW133">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY133">
         <v>24</v>
       </c>
       <c r="AZ133">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA133">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BB133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC133">
+        <v>13</v>
+      </c>
+      <c r="BD133">
+        <v>1.64</v>
+      </c>
+      <c r="BE133">
         <v>8</v>
       </c>
-      <c r="BD133">
-        <v>1.45</v>
-      </c>
-      <c r="BE133">
-        <v>8.5</v>
-      </c>
       <c r="BF133">
-        <v>3.33</v>
+        <v>2.77</v>
       </c>
       <c r="BG133">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BH133">
-        <v>3.35</v>
+        <v>2.73</v>
       </c>
       <c r="BI133">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="BJ133">
-        <v>2.38</v>
+        <v>2.04</v>
       </c>
       <c r="BK133">
-        <v>1.98</v>
+        <v>2.15</v>
       </c>
       <c r="BL133">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="BM133">
-        <v>2.6</v>
+        <v>2.83</v>
       </c>
       <c r="BN133">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="BO133">
-        <v>3.6</v>
+        <v>3.88</v>
       </c>
       <c r="BP133">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28504,7 +28513,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7509713</v>
+        <v>7509709</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28519,190 +28528,190 @@
         <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H134" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N134">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O134" t="s">
-        <v>102</v>
+        <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="Q134">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S134">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="T134">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U134">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V134">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W134">
+        <v>1.36</v>
+      </c>
+      <c r="X134">
+        <v>8</v>
+      </c>
+      <c r="Y134">
+        <v>1.08</v>
+      </c>
+      <c r="Z134">
+        <v>1.82</v>
+      </c>
+      <c r="AA134">
+        <v>3.19</v>
+      </c>
+      <c r="AB134">
+        <v>3.79</v>
+      </c>
+      <c r="AC134">
+        <v>1.06</v>
+      </c>
+      <c r="AD134">
+        <v>8.5</v>
+      </c>
+      <c r="AE134">
         <v>1.3</v>
       </c>
-      <c r="X134">
-        <v>10</v>
-      </c>
-      <c r="Y134">
-        <v>1.06</v>
-      </c>
-      <c r="Z134">
-        <v>2.23</v>
-      </c>
-      <c r="AA134">
-        <v>3.06</v>
-      </c>
-      <c r="AB134">
-        <v>3.06</v>
-      </c>
-      <c r="AC134">
-        <v>1.09</v>
-      </c>
-      <c r="AD134">
-        <v>7</v>
-      </c>
-      <c r="AE134">
-        <v>1.4</v>
-      </c>
       <c r="AF134">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AG134">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH134">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AI134">
+        <v>1.8</v>
+      </c>
+      <c r="AJ134">
         <v>1.95</v>
       </c>
-      <c r="AJ134">
-        <v>1.8</v>
-      </c>
       <c r="AK134">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AL134">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM134">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AN134">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AO134">
-        <v>1.31</v>
+        <v>0.29</v>
       </c>
       <c r="AP134">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AQ134">
-        <v>1.29</v>
+        <v>0.38</v>
       </c>
       <c r="AR134">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AS134">
-        <v>1.48</v>
+        <v>1.08</v>
       </c>
       <c r="AT134">
-        <v>2.66</v>
+        <v>2.34</v>
       </c>
       <c r="AU134">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV134">
         <v>5</v>
       </c>
       <c r="AW134">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX134">
+        <v>2</v>
+      </c>
+      <c r="AY134">
+        <v>9</v>
+      </c>
+      <c r="AZ134">
         <v>7</v>
-      </c>
-      <c r="AY134">
-        <v>17</v>
-      </c>
-      <c r="AZ134">
-        <v>20</v>
       </c>
       <c r="BA134">
         <v>8</v>
       </c>
       <c r="BB134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC134">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD134">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="BE134">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF134">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="BG134">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="BH134">
-        <v>2.98</v>
+        <v>2.73</v>
       </c>
       <c r="BI134">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="BJ134">
-        <v>2.19</v>
+        <v>2.04</v>
       </c>
       <c r="BK134">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="BL134">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="BM134">
-        <v>2.6</v>
+        <v>2.83</v>
       </c>
       <c r="BN134">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="BO134">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="BP134">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28710,7 +28719,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7509708</v>
+        <v>7509713</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28725,10 +28734,10 @@
         <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H135" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -28740,55 +28749,55 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M135">
         <v>0</v>
       </c>
       <c r="N135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O135" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="P135" t="s">
         <v>102</v>
       </c>
       <c r="Q135">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="R135">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T135">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U135">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V135">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="W135">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="X135">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y135">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z135">
-        <v>3.2</v>
+        <v>2.23</v>
       </c>
       <c r="AA135">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="AB135">
-        <v>2.18</v>
+        <v>3.06</v>
       </c>
       <c r="AC135">
         <v>1.09</v>
@@ -28797,118 +28806,118 @@
         <v>7</v>
       </c>
       <c r="AE135">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AF135">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="AG135">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="AH135">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AI135">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AJ135">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AK135">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="AL135">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM135">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AN135">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO135">
-        <v>2.15</v>
+        <v>1.17</v>
       </c>
       <c r="AP135">
         <v>1.14</v>
       </c>
       <c r="AQ135">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AR135">
-        <v>1.1</v>
+        <v>1.28</v>
       </c>
       <c r="AS135">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AT135">
-        <v>2.36</v>
+        <v>2.47</v>
       </c>
       <c r="AU135">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV135">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW135">
         <v>5</v>
       </c>
       <c r="AX135">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AY135">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ135">
+        <v>20</v>
+      </c>
+      <c r="BA135">
+        <v>8</v>
+      </c>
+      <c r="BB135">
         <v>5</v>
       </c>
-      <c r="BA135">
-        <v>6</v>
-      </c>
-      <c r="BB135">
-        <v>2</v>
-      </c>
       <c r="BC135">
+        <v>13</v>
+      </c>
+      <c r="BD135">
+        <v>1.82</v>
+      </c>
+      <c r="BE135">
         <v>8</v>
       </c>
-      <c r="BD135">
-        <v>2.1</v>
-      </c>
-      <c r="BE135">
-        <v>7.5</v>
-      </c>
       <c r="BF135">
-        <v>1.95</v>
+        <v>2.39</v>
       </c>
       <c r="BG135">
+        <v>1.34</v>
+      </c>
+      <c r="BH135">
+        <v>2.98</v>
+      </c>
+      <c r="BI135">
+        <v>1.6</v>
+      </c>
+      <c r="BJ135">
+        <v>2.19</v>
+      </c>
+      <c r="BK135">
+        <v>2</v>
+      </c>
+      <c r="BL135">
+        <v>1.72</v>
+      </c>
+      <c r="BM135">
+        <v>2.6</v>
+      </c>
+      <c r="BN135">
         <v>1.44</v>
       </c>
-      <c r="BH135">
-        <v>2.6</v>
-      </c>
-      <c r="BI135">
-        <v>1.75</v>
-      </c>
-      <c r="BJ135">
-        <v>1.96</v>
-      </c>
-      <c r="BK135">
-        <v>2.24</v>
-      </c>
-      <c r="BL135">
-        <v>1.57</v>
-      </c>
-      <c r="BM135">
-        <v>3</v>
-      </c>
-      <c r="BN135">
-        <v>1.34</v>
-      </c>
       <c r="BO135">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="BP135">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="136" spans="1:68">
@@ -28916,7 +28925,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7509709</v>
+        <v>7509715</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -28931,25 +28940,25 @@
         <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="H136" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="I136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L136">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M136">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N136">
         <v>4</v>
@@ -28958,163 +28967,163 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>239</v>
+        <v>102</v>
       </c>
       <c r="Q136">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="R136">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S136">
         <v>4.75</v>
       </c>
       <c r="T136">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U136">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V136">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W136">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X136">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y136">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="Z136">
-        <v>1.82</v>
+        <v>2.01</v>
       </c>
       <c r="AA136">
-        <v>3.19</v>
+        <v>2.65</v>
       </c>
       <c r="AB136">
-        <v>3.79</v>
+        <v>4.29</v>
       </c>
       <c r="AC136">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AD136">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE136">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AF136">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="AG136">
-        <v>2.01</v>
+        <v>1.7</v>
       </c>
       <c r="AH136">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AI136">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ136">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK136">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AL136">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AM136">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AN136">
-        <v>1.15</v>
+        <v>2.17</v>
       </c>
       <c r="AO136">
-        <v>1.23</v>
+        <v>0.83</v>
       </c>
       <c r="AP136">
-        <v>1.14</v>
+        <v>2.29</v>
       </c>
       <c r="AQ136">
-        <v>1.21</v>
+        <v>0.71</v>
       </c>
       <c r="AR136">
-        <v>1.23</v>
+        <v>1.46</v>
       </c>
       <c r="AS136">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="AT136">
-        <v>2.37</v>
+        <v>2.53</v>
       </c>
       <c r="AU136">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV136">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW136">
         <v>10</v>
       </c>
       <c r="AX136">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY136">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AZ136">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BA136">
+        <v>5</v>
+      </c>
+      <c r="BB136">
+        <v>3</v>
+      </c>
+      <c r="BC136">
         <v>8</v>
       </c>
-      <c r="BB136">
-        <v>3</v>
-      </c>
-      <c r="BC136">
-        <v>11</v>
-      </c>
       <c r="BD136">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="BE136">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="BF136">
-        <v>2.45</v>
+        <v>3.33</v>
       </c>
       <c r="BG136">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BH136">
-        <v>2.73</v>
+        <v>3.35</v>
       </c>
       <c r="BI136">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="BJ136">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="BK136">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="BL136">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="BM136">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="BN136">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="BO136">
-        <v>3.88</v>
+        <v>3.6</v>
       </c>
       <c r="BP136">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="137" spans="1:68">
@@ -29122,7 +29131,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7509710</v>
+        <v>7509708</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -29131,16 +29140,16 @@
         <v>69</v>
       </c>
       <c r="E137" s="2">
-        <v>45619.55208333334</v>
+        <v>45619.45833333334</v>
       </c>
       <c r="F137">
         <v>14</v>
       </c>
       <c r="G137" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H137" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -29155,172 +29164,996 @@
         <v>1</v>
       </c>
       <c r="M137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O137" t="s">
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>228</v>
+        <v>102</v>
       </c>
       <c r="Q137">
+        <v>4.33</v>
+      </c>
+      <c r="R137">
+        <v>1.95</v>
+      </c>
+      <c r="S137">
+        <v>3</v>
+      </c>
+      <c r="T137">
+        <v>1.53</v>
+      </c>
+      <c r="U137">
+        <v>2.38</v>
+      </c>
+      <c r="V137">
+        <v>3.75</v>
+      </c>
+      <c r="W137">
+        <v>1.25</v>
+      </c>
+      <c r="X137">
+        <v>11</v>
+      </c>
+      <c r="Y137">
+        <v>1.05</v>
+      </c>
+      <c r="Z137">
+        <v>3.2</v>
+      </c>
+      <c r="AA137">
+        <v>3.03</v>
+      </c>
+      <c r="AB137">
+        <v>2.18</v>
+      </c>
+      <c r="AC137">
+        <v>1.09</v>
+      </c>
+      <c r="AD137">
+        <v>7</v>
+      </c>
+      <c r="AE137">
+        <v>1.45</v>
+      </c>
+      <c r="AF137">
+        <v>2.65</v>
+      </c>
+      <c r="AG137">
+        <v>2.35</v>
+      </c>
+      <c r="AH137">
+        <v>1.53</v>
+      </c>
+      <c r="AI137">
+        <v>2.05</v>
+      </c>
+      <c r="AJ137">
+        <v>1.7</v>
+      </c>
+      <c r="AK137">
+        <v>1.66</v>
+      </c>
+      <c r="AL137">
+        <v>1.28</v>
+      </c>
+      <c r="AM137">
+        <v>1.3</v>
+      </c>
+      <c r="AN137">
+        <v>1.5</v>
+      </c>
+      <c r="AO137">
+        <v>1.83</v>
+      </c>
+      <c r="AP137">
+        <v>1.71</v>
+      </c>
+      <c r="AQ137">
+        <v>1.57</v>
+      </c>
+      <c r="AR137">
+        <v>1.13</v>
+      </c>
+      <c r="AS137">
+        <v>1.16</v>
+      </c>
+      <c r="AT137">
+        <v>2.29</v>
+      </c>
+      <c r="AU137">
+        <v>5</v>
+      </c>
+      <c r="AV137">
+        <v>0</v>
+      </c>
+      <c r="AW137">
+        <v>4</v>
+      </c>
+      <c r="AX137">
+        <v>2</v>
+      </c>
+      <c r="AY137">
+        <v>9</v>
+      </c>
+      <c r="AZ137">
+        <v>2</v>
+      </c>
+      <c r="BA137">
+        <v>6</v>
+      </c>
+      <c r="BB137">
+        <v>2</v>
+      </c>
+      <c r="BC137">
+        <v>8</v>
+      </c>
+      <c r="BD137">
+        <v>2.1</v>
+      </c>
+      <c r="BE137">
+        <v>7.5</v>
+      </c>
+      <c r="BF137">
+        <v>1.95</v>
+      </c>
+      <c r="BG137">
+        <v>1.44</v>
+      </c>
+      <c r="BH137">
         <v>2.6</v>
       </c>
-      <c r="R137">
+      <c r="BI137">
+        <v>1.75</v>
+      </c>
+      <c r="BJ137">
+        <v>1.96</v>
+      </c>
+      <c r="BK137">
+        <v>2.24</v>
+      </c>
+      <c r="BL137">
+        <v>1.57</v>
+      </c>
+      <c r="BM137">
+        <v>3</v>
+      </c>
+      <c r="BN137">
+        <v>1.34</v>
+      </c>
+      <c r="BO137">
+        <v>4.5</v>
+      </c>
+      <c r="BP137">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7509707</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45620.45833333334</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>71</v>
+      </c>
+      <c r="H138" t="s">
+        <v>87</v>
+      </c>
+      <c r="I138">
+        <v>3</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>5</v>
+      </c>
+      <c r="O138" t="s">
+        <v>175</v>
+      </c>
+      <c r="P138" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q138">
+        <v>2.6</v>
+      </c>
+      <c r="R138">
         <v>2.1</v>
       </c>
-      <c r="S137">
+      <c r="S138">
         <v>4.75</v>
       </c>
-      <c r="T137">
+      <c r="T138">
         <v>1.44</v>
       </c>
-      <c r="U137">
+      <c r="U138">
         <v>2.63</v>
       </c>
-      <c r="V137">
+      <c r="V138">
         <v>3.25</v>
       </c>
-      <c r="W137">
+      <c r="W138">
         <v>1.33</v>
       </c>
-      <c r="X137">
+      <c r="X138">
         <v>9</v>
       </c>
-      <c r="Y137">
+      <c r="Y138">
         <v>1.07</v>
       </c>
-      <c r="Z137">
-        <v>1.94</v>
-      </c>
-      <c r="AA137">
-        <v>3.05</v>
-      </c>
-      <c r="AB137">
+      <c r="Z138">
+        <v>1.92</v>
+      </c>
+      <c r="AA138">
+        <v>3.35</v>
+      </c>
+      <c r="AB138">
+        <v>3.55</v>
+      </c>
+      <c r="AC138">
+        <v>1.07</v>
+      </c>
+      <c r="AD138">
+        <v>8</v>
+      </c>
+      <c r="AE138">
+        <v>1.36</v>
+      </c>
+      <c r="AF138">
+        <v>3</v>
+      </c>
+      <c r="AG138">
+        <v>2.1</v>
+      </c>
+      <c r="AH138">
+        <v>1.67</v>
+      </c>
+      <c r="AI138">
+        <v>1.95</v>
+      </c>
+      <c r="AJ138">
+        <v>1.8</v>
+      </c>
+      <c r="AK138">
+        <v>1.18</v>
+      </c>
+      <c r="AL138">
+        <v>1.25</v>
+      </c>
+      <c r="AM138">
+        <v>1.87</v>
+      </c>
+      <c r="AN138">
+        <v>1.14</v>
+      </c>
+      <c r="AO138">
+        <v>1.29</v>
+      </c>
+      <c r="AP138">
+        <v>1.38</v>
+      </c>
+      <c r="AQ138">
+        <v>1.13</v>
+      </c>
+      <c r="AR138">
+        <v>1.4</v>
+      </c>
+      <c r="AS138">
+        <v>1.19</v>
+      </c>
+      <c r="AT138">
+        <v>2.59</v>
+      </c>
+      <c r="AU138">
+        <v>6</v>
+      </c>
+      <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>7</v>
+      </c>
+      <c r="AX138">
+        <v>7</v>
+      </c>
+      <c r="AY138">
+        <v>16</v>
+      </c>
+      <c r="AZ138">
+        <v>14</v>
+      </c>
+      <c r="BA138">
+        <v>7</v>
+      </c>
+      <c r="BB138">
+        <v>8</v>
+      </c>
+      <c r="BC138">
+        <v>15</v>
+      </c>
+      <c r="BD138">
+        <v>1.64</v>
+      </c>
+      <c r="BE138">
+        <v>8</v>
+      </c>
+      <c r="BF138">
+        <v>2.77</v>
+      </c>
+      <c r="BG138">
+        <v>1.31</v>
+      </c>
+      <c r="BH138">
+        <v>3.15</v>
+      </c>
+      <c r="BI138">
+        <v>1.55</v>
+      </c>
+      <c r="BJ138">
+        <v>2.29</v>
+      </c>
+      <c r="BK138">
+        <v>1.92</v>
+      </c>
+      <c r="BL138">
+        <v>1.79</v>
+      </c>
+      <c r="BM138">
+        <v>2.47</v>
+      </c>
+      <c r="BN138">
+        <v>1.48</v>
+      </c>
+      <c r="BO138">
+        <v>3.3</v>
+      </c>
+      <c r="BP138">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7509712</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45620.45833333334</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>82</v>
+      </c>
+      <c r="H139" t="s">
+        <v>75</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>176</v>
+      </c>
+      <c r="P139" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q139">
+        <v>2.4</v>
+      </c>
+      <c r="R139">
+        <v>2.1</v>
+      </c>
+      <c r="S139">
+        <v>5</v>
+      </c>
+      <c r="T139">
+        <v>1.44</v>
+      </c>
+      <c r="U139">
+        <v>2.63</v>
+      </c>
+      <c r="V139">
+        <v>3</v>
+      </c>
+      <c r="W139">
+        <v>1.36</v>
+      </c>
+      <c r="X139">
+        <v>9</v>
+      </c>
+      <c r="Y139">
+        <v>1.07</v>
+      </c>
+      <c r="Z139">
+        <v>1.8</v>
+      </c>
+      <c r="AA139">
         <v>3.5</v>
       </c>
-      <c r="AC137">
+      <c r="AB139">
+        <v>3.9</v>
+      </c>
+      <c r="AC139">
         <v>1.07</v>
       </c>
-      <c r="AD137">
+      <c r="AD139">
         <v>8</v>
       </c>
-      <c r="AE137">
-        <v>1.36</v>
-      </c>
-      <c r="AF137">
-        <v>3</v>
-      </c>
-      <c r="AG137">
+      <c r="AE139">
+        <v>1.33</v>
+      </c>
+      <c r="AF139">
+        <v>3.2</v>
+      </c>
+      <c r="AG139">
+        <v>2</v>
+      </c>
+      <c r="AH139">
+        <v>1.73</v>
+      </c>
+      <c r="AI139">
+        <v>1.95</v>
+      </c>
+      <c r="AJ139">
+        <v>1.8</v>
+      </c>
+      <c r="AK139">
+        <v>1.15</v>
+      </c>
+      <c r="AL139">
+        <v>1.22</v>
+      </c>
+      <c r="AM139">
+        <v>2</v>
+      </c>
+      <c r="AN139">
+        <v>1.33</v>
+      </c>
+      <c r="AO139">
+        <v>0.83</v>
+      </c>
+      <c r="AP139">
+        <v>1.57</v>
+      </c>
+      <c r="AQ139">
+        <v>0.71</v>
+      </c>
+      <c r="AR139">
+        <v>1.37</v>
+      </c>
+      <c r="AS139">
+        <v>1.15</v>
+      </c>
+      <c r="AT139">
+        <v>2.52</v>
+      </c>
+      <c r="AU139">
+        <v>7</v>
+      </c>
+      <c r="AV139">
+        <v>2</v>
+      </c>
+      <c r="AW139">
+        <v>7</v>
+      </c>
+      <c r="AX139">
+        <v>3</v>
+      </c>
+      <c r="AY139">
+        <v>17</v>
+      </c>
+      <c r="AZ139">
+        <v>13</v>
+      </c>
+      <c r="BA139">
+        <v>4</v>
+      </c>
+      <c r="BB139">
+        <v>3</v>
+      </c>
+      <c r="BC139">
+        <v>7</v>
+      </c>
+      <c r="BD139">
+        <v>1.75</v>
+      </c>
+      <c r="BE139">
+        <v>8</v>
+      </c>
+      <c r="BF139">
+        <v>2.52</v>
+      </c>
+      <c r="BG139">
+        <v>1.31</v>
+      </c>
+      <c r="BH139">
+        <v>3.15</v>
+      </c>
+      <c r="BI139">
+        <v>1.55</v>
+      </c>
+      <c r="BJ139">
+        <v>2.29</v>
+      </c>
+      <c r="BK139">
+        <v>1.92</v>
+      </c>
+      <c r="BL139">
+        <v>1.79</v>
+      </c>
+      <c r="BM139">
+        <v>2.47</v>
+      </c>
+      <c r="BN139">
+        <v>1.48</v>
+      </c>
+      <c r="BO139">
+        <v>3.3</v>
+      </c>
+      <c r="BP139">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7509716</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45620.45833333334</v>
+      </c>
+      <c r="F140">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>83</v>
+      </c>
+      <c r="H140" t="s">
+        <v>72</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>3</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>177</v>
+      </c>
+      <c r="P140" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q140">
+        <v>2.6</v>
+      </c>
+      <c r="R140">
+        <v>1.95</v>
+      </c>
+      <c r="S140">
+        <v>5.5</v>
+      </c>
+      <c r="T140">
+        <v>1.57</v>
+      </c>
+      <c r="U140">
+        <v>2.25</v>
+      </c>
+      <c r="V140">
+        <v>3.75</v>
+      </c>
+      <c r="W140">
+        <v>1.25</v>
+      </c>
+      <c r="X140">
+        <v>13</v>
+      </c>
+      <c r="Y140">
+        <v>1.04</v>
+      </c>
+      <c r="Z140">
+        <v>1.84</v>
+      </c>
+      <c r="AA140">
+        <v>3.15</v>
+      </c>
+      <c r="AB140">
+        <v>4.15</v>
+      </c>
+      <c r="AC140">
+        <v>1.1</v>
+      </c>
+      <c r="AD140">
+        <v>7</v>
+      </c>
+      <c r="AE140">
+        <v>1.5</v>
+      </c>
+      <c r="AF140">
+        <v>2.4</v>
+      </c>
+      <c r="AG140">
+        <v>2.5</v>
+      </c>
+      <c r="AH140">
+        <v>1.47</v>
+      </c>
+      <c r="AI140">
+        <v>2.25</v>
+      </c>
+      <c r="AJ140">
+        <v>1.57</v>
+      </c>
+      <c r="AK140">
+        <v>1.15</v>
+      </c>
+      <c r="AL140">
+        <v>1.28</v>
+      </c>
+      <c r="AM140">
+        <v>1.95</v>
+      </c>
+      <c r="AN140">
+        <v>2.67</v>
+      </c>
+      <c r="AO140">
+        <v>1</v>
+      </c>
+      <c r="AP140">
+        <v>2.71</v>
+      </c>
+      <c r="AQ140">
+        <v>0.86</v>
+      </c>
+      <c r="AR140">
+        <v>1.53</v>
+      </c>
+      <c r="AS140">
+        <v>1.09</v>
+      </c>
+      <c r="AT140">
+        <v>2.62</v>
+      </c>
+      <c r="AU140">
+        <v>7</v>
+      </c>
+      <c r="AV140">
+        <v>2</v>
+      </c>
+      <c r="AW140">
+        <v>6</v>
+      </c>
+      <c r="AX140">
+        <v>4</v>
+      </c>
+      <c r="AY140">
+        <v>19</v>
+      </c>
+      <c r="AZ140">
+        <v>8</v>
+      </c>
+      <c r="BA140">
+        <v>6</v>
+      </c>
+      <c r="BB140">
+        <v>0</v>
+      </c>
+      <c r="BC140">
+        <v>6</v>
+      </c>
+      <c r="BD140">
+        <v>1.37</v>
+      </c>
+      <c r="BE140">
+        <v>9</v>
+      </c>
+      <c r="BF140">
+        <v>3.7</v>
+      </c>
+      <c r="BG140">
+        <v>1.3</v>
+      </c>
+      <c r="BH140">
+        <v>3.35</v>
+      </c>
+      <c r="BI140">
+        <v>1.55</v>
+      </c>
+      <c r="BJ140">
+        <v>2.38</v>
+      </c>
+      <c r="BK140">
+        <v>1.92</v>
+      </c>
+      <c r="BL140">
+        <v>1.88</v>
+      </c>
+      <c r="BM140">
+        <v>2.6</v>
+      </c>
+      <c r="BN140">
+        <v>1.46</v>
+      </c>
+      <c r="BO140">
+        <v>3.6</v>
+      </c>
+      <c r="BP140">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7509714</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45620.55208333334</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>89</v>
+      </c>
+      <c r="H141" t="s">
+        <v>81</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>178</v>
+      </c>
+      <c r="P141" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q141">
+        <v>2.88</v>
+      </c>
+      <c r="R141">
         <v>2.1</v>
       </c>
-      <c r="AH137">
-        <v>1.65</v>
-      </c>
-      <c r="AI137">
+      <c r="S141">
+        <v>4</v>
+      </c>
+      <c r="T141">
+        <v>1.44</v>
+      </c>
+      <c r="U141">
+        <v>2.63</v>
+      </c>
+      <c r="V141">
+        <v>3.25</v>
+      </c>
+      <c r="W141">
+        <v>1.33</v>
+      </c>
+      <c r="X141">
+        <v>9</v>
+      </c>
+      <c r="Y141">
+        <v>1.07</v>
+      </c>
+      <c r="Z141">
+        <v>2.11</v>
+      </c>
+      <c r="AA141">
+        <v>3.16</v>
+      </c>
+      <c r="AB141">
+        <v>3.21</v>
+      </c>
+      <c r="AC141">
+        <v>1.07</v>
+      </c>
+      <c r="AD141">
+        <v>8</v>
+      </c>
+      <c r="AE141">
+        <v>1.33</v>
+      </c>
+      <c r="AF141">
+        <v>3.1</v>
+      </c>
+      <c r="AG141">
+        <v>2</v>
+      </c>
+      <c r="AH141">
+        <v>1.7</v>
+      </c>
+      <c r="AI141">
+        <v>1.8</v>
+      </c>
+      <c r="AJ141">
         <v>1.95</v>
       </c>
-      <c r="AJ137">
-        <v>1.8</v>
-      </c>
-      <c r="AK137">
-        <v>1.2</v>
-      </c>
-      <c r="AL137">
+      <c r="AK141">
+        <v>1.3</v>
+      </c>
+      <c r="AL141">
+        <v>1.28</v>
+      </c>
+      <c r="AM141">
+        <v>1.66</v>
+      </c>
+      <c r="AN141">
+        <v>1</v>
+      </c>
+      <c r="AO141">
+        <v>1.14</v>
+      </c>
+      <c r="AP141">
+        <v>1</v>
+      </c>
+      <c r="AQ141">
+        <v>1.13</v>
+      </c>
+      <c r="AR141">
+        <v>1.62</v>
+      </c>
+      <c r="AS141">
         <v>1.25</v>
       </c>
-      <c r="AM137">
-        <v>1.85</v>
-      </c>
-      <c r="AN137">
-        <v>1.62</v>
-      </c>
-      <c r="AO137">
-        <v>1.08</v>
-      </c>
-      <c r="AP137">
-        <v>1.57</v>
-      </c>
-      <c r="AQ137">
-        <v>1.07</v>
-      </c>
-      <c r="AR137">
-        <v>1.46</v>
-      </c>
-      <c r="AS137">
-        <v>1.24</v>
-      </c>
-      <c r="AT137">
-        <v>2.7</v>
-      </c>
-      <c r="AU137">
-        <v>10</v>
-      </c>
-      <c r="AV137">
+      <c r="AT141">
+        <v>2.87</v>
+      </c>
+      <c r="AU141">
+        <v>9</v>
+      </c>
+      <c r="AV141">
+        <v>3</v>
+      </c>
+      <c r="AW141">
+        <v>14</v>
+      </c>
+      <c r="AX141">
         <v>4</v>
       </c>
-      <c r="AW137">
-        <v>7</v>
-      </c>
-      <c r="AX137">
-        <v>3</v>
-      </c>
-      <c r="AY137">
-        <v>24</v>
-      </c>
-      <c r="AZ137">
+      <c r="AY141">
+        <v>27</v>
+      </c>
+      <c r="AZ141">
+        <v>9</v>
+      </c>
+      <c r="BA141">
+        <v>9</v>
+      </c>
+      <c r="BB141">
+        <v>2</v>
+      </c>
+      <c r="BC141">
+        <v>11</v>
+      </c>
+      <c r="BD141">
+        <v>1.82</v>
+      </c>
+      <c r="BE141">
         <v>8</v>
       </c>
-      <c r="BA137">
-        <v>11</v>
-      </c>
-      <c r="BB137">
-        <v>2</v>
-      </c>
-      <c r="BC137">
-        <v>13</v>
-      </c>
-      <c r="BD137">
-        <v>1.64</v>
-      </c>
-      <c r="BE137">
-        <v>8</v>
-      </c>
-      <c r="BF137">
-        <v>2.77</v>
-      </c>
-      <c r="BG137">
-        <v>1.4</v>
-      </c>
-      <c r="BH137">
-        <v>2.73</v>
-      </c>
-      <c r="BI137">
-        <v>1.69</v>
-      </c>
-      <c r="BJ137">
-        <v>2.04</v>
-      </c>
-      <c r="BK137">
-        <v>2.15</v>
-      </c>
-      <c r="BL137">
-        <v>1.62</v>
-      </c>
-      <c r="BM137">
-        <v>2.83</v>
-      </c>
-      <c r="BN137">
-        <v>1.37</v>
-      </c>
-      <c r="BO137">
-        <v>3.88</v>
-      </c>
-      <c r="BP137">
-        <v>1.21</v>
+      <c r="BF141">
+        <v>2.33</v>
+      </c>
+      <c r="BG141">
+        <v>1.31</v>
+      </c>
+      <c r="BH141">
+        <v>3.15</v>
+      </c>
+      <c r="BI141">
+        <v>1.55</v>
+      </c>
+      <c r="BJ141">
+        <v>2.29</v>
+      </c>
+      <c r="BK141">
+        <v>1.92</v>
+      </c>
+      <c r="BL141">
+        <v>1.79</v>
+      </c>
+      <c r="BM141">
+        <v>2.47</v>
+      </c>
+      <c r="BN141">
+        <v>1.48</v>
+      </c>
+      <c r="BO141">
+        <v>3.3</v>
+      </c>
+      <c r="BP141">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -541,16 +541,16 @@
     <t>['89']</t>
   </si>
   <si>
-    <t>['5', '45', '45+2']</t>
-  </si>
-  <si>
-    <t>['55']</t>
+    <t>['45+3']</t>
   </si>
   <si>
     <t>['7', '41', '70']</t>
   </si>
   <si>
-    <t>['45+3']</t>
+    <t>['5', '45', '45+2']</t>
+  </si>
+  <si>
+    <t>['55']</t>
   </si>
   <si>
     <t>['24', '45+2', '80']</t>
@@ -2599,7 +2599,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -20521,7 +20521,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q95">
         <v>2.4</v>
@@ -22993,7 +22993,7 @@
         <v>131</v>
       </c>
       <c r="P107" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -29337,7 +29337,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7509707</v>
+        <v>7509714</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29346,49 +29346,49 @@
         <v>69</v>
       </c>
       <c r="E138" s="2">
-        <v>45620.45833333334</v>
+        <v>45619.875</v>
       </c>
       <c r="F138">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G138" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="H138" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K138">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N138">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O138" t="s">
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>242</v>
+        <v>185</v>
       </c>
       <c r="Q138">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R138">
         <v>2.1</v>
       </c>
       <c r="S138">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T138">
         <v>1.44</v>
@@ -29409,13 +29409,13 @@
         <v>1.07</v>
       </c>
       <c r="Z138">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="AA138">
-        <v>3.35</v>
+        <v>3.16</v>
       </c>
       <c r="AB138">
-        <v>3.55</v>
+        <v>3.21</v>
       </c>
       <c r="AC138">
         <v>1.07</v>
@@ -29424,88 +29424,88 @@
         <v>8</v>
       </c>
       <c r="AE138">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF138">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG138">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AH138">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AI138">
+        <v>1.8</v>
+      </c>
+      <c r="AJ138">
         <v>1.95</v>
       </c>
-      <c r="AJ138">
-        <v>1.8</v>
-      </c>
       <c r="AK138">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AL138">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM138">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="AN138">
+        <v>1</v>
+      </c>
+      <c r="AO138">
         <v>1.14</v>
       </c>
-      <c r="AO138">
-        <v>1.29</v>
-      </c>
       <c r="AP138">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AQ138">
         <v>1.13</v>
       </c>
       <c r="AR138">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="AS138">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AT138">
-        <v>2.59</v>
+        <v>2.87</v>
       </c>
       <c r="AU138">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV138">
+        <v>3</v>
+      </c>
+      <c r="AW138">
+        <v>14</v>
+      </c>
+      <c r="AX138">
         <v>4</v>
       </c>
-      <c r="AW138">
-        <v>7</v>
-      </c>
-      <c r="AX138">
-        <v>7</v>
-      </c>
       <c r="AY138">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AZ138">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BA138">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB138">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC138">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD138">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="BE138">
         <v>8</v>
       </c>
       <c r="BF138">
-        <v>2.77</v>
+        <v>2.33</v>
       </c>
       <c r="BG138">
         <v>1.31</v>
@@ -29543,7 +29543,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7509712</v>
+        <v>7509716</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29552,34 +29552,34 @@
         <v>69</v>
       </c>
       <c r="E139" s="2">
-        <v>45620.45833333334</v>
+        <v>45619.875</v>
       </c>
       <c r="F139">
         <v>14</v>
       </c>
       <c r="G139" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H139" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M139">
         <v>0</v>
       </c>
       <c r="N139">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O139" t="s">
         <v>176</v>
@@ -29588,94 +29588,94 @@
         <v>102</v>
       </c>
       <c r="Q139">
+        <v>2.6</v>
+      </c>
+      <c r="R139">
+        <v>1.95</v>
+      </c>
+      <c r="S139">
+        <v>5.5</v>
+      </c>
+      <c r="T139">
+        <v>1.57</v>
+      </c>
+      <c r="U139">
+        <v>2.25</v>
+      </c>
+      <c r="V139">
+        <v>3.75</v>
+      </c>
+      <c r="W139">
+        <v>1.25</v>
+      </c>
+      <c r="X139">
+        <v>13</v>
+      </c>
+      <c r="Y139">
+        <v>1.04</v>
+      </c>
+      <c r="Z139">
+        <v>1.84</v>
+      </c>
+      <c r="AA139">
+        <v>3.15</v>
+      </c>
+      <c r="AB139">
+        <v>4.15</v>
+      </c>
+      <c r="AC139">
+        <v>1.1</v>
+      </c>
+      <c r="AD139">
+        <v>7</v>
+      </c>
+      <c r="AE139">
+        <v>1.5</v>
+      </c>
+      <c r="AF139">
         <v>2.4</v>
       </c>
-      <c r="R139">
-        <v>2.1</v>
-      </c>
-      <c r="S139">
-        <v>5</v>
-      </c>
-      <c r="T139">
-        <v>1.44</v>
-      </c>
-      <c r="U139">
-        <v>2.63</v>
-      </c>
-      <c r="V139">
-        <v>3</v>
-      </c>
-      <c r="W139">
-        <v>1.36</v>
-      </c>
-      <c r="X139">
-        <v>9</v>
-      </c>
-      <c r="Y139">
-        <v>1.07</v>
-      </c>
-      <c r="Z139">
-        <v>1.8</v>
-      </c>
-      <c r="AA139">
-        <v>3.5</v>
-      </c>
-      <c r="AB139">
-        <v>3.9</v>
-      </c>
-      <c r="AC139">
-        <v>1.07</v>
-      </c>
-      <c r="AD139">
-        <v>8</v>
-      </c>
-      <c r="AE139">
-        <v>1.33</v>
-      </c>
-      <c r="AF139">
-        <v>3.2</v>
-      </c>
       <c r="AG139">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AH139">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="AI139">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AJ139">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AK139">
         <v>1.15</v>
       </c>
       <c r="AL139">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM139">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AN139">
-        <v>1.33</v>
+        <v>2.67</v>
       </c>
       <c r="AO139">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP139">
-        <v>1.57</v>
+        <v>2.71</v>
       </c>
       <c r="AQ139">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="AR139">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="AS139">
-        <v>1.15</v>
+        <v>1.09</v>
       </c>
       <c r="AT139">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="AU139">
         <v>7</v>
@@ -29684,64 +29684,64 @@
         <v>2</v>
       </c>
       <c r="AW139">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY139">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ139">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="BA139">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB139">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC139">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD139">
-        <v>1.75</v>
+        <v>1.37</v>
       </c>
       <c r="BE139">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF139">
-        <v>2.52</v>
+        <v>3.7</v>
       </c>
       <c r="BG139">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="BH139">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="BI139">
         <v>1.55</v>
       </c>
       <c r="BJ139">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="BK139">
         <v>1.92</v>
       </c>
       <c r="BL139">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="BM139">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="BN139">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="BO139">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="BP139">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="140" spans="1:68">
@@ -29749,7 +29749,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7509716</v>
+        <v>7509707</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29764,190 +29764,190 @@
         <v>14</v>
       </c>
       <c r="G140" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H140" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J140">
         <v>0</v>
       </c>
       <c r="K140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L140">
         <v>3</v>
       </c>
       <c r="M140">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N140">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O140" t="s">
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>102</v>
+        <v>242</v>
       </c>
       <c r="Q140">
         <v>2.6</v>
       </c>
       <c r="R140">
+        <v>2.1</v>
+      </c>
+      <c r="S140">
+        <v>4.75</v>
+      </c>
+      <c r="T140">
+        <v>1.44</v>
+      </c>
+      <c r="U140">
+        <v>2.63</v>
+      </c>
+      <c r="V140">
+        <v>3.25</v>
+      </c>
+      <c r="W140">
+        <v>1.33</v>
+      </c>
+      <c r="X140">
+        <v>9</v>
+      </c>
+      <c r="Y140">
+        <v>1.07</v>
+      </c>
+      <c r="Z140">
+        <v>1.92</v>
+      </c>
+      <c r="AA140">
+        <v>3.35</v>
+      </c>
+      <c r="AB140">
+        <v>3.55</v>
+      </c>
+      <c r="AC140">
+        <v>1.07</v>
+      </c>
+      <c r="AD140">
+        <v>8</v>
+      </c>
+      <c r="AE140">
+        <v>1.36</v>
+      </c>
+      <c r="AF140">
+        <v>3</v>
+      </c>
+      <c r="AG140">
+        <v>2.1</v>
+      </c>
+      <c r="AH140">
+        <v>1.67</v>
+      </c>
+      <c r="AI140">
         <v>1.95</v>
       </c>
-      <c r="S140">
-        <v>5.5</v>
-      </c>
-      <c r="T140">
-        <v>1.57</v>
-      </c>
-      <c r="U140">
-        <v>2.25</v>
-      </c>
-      <c r="V140">
-        <v>3.75</v>
-      </c>
-      <c r="W140">
+      <c r="AJ140">
+        <v>1.8</v>
+      </c>
+      <c r="AK140">
+        <v>1.18</v>
+      </c>
+      <c r="AL140">
         <v>1.25</v>
       </c>
-      <c r="X140">
-        <v>13</v>
-      </c>
-      <c r="Y140">
-        <v>1.04</v>
-      </c>
-      <c r="Z140">
-        <v>1.84</v>
-      </c>
-      <c r="AA140">
+      <c r="AM140">
+        <v>1.87</v>
+      </c>
+      <c r="AN140">
+        <v>1.14</v>
+      </c>
+      <c r="AO140">
+        <v>1.29</v>
+      </c>
+      <c r="AP140">
+        <v>1.38</v>
+      </c>
+      <c r="AQ140">
+        <v>1.13</v>
+      </c>
+      <c r="AR140">
+        <v>1.4</v>
+      </c>
+      <c r="AS140">
+        <v>1.19</v>
+      </c>
+      <c r="AT140">
+        <v>2.59</v>
+      </c>
+      <c r="AU140">
+        <v>6</v>
+      </c>
+      <c r="AV140">
+        <v>4</v>
+      </c>
+      <c r="AW140">
+        <v>7</v>
+      </c>
+      <c r="AX140">
+        <v>7</v>
+      </c>
+      <c r="AY140">
+        <v>16</v>
+      </c>
+      <c r="AZ140">
+        <v>14</v>
+      </c>
+      <c r="BA140">
+        <v>7</v>
+      </c>
+      <c r="BB140">
+        <v>8</v>
+      </c>
+      <c r="BC140">
+        <v>15</v>
+      </c>
+      <c r="BD140">
+        <v>1.64</v>
+      </c>
+      <c r="BE140">
+        <v>8</v>
+      </c>
+      <c r="BF140">
+        <v>2.77</v>
+      </c>
+      <c r="BG140">
+        <v>1.31</v>
+      </c>
+      <c r="BH140">
         <v>3.15</v>
-      </c>
-      <c r="AB140">
-        <v>4.15</v>
-      </c>
-      <c r="AC140">
-        <v>1.1</v>
-      </c>
-      <c r="AD140">
-        <v>7</v>
-      </c>
-      <c r="AE140">
-        <v>1.5</v>
-      </c>
-      <c r="AF140">
-        <v>2.4</v>
-      </c>
-      <c r="AG140">
-        <v>2.5</v>
-      </c>
-      <c r="AH140">
-        <v>1.47</v>
-      </c>
-      <c r="AI140">
-        <v>2.25</v>
-      </c>
-      <c r="AJ140">
-        <v>1.57</v>
-      </c>
-      <c r="AK140">
-        <v>1.15</v>
-      </c>
-      <c r="AL140">
-        <v>1.28</v>
-      </c>
-      <c r="AM140">
-        <v>1.95</v>
-      </c>
-      <c r="AN140">
-        <v>2.67</v>
-      </c>
-      <c r="AO140">
-        <v>1</v>
-      </c>
-      <c r="AP140">
-        <v>2.71</v>
-      </c>
-      <c r="AQ140">
-        <v>0.86</v>
-      </c>
-      <c r="AR140">
-        <v>1.53</v>
-      </c>
-      <c r="AS140">
-        <v>1.09</v>
-      </c>
-      <c r="AT140">
-        <v>2.62</v>
-      </c>
-      <c r="AU140">
-        <v>7</v>
-      </c>
-      <c r="AV140">
-        <v>2</v>
-      </c>
-      <c r="AW140">
-        <v>6</v>
-      </c>
-      <c r="AX140">
-        <v>4</v>
-      </c>
-      <c r="AY140">
-        <v>19</v>
-      </c>
-      <c r="AZ140">
-        <v>8</v>
-      </c>
-      <c r="BA140">
-        <v>6</v>
-      </c>
-      <c r="BB140">
-        <v>0</v>
-      </c>
-      <c r="BC140">
-        <v>6</v>
-      </c>
-      <c r="BD140">
-        <v>1.37</v>
-      </c>
-      <c r="BE140">
-        <v>9</v>
-      </c>
-      <c r="BF140">
-        <v>3.7</v>
-      </c>
-      <c r="BG140">
-        <v>1.3</v>
-      </c>
-      <c r="BH140">
-        <v>3.35</v>
       </c>
       <c r="BI140">
         <v>1.55</v>
       </c>
       <c r="BJ140">
-        <v>2.38</v>
+        <v>2.29</v>
       </c>
       <c r="BK140">
         <v>1.92</v>
       </c>
       <c r="BL140">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="BM140">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="BN140">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="BO140">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="BP140">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="141" spans="1:68">
@@ -29955,7 +29955,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7509714</v>
+        <v>7509712</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -29964,49 +29964,49 @@
         <v>69</v>
       </c>
       <c r="E141" s="2">
-        <v>45620.55208333334</v>
+        <v>45620.45833333334</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G141" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H141" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K141">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L141">
         <v>1</v>
       </c>
       <c r="M141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O141" t="s">
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="Q141">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="R141">
         <v>2.1</v>
       </c>
       <c r="S141">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T141">
         <v>1.44</v>
@@ -30015,10 +30015,10 @@
         <v>2.63</v>
       </c>
       <c r="V141">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W141">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X141">
         <v>9</v>
@@ -30027,13 +30027,13 @@
         <v>1.07</v>
       </c>
       <c r="Z141">
-        <v>2.11</v>
+        <v>1.8</v>
       </c>
       <c r="AA141">
-        <v>3.16</v>
+        <v>3.5</v>
       </c>
       <c r="AB141">
-        <v>3.21</v>
+        <v>3.9</v>
       </c>
       <c r="AC141">
         <v>1.07</v>
@@ -30045,85 +30045,85 @@
         <v>1.33</v>
       </c>
       <c r="AF141">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AG141">
         <v>2</v>
       </c>
       <c r="AH141">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="AI141">
+        <v>1.95</v>
+      </c>
+      <c r="AJ141">
         <v>1.8</v>
       </c>
-      <c r="AJ141">
-        <v>1.95</v>
-      </c>
       <c r="AK141">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="AL141">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM141">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="AN141">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO141">
-        <v>1.14</v>
+        <v>0.83</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AQ141">
-        <v>1.13</v>
+        <v>0.71</v>
       </c>
       <c r="AR141">
-        <v>1.62</v>
+        <v>1.37</v>
       </c>
       <c r="AS141">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AT141">
-        <v>2.87</v>
+        <v>2.52</v>
       </c>
       <c r="AU141">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW141">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AX141">
+        <v>3</v>
+      </c>
+      <c r="AY141">
+        <v>17</v>
+      </c>
+      <c r="AZ141">
+        <v>13</v>
+      </c>
+      <c r="BA141">
         <v>4</v>
       </c>
-      <c r="AY141">
-        <v>27</v>
-      </c>
-      <c r="AZ141">
-        <v>9</v>
-      </c>
-      <c r="BA141">
-        <v>9</v>
-      </c>
       <c r="BB141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC141">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD141">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="BE141">
         <v>8</v>
       </c>
       <c r="BF141">
-        <v>2.33</v>
+        <v>2.52</v>
       </c>
       <c r="BG141">
         <v>1.31</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -529,16 +529,16 @@
     <t>['25', '31']</t>
   </si>
   <si>
+    <t>['64', '82', '90', '90+6']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
-    <t>['26', '79']</t>
+    <t>['89']</t>
   </si>
   <si>
-    <t>['64', '82', '90', '90+6']</t>
-  </si>
-  <si>
-    <t>['89']</t>
+    <t>['26', '79']</t>
   </si>
   <si>
     <t>['45+3']</t>
@@ -10633,7 +10633,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -28307,7 +28307,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7509710</v>
+        <v>7509715</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28322,10 +28322,10 @@
         <v>14</v>
       </c>
       <c r="G133" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H133" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -28337,175 +28337,175 @@
         <v>0</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N133">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O133" t="s">
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="Q133">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="R133">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S133">
         <v>4.75</v>
       </c>
       <c r="T133">
+        <v>1.33</v>
+      </c>
+      <c r="U133">
+        <v>3.25</v>
+      </c>
+      <c r="V133">
+        <v>2.63</v>
+      </c>
+      <c r="W133">
         <v>1.44</v>
       </c>
-      <c r="U133">
-        <v>2.63</v>
-      </c>
-      <c r="V133">
-        <v>3.25</v>
-      </c>
-      <c r="W133">
-        <v>1.33</v>
-      </c>
       <c r="X133">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Y133">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z133">
-        <v>1.94</v>
+        <v>2.01</v>
       </c>
       <c r="AA133">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="AB133">
-        <v>3.5</v>
+        <v>4.29</v>
       </c>
       <c r="AC133">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD133">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AE133">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AF133">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG133">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AH133">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AI133">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="AJ133">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AK133">
+        <v>1.16</v>
+      </c>
+      <c r="AL133">
         <v>1.2</v>
       </c>
-      <c r="AL133">
-        <v>1.25</v>
-      </c>
       <c r="AM133">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AN133">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AO133">
         <v>0.83</v>
       </c>
       <c r="AP133">
-        <v>2.13</v>
+        <v>2.29</v>
       </c>
       <c r="AQ133">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="AR133">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="AS133">
-        <v>1.29</v>
+        <v>1.07</v>
       </c>
       <c r="AT133">
-        <v>2.78</v>
+        <v>2.53</v>
       </c>
       <c r="AU133">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV133">
         <v>4</v>
       </c>
       <c r="AW133">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX133">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY133">
         <v>24</v>
       </c>
       <c r="AZ133">
+        <v>10</v>
+      </c>
+      <c r="BA133">
+        <v>5</v>
+      </c>
+      <c r="BB133">
+        <v>3</v>
+      </c>
+      <c r="BC133">
         <v>8</v>
       </c>
-      <c r="BA133">
-        <v>11</v>
-      </c>
-      <c r="BB133">
-        <v>2</v>
-      </c>
-      <c r="BC133">
-        <v>13</v>
-      </c>
       <c r="BD133">
-        <v>1.64</v>
+        <v>1.45</v>
       </c>
       <c r="BE133">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF133">
-        <v>2.77</v>
+        <v>3.33</v>
       </c>
       <c r="BG133">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BH133">
-        <v>2.73</v>
+        <v>3.35</v>
       </c>
       <c r="BI133">
-        <v>1.69</v>
+        <v>1.55</v>
       </c>
       <c r="BJ133">
-        <v>2.04</v>
+        <v>2.38</v>
       </c>
       <c r="BK133">
-        <v>2.15</v>
+        <v>1.98</v>
       </c>
       <c r="BL133">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="BM133">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="BN133">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="BO133">
-        <v>3.88</v>
+        <v>3.6</v>
       </c>
       <c r="BP133">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28513,7 +28513,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7509709</v>
+        <v>7509710</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28522,166 +28522,166 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45619.45833333334</v>
+        <v>45618.875</v>
       </c>
       <c r="F134">
         <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H134" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O134" t="s">
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="Q134">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R134">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S134">
         <v>4.75</v>
       </c>
       <c r="T134">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U134">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V134">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W134">
+        <v>1.33</v>
+      </c>
+      <c r="X134">
+        <v>9</v>
+      </c>
+      <c r="Y134">
+        <v>1.07</v>
+      </c>
+      <c r="Z134">
+        <v>1.94</v>
+      </c>
+      <c r="AA134">
+        <v>3.05</v>
+      </c>
+      <c r="AB134">
+        <v>3.5</v>
+      </c>
+      <c r="AC134">
+        <v>1.07</v>
+      </c>
+      <c r="AD134">
+        <v>8</v>
+      </c>
+      <c r="AE134">
         <v>1.36</v>
       </c>
-      <c r="X134">
-        <v>8</v>
-      </c>
-      <c r="Y134">
-        <v>1.08</v>
-      </c>
-      <c r="Z134">
-        <v>1.82</v>
-      </c>
-      <c r="AA134">
-        <v>3.19</v>
-      </c>
-      <c r="AB134">
-        <v>3.79</v>
-      </c>
-      <c r="AC134">
-        <v>1.06</v>
-      </c>
-      <c r="AD134">
-        <v>8.5</v>
-      </c>
-      <c r="AE134">
-        <v>1.3</v>
-      </c>
       <c r="AF134">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AG134">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="AH134">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AI134">
+        <v>1.95</v>
+      </c>
+      <c r="AJ134">
         <v>1.8</v>
       </c>
-      <c r="AJ134">
-        <v>1.95</v>
-      </c>
       <c r="AK134">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AL134">
         <v>1.25</v>
       </c>
       <c r="AM134">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AN134">
-        <v>1.43</v>
+        <v>2.29</v>
       </c>
       <c r="AO134">
-        <v>0.29</v>
+        <v>0.83</v>
       </c>
       <c r="AP134">
-        <v>1.38</v>
+        <v>2.13</v>
       </c>
       <c r="AQ134">
-        <v>0.38</v>
+        <v>0.86</v>
       </c>
       <c r="AR134">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="AS134">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AT134">
-        <v>2.34</v>
+        <v>2.78</v>
       </c>
       <c r="AU134">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV134">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW134">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY134">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="AZ134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA134">
+        <v>11</v>
+      </c>
+      <c r="BB134">
+        <v>2</v>
+      </c>
+      <c r="BC134">
+        <v>13</v>
+      </c>
+      <c r="BD134">
+        <v>1.64</v>
+      </c>
+      <c r="BE134">
         <v>8</v>
       </c>
-      <c r="BB134">
-        <v>3</v>
-      </c>
-      <c r="BC134">
-        <v>11</v>
-      </c>
-      <c r="BD134">
-        <v>1.75</v>
-      </c>
-      <c r="BE134">
-        <v>7.5</v>
-      </c>
       <c r="BF134">
-        <v>2.45</v>
+        <v>2.77</v>
       </c>
       <c r="BG134">
         <v>1.4</v>
@@ -28719,7 +28719,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7509713</v>
+        <v>7509708</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28734,10 +28734,10 @@
         <v>14</v>
       </c>
       <c r="G135" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H135" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -28749,55 +28749,55 @@
         <v>0</v>
       </c>
       <c r="L135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M135">
         <v>0</v>
       </c>
       <c r="N135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="P135" t="s">
         <v>102</v>
       </c>
       <c r="Q135">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="R135">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S135">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T135">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U135">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V135">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="W135">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="X135">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y135">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z135">
-        <v>2.23</v>
+        <v>3.2</v>
       </c>
       <c r="AA135">
-        <v>3.06</v>
+        <v>3.03</v>
       </c>
       <c r="AB135">
-        <v>3.06</v>
+        <v>2.18</v>
       </c>
       <c r="AC135">
         <v>1.09</v>
@@ -28806,118 +28806,118 @@
         <v>7</v>
       </c>
       <c r="AE135">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AF135">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="AG135">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="AH135">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="AI135">
+        <v>2.05</v>
+      </c>
+      <c r="AJ135">
+        <v>1.7</v>
+      </c>
+      <c r="AK135">
+        <v>1.66</v>
+      </c>
+      <c r="AL135">
+        <v>1.28</v>
+      </c>
+      <c r="AM135">
+        <v>1.3</v>
+      </c>
+      <c r="AN135">
+        <v>1.5</v>
+      </c>
+      <c r="AO135">
+        <v>1.83</v>
+      </c>
+      <c r="AP135">
+        <v>1.71</v>
+      </c>
+      <c r="AQ135">
+        <v>1.57</v>
+      </c>
+      <c r="AR135">
+        <v>1.13</v>
+      </c>
+      <c r="AS135">
+        <v>1.16</v>
+      </c>
+      <c r="AT135">
+        <v>2.29</v>
+      </c>
+      <c r="AU135">
+        <v>5</v>
+      </c>
+      <c r="AV135">
+        <v>0</v>
+      </c>
+      <c r="AW135">
+        <v>4</v>
+      </c>
+      <c r="AX135">
+        <v>2</v>
+      </c>
+      <c r="AY135">
+        <v>9</v>
+      </c>
+      <c r="AZ135">
+        <v>2</v>
+      </c>
+      <c r="BA135">
+        <v>6</v>
+      </c>
+      <c r="BB135">
+        <v>2</v>
+      </c>
+      <c r="BC135">
+        <v>8</v>
+      </c>
+      <c r="BD135">
+        <v>2.1</v>
+      </c>
+      <c r="BE135">
+        <v>7.5</v>
+      </c>
+      <c r="BF135">
         <v>1.95</v>
       </c>
-      <c r="AJ135">
-        <v>1.8</v>
-      </c>
-      <c r="AK135">
-        <v>1.3</v>
-      </c>
-      <c r="AL135">
-        <v>1.3</v>
-      </c>
-      <c r="AM135">
-        <v>1.6</v>
-      </c>
-      <c r="AN135">
-        <v>1.17</v>
-      </c>
-      <c r="AO135">
-        <v>1.17</v>
-      </c>
-      <c r="AP135">
-        <v>1.14</v>
-      </c>
-      <c r="AQ135">
-        <v>1.14</v>
-      </c>
-      <c r="AR135">
-        <v>1.28</v>
-      </c>
-      <c r="AS135">
+      <c r="BG135">
+        <v>1.44</v>
+      </c>
+      <c r="BH135">
+        <v>2.6</v>
+      </c>
+      <c r="BI135">
+        <v>1.75</v>
+      </c>
+      <c r="BJ135">
+        <v>1.96</v>
+      </c>
+      <c r="BK135">
+        <v>2.24</v>
+      </c>
+      <c r="BL135">
+        <v>1.57</v>
+      </c>
+      <c r="BM135">
+        <v>3</v>
+      </c>
+      <c r="BN135">
+        <v>1.34</v>
+      </c>
+      <c r="BO135">
+        <v>4.5</v>
+      </c>
+      <c r="BP135">
         <v>1.19</v>
-      </c>
-      <c r="AT135">
-        <v>2.47</v>
-      </c>
-      <c r="AU135">
-        <v>3</v>
-      </c>
-      <c r="AV135">
-        <v>5</v>
-      </c>
-      <c r="AW135">
-        <v>5</v>
-      </c>
-      <c r="AX135">
-        <v>7</v>
-      </c>
-      <c r="AY135">
-        <v>17</v>
-      </c>
-      <c r="AZ135">
-        <v>20</v>
-      </c>
-      <c r="BA135">
-        <v>8</v>
-      </c>
-      <c r="BB135">
-        <v>5</v>
-      </c>
-      <c r="BC135">
-        <v>13</v>
-      </c>
-      <c r="BD135">
-        <v>1.82</v>
-      </c>
-      <c r="BE135">
-        <v>8</v>
-      </c>
-      <c r="BF135">
-        <v>2.39</v>
-      </c>
-      <c r="BG135">
-        <v>1.34</v>
-      </c>
-      <c r="BH135">
-        <v>2.98</v>
-      </c>
-      <c r="BI135">
-        <v>1.6</v>
-      </c>
-      <c r="BJ135">
-        <v>2.19</v>
-      </c>
-      <c r="BK135">
-        <v>2</v>
-      </c>
-      <c r="BL135">
-        <v>1.72</v>
-      </c>
-      <c r="BM135">
-        <v>2.6</v>
-      </c>
-      <c r="BN135">
-        <v>1.44</v>
-      </c>
-      <c r="BO135">
-        <v>3.5</v>
-      </c>
-      <c r="BP135">
-        <v>1.26</v>
       </c>
     </row>
     <row r="136" spans="1:68">
@@ -28925,7 +28925,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7509715</v>
+        <v>7509713</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -28940,10 +28940,10 @@
         <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H136" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -28955,172 +28955,172 @@
         <v>0</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M136">
         <v>0</v>
       </c>
       <c r="N136">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O136" t="s">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="P136" t="s">
         <v>102</v>
       </c>
       <c r="Q136">
-        <v>2.3</v>
+        <v>3</v>
       </c>
       <c r="R136">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="S136">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T136">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="U136">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="V136">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="W136">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="X136">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="Y136">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="Z136">
-        <v>2.01</v>
+        <v>2.23</v>
       </c>
       <c r="AA136">
-        <v>2.65</v>
+        <v>3.06</v>
       </c>
       <c r="AB136">
-        <v>4.29</v>
+        <v>3.06</v>
       </c>
       <c r="AC136">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AD136">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AE136">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AF136">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="AG136">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="AH136">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="AI136">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AJ136">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AK136">
-        <v>1.16</v>
+        <v>1.3</v>
       </c>
       <c r="AL136">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AM136">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="AN136">
-        <v>2.17</v>
+        <v>1.17</v>
       </c>
       <c r="AO136">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AP136">
-        <v>2.29</v>
+        <v>1.14</v>
       </c>
       <c r="AQ136">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="AR136">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="AS136">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="AT136">
-        <v>2.53</v>
+        <v>2.47</v>
       </c>
       <c r="AU136">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AV136">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW136">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX136">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY136">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AZ136">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BA136">
+        <v>8</v>
+      </c>
+      <c r="BB136">
         <v>5</v>
       </c>
-      <c r="BB136">
-        <v>3</v>
-      </c>
       <c r="BC136">
+        <v>13</v>
+      </c>
+      <c r="BD136">
+        <v>1.82</v>
+      </c>
+      <c r="BE136">
         <v>8</v>
       </c>
-      <c r="BD136">
-        <v>1.45</v>
-      </c>
-      <c r="BE136">
-        <v>8.5</v>
-      </c>
       <c r="BF136">
-        <v>3.33</v>
+        <v>2.39</v>
       </c>
       <c r="BG136">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="BH136">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="BI136">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="BJ136">
-        <v>2.38</v>
+        <v>2.19</v>
       </c>
       <c r="BK136">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BL136">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="BM136">
         <v>2.6</v>
       </c>
       <c r="BN136">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="BO136">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="BP136">
         <v>1.26</v>
@@ -29131,7 +29131,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7509708</v>
+        <v>7509709</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -29146,133 +29146,133 @@
         <v>14</v>
       </c>
       <c r="G137" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H137" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M137">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N137">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O137" t="s">
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="Q137">
-        <v>4.33</v>
+        <v>2.5</v>
       </c>
       <c r="R137">
+        <v>2.2</v>
+      </c>
+      <c r="S137">
+        <v>4.75</v>
+      </c>
+      <c r="T137">
+        <v>1.4</v>
+      </c>
+      <c r="U137">
+        <v>2.75</v>
+      </c>
+      <c r="V137">
+        <v>3</v>
+      </c>
+      <c r="W137">
+        <v>1.36</v>
+      </c>
+      <c r="X137">
+        <v>8</v>
+      </c>
+      <c r="Y137">
+        <v>1.08</v>
+      </c>
+      <c r="Z137">
+        <v>1.82</v>
+      </c>
+      <c r="AA137">
+        <v>3.19</v>
+      </c>
+      <c r="AB137">
+        <v>3.79</v>
+      </c>
+      <c r="AC137">
+        <v>1.06</v>
+      </c>
+      <c r="AD137">
+        <v>8.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.3</v>
+      </c>
+      <c r="AF137">
+        <v>3.3</v>
+      </c>
+      <c r="AG137">
+        <v>2.01</v>
+      </c>
+      <c r="AH137">
+        <v>1.83</v>
+      </c>
+      <c r="AI137">
+        <v>1.8</v>
+      </c>
+      <c r="AJ137">
         <v>1.95</v>
       </c>
-      <c r="S137">
-        <v>3</v>
-      </c>
-      <c r="T137">
-        <v>1.53</v>
-      </c>
-      <c r="U137">
-        <v>2.38</v>
-      </c>
-      <c r="V137">
-        <v>3.75</v>
-      </c>
-      <c r="W137">
+      <c r="AK137">
+        <v>1.18</v>
+      </c>
+      <c r="AL137">
         <v>1.25</v>
       </c>
-      <c r="X137">
-        <v>11</v>
-      </c>
-      <c r="Y137">
-        <v>1.05</v>
-      </c>
-      <c r="Z137">
-        <v>3.2</v>
-      </c>
-      <c r="AA137">
-        <v>3.03</v>
-      </c>
-      <c r="AB137">
-        <v>2.18</v>
-      </c>
-      <c r="AC137">
-        <v>1.09</v>
-      </c>
-      <c r="AD137">
-        <v>7</v>
-      </c>
-      <c r="AE137">
-        <v>1.45</v>
-      </c>
-      <c r="AF137">
-        <v>2.65</v>
-      </c>
-      <c r="AG137">
-        <v>2.35</v>
-      </c>
-      <c r="AH137">
-        <v>1.53</v>
-      </c>
-      <c r="AI137">
-        <v>2.05</v>
-      </c>
-      <c r="AJ137">
-        <v>1.7</v>
-      </c>
-      <c r="AK137">
-        <v>1.66</v>
-      </c>
-      <c r="AL137">
-        <v>1.28</v>
-      </c>
       <c r="AM137">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="AN137">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AO137">
-        <v>1.83</v>
+        <v>0.29</v>
       </c>
       <c r="AP137">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="AQ137">
-        <v>1.57</v>
+        <v>0.38</v>
       </c>
       <c r="AR137">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="AS137">
-        <v>1.16</v>
+        <v>1.08</v>
       </c>
       <c r="AT137">
-        <v>2.29</v>
+        <v>2.34</v>
       </c>
       <c r="AU137">
+        <v>0</v>
+      </c>
+      <c r="AV137">
         <v>5</v>
       </c>
-      <c r="AV137">
-        <v>0</v>
-      </c>
       <c r="AW137">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AX137">
         <v>2</v>
@@ -29281,55 +29281,55 @@
         <v>9</v>
       </c>
       <c r="AZ137">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BA137">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC137">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD137">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="BE137">
         <v>7.5</v>
       </c>
       <c r="BF137">
-        <v>1.95</v>
+        <v>2.45</v>
       </c>
       <c r="BG137">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="BH137">
-        <v>2.6</v>
+        <v>2.73</v>
       </c>
       <c r="BI137">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="BJ137">
-        <v>1.96</v>
+        <v>2.04</v>
       </c>
       <c r="BK137">
-        <v>2.24</v>
+        <v>2.15</v>
       </c>
       <c r="BL137">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="BM137">
-        <v>3</v>
+        <v>2.83</v>
       </c>
       <c r="BN137">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="BO137">
-        <v>4.5</v>
+        <v>3.88</v>
       </c>
       <c r="BP137">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="138" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -532,25 +532,25 @@
     <t>['64', '82', '90', '90+6']</t>
   </si>
   <si>
-    <t>['65']</t>
-  </si>
-  <si>
     <t>['89']</t>
   </si>
   <si>
     <t>['26', '79']</t>
   </si>
   <si>
-    <t>['45+3']</t>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['5', '45', '45+2']</t>
   </si>
   <si>
     <t>['7', '41', '70']</t>
   </si>
   <si>
-    <t>['5', '45', '45+2']</t>
+    <t>['55']</t>
   </si>
   <si>
-    <t>['55']</t>
+    <t>['45+3']</t>
   </si>
   <si>
     <t>['24', '45+2', '80']</t>
@@ -2599,7 +2599,7 @@
         <v>96</v>
       </c>
       <c r="P8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>2.63</v>
@@ -10633,7 +10633,7 @@
         <v>126</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>2.63</v>
@@ -20521,7 +20521,7 @@
         <v>154</v>
       </c>
       <c r="P95" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q95">
         <v>2.4</v>
@@ -22993,7 +22993,7 @@
         <v>131</v>
       </c>
       <c r="P107" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -28316,7 +28316,7 @@
         <v>69</v>
       </c>
       <c r="E133" s="2">
-        <v>45618.875</v>
+        <v>45619.45833333334</v>
       </c>
       <c r="F133">
         <v>14</v>
@@ -28442,19 +28442,19 @@
         <v>2.53</v>
       </c>
       <c r="AU133">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV133">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW133">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AX133">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY133">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ133">
         <v>10</v>
@@ -28513,7 +28513,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7509710</v>
+        <v>7509713</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28522,16 +28522,16 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45618.875</v>
+        <v>45619.45833333334</v>
       </c>
       <c r="F134">
         <v>14</v>
       </c>
       <c r="G134" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H134" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -28543,73 +28543,73 @@
         <v>0</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N134">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O134" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
       <c r="P134" t="s">
-        <v>230</v>
+        <v>102</v>
       </c>
       <c r="Q134">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="R134">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S134">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T134">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U134">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V134">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W134">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X134">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y134">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="Z134">
-        <v>1.94</v>
+        <v>2.23</v>
       </c>
       <c r="AA134">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="AB134">
-        <v>3.5</v>
+        <v>3.06</v>
       </c>
       <c r="AC134">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="AD134">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE134">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AF134">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="AG134">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AH134">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AI134">
         <v>1.95</v>
@@ -28618,100 +28618,100 @@
         <v>1.8</v>
       </c>
       <c r="AK134">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AL134">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM134">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="AN134">
-        <v>2.29</v>
+        <v>1.17</v>
       </c>
       <c r="AO134">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AP134">
-        <v>2.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ134">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AR134">
-        <v>1.49</v>
+        <v>1.28</v>
       </c>
       <c r="AS134">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AT134">
-        <v>2.78</v>
+        <v>2.47</v>
       </c>
       <c r="AU134">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AV134">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW134">
+        <v>5</v>
+      </c>
+      <c r="AX134">
         <v>7</v>
       </c>
-      <c r="AX134">
-        <v>3</v>
-      </c>
       <c r="AY134">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AZ134">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="BA134">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BB134">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC134">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD134">
-        <v>1.64</v>
+        <v>1.82</v>
       </c>
       <c r="BE134">
         <v>8</v>
       </c>
       <c r="BF134">
-        <v>2.77</v>
+        <v>2.39</v>
       </c>
       <c r="BG134">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="BH134">
-        <v>2.73</v>
+        <v>2.98</v>
       </c>
       <c r="BI134">
-        <v>1.69</v>
+        <v>1.6</v>
       </c>
       <c r="BJ134">
-        <v>2.04</v>
+        <v>2.19</v>
       </c>
       <c r="BK134">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="BL134">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="BM134">
-        <v>2.83</v>
+        <v>2.6</v>
       </c>
       <c r="BN134">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="BO134">
-        <v>3.88</v>
+        <v>3.5</v>
       </c>
       <c r="BP134">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28758,7 +28758,7 @@
         <v>1</v>
       </c>
       <c r="O135" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P135" t="s">
         <v>102</v>
@@ -28925,7 +28925,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7509713</v>
+        <v>7509709</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -28940,190 +28940,190 @@
         <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H136" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="I136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N136">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O136" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="Q136">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="R136">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S136">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="T136">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U136">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V136">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="W136">
+        <v>1.36</v>
+      </c>
+      <c r="X136">
+        <v>8</v>
+      </c>
+      <c r="Y136">
+        <v>1.08</v>
+      </c>
+      <c r="Z136">
+        <v>1.82</v>
+      </c>
+      <c r="AA136">
+        <v>3.19</v>
+      </c>
+      <c r="AB136">
+        <v>3.79</v>
+      </c>
+      <c r="AC136">
+        <v>1.06</v>
+      </c>
+      <c r="AD136">
+        <v>8.5</v>
+      </c>
+      <c r="AE136">
         <v>1.3</v>
       </c>
-      <c r="X136">
-        <v>10</v>
-      </c>
-      <c r="Y136">
-        <v>1.06</v>
-      </c>
-      <c r="Z136">
-        <v>2.23</v>
-      </c>
-      <c r="AA136">
-        <v>3.06</v>
-      </c>
-      <c r="AB136">
-        <v>3.06</v>
-      </c>
-      <c r="AC136">
-        <v>1.09</v>
-      </c>
-      <c r="AD136">
-        <v>7</v>
-      </c>
-      <c r="AE136">
-        <v>1.4</v>
-      </c>
       <c r="AF136">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="AG136">
-        <v>2.2</v>
+        <v>2.01</v>
       </c>
       <c r="AH136">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AI136">
+        <v>1.8</v>
+      </c>
+      <c r="AJ136">
         <v>1.95</v>
       </c>
-      <c r="AJ136">
-        <v>1.8</v>
-      </c>
       <c r="AK136">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AL136">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM136">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="AN136">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AO136">
-        <v>1.17</v>
+        <v>0.29</v>
       </c>
       <c r="AP136">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ136">
-        <v>1.14</v>
+        <v>0.38</v>
       </c>
       <c r="AR136">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AS136">
-        <v>1.19</v>
+        <v>1.08</v>
       </c>
       <c r="AT136">
-        <v>2.47</v>
+        <v>2.34</v>
       </c>
       <c r="AU136">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV136">
         <v>5</v>
       </c>
       <c r="AW136">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX136">
+        <v>2</v>
+      </c>
+      <c r="AY136">
+        <v>9</v>
+      </c>
+      <c r="AZ136">
         <v>7</v>
-      </c>
-      <c r="AY136">
-        <v>17</v>
-      </c>
-      <c r="AZ136">
-        <v>20</v>
       </c>
       <c r="BA136">
         <v>8</v>
       </c>
       <c r="BB136">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC136">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD136">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="BE136">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="BF136">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="BG136">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="BH136">
-        <v>2.98</v>
+        <v>2.73</v>
       </c>
       <c r="BI136">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="BJ136">
-        <v>2.19</v>
+        <v>2.04</v>
       </c>
       <c r="BK136">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="BL136">
-        <v>1.72</v>
+        <v>1.62</v>
       </c>
       <c r="BM136">
-        <v>2.6</v>
+        <v>2.83</v>
       </c>
       <c r="BN136">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="BO136">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="BP136">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="137" spans="1:68">
@@ -29131,7 +29131,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7509709</v>
+        <v>7509710</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -29140,166 +29140,166 @@
         <v>69</v>
       </c>
       <c r="E137" s="2">
-        <v>45619.45833333334</v>
+        <v>45619.55208333334</v>
       </c>
       <c r="F137">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G137" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H137" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N137">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O137" t="s">
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="Q137">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R137">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S137">
         <v>4.75</v>
       </c>
       <c r="T137">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U137">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V137">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W137">
+        <v>1.33</v>
+      </c>
+      <c r="X137">
+        <v>9</v>
+      </c>
+      <c r="Y137">
+        <v>1.07</v>
+      </c>
+      <c r="Z137">
+        <v>1.94</v>
+      </c>
+      <c r="AA137">
+        <v>3.05</v>
+      </c>
+      <c r="AB137">
+        <v>3.5</v>
+      </c>
+      <c r="AC137">
+        <v>1.07</v>
+      </c>
+      <c r="AD137">
+        <v>8</v>
+      </c>
+      <c r="AE137">
         <v>1.36</v>
       </c>
-      <c r="X137">
-        <v>8</v>
-      </c>
-      <c r="Y137">
-        <v>1.08</v>
-      </c>
-      <c r="Z137">
-        <v>1.82</v>
-      </c>
-      <c r="AA137">
-        <v>3.19</v>
-      </c>
-      <c r="AB137">
-        <v>3.79</v>
-      </c>
-      <c r="AC137">
-        <v>1.06</v>
-      </c>
-      <c r="AD137">
-        <v>8.5</v>
-      </c>
-      <c r="AE137">
-        <v>1.3</v>
-      </c>
       <c r="AF137">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AG137">
-        <v>2.01</v>
+        <v>2.1</v>
       </c>
       <c r="AH137">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="AI137">
+        <v>1.95</v>
+      </c>
+      <c r="AJ137">
         <v>1.8</v>
       </c>
-      <c r="AJ137">
-        <v>1.95</v>
-      </c>
       <c r="AK137">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AL137">
         <v>1.25</v>
       </c>
       <c r="AM137">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AN137">
-        <v>1.43</v>
+        <v>2.29</v>
       </c>
       <c r="AO137">
-        <v>0.29</v>
+        <v>0.83</v>
       </c>
       <c r="AP137">
-        <v>1.38</v>
+        <v>2.13</v>
       </c>
       <c r="AQ137">
-        <v>0.38</v>
+        <v>0.86</v>
       </c>
       <c r="AR137">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="AS137">
-        <v>1.08</v>
+        <v>1.29</v>
       </c>
       <c r="AT137">
-        <v>2.34</v>
+        <v>2.78</v>
       </c>
       <c r="AU137">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AV137">
         <v>5</v>
       </c>
       <c r="AW137">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX137">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY137">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="AZ137">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA137">
+        <v>11</v>
+      </c>
+      <c r="BB137">
+        <v>2</v>
+      </c>
+      <c r="BC137">
+        <v>13</v>
+      </c>
+      <c r="BD137">
+        <v>1.64</v>
+      </c>
+      <c r="BE137">
         <v>8</v>
       </c>
-      <c r="BB137">
-        <v>3</v>
-      </c>
-      <c r="BC137">
-        <v>11</v>
-      </c>
-      <c r="BD137">
-        <v>1.75</v>
-      </c>
-      <c r="BE137">
-        <v>7.5</v>
-      </c>
       <c r="BF137">
-        <v>2.45</v>
+        <v>2.77</v>
       </c>
       <c r="BG137">
         <v>1.4</v>
@@ -29337,7 +29337,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7509714</v>
+        <v>7509707</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29346,49 +29346,49 @@
         <v>69</v>
       </c>
       <c r="E138" s="2">
-        <v>45619.875</v>
+        <v>45620.45833333334</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G138" t="s">
-        <v>89</v>
+        <v>71</v>
       </c>
       <c r="H138" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K138">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N138">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O138" t="s">
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>185</v>
+        <v>242</v>
       </c>
       <c r="Q138">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="R138">
         <v>2.1</v>
       </c>
       <c r="S138">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="T138">
         <v>1.44</v>
@@ -29409,13 +29409,13 @@
         <v>1.07</v>
       </c>
       <c r="Z138">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="AA138">
-        <v>3.16</v>
+        <v>3.35</v>
       </c>
       <c r="AB138">
-        <v>3.21</v>
+        <v>3.55</v>
       </c>
       <c r="AC138">
         <v>1.07</v>
@@ -29424,88 +29424,88 @@
         <v>8</v>
       </c>
       <c r="AE138">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AF138">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AG138">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AH138">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AI138">
+        <v>1.95</v>
+      </c>
+      <c r="AJ138">
         <v>1.8</v>
       </c>
-      <c r="AJ138">
-        <v>1.95</v>
-      </c>
       <c r="AK138">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AL138">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM138">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="AN138">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AO138">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="AP138">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AQ138">
         <v>1.13</v>
       </c>
       <c r="AR138">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="AS138">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AT138">
-        <v>2.87</v>
+        <v>2.59</v>
       </c>
       <c r="AU138">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV138">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW138">
+        <v>7</v>
+      </c>
+      <c r="AX138">
+        <v>7</v>
+      </c>
+      <c r="AY138">
+        <v>16</v>
+      </c>
+      <c r="AZ138">
         <v>14</v>
       </c>
-      <c r="AX138">
-        <v>4</v>
-      </c>
-      <c r="AY138">
-        <v>27</v>
-      </c>
-      <c r="AZ138">
-        <v>9</v>
-      </c>
       <c r="BA138">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB138">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC138">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD138">
-        <v>1.82</v>
+        <v>1.64</v>
       </c>
       <c r="BE138">
         <v>8</v>
       </c>
       <c r="BF138">
-        <v>2.33</v>
+        <v>2.77</v>
       </c>
       <c r="BG138">
         <v>1.31</v>
@@ -29552,7 +29552,7 @@
         <v>69</v>
       </c>
       <c r="E139" s="2">
-        <v>45619.875</v>
+        <v>45620.45833333334</v>
       </c>
       <c r="F139">
         <v>14</v>
@@ -29678,22 +29678,22 @@
         <v>2.62</v>
       </c>
       <c r="AU139">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV139">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW139">
+        <v>13</v>
+      </c>
+      <c r="AX139">
         <v>6</v>
       </c>
-      <c r="AX139">
-        <v>4</v>
-      </c>
       <c r="AY139">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ139">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA139">
         <v>6</v>
@@ -29749,7 +29749,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7509707</v>
+        <v>7509712</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29764,43 +29764,43 @@
         <v>14</v>
       </c>
       <c r="G140" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="H140" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J140">
         <v>0</v>
       </c>
       <c r="K140">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M140">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N140">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O140" t="s">
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>242</v>
+        <v>102</v>
       </c>
       <c r="Q140">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R140">
         <v>2.1</v>
       </c>
       <c r="S140">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="T140">
         <v>1.44</v>
@@ -29809,10 +29809,10 @@
         <v>2.63</v>
       </c>
       <c r="V140">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W140">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X140">
         <v>9</v>
@@ -29821,13 +29821,13 @@
         <v>1.07</v>
       </c>
       <c r="Z140">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="AA140">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="AB140">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="AC140">
         <v>1.07</v>
@@ -29836,16 +29836,16 @@
         <v>8</v>
       </c>
       <c r="AE140">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AF140">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AG140">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AH140">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AI140">
         <v>1.95</v>
@@ -29854,70 +29854,70 @@
         <v>1.8</v>
       </c>
       <c r="AK140">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AL140">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM140">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="AN140">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AO140">
-        <v>1.29</v>
+        <v>0.83</v>
       </c>
       <c r="AP140">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AQ140">
-        <v>1.13</v>
+        <v>0.71</v>
       </c>
       <c r="AR140">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AS140">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="AT140">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
       <c r="AU140">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV140">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW140">
         <v>7</v>
       </c>
       <c r="AX140">
+        <v>3</v>
+      </c>
+      <c r="AY140">
+        <v>17</v>
+      </c>
+      <c r="AZ140">
+        <v>13</v>
+      </c>
+      <c r="BA140">
+        <v>4</v>
+      </c>
+      <c r="BB140">
+        <v>3</v>
+      </c>
+      <c r="BC140">
         <v>7</v>
       </c>
-      <c r="AY140">
-        <v>16</v>
-      </c>
-      <c r="AZ140">
-        <v>14</v>
-      </c>
-      <c r="BA140">
-        <v>7</v>
-      </c>
-      <c r="BB140">
-        <v>8</v>
-      </c>
-      <c r="BC140">
-        <v>15</v>
-      </c>
       <c r="BD140">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="BE140">
         <v>8</v>
       </c>
       <c r="BF140">
-        <v>2.77</v>
+        <v>2.52</v>
       </c>
       <c r="BG140">
         <v>1.31</v>
@@ -29955,7 +29955,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7509712</v>
+        <v>7509714</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -29964,49 +29964,49 @@
         <v>69</v>
       </c>
       <c r="E141" s="2">
-        <v>45620.45833333334</v>
+        <v>45620.55208333334</v>
       </c>
       <c r="F141">
         <v>14</v>
       </c>
       <c r="G141" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H141" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L141">
         <v>1</v>
       </c>
       <c r="M141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O141" t="s">
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="Q141">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="R141">
         <v>2.1</v>
       </c>
       <c r="S141">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T141">
         <v>1.44</v>
@@ -30015,10 +30015,10 @@
         <v>2.63</v>
       </c>
       <c r="V141">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W141">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X141">
         <v>9</v>
@@ -30027,13 +30027,13 @@
         <v>1.07</v>
       </c>
       <c r="Z141">
-        <v>1.8</v>
+        <v>2.11</v>
       </c>
       <c r="AA141">
-        <v>3.5</v>
+        <v>3.16</v>
       </c>
       <c r="AB141">
-        <v>3.9</v>
+        <v>3.21</v>
       </c>
       <c r="AC141">
         <v>1.07</v>
@@ -30045,85 +30045,85 @@
         <v>1.33</v>
       </c>
       <c r="AF141">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AG141">
         <v>2</v>
       </c>
       <c r="AH141">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AI141">
+        <v>1.8</v>
+      </c>
+      <c r="AJ141">
         <v>1.95</v>
       </c>
-      <c r="AJ141">
-        <v>1.8</v>
-      </c>
       <c r="AK141">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="AL141">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM141">
-        <v>2</v>
+        <v>1.66</v>
       </c>
       <c r="AN141">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO141">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AP141">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AQ141">
-        <v>0.71</v>
+        <v>1.13</v>
       </c>
       <c r="AR141">
-        <v>1.37</v>
+        <v>1.62</v>
       </c>
       <c r="AS141">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AT141">
-        <v>2.52</v>
+        <v>2.87</v>
       </c>
       <c r="AU141">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV141">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW141">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="AX141">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY141">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AZ141">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA141">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BB141">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC141">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD141">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="BE141">
         <v>8</v>
       </c>
       <c r="BF141">
-        <v>2.52</v>
+        <v>2.33</v>
       </c>
       <c r="BG141">
         <v>1.31</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,15 @@
     <t>['45+3']</t>
   </si>
   <si>
+    <t>['42', '58', '90']</t>
+  </si>
+  <si>
+    <t>['1']</t>
+  </si>
+  <si>
+    <t>['21', '45+4']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -743,6 +752,21 @@
   </si>
   <si>
     <t>['52', '55']</t>
+  </si>
+  <si>
+    <t>['45+1', '77']</t>
+  </si>
+  <si>
+    <t>['53', '67', '70']</t>
+  </si>
+  <si>
+    <t>['3', '47', '71', '77']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['30', '38']</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2">
         <v>1.5</v>
@@ -1569,7 +1593,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1650,7 +1674,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ3">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1775,7 +1799,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -1853,10 +1877,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ4">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1981,7 +2005,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2187,7 +2211,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2393,7 +2417,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2805,7 +2829,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2883,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ9">
         <v>0.38</v>
@@ -3011,7 +3035,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3092,7 +3116,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ10">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3298,7 +3322,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ11">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3423,7 +3447,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3504,7 +3528,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3629,7 +3653,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -3707,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ13">
         <v>0.71</v>
@@ -3835,7 +3859,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3913,7 +3937,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ14">
         <v>0.86</v>
@@ -4119,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ15">
         <v>1.13</v>
@@ -4453,7 +4477,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -5071,7 +5095,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5149,7 +5173,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -5358,7 +5382,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ21">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR21">
         <v>1.33</v>
@@ -5483,7 +5507,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5564,7 +5588,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ22">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR22">
         <v>1.6</v>
@@ -5895,7 +5919,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -6101,7 +6125,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>3.24</v>
@@ -6179,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ25">
         <v>1.57</v>
@@ -6385,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26">
         <v>1.14</v>
@@ -6513,7 +6537,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -6800,7 +6824,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ28">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR28">
         <v>2.15</v>
@@ -7006,7 +7030,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR29">
         <v>1.89</v>
@@ -7621,10 +7645,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ32">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR32">
         <v>0.67</v>
@@ -7749,7 +7773,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7955,7 +7979,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8161,7 +8185,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8242,7 +8266,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ35">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR35">
         <v>1.36</v>
@@ -8367,7 +8391,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8445,7 +8469,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ36">
         <v>1.14</v>
@@ -8654,7 +8678,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ37">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR37">
         <v>1.58</v>
@@ -8857,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ38">
         <v>0.71</v>
@@ -8985,7 +9009,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9191,7 +9215,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9397,7 +9421,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9603,7 +9627,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9684,7 +9708,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ42">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR42">
         <v>1.75</v>
@@ -9887,10 +9911,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ43">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR43">
         <v>1.15</v>
@@ -10299,7 +10323,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ45">
         <v>0.71</v>
@@ -10427,7 +10451,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10839,7 +10863,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -10917,7 +10941,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ48">
         <v>0.86</v>
@@ -11045,7 +11069,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11126,7 +11150,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ49">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR49">
         <v>0.9399999999999999</v>
@@ -11251,7 +11275,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11457,7 +11481,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11663,7 +11687,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -11744,7 +11768,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ52">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR52">
         <v>1.42</v>
@@ -11950,7 +11974,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ53">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR53">
         <v>1.32</v>
@@ -12281,7 +12305,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12565,7 +12589,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ56">
         <v>0.71</v>
@@ -12771,7 +12795,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ57">
         <v>0.86</v>
@@ -12980,7 +13004,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ58">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR58">
         <v>1.74</v>
@@ -13105,7 +13129,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13186,7 +13210,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ59">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13389,7 +13413,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ60">
         <v>1.13</v>
@@ -13517,7 +13541,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13723,7 +13747,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -13801,7 +13825,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ62">
         <v>0.71</v>
@@ -14135,7 +14159,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>2.9</v>
@@ -14547,7 +14571,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14959,7 +14983,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15246,7 +15270,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR69">
         <v>1.8</v>
@@ -15371,7 +15395,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15449,7 +15473,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -15577,7 +15601,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15655,10 +15679,10 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ71">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR71">
         <v>1.89</v>
@@ -15783,7 +15807,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -15861,10 +15885,10 @@
         <v>1.25</v>
       </c>
       <c r="AP72">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ72">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR72">
         <v>0.97</v>
@@ -15989,7 +16013,7 @@
         <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16195,7 +16219,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16607,7 +16631,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -16813,7 +16837,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17019,7 +17043,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17097,7 +17121,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ78">
         <v>1.14</v>
@@ -17225,7 +17249,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17306,7 +17330,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ79">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR79">
         <v>1.53</v>
@@ -17431,7 +17455,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17512,7 +17536,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ80">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR80">
         <v>1.3</v>
@@ -17924,7 +17948,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ82">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR82">
         <v>1.28</v>
@@ -18049,7 +18073,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18127,7 +18151,7 @@
         <v>1.33</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ83">
         <v>1.57</v>
@@ -18255,7 +18279,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18539,7 +18563,7 @@
         <v>0.67</v>
       </c>
       <c r="AP85">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ85">
         <v>1.5</v>
@@ -18667,7 +18691,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18873,7 +18897,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -18951,10 +18975,10 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ87">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR87">
         <v>1.8</v>
@@ -19079,7 +19103,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19160,7 +19184,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ88">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR88">
         <v>1.29</v>
@@ -19285,7 +19309,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19569,7 +19593,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ90">
         <v>0.71</v>
@@ -19697,7 +19721,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -19984,7 +20008,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR92">
         <v>1.53</v>
@@ -20396,7 +20420,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ94">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR94">
         <v>1.63</v>
@@ -21014,7 +21038,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ97">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR97">
         <v>1.32</v>
@@ -21835,7 +21859,7 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ101">
         <v>0.38</v>
@@ -22169,7 +22193,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>3.3</v>
@@ -22247,7 +22271,7 @@
         <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103">
         <v>1.57</v>
@@ -22375,7 +22399,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22456,7 +22480,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ104">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR104">
         <v>1.28</v>
@@ -22581,7 +22605,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -22662,7 +22686,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ105">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR105">
         <v>1.48</v>
@@ -22865,7 +22889,7 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ106">
         <v>1.5</v>
@@ -23199,7 +23223,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>3.1</v>
@@ -23277,7 +23301,7 @@
         <v>0.75</v>
       </c>
       <c r="AP108">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ108">
         <v>0.71</v>
@@ -23483,7 +23507,7 @@
         <v>1.4</v>
       </c>
       <c r="AP109">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ109">
         <v>1.13</v>
@@ -23689,7 +23713,7 @@
         <v>1.67</v>
       </c>
       <c r="AP110">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ110">
         <v>1.5</v>
@@ -23898,7 +23922,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ111">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR111">
         <v>1.35</v>
@@ -24104,7 +24128,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ112">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR112">
         <v>1.57</v>
@@ -24229,7 +24253,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24516,7 +24540,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ114">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR114">
         <v>1.23</v>
@@ -25053,7 +25077,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25259,7 +25283,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25671,7 +25695,7 @@
         <v>102</v>
       </c>
       <c r="P120" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25749,7 +25773,7 @@
         <v>0.8</v>
       </c>
       <c r="AP120">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ120">
         <v>1.14</v>
@@ -26083,7 +26107,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26289,7 +26313,7 @@
         <v>102</v>
       </c>
       <c r="P123" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>3.8</v>
@@ -26367,10 +26391,10 @@
         <v>2</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ123">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR123">
         <v>1.52</v>
@@ -26907,7 +26931,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -26985,7 +27009,7 @@
         <v>1.2</v>
       </c>
       <c r="AP126">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ126">
         <v>1.5</v>
@@ -27191,10 +27215,10 @@
         <v>1.67</v>
       </c>
       <c r="AP127">
-        <v>2.33</v>
+        <v>2.14</v>
       </c>
       <c r="AQ127">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR127">
         <v>1.2</v>
@@ -27319,7 +27343,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27525,7 +27549,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -27603,7 +27627,7 @@
         <v>0.4</v>
       </c>
       <c r="AP129">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ129">
         <v>0.83</v>
@@ -27731,7 +27755,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27809,10 +27833,10 @@
         <v>0.8</v>
       </c>
       <c r="AP130">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ130">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR130">
         <v>1.24</v>
@@ -27937,7 +27961,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28018,7 +28042,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR131">
         <v>1.62</v>
@@ -28143,7 +28167,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28224,7 +28248,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ132">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="AR132">
         <v>1.56</v>
@@ -28967,7 +28991,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29173,7 +29197,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q137">
         <v>2.6</v>
@@ -29379,7 +29403,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29997,7 +30021,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30154,6 +30178,1242 @@
       </c>
       <c r="BP141">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7509723</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45625.6875</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>77</v>
+      </c>
+      <c r="H142" t="s">
+        <v>84</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142">
+        <v>2</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>102</v>
+      </c>
+      <c r="P142" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q142">
+        <v>4.2</v>
+      </c>
+      <c r="R142">
+        <v>2.1</v>
+      </c>
+      <c r="S142">
+        <v>2.5</v>
+      </c>
+      <c r="T142">
+        <v>1.4</v>
+      </c>
+      <c r="U142">
+        <v>2.75</v>
+      </c>
+      <c r="V142">
+        <v>2.8</v>
+      </c>
+      <c r="W142">
+        <v>1.38</v>
+      </c>
+      <c r="X142">
+        <v>6.9</v>
+      </c>
+      <c r="Y142">
+        <v>1.07</v>
+      </c>
+      <c r="Z142">
+        <v>3.3</v>
+      </c>
+      <c r="AA142">
+        <v>3.45</v>
+      </c>
+      <c r="AB142">
+        <v>2.1</v>
+      </c>
+      <c r="AC142">
+        <v>1.06</v>
+      </c>
+      <c r="AD142">
+        <v>8.5</v>
+      </c>
+      <c r="AE142">
+        <v>1.3</v>
+      </c>
+      <c r="AF142">
+        <v>3.35</v>
+      </c>
+      <c r="AG142">
+        <v>1.91</v>
+      </c>
+      <c r="AH142">
+        <v>1.87</v>
+      </c>
+      <c r="AI142">
+        <v>1.73</v>
+      </c>
+      <c r="AJ142">
+        <v>1.95</v>
+      </c>
+      <c r="AK142">
+        <v>1.8</v>
+      </c>
+      <c r="AL142">
+        <v>1.25</v>
+      </c>
+      <c r="AM142">
+        <v>1.25</v>
+      </c>
+      <c r="AN142">
+        <v>1.29</v>
+      </c>
+      <c r="AO142">
+        <v>2.14</v>
+      </c>
+      <c r="AP142">
+        <v>1.13</v>
+      </c>
+      <c r="AQ142">
+        <v>2.25</v>
+      </c>
+      <c r="AR142">
+        <v>1.2</v>
+      </c>
+      <c r="AS142">
+        <v>1.48</v>
+      </c>
+      <c r="AT142">
+        <v>2.68</v>
+      </c>
+      <c r="AU142">
+        <v>6</v>
+      </c>
+      <c r="AV142">
+        <v>5</v>
+      </c>
+      <c r="AW142">
+        <v>8</v>
+      </c>
+      <c r="AX142">
+        <v>2</v>
+      </c>
+      <c r="AY142">
+        <v>19</v>
+      </c>
+      <c r="AZ142">
+        <v>9</v>
+      </c>
+      <c r="BA142">
+        <v>3</v>
+      </c>
+      <c r="BB142">
+        <v>2</v>
+      </c>
+      <c r="BC142">
+        <v>5</v>
+      </c>
+      <c r="BD142">
+        <v>2.43</v>
+      </c>
+      <c r="BE142">
+        <v>6.25</v>
+      </c>
+      <c r="BF142">
+        <v>1.61</v>
+      </c>
+      <c r="BG142">
+        <v>1.33</v>
+      </c>
+      <c r="BH142">
+        <v>2.95</v>
+      </c>
+      <c r="BI142">
+        <v>1.56</v>
+      </c>
+      <c r="BJ142">
+        <v>2.23</v>
+      </c>
+      <c r="BK142">
+        <v>1.98</v>
+      </c>
+      <c r="BL142">
+        <v>1.82</v>
+      </c>
+      <c r="BM142">
+        <v>2.43</v>
+      </c>
+      <c r="BN142">
+        <v>1.48</v>
+      </c>
+      <c r="BO142">
+        <v>3.15</v>
+      </c>
+      <c r="BP142">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7509725</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45626.45833333334</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>81</v>
+      </c>
+      <c r="H143" t="s">
+        <v>78</v>
+      </c>
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>3</v>
+      </c>
+      <c r="N143">
+        <v>6</v>
+      </c>
+      <c r="O143" t="s">
+        <v>179</v>
+      </c>
+      <c r="P143" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q143">
+        <v>2.55</v>
+      </c>
+      <c r="R143">
+        <v>2</v>
+      </c>
+      <c r="S143">
+        <v>4.33</v>
+      </c>
+      <c r="T143">
+        <v>1.45</v>
+      </c>
+      <c r="U143">
+        <v>2.55</v>
+      </c>
+      <c r="V143">
+        <v>3</v>
+      </c>
+      <c r="W143">
+        <v>1.33</v>
+      </c>
+      <c r="X143">
+        <v>7.9</v>
+      </c>
+      <c r="Y143">
+        <v>1.05</v>
+      </c>
+      <c r="Z143">
+        <v>1.93</v>
+      </c>
+      <c r="AA143">
+        <v>3.4</v>
+      </c>
+      <c r="AB143">
+        <v>3.8</v>
+      </c>
+      <c r="AC143">
+        <v>1.06</v>
+      </c>
+      <c r="AD143">
+        <v>8.5</v>
+      </c>
+      <c r="AE143">
+        <v>1.36</v>
+      </c>
+      <c r="AF143">
+        <v>3.1</v>
+      </c>
+      <c r="AG143">
+        <v>2</v>
+      </c>
+      <c r="AH143">
+        <v>1.7</v>
+      </c>
+      <c r="AI143">
+        <v>1.85</v>
+      </c>
+      <c r="AJ143">
+        <v>1.83</v>
+      </c>
+      <c r="AK143">
+        <v>1.22</v>
+      </c>
+      <c r="AL143">
+        <v>1.25</v>
+      </c>
+      <c r="AM143">
+        <v>1.85</v>
+      </c>
+      <c r="AN143">
+        <v>1.17</v>
+      </c>
+      <c r="AO143">
+        <v>0.83</v>
+      </c>
+      <c r="AP143">
+        <v>1.14</v>
+      </c>
+      <c r="AQ143">
+        <v>0.86</v>
+      </c>
+      <c r="AR143">
+        <v>1.37</v>
+      </c>
+      <c r="AS143">
+        <v>1.2</v>
+      </c>
+      <c r="AT143">
+        <v>2.57</v>
+      </c>
+      <c r="AU143">
+        <v>8</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>5</v>
+      </c>
+      <c r="AX143">
+        <v>1</v>
+      </c>
+      <c r="AY143">
+        <v>16</v>
+      </c>
+      <c r="AZ143">
+        <v>6</v>
+      </c>
+      <c r="BA143">
+        <v>5</v>
+      </c>
+      <c r="BB143">
+        <v>1</v>
+      </c>
+      <c r="BC143">
+        <v>6</v>
+      </c>
+      <c r="BD143">
+        <v>1.58</v>
+      </c>
+      <c r="BE143">
+        <v>6.1</v>
+      </c>
+      <c r="BF143">
+        <v>2.48</v>
+      </c>
+      <c r="BG143">
+        <v>1.46</v>
+      </c>
+      <c r="BH143">
+        <v>2.48</v>
+      </c>
+      <c r="BI143">
+        <v>1.76</v>
+      </c>
+      <c r="BJ143">
+        <v>1.94</v>
+      </c>
+      <c r="BK143">
+        <v>2.2</v>
+      </c>
+      <c r="BL143">
+        <v>1.57</v>
+      </c>
+      <c r="BM143">
+        <v>2.85</v>
+      </c>
+      <c r="BN143">
+        <v>1.36</v>
+      </c>
+      <c r="BO143">
+        <v>3.8</v>
+      </c>
+      <c r="BP143">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7509726</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45626.45833333334</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>72</v>
+      </c>
+      <c r="H144" t="s">
+        <v>82</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144">
+        <v>4</v>
+      </c>
+      <c r="N144">
+        <v>4</v>
+      </c>
+      <c r="O144" t="s">
+        <v>102</v>
+      </c>
+      <c r="P144" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q144">
+        <v>3.95</v>
+      </c>
+      <c r="R144">
+        <v>1.9</v>
+      </c>
+      <c r="S144">
+        <v>2.95</v>
+      </c>
+      <c r="T144">
+        <v>1.55</v>
+      </c>
+      <c r="U144">
+        <v>2.3</v>
+      </c>
+      <c r="V144">
+        <v>3.45</v>
+      </c>
+      <c r="W144">
+        <v>1.25</v>
+      </c>
+      <c r="X144">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y144">
+        <v>1.03</v>
+      </c>
+      <c r="Z144">
+        <v>3.3</v>
+      </c>
+      <c r="AA144">
+        <v>3.1</v>
+      </c>
+      <c r="AB144">
+        <v>2.25</v>
+      </c>
+      <c r="AC144">
+        <v>1.1</v>
+      </c>
+      <c r="AD144">
+        <v>6.5</v>
+      </c>
+      <c r="AE144">
+        <v>1.5</v>
+      </c>
+      <c r="AF144">
+        <v>2.55</v>
+      </c>
+      <c r="AG144">
+        <v>2.35</v>
+      </c>
+      <c r="AH144">
+        <v>1.51</v>
+      </c>
+      <c r="AI144">
+        <v>2</v>
+      </c>
+      <c r="AJ144">
+        <v>1.7</v>
+      </c>
+      <c r="AK144">
+        <v>1.62</v>
+      </c>
+      <c r="AL144">
+        <v>1.3</v>
+      </c>
+      <c r="AM144">
+        <v>1.3</v>
+      </c>
+      <c r="AN144">
+        <v>1</v>
+      </c>
+      <c r="AO144">
+        <v>1.43</v>
+      </c>
+      <c r="AP144">
+        <v>0.88</v>
+      </c>
+      <c r="AQ144">
+        <v>1.63</v>
+      </c>
+      <c r="AR144">
+        <v>1.46</v>
+      </c>
+      <c r="AS144">
+        <v>1.39</v>
+      </c>
+      <c r="AT144">
+        <v>2.85</v>
+      </c>
+      <c r="AU144">
+        <v>3</v>
+      </c>
+      <c r="AV144">
+        <v>9</v>
+      </c>
+      <c r="AW144">
+        <v>8</v>
+      </c>
+      <c r="AX144">
+        <v>4</v>
+      </c>
+      <c r="AY144">
+        <v>14</v>
+      </c>
+      <c r="AZ144">
+        <v>16</v>
+      </c>
+      <c r="BA144">
+        <v>4</v>
+      </c>
+      <c r="BB144">
+        <v>4</v>
+      </c>
+      <c r="BC144">
+        <v>8</v>
+      </c>
+      <c r="BD144">
+        <v>2.23</v>
+      </c>
+      <c r="BE144">
+        <v>6.1</v>
+      </c>
+      <c r="BF144">
+        <v>1.73</v>
+      </c>
+      <c r="BG144">
+        <v>1.4</v>
+      </c>
+      <c r="BH144">
+        <v>2.65</v>
+      </c>
+      <c r="BI144">
+        <v>1.68</v>
+      </c>
+      <c r="BJ144">
+        <v>2.05</v>
+      </c>
+      <c r="BK144">
+        <v>2.08</v>
+      </c>
+      <c r="BL144">
+        <v>1.66</v>
+      </c>
+      <c r="BM144">
+        <v>2.65</v>
+      </c>
+      <c r="BN144">
+        <v>1.41</v>
+      </c>
+      <c r="BO144">
+        <v>3.45</v>
+      </c>
+      <c r="BP144">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7509717</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45626.45833333334</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>70</v>
+      </c>
+      <c r="H145" t="s">
+        <v>71</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>2</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>180</v>
+      </c>
+      <c r="P145" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q145">
+        <v>3.25</v>
+      </c>
+      <c r="R145">
+        <v>2</v>
+      </c>
+      <c r="S145">
+        <v>3.25</v>
+      </c>
+      <c r="T145">
+        <v>1.45</v>
+      </c>
+      <c r="U145">
+        <v>2.55</v>
+      </c>
+      <c r="V145">
+        <v>2.95</v>
+      </c>
+      <c r="W145">
+        <v>1.35</v>
+      </c>
+      <c r="X145">
+        <v>6.85</v>
+      </c>
+      <c r="Y145">
+        <v>1.07</v>
+      </c>
+      <c r="Z145">
+        <v>2.65</v>
+      </c>
+      <c r="AA145">
+        <v>3.1</v>
+      </c>
+      <c r="AB145">
+        <v>2.6</v>
+      </c>
+      <c r="AC145">
+        <v>1.07</v>
+      </c>
+      <c r="AD145">
+        <v>8</v>
+      </c>
+      <c r="AE145">
+        <v>1.38</v>
+      </c>
+      <c r="AF145">
+        <v>3</v>
+      </c>
+      <c r="AG145">
+        <v>2.1</v>
+      </c>
+      <c r="AH145">
+        <v>1.65</v>
+      </c>
+      <c r="AI145">
+        <v>1.77</v>
+      </c>
+      <c r="AJ145">
+        <v>1.91</v>
+      </c>
+      <c r="AK145">
+        <v>1.45</v>
+      </c>
+      <c r="AL145">
+        <v>1.3</v>
+      </c>
+      <c r="AM145">
+        <v>1.45</v>
+      </c>
+      <c r="AN145">
+        <v>1.43</v>
+      </c>
+      <c r="AO145">
+        <v>1.5</v>
+      </c>
+      <c r="AP145">
+        <v>1.38</v>
+      </c>
+      <c r="AQ145">
+        <v>1.43</v>
+      </c>
+      <c r="AR145">
+        <v>1.73</v>
+      </c>
+      <c r="AS145">
+        <v>1.32</v>
+      </c>
+      <c r="AT145">
+        <v>3.05</v>
+      </c>
+      <c r="AU145">
+        <v>5</v>
+      </c>
+      <c r="AV145">
+        <v>3</v>
+      </c>
+      <c r="AW145">
+        <v>7</v>
+      </c>
+      <c r="AX145">
+        <v>6</v>
+      </c>
+      <c r="AY145">
+        <v>13</v>
+      </c>
+      <c r="AZ145">
+        <v>15</v>
+      </c>
+      <c r="BA145">
+        <v>2</v>
+      </c>
+      <c r="BB145">
+        <v>3</v>
+      </c>
+      <c r="BC145">
+        <v>5</v>
+      </c>
+      <c r="BD145">
+        <v>1.97</v>
+      </c>
+      <c r="BE145">
+        <v>6.1</v>
+      </c>
+      <c r="BF145">
+        <v>1.95</v>
+      </c>
+      <c r="BG145">
+        <v>1.35</v>
+      </c>
+      <c r="BH145">
+        <v>2.9</v>
+      </c>
+      <c r="BI145">
+        <v>1.58</v>
+      </c>
+      <c r="BJ145">
+        <v>2.18</v>
+      </c>
+      <c r="BK145">
+        <v>1.96</v>
+      </c>
+      <c r="BL145">
+        <v>1.74</v>
+      </c>
+      <c r="BM145">
+        <v>2.48</v>
+      </c>
+      <c r="BN145">
+        <v>1.47</v>
+      </c>
+      <c r="BO145">
+        <v>3.2</v>
+      </c>
+      <c r="BP145">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7509718</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45626.45833333334</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>87</v>
+      </c>
+      <c r="H146" t="s">
+        <v>88</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>2</v>
+      </c>
+      <c r="K146">
+        <v>4</v>
+      </c>
+      <c r="L146">
+        <v>2</v>
+      </c>
+      <c r="M146">
+        <v>2</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146" t="s">
+        <v>181</v>
+      </c>
+      <c r="P146" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q146">
+        <v>3.1</v>
+      </c>
+      <c r="R146">
+        <v>1.9</v>
+      </c>
+      <c r="S146">
+        <v>3.7</v>
+      </c>
+      <c r="T146">
+        <v>1.53</v>
+      </c>
+      <c r="U146">
+        <v>2.35</v>
+      </c>
+      <c r="V146">
+        <v>3.4</v>
+      </c>
+      <c r="W146">
+        <v>1.28</v>
+      </c>
+      <c r="X146">
+        <v>8.1</v>
+      </c>
+      <c r="Y146">
+        <v>1.04</v>
+      </c>
+      <c r="Z146">
+        <v>2.4</v>
+      </c>
+      <c r="AA146">
+        <v>3</v>
+      </c>
+      <c r="AB146">
+        <v>3.1</v>
+      </c>
+      <c r="AC146">
+        <v>1.1</v>
+      </c>
+      <c r="AD146">
+        <v>6.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.49</v>
+      </c>
+      <c r="AF146">
+        <v>2.4</v>
+      </c>
+      <c r="AG146">
+        <v>2.29</v>
+      </c>
+      <c r="AH146">
+        <v>1.55</v>
+      </c>
+      <c r="AI146">
+        <v>1.95</v>
+      </c>
+      <c r="AJ146">
+        <v>1.73</v>
+      </c>
+      <c r="AK146">
+        <v>1.36</v>
+      </c>
+      <c r="AL146">
+        <v>1.33</v>
+      </c>
+      <c r="AM146">
+        <v>1.53</v>
+      </c>
+      <c r="AN146">
+        <v>0.67</v>
+      </c>
+      <c r="AO146">
+        <v>1.43</v>
+      </c>
+      <c r="AP146">
+        <v>0.71</v>
+      </c>
+      <c r="AQ146">
+        <v>1.38</v>
+      </c>
+      <c r="AR146">
+        <v>1.34</v>
+      </c>
+      <c r="AS146">
+        <v>1.08</v>
+      </c>
+      <c r="AT146">
+        <v>2.42</v>
+      </c>
+      <c r="AU146">
+        <v>8</v>
+      </c>
+      <c r="AV146">
+        <v>5</v>
+      </c>
+      <c r="AW146">
+        <v>4</v>
+      </c>
+      <c r="AX146">
+        <v>2</v>
+      </c>
+      <c r="AY146">
+        <v>16</v>
+      </c>
+      <c r="AZ146">
+        <v>8</v>
+      </c>
+      <c r="BA146">
+        <v>5</v>
+      </c>
+      <c r="BB146">
+        <v>3</v>
+      </c>
+      <c r="BC146">
+        <v>8</v>
+      </c>
+      <c r="BD146">
+        <v>1.84</v>
+      </c>
+      <c r="BE146">
+        <v>6.1</v>
+      </c>
+      <c r="BF146">
+        <v>2.07</v>
+      </c>
+      <c r="BG146">
+        <v>1.44</v>
+      </c>
+      <c r="BH146">
+        <v>2.55</v>
+      </c>
+      <c r="BI146">
+        <v>1.74</v>
+      </c>
+      <c r="BJ146">
+        <v>1.97</v>
+      </c>
+      <c r="BK146">
+        <v>2.18</v>
+      </c>
+      <c r="BL146">
+        <v>1.58</v>
+      </c>
+      <c r="BM146">
+        <v>2.8</v>
+      </c>
+      <c r="BN146">
+        <v>1.36</v>
+      </c>
+      <c r="BO146">
+        <v>3.7</v>
+      </c>
+      <c r="BP146">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7509720</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45626.55208333334</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>85</v>
+      </c>
+      <c r="H147" t="s">
+        <v>80</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>0</v>
+      </c>
+      <c r="O147" t="s">
+        <v>102</v>
+      </c>
+      <c r="P147" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q147">
+        <v>3.6</v>
+      </c>
+      <c r="R147">
+        <v>1.93</v>
+      </c>
+      <c r="S147">
+        <v>3.1</v>
+      </c>
+      <c r="T147">
+        <v>1.5</v>
+      </c>
+      <c r="U147">
+        <v>2.4</v>
+      </c>
+      <c r="V147">
+        <v>3.2</v>
+      </c>
+      <c r="W147">
+        <v>1.3</v>
+      </c>
+      <c r="X147">
+        <v>9</v>
+      </c>
+      <c r="Y147">
+        <v>1.03</v>
+      </c>
+      <c r="Z147">
+        <v>2.95</v>
+      </c>
+      <c r="AA147">
+        <v>3.1</v>
+      </c>
+      <c r="AB147">
+        <v>2.4</v>
+      </c>
+      <c r="AC147">
+        <v>1.09</v>
+      </c>
+      <c r="AD147">
+        <v>7</v>
+      </c>
+      <c r="AE147">
+        <v>1.42</v>
+      </c>
+      <c r="AF147">
+        <v>2.8</v>
+      </c>
+      <c r="AG147">
+        <v>2.2</v>
+      </c>
+      <c r="AH147">
+        <v>1.6</v>
+      </c>
+      <c r="AI147">
+        <v>1.9</v>
+      </c>
+      <c r="AJ147">
+        <v>1.77</v>
+      </c>
+      <c r="AK147">
+        <v>1.55</v>
+      </c>
+      <c r="AL147">
+        <v>1.3</v>
+      </c>
+      <c r="AM147">
+        <v>1.36</v>
+      </c>
+      <c r="AN147">
+        <v>2.33</v>
+      </c>
+      <c r="AO147">
+        <v>0.57</v>
+      </c>
+      <c r="AP147">
+        <v>2.14</v>
+      </c>
+      <c r="AQ147">
+        <v>0.63</v>
+      </c>
+      <c r="AR147">
+        <v>1.21</v>
+      </c>
+      <c r="AS147">
+        <v>1.03</v>
+      </c>
+      <c r="AT147">
+        <v>2.24</v>
+      </c>
+      <c r="AU147">
+        <v>5</v>
+      </c>
+      <c r="AV147">
+        <v>6</v>
+      </c>
+      <c r="AW147">
+        <v>10</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+      <c r="AY147">
+        <v>19</v>
+      </c>
+      <c r="AZ147">
+        <v>12</v>
+      </c>
+      <c r="BA147">
+        <v>6</v>
+      </c>
+      <c r="BB147">
+        <v>5</v>
+      </c>
+      <c r="BC147">
+        <v>11</v>
+      </c>
+      <c r="BD147">
+        <v>2.08</v>
+      </c>
+      <c r="BE147">
+        <v>5.8</v>
+      </c>
+      <c r="BF147">
+        <v>1.82</v>
+      </c>
+      <c r="BG147">
+        <v>1.43</v>
+      </c>
+      <c r="BH147">
+        <v>2.6</v>
+      </c>
+      <c r="BI147">
+        <v>1.75</v>
+      </c>
+      <c r="BJ147">
+        <v>1.96</v>
+      </c>
+      <c r="BK147">
+        <v>2.24</v>
+      </c>
+      <c r="BL147">
+        <v>1.57</v>
+      </c>
+      <c r="BM147">
+        <v>2.98</v>
+      </c>
+      <c r="BN147">
+        <v>1.34</v>
+      </c>
+      <c r="BO147">
+        <v>3.9</v>
+      </c>
+      <c r="BP147">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="258">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,18 @@
     <t>['21', '45+4']</t>
   </si>
   <si>
+    <t>['35', '64']</t>
+  </si>
+  <si>
+    <t>['5', '26']</t>
+  </si>
+  <si>
+    <t>['30', '45', '61']</t>
+  </si>
+  <si>
+    <t>['18', '20', '53', '89']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -767,6 +779,15 @@
   </si>
   <si>
     <t>['30', '38']</t>
+  </si>
+  <si>
+    <t>['72', '90+2']</t>
+  </si>
+  <si>
+    <t>['38', '80']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1149,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP147"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1593,7 +1614,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1799,7 +1820,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2005,7 +2026,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2083,10 +2104,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ5">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2211,7 +2232,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2289,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ6">
         <v>1.13</v>
@@ -2417,7 +2438,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2495,7 +2516,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>1.13</v>
@@ -2704,7 +2725,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ8">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2829,7 +2850,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3035,7 +3056,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3447,7 +3468,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3653,7 +3674,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -3859,7 +3880,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4352,7 +4373,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ16">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4477,7 +4498,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4761,7 +4782,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18">
         <v>1.5</v>
@@ -4970,7 +4991,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ19">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5095,7 +5116,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5176,7 +5197,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5507,7 +5528,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5919,7 +5940,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -5997,7 +6018,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ24">
         <v>1.13</v>
@@ -6125,7 +6146,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>3.24</v>
@@ -6537,7 +6558,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -6821,7 +6842,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>0.63</v>
@@ -7236,7 +7257,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ30">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR30">
         <v>1.65</v>
@@ -7773,7 +7794,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7979,7 +8000,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8057,7 +8078,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ34">
         <v>0.86</v>
@@ -8185,7 +8206,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8391,7 +8412,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8675,7 +8696,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>1.38</v>
@@ -9009,7 +9030,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9087,10 +9108,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9215,7 +9236,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9296,7 +9317,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ40">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR40">
         <v>1.5</v>
@@ -9421,7 +9442,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9502,7 +9523,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ41">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>1.16</v>
@@ -9627,7 +9648,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -10451,7 +10472,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10738,7 +10759,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ47">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR47">
         <v>1.62</v>
@@ -10863,7 +10884,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11069,7 +11090,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11275,7 +11296,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11481,7 +11502,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11559,7 +11580,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51">
         <v>1.57</v>
@@ -11687,7 +11708,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -12177,10 +12198,10 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR54">
         <v>2.1</v>
@@ -12305,7 +12326,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12383,7 +12404,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ55">
         <v>1.14</v>
@@ -13129,7 +13150,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13207,7 +13228,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>1.43</v>
@@ -13541,7 +13562,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13622,7 +13643,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ61">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.42</v>
@@ -13747,7 +13768,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -14034,7 +14055,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ63">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR63">
         <v>1.29</v>
@@ -14159,7 +14180,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>2.9</v>
@@ -14240,7 +14261,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR64">
         <v>1.44</v>
@@ -14571,7 +14592,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14983,7 +15004,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15267,7 +15288,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ69">
         <v>0.86</v>
@@ -15395,7 +15416,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15601,7 +15622,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15807,7 +15828,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16013,7 +16034,7 @@
         <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16091,10 +16112,10 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR73">
         <v>1.51</v>
@@ -16219,7 +16240,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16631,7 +16652,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -16709,10 +16730,10 @@
         <v>0.33</v>
       </c>
       <c r="AP76">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ76">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR76">
         <v>1.44</v>
@@ -16837,7 +16858,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17043,7 +17064,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17249,7 +17270,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17455,7 +17476,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17739,7 +17760,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ81">
         <v>0.71</v>
@@ -18073,7 +18094,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18279,7 +18300,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18357,10 +18378,10 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR84">
         <v>1.72</v>
@@ -18566,7 +18587,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -18691,7 +18712,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18897,7 +18918,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19103,7 +19124,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19309,7 +19330,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19721,7 +19742,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -20829,7 +20850,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ96">
         <v>0.86</v>
@@ -21653,7 +21674,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ100">
         <v>1.57</v>
@@ -22068,7 +22089,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ102">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR102">
         <v>1.3</v>
@@ -22193,7 +22214,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>3.3</v>
@@ -22274,7 +22295,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR103">
         <v>1.86</v>
@@ -22399,7 +22420,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22605,7 +22626,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -22892,7 +22913,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR106">
         <v>1.29</v>
@@ -23095,10 +23116,10 @@
         <v>0.25</v>
       </c>
       <c r="AP107">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ107">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR107">
         <v>1.73</v>
@@ -23223,7 +23244,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>3.1</v>
@@ -23919,7 +23940,7 @@
         <v>0.75</v>
       </c>
       <c r="AP111">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ111">
         <v>0.86</v>
@@ -24253,7 +24274,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -25077,7 +25098,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25283,7 +25304,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25567,7 +25588,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ119">
         <v>1.13</v>
@@ -25695,7 +25716,7 @@
         <v>102</v>
       </c>
       <c r="P120" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26107,7 +26128,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26185,7 +26206,7 @@
         <v>1.57</v>
       </c>
       <c r="AP122">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ122">
         <v>1.5</v>
@@ -26313,7 +26334,7 @@
         <v>102</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>3.8</v>
@@ -26597,7 +26618,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ124">
         <v>1.13</v>
@@ -26806,7 +26827,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ125">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR125">
         <v>1.55</v>
@@ -26931,7 +26952,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27012,7 +27033,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ126">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR126">
         <v>1.73</v>
@@ -27343,7 +27364,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27424,7 +27445,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ128">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR128">
         <v>1.36</v>
@@ -27549,7 +27570,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -27630,7 +27651,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ129">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR129">
         <v>1.41</v>
@@ -27755,7 +27776,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27961,7 +27982,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28039,7 +28060,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ131">
         <v>1.43</v>
@@ -28167,7 +28188,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28991,7 +29012,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29197,7 +29218,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q137">
         <v>2.6</v>
@@ -29403,7 +29424,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -30021,7 +30042,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30099,7 +30120,7 @@
         <v>1.14</v>
       </c>
       <c r="AP141">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ141">
         <v>1.13</v>
@@ -30227,7 +30248,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -30433,7 +30454,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q143">
         <v>2.55</v>
@@ -30639,7 +30660,7 @@
         <v>102</v>
       </c>
       <c r="P144" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q144">
         <v>3.95</v>
@@ -30845,7 +30866,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q145">
         <v>3.25</v>
@@ -31051,7 +31072,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31156,7 +31177,7 @@
         <v>2</v>
       </c>
       <c r="AY146">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ146">
         <v>8</v>
@@ -31414,6 +31435,830 @@
       </c>
       <c r="BP147">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7509721</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45627.45833333334</v>
+      </c>
+      <c r="F148">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>89</v>
+      </c>
+      <c r="H148" t="s">
+        <v>83</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>182</v>
+      </c>
+      <c r="P148" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q148">
+        <v>3</v>
+      </c>
+      <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>4</v>
+      </c>
+      <c r="T148">
+        <v>1.5</v>
+      </c>
+      <c r="U148">
+        <v>2.5</v>
+      </c>
+      <c r="V148">
+        <v>3.4</v>
+      </c>
+      <c r="W148">
+        <v>1.3</v>
+      </c>
+      <c r="X148">
+        <v>10</v>
+      </c>
+      <c r="Y148">
+        <v>1.06</v>
+      </c>
+      <c r="Z148">
+        <v>2.25</v>
+      </c>
+      <c r="AA148">
+        <v>3.16</v>
+      </c>
+      <c r="AB148">
+        <v>3.34</v>
+      </c>
+      <c r="AC148">
+        <v>1</v>
+      </c>
+      <c r="AD148">
+        <v>8.1</v>
+      </c>
+      <c r="AE148">
+        <v>1.4</v>
+      </c>
+      <c r="AF148">
+        <v>2.97</v>
+      </c>
+      <c r="AG148">
+        <v>2.15</v>
+      </c>
+      <c r="AH148">
+        <v>1.57</v>
+      </c>
+      <c r="AI148">
+        <v>1.95</v>
+      </c>
+      <c r="AJ148">
+        <v>1.8</v>
+      </c>
+      <c r="AK148">
+        <v>1.3</v>
+      </c>
+      <c r="AL148">
+        <v>1.3</v>
+      </c>
+      <c r="AM148">
+        <v>1.65</v>
+      </c>
+      <c r="AN148">
+        <v>1</v>
+      </c>
+      <c r="AO148">
+        <v>1.57</v>
+      </c>
+      <c r="AP148">
+        <v>1.29</v>
+      </c>
+      <c r="AQ148">
+        <v>1.38</v>
+      </c>
+      <c r="AR148">
+        <v>1.81</v>
+      </c>
+      <c r="AS148">
+        <v>1.28</v>
+      </c>
+      <c r="AT148">
+        <v>3.09</v>
+      </c>
+      <c r="AU148">
+        <v>10</v>
+      </c>
+      <c r="AV148">
+        <v>2</v>
+      </c>
+      <c r="AW148">
+        <v>5</v>
+      </c>
+      <c r="AX148">
+        <v>5</v>
+      </c>
+      <c r="AY148">
+        <v>20</v>
+      </c>
+      <c r="AZ148">
+        <v>11</v>
+      </c>
+      <c r="BA148">
+        <v>6</v>
+      </c>
+      <c r="BB148">
+        <v>5</v>
+      </c>
+      <c r="BC148">
+        <v>11</v>
+      </c>
+      <c r="BD148">
+        <v>1.65</v>
+      </c>
+      <c r="BE148">
+        <v>6.5</v>
+      </c>
+      <c r="BF148">
+        <v>2.35</v>
+      </c>
+      <c r="BG148">
+        <v>1.27</v>
+      </c>
+      <c r="BH148">
+        <v>3.38</v>
+      </c>
+      <c r="BI148">
+        <v>1.49</v>
+      </c>
+      <c r="BJ148">
+        <v>2.44</v>
+      </c>
+      <c r="BK148">
+        <v>1.82</v>
+      </c>
+      <c r="BL148">
+        <v>1.88</v>
+      </c>
+      <c r="BM148">
+        <v>2.32</v>
+      </c>
+      <c r="BN148">
+        <v>1.54</v>
+      </c>
+      <c r="BO148">
+        <v>3.05</v>
+      </c>
+      <c r="BP148">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7509722</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45627.45833333334</v>
+      </c>
+      <c r="F149">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>73</v>
+      </c>
+      <c r="H149" t="s">
+        <v>79</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>4</v>
+      </c>
+      <c r="O149" t="s">
+        <v>183</v>
+      </c>
+      <c r="P149" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q149">
+        <v>2.63</v>
+      </c>
+      <c r="R149">
+        <v>2.05</v>
+      </c>
+      <c r="S149">
+        <v>4.75</v>
+      </c>
+      <c r="T149">
+        <v>1.5</v>
+      </c>
+      <c r="U149">
+        <v>2.5</v>
+      </c>
+      <c r="V149">
+        <v>3.4</v>
+      </c>
+      <c r="W149">
+        <v>1.3</v>
+      </c>
+      <c r="X149">
+        <v>10</v>
+      </c>
+      <c r="Y149">
+        <v>1.06</v>
+      </c>
+      <c r="Z149">
+        <v>1.9</v>
+      </c>
+      <c r="AA149">
+        <v>3.34</v>
+      </c>
+      <c r="AB149">
+        <v>4.19</v>
+      </c>
+      <c r="AC149">
+        <v>1.04</v>
+      </c>
+      <c r="AD149">
+        <v>6.25</v>
+      </c>
+      <c r="AE149">
+        <v>1.4</v>
+      </c>
+      <c r="AF149">
+        <v>2.96</v>
+      </c>
+      <c r="AG149">
+        <v>2.1</v>
+      </c>
+      <c r="AH149">
+        <v>1.6</v>
+      </c>
+      <c r="AI149">
+        <v>2</v>
+      </c>
+      <c r="AJ149">
+        <v>1.75</v>
+      </c>
+      <c r="AK149">
+        <v>1.18</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.85</v>
+      </c>
+      <c r="AN149">
+        <v>2.43</v>
+      </c>
+      <c r="AO149">
+        <v>1.5</v>
+      </c>
+      <c r="AP149">
+        <v>2.25</v>
+      </c>
+      <c r="AQ149">
+        <v>1.43</v>
+      </c>
+      <c r="AR149">
+        <v>1.34</v>
+      </c>
+      <c r="AS149">
+        <v>1.34</v>
+      </c>
+      <c r="AT149">
+        <v>2.68</v>
+      </c>
+      <c r="AU149">
+        <v>-1</v>
+      </c>
+      <c r="AV149">
+        <v>-1</v>
+      </c>
+      <c r="AW149">
+        <v>-1</v>
+      </c>
+      <c r="AX149">
+        <v>-1</v>
+      </c>
+      <c r="AY149">
+        <v>-1</v>
+      </c>
+      <c r="AZ149">
+        <v>-1</v>
+      </c>
+      <c r="BA149">
+        <v>-1</v>
+      </c>
+      <c r="BB149">
+        <v>-1</v>
+      </c>
+      <c r="BC149">
+        <v>-1</v>
+      </c>
+      <c r="BD149">
+        <v>1.54</v>
+      </c>
+      <c r="BE149">
+        <v>6.25</v>
+      </c>
+      <c r="BF149">
+        <v>2.55</v>
+      </c>
+      <c r="BG149">
+        <v>1.29</v>
+      </c>
+      <c r="BH149">
+        <v>3.25</v>
+      </c>
+      <c r="BI149">
+        <v>1.52</v>
+      </c>
+      <c r="BJ149">
+        <v>2.36</v>
+      </c>
+      <c r="BK149">
+        <v>1.87</v>
+      </c>
+      <c r="BL149">
+        <v>1.83</v>
+      </c>
+      <c r="BM149">
+        <v>2.39</v>
+      </c>
+      <c r="BN149">
+        <v>1.51</v>
+      </c>
+      <c r="BO149">
+        <v>3.2</v>
+      </c>
+      <c r="BP149">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7509719</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45627.45833333334</v>
+      </c>
+      <c r="F150">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>75</v>
+      </c>
+      <c r="H150" t="s">
+        <v>76</v>
+      </c>
+      <c r="I150">
+        <v>2</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>3</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>5</v>
+      </c>
+      <c r="O150" t="s">
+        <v>184</v>
+      </c>
+      <c r="P150" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q150">
+        <v>3.6</v>
+      </c>
+      <c r="R150">
+        <v>2.05</v>
+      </c>
+      <c r="S150">
+        <v>3.2</v>
+      </c>
+      <c r="T150">
+        <v>1.44</v>
+      </c>
+      <c r="U150">
+        <v>2.63</v>
+      </c>
+      <c r="V150">
+        <v>3.4</v>
+      </c>
+      <c r="W150">
+        <v>1.3</v>
+      </c>
+      <c r="X150">
+        <v>10</v>
+      </c>
+      <c r="Y150">
+        <v>1.06</v>
+      </c>
+      <c r="Z150">
+        <v>2.74</v>
+      </c>
+      <c r="AA150">
+        <v>3.1</v>
+      </c>
+      <c r="AB150">
+        <v>2.68</v>
+      </c>
+      <c r="AC150">
+        <v>1.02</v>
+      </c>
+      <c r="AD150">
+        <v>7.3</v>
+      </c>
+      <c r="AE150">
+        <v>1.37</v>
+      </c>
+      <c r="AF150">
+        <v>3.1</v>
+      </c>
+      <c r="AG150">
+        <v>2.05</v>
+      </c>
+      <c r="AH150">
+        <v>1.65</v>
+      </c>
+      <c r="AI150">
+        <v>1.91</v>
+      </c>
+      <c r="AJ150">
+        <v>1.91</v>
+      </c>
+      <c r="AK150">
+        <v>1.55</v>
+      </c>
+      <c r="AL150">
+        <v>1.28</v>
+      </c>
+      <c r="AM150">
+        <v>1.38</v>
+      </c>
+      <c r="AN150">
+        <v>0.71</v>
+      </c>
+      <c r="AO150">
+        <v>0.83</v>
+      </c>
+      <c r="AP150">
+        <v>1</v>
+      </c>
+      <c r="AQ150">
+        <v>0.71</v>
+      </c>
+      <c r="AR150">
+        <v>1.37</v>
+      </c>
+      <c r="AS150">
+        <v>1.43</v>
+      </c>
+      <c r="AT150">
+        <v>2.8</v>
+      </c>
+      <c r="AU150">
+        <v>8</v>
+      </c>
+      <c r="AV150">
+        <v>8</v>
+      </c>
+      <c r="AW150">
+        <v>2</v>
+      </c>
+      <c r="AX150">
+        <v>1</v>
+      </c>
+      <c r="AY150">
+        <v>13</v>
+      </c>
+      <c r="AZ150">
+        <v>10</v>
+      </c>
+      <c r="BA150">
+        <v>2</v>
+      </c>
+      <c r="BB150">
+        <v>4</v>
+      </c>
+      <c r="BC150">
+        <v>6</v>
+      </c>
+      <c r="BD150">
+        <v>2.12</v>
+      </c>
+      <c r="BE150">
+        <v>6.25</v>
+      </c>
+      <c r="BF150">
+        <v>1.8</v>
+      </c>
+      <c r="BG150">
+        <v>1.31</v>
+      </c>
+      <c r="BH150">
+        <v>3.15</v>
+      </c>
+      <c r="BI150">
+        <v>1.55</v>
+      </c>
+      <c r="BJ150">
+        <v>2.29</v>
+      </c>
+      <c r="BK150">
+        <v>1.92</v>
+      </c>
+      <c r="BL150">
+        <v>1.79</v>
+      </c>
+      <c r="BM150">
+        <v>2.47</v>
+      </c>
+      <c r="BN150">
+        <v>1.48</v>
+      </c>
+      <c r="BO150">
+        <v>3.3</v>
+      </c>
+      <c r="BP150">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7509724</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45627.55208333334</v>
+      </c>
+      <c r="F151">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>74</v>
+      </c>
+      <c r="H151" t="s">
+        <v>86</v>
+      </c>
+      <c r="I151">
+        <v>2</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>3</v>
+      </c>
+      <c r="L151">
+        <v>4</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>5</v>
+      </c>
+      <c r="O151" t="s">
+        <v>185</v>
+      </c>
+      <c r="P151" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q151">
+        <v>2.75</v>
+      </c>
+      <c r="R151">
+        <v>2.05</v>
+      </c>
+      <c r="S151">
+        <v>4.5</v>
+      </c>
+      <c r="T151">
+        <v>1.5</v>
+      </c>
+      <c r="U151">
+        <v>2.5</v>
+      </c>
+      <c r="V151">
+        <v>3.4</v>
+      </c>
+      <c r="W151">
+        <v>1.3</v>
+      </c>
+      <c r="X151">
+        <v>10</v>
+      </c>
+      <c r="Y151">
+        <v>1.06</v>
+      </c>
+      <c r="Z151">
+        <v>2.08</v>
+      </c>
+      <c r="AA151">
+        <v>3.05</v>
+      </c>
+      <c r="AB151">
+        <v>3.41</v>
+      </c>
+      <c r="AC151">
+        <v>1.08</v>
+      </c>
+      <c r="AD151">
+        <v>7.5</v>
+      </c>
+      <c r="AE151">
+        <v>1.36</v>
+      </c>
+      <c r="AF151">
+        <v>2.95</v>
+      </c>
+      <c r="AG151">
+        <v>2.2</v>
+      </c>
+      <c r="AH151">
+        <v>1.6</v>
+      </c>
+      <c r="AI151">
+        <v>1.95</v>
+      </c>
+      <c r="AJ151">
+        <v>1.8</v>
+      </c>
+      <c r="AK151">
+        <v>1.25</v>
+      </c>
+      <c r="AL151">
+        <v>1.28</v>
+      </c>
+      <c r="AM151">
+        <v>1.75</v>
+      </c>
+      <c r="AN151">
+        <v>1.14</v>
+      </c>
+      <c r="AO151">
+        <v>0.57</v>
+      </c>
+      <c r="AP151">
+        <v>1.38</v>
+      </c>
+      <c r="AQ151">
+        <v>0.5</v>
+      </c>
+      <c r="AR151">
+        <v>1.67</v>
+      </c>
+      <c r="AS151">
+        <v>1.06</v>
+      </c>
+      <c r="AT151">
+        <v>2.73</v>
+      </c>
+      <c r="AU151">
+        <v>-1</v>
+      </c>
+      <c r="AV151">
+        <v>-1</v>
+      </c>
+      <c r="AW151">
+        <v>-1</v>
+      </c>
+      <c r="AX151">
+        <v>-1</v>
+      </c>
+      <c r="AY151">
+        <v>-1</v>
+      </c>
+      <c r="AZ151">
+        <v>-1</v>
+      </c>
+      <c r="BA151">
+        <v>-1</v>
+      </c>
+      <c r="BB151">
+        <v>-1</v>
+      </c>
+      <c r="BC151">
+        <v>-1</v>
+      </c>
+      <c r="BD151">
+        <v>1.64</v>
+      </c>
+      <c r="BE151">
+        <v>6.25</v>
+      </c>
+      <c r="BF151">
+        <v>2.4</v>
+      </c>
+      <c r="BG151">
+        <v>1.31</v>
+      </c>
+      <c r="BH151">
+        <v>3.15</v>
+      </c>
+      <c r="BI151">
+        <v>1.55</v>
+      </c>
+      <c r="BJ151">
+        <v>2.29</v>
+      </c>
+      <c r="BK151">
+        <v>1.92</v>
+      </c>
+      <c r="BL151">
+        <v>1.79</v>
+      </c>
+      <c r="BM151">
+        <v>2.47</v>
+      </c>
+      <c r="BN151">
+        <v>1.48</v>
+      </c>
+      <c r="BO151">
+        <v>3.3</v>
+      </c>
+      <c r="BP151">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -562,13 +562,13 @@
     <t>['21', '45+4']</t>
   </si>
   <si>
+    <t>['30', '45', '61']</t>
+  </si>
+  <si>
     <t>['35', '64']</t>
   </si>
   <si>
     <t>['5', '26']</t>
-  </si>
-  <si>
-    <t>['30', '45', '61']</t>
   </si>
   <si>
     <t>['18', '20', '53', '89']</t>
@@ -781,10 +781,10 @@
     <t>['30', '38']</t>
   </si>
   <si>
-    <t>['72', '90+2']</t>
+    <t>['38', '80']</t>
   </si>
   <si>
-    <t>['38', '80']</t>
+    <t>['72', '90+2']</t>
   </si>
   <si>
     <t>['41']</t>
@@ -30353,7 +30353,7 @@
         <v>2</v>
       </c>
       <c r="AY142">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ142">
         <v>9</v>
@@ -31442,7 +31442,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7509721</v>
+        <v>7509719</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31451,55 +31451,55 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45627.45833333334</v>
+        <v>45626.875</v>
       </c>
       <c r="F148">
         <v>15</v>
       </c>
       <c r="G148" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H148" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M148">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N148">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O148" t="s">
         <v>182</v>
       </c>
       <c r="P148" t="s">
-        <v>102</v>
+        <v>255</v>
       </c>
       <c r="Q148">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="R148">
         <v>2.05</v>
       </c>
       <c r="S148">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="T148">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U148">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V148">
         <v>3.4</v>
@@ -31514,133 +31514,133 @@
         <v>1.06</v>
       </c>
       <c r="Z148">
-        <v>2.25</v>
+        <v>2.74</v>
       </c>
       <c r="AA148">
-        <v>3.16</v>
+        <v>3.1</v>
       </c>
       <c r="AB148">
-        <v>3.34</v>
+        <v>2.68</v>
       </c>
       <c r="AC148">
-        <v>1</v>
+        <v>1.02</v>
       </c>
       <c r="AD148">
-        <v>8.1</v>
+        <v>7.3</v>
       </c>
       <c r="AE148">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AF148">
-        <v>2.97</v>
+        <v>3.1</v>
       </c>
       <c r="AG148">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AH148">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AI148">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AJ148">
+        <v>1.91</v>
+      </c>
+      <c r="AK148">
+        <v>1.55</v>
+      </c>
+      <c r="AL148">
+        <v>1.28</v>
+      </c>
+      <c r="AM148">
+        <v>1.38</v>
+      </c>
+      <c r="AN148">
+        <v>0.71</v>
+      </c>
+      <c r="AO148">
+        <v>0.83</v>
+      </c>
+      <c r="AP148">
+        <v>1</v>
+      </c>
+      <c r="AQ148">
+        <v>0.71</v>
+      </c>
+      <c r="AR148">
+        <v>1.37</v>
+      </c>
+      <c r="AS148">
+        <v>1.43</v>
+      </c>
+      <c r="AT148">
+        <v>2.8</v>
+      </c>
+      <c r="AU148">
+        <v>8</v>
+      </c>
+      <c r="AV148">
+        <v>8</v>
+      </c>
+      <c r="AW148">
+        <v>2</v>
+      </c>
+      <c r="AX148">
+        <v>1</v>
+      </c>
+      <c r="AY148">
+        <v>13</v>
+      </c>
+      <c r="AZ148">
+        <v>10</v>
+      </c>
+      <c r="BA148">
+        <v>2</v>
+      </c>
+      <c r="BB148">
+        <v>4</v>
+      </c>
+      <c r="BC148">
+        <v>6</v>
+      </c>
+      <c r="BD148">
+        <v>2.12</v>
+      </c>
+      <c r="BE148">
+        <v>6.25</v>
+      </c>
+      <c r="BF148">
         <v>1.8</v>
       </c>
-      <c r="AK148">
-        <v>1.3</v>
-      </c>
-      <c r="AL148">
-        <v>1.3</v>
-      </c>
-      <c r="AM148">
-        <v>1.65</v>
-      </c>
-      <c r="AN148">
-        <v>1</v>
-      </c>
-      <c r="AO148">
-        <v>1.57</v>
-      </c>
-      <c r="AP148">
+      <c r="BG148">
+        <v>1.31</v>
+      </c>
+      <c r="BH148">
+        <v>3.15</v>
+      </c>
+      <c r="BI148">
+        <v>1.55</v>
+      </c>
+      <c r="BJ148">
+        <v>2.29</v>
+      </c>
+      <c r="BK148">
+        <v>1.92</v>
+      </c>
+      <c r="BL148">
+        <v>1.79</v>
+      </c>
+      <c r="BM148">
+        <v>2.47</v>
+      </c>
+      <c r="BN148">
+        <v>1.48</v>
+      </c>
+      <c r="BO148">
+        <v>3.3</v>
+      </c>
+      <c r="BP148">
         <v>1.29</v>
-      </c>
-      <c r="AQ148">
-        <v>1.38</v>
-      </c>
-      <c r="AR148">
-        <v>1.81</v>
-      </c>
-      <c r="AS148">
-        <v>1.28</v>
-      </c>
-      <c r="AT148">
-        <v>3.09</v>
-      </c>
-      <c r="AU148">
-        <v>10</v>
-      </c>
-      <c r="AV148">
-        <v>2</v>
-      </c>
-      <c r="AW148">
-        <v>5</v>
-      </c>
-      <c r="AX148">
-        <v>5</v>
-      </c>
-      <c r="AY148">
-        <v>20</v>
-      </c>
-      <c r="AZ148">
-        <v>11</v>
-      </c>
-      <c r="BA148">
-        <v>6</v>
-      </c>
-      <c r="BB148">
-        <v>5</v>
-      </c>
-      <c r="BC148">
-        <v>11</v>
-      </c>
-      <c r="BD148">
-        <v>1.65</v>
-      </c>
-      <c r="BE148">
-        <v>6.5</v>
-      </c>
-      <c r="BF148">
-        <v>2.35</v>
-      </c>
-      <c r="BG148">
-        <v>1.27</v>
-      </c>
-      <c r="BH148">
-        <v>3.38</v>
-      </c>
-      <c r="BI148">
-        <v>1.49</v>
-      </c>
-      <c r="BJ148">
-        <v>2.44</v>
-      </c>
-      <c r="BK148">
-        <v>1.82</v>
-      </c>
-      <c r="BL148">
-        <v>1.88</v>
-      </c>
-      <c r="BM148">
-        <v>2.32</v>
-      </c>
-      <c r="BN148">
-        <v>1.54</v>
-      </c>
-      <c r="BO148">
-        <v>3.05</v>
-      </c>
-      <c r="BP148">
-        <v>1.33</v>
       </c>
     </row>
     <row r="149" spans="1:68">
@@ -31648,7 +31648,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7509722</v>
+        <v>7509721</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31663,43 +31663,43 @@
         <v>15</v>
       </c>
       <c r="G149" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H149" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L149">
         <v>2</v>
       </c>
       <c r="M149">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N149">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O149" t="s">
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c r="Q149">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="R149">
         <v>2.05</v>
       </c>
       <c r="S149">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="T149">
         <v>1.5</v>
@@ -31720,133 +31720,133 @@
         <v>1.06</v>
       </c>
       <c r="Z149">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="AA149">
+        <v>3.16</v>
+      </c>
+      <c r="AB149">
         <v>3.34</v>
       </c>
-      <c r="AB149">
-        <v>4.19</v>
-      </c>
       <c r="AC149">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="AD149">
-        <v>6.25</v>
+        <v>8.1</v>
       </c>
       <c r="AE149">
         <v>1.4</v>
       </c>
       <c r="AF149">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="AG149">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AH149">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AI149">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AJ149">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AK149">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AL149">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM149">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AN149">
-        <v>2.43</v>
+        <v>1</v>
       </c>
       <c r="AO149">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AP149">
-        <v>2.25</v>
+        <v>1.29</v>
       </c>
       <c r="AQ149">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR149">
-        <v>1.34</v>
+        <v>1.81</v>
       </c>
       <c r="AS149">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AT149">
-        <v>2.68</v>
+        <v>3.09</v>
       </c>
       <c r="AU149">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AV149">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AW149">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX149">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY149">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="AZ149">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA149">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB149">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC149">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD149">
+        <v>1.65</v>
+      </c>
+      <c r="BE149">
+        <v>6.5</v>
+      </c>
+      <c r="BF149">
+        <v>2.35</v>
+      </c>
+      <c r="BG149">
+        <v>1.27</v>
+      </c>
+      <c r="BH149">
+        <v>3.38</v>
+      </c>
+      <c r="BI149">
+        <v>1.49</v>
+      </c>
+      <c r="BJ149">
+        <v>2.44</v>
+      </c>
+      <c r="BK149">
+        <v>1.82</v>
+      </c>
+      <c r="BL149">
+        <v>1.88</v>
+      </c>
+      <c r="BM149">
+        <v>2.32</v>
+      </c>
+      <c r="BN149">
         <v>1.54</v>
       </c>
-      <c r="BE149">
-        <v>6.25</v>
-      </c>
-      <c r="BF149">
-        <v>2.55</v>
-      </c>
-      <c r="BG149">
-        <v>1.29</v>
-      </c>
-      <c r="BH149">
-        <v>3.25</v>
-      </c>
-      <c r="BI149">
-        <v>1.52</v>
-      </c>
-      <c r="BJ149">
-        <v>2.36</v>
-      </c>
-      <c r="BK149">
-        <v>1.87</v>
-      </c>
-      <c r="BL149">
-        <v>1.83</v>
-      </c>
-      <c r="BM149">
-        <v>2.39</v>
-      </c>
-      <c r="BN149">
-        <v>1.51</v>
-      </c>
       <c r="BO149">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="BP149">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -31854,7 +31854,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7509719</v>
+        <v>7509722</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31869,28 +31869,28 @@
         <v>15</v>
       </c>
       <c r="G150" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H150" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I150">
         <v>2</v>
       </c>
       <c r="J150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M150">
         <v>2</v>
       </c>
       <c r="N150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O150" t="s">
         <v>184</v>
@@ -31899,19 +31899,19 @@
         <v>256</v>
       </c>
       <c r="Q150">
-        <v>3.6</v>
+        <v>2.63</v>
       </c>
       <c r="R150">
         <v>2.05</v>
       </c>
       <c r="S150">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="T150">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U150">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V150">
         <v>3.4</v>
@@ -31926,133 +31926,133 @@
         <v>1.06</v>
       </c>
       <c r="Z150">
-        <v>2.74</v>
+        <v>1.9</v>
       </c>
       <c r="AA150">
-        <v>3.1</v>
+        <v>3.34</v>
       </c>
       <c r="AB150">
+        <v>4.19</v>
+      </c>
+      <c r="AC150">
+        <v>1.04</v>
+      </c>
+      <c r="AD150">
+        <v>6.25</v>
+      </c>
+      <c r="AE150">
+        <v>1.4</v>
+      </c>
+      <c r="AF150">
+        <v>2.96</v>
+      </c>
+      <c r="AG150">
+        <v>2.1</v>
+      </c>
+      <c r="AH150">
+        <v>1.6</v>
+      </c>
+      <c r="AI150">
+        <v>2</v>
+      </c>
+      <c r="AJ150">
+        <v>1.75</v>
+      </c>
+      <c r="AK150">
+        <v>1.18</v>
+      </c>
+      <c r="AL150">
+        <v>1.25</v>
+      </c>
+      <c r="AM150">
+        <v>1.85</v>
+      </c>
+      <c r="AN150">
+        <v>2.43</v>
+      </c>
+      <c r="AO150">
+        <v>1.5</v>
+      </c>
+      <c r="AP150">
+        <v>2.25</v>
+      </c>
+      <c r="AQ150">
+        <v>1.43</v>
+      </c>
+      <c r="AR150">
+        <v>1.34</v>
+      </c>
+      <c r="AS150">
+        <v>1.34</v>
+      </c>
+      <c r="AT150">
         <v>2.68</v>
       </c>
-      <c r="AC150">
-        <v>1.02</v>
-      </c>
-      <c r="AD150">
-        <v>7.3</v>
-      </c>
-      <c r="AE150">
-        <v>1.37</v>
-      </c>
-      <c r="AF150">
-        <v>3.1</v>
-      </c>
-      <c r="AG150">
-        <v>2.05</v>
-      </c>
-      <c r="AH150">
-        <v>1.65</v>
-      </c>
-      <c r="AI150">
-        <v>1.91</v>
-      </c>
-      <c r="AJ150">
-        <v>1.91</v>
-      </c>
-      <c r="AK150">
-        <v>1.55</v>
-      </c>
-      <c r="AL150">
-        <v>1.28</v>
-      </c>
-      <c r="AM150">
-        <v>1.38</v>
-      </c>
-      <c r="AN150">
-        <v>0.71</v>
-      </c>
-      <c r="AO150">
-        <v>0.83</v>
-      </c>
-      <c r="AP150">
-        <v>1</v>
-      </c>
-      <c r="AQ150">
-        <v>0.71</v>
-      </c>
-      <c r="AR150">
-        <v>1.37</v>
-      </c>
-      <c r="AS150">
-        <v>1.43</v>
-      </c>
-      <c r="AT150">
-        <v>2.8</v>
-      </c>
       <c r="AU150">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV150">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW150">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX150">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY150">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ150">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BA150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB150">
+        <v>1</v>
+      </c>
+      <c r="BC150">
         <v>4</v>
       </c>
-      <c r="BC150">
-        <v>6</v>
-      </c>
       <c r="BD150">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="BE150">
         <v>6.25</v>
       </c>
       <c r="BF150">
-        <v>1.8</v>
+        <v>2.55</v>
       </c>
       <c r="BG150">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="BH150">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="BI150">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="BJ150">
-        <v>2.29</v>
+        <v>2.36</v>
       </c>
       <c r="BK150">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="BL150">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="BM150">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="BN150">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="BO150">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="BP150">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -32195,31 +32195,31 @@
         <v>2.73</v>
       </c>
       <c r="AU151">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AV151">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW151">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX151">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY151">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AZ151">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BA151">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB151">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC151">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD151">
         <v>1.64</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -562,13 +562,13 @@
     <t>['21', '45+4']</t>
   </si>
   <si>
-    <t>['30', '45', '61']</t>
-  </si>
-  <si>
     <t>['35', '64']</t>
   </si>
   <si>
     <t>['5', '26']</t>
+  </si>
+  <si>
+    <t>['30', '45', '61']</t>
   </si>
   <si>
     <t>['18', '20', '53', '89']</t>
@@ -781,10 +781,10 @@
     <t>['30', '38']</t>
   </si>
   <si>
-    <t>['38', '80']</t>
+    <t>['72', '90+2']</t>
   </si>
   <si>
-    <t>['72', '90+2']</t>
+    <t>['38', '80']</t>
   </si>
   <si>
     <t>['41']</t>
@@ -31442,7 +31442,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7509719</v>
+        <v>7509721</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31451,55 +31451,55 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45626.875</v>
+        <v>45627.45833333334</v>
       </c>
       <c r="F148">
         <v>15</v>
       </c>
       <c r="G148" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="H148" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="I148">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K148">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L148">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N148">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O148" t="s">
         <v>182</v>
       </c>
       <c r="P148" t="s">
-        <v>255</v>
+        <v>102</v>
       </c>
       <c r="Q148">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="R148">
         <v>2.05</v>
       </c>
       <c r="S148">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="T148">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U148">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V148">
         <v>3.4</v>
@@ -31514,133 +31514,133 @@
         <v>1.06</v>
       </c>
       <c r="Z148">
-        <v>2.74</v>
+        <v>2.25</v>
       </c>
       <c r="AA148">
-        <v>3.1</v>
+        <v>3.16</v>
       </c>
       <c r="AB148">
-        <v>2.68</v>
+        <v>3.34</v>
       </c>
       <c r="AC148">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="AD148">
-        <v>7.3</v>
+        <v>8.1</v>
       </c>
       <c r="AE148">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="AF148">
-        <v>3.1</v>
+        <v>2.97</v>
       </c>
       <c r="AG148">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="AH148">
+        <v>1.57</v>
+      </c>
+      <c r="AI148">
+        <v>1.95</v>
+      </c>
+      <c r="AJ148">
+        <v>1.8</v>
+      </c>
+      <c r="AK148">
+        <v>1.3</v>
+      </c>
+      <c r="AL148">
+        <v>1.3</v>
+      </c>
+      <c r="AM148">
         <v>1.65</v>
       </c>
-      <c r="AI148">
-        <v>1.91</v>
-      </c>
-      <c r="AJ148">
-        <v>1.91</v>
-      </c>
-      <c r="AK148">
-        <v>1.55</v>
-      </c>
-      <c r="AL148">
+      <c r="AN148">
+        <v>1</v>
+      </c>
+      <c r="AO148">
+        <v>1.57</v>
+      </c>
+      <c r="AP148">
+        <v>1.29</v>
+      </c>
+      <c r="AQ148">
+        <v>1.38</v>
+      </c>
+      <c r="AR148">
+        <v>1.81</v>
+      </c>
+      <c r="AS148">
         <v>1.28</v>
       </c>
-      <c r="AM148">
-        <v>1.38</v>
-      </c>
-      <c r="AN148">
-        <v>0.71</v>
-      </c>
-      <c r="AO148">
-        <v>0.83</v>
-      </c>
-      <c r="AP148">
-        <v>1</v>
-      </c>
-      <c r="AQ148">
-        <v>0.71</v>
-      </c>
-      <c r="AR148">
-        <v>1.37</v>
-      </c>
-      <c r="AS148">
-        <v>1.43</v>
-      </c>
       <c r="AT148">
-        <v>2.8</v>
+        <v>3.09</v>
       </c>
       <c r="AU148">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV148">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW148">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY148">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AZ148">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA148">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB148">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC148">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD148">
-        <v>2.12</v>
+        <v>1.65</v>
       </c>
       <c r="BE148">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="BF148">
-        <v>1.8</v>
+        <v>2.35</v>
       </c>
       <c r="BG148">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="BH148">
-        <v>3.15</v>
+        <v>3.38</v>
       </c>
       <c r="BI148">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="BJ148">
-        <v>2.29</v>
+        <v>2.44</v>
       </c>
       <c r="BK148">
-        <v>1.92</v>
+        <v>1.82</v>
       </c>
       <c r="BL148">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="BM148">
-        <v>2.47</v>
+        <v>2.32</v>
       </c>
       <c r="BN148">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="BO148">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BP148">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="149" spans="1:68">
@@ -31648,7 +31648,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7509721</v>
+        <v>7509722</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31663,43 +31663,43 @@
         <v>15</v>
       </c>
       <c r="G149" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="H149" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L149">
         <v>2</v>
       </c>
       <c r="M149">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N149">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O149" t="s">
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>102</v>
+        <v>255</v>
       </c>
       <c r="Q149">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R149">
         <v>2.05</v>
       </c>
       <c r="S149">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="T149">
         <v>1.5</v>
@@ -31720,133 +31720,133 @@
         <v>1.06</v>
       </c>
       <c r="Z149">
-        <v>2.25</v>
+        <v>1.9</v>
       </c>
       <c r="AA149">
-        <v>3.16</v>
+        <v>3.34</v>
       </c>
       <c r="AB149">
-        <v>3.34</v>
+        <v>4.19</v>
       </c>
       <c r="AC149">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="AD149">
-        <v>8.1</v>
+        <v>6.25</v>
       </c>
       <c r="AE149">
         <v>1.4</v>
       </c>
       <c r="AF149">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="AG149">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AH149">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AI149">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AJ149">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AK149">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AL149">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM149">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AN149">
-        <v>1</v>
+        <v>2.43</v>
       </c>
       <c r="AO149">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AP149">
-        <v>1.29</v>
+        <v>2.25</v>
       </c>
       <c r="AQ149">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="AR149">
-        <v>1.81</v>
+        <v>1.34</v>
       </c>
       <c r="AS149">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AT149">
-        <v>3.09</v>
+        <v>2.68</v>
       </c>
       <c r="AU149">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AV149">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AW149">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX149">
         <v>5</v>
       </c>
       <c r="AY149">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ149">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="BA149">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB149">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC149">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BD149">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="BE149">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF149">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="BG149">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="BH149">
-        <v>3.38</v>
+        <v>3.25</v>
       </c>
       <c r="BI149">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="BJ149">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="BK149">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="BL149">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="BM149">
-        <v>2.32</v>
+        <v>2.39</v>
       </c>
       <c r="BN149">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="BO149">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BP149">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -31854,7 +31854,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7509722</v>
+        <v>7509719</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31869,28 +31869,28 @@
         <v>15</v>
       </c>
       <c r="G150" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H150" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I150">
         <v>2</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L150">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M150">
         <v>2</v>
       </c>
       <c r="N150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O150" t="s">
         <v>184</v>
@@ -31899,19 +31899,19 @@
         <v>256</v>
       </c>
       <c r="Q150">
-        <v>2.63</v>
+        <v>3.6</v>
       </c>
       <c r="R150">
         <v>2.05</v>
       </c>
       <c r="S150">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="T150">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U150">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V150">
         <v>3.4</v>
@@ -31926,133 +31926,133 @@
         <v>1.06</v>
       </c>
       <c r="Z150">
-        <v>1.9</v>
+        <v>2.74</v>
       </c>
       <c r="AA150">
-        <v>3.34</v>
+        <v>3.1</v>
       </c>
       <c r="AB150">
-        <v>4.19</v>
+        <v>2.68</v>
       </c>
       <c r="AC150">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD150">
-        <v>6.25</v>
+        <v>7.3</v>
       </c>
       <c r="AE150">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="AF150">
-        <v>2.96</v>
+        <v>3.1</v>
       </c>
       <c r="AG150">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AH150">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="AI150">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AJ150">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AK150">
-        <v>1.18</v>
+        <v>1.55</v>
       </c>
       <c r="AL150">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM150">
-        <v>1.85</v>
+        <v>1.38</v>
       </c>
       <c r="AN150">
-        <v>2.43</v>
+        <v>0.71</v>
       </c>
       <c r="AO150">
-        <v>1.5</v>
+        <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AQ150">
+        <v>0.71</v>
+      </c>
+      <c r="AR150">
+        <v>1.37</v>
+      </c>
+      <c r="AS150">
         <v>1.43</v>
       </c>
-      <c r="AR150">
-        <v>1.34</v>
-      </c>
-      <c r="AS150">
-        <v>1.34</v>
-      </c>
       <c r="AT150">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="AU150">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV150">
+        <v>5</v>
+      </c>
+      <c r="AW150">
+        <v>5</v>
+      </c>
+      <c r="AX150">
+        <v>4</v>
+      </c>
+      <c r="AY150">
+        <v>11</v>
+      </c>
+      <c r="AZ150">
+        <v>9</v>
+      </c>
+      <c r="BA150">
+        <v>2</v>
+      </c>
+      <c r="BB150">
+        <v>4</v>
+      </c>
+      <c r="BC150">
         <v>6</v>
       </c>
-      <c r="AW150">
-        <v>6</v>
-      </c>
-      <c r="AX150">
-        <v>5</v>
-      </c>
-      <c r="AY150">
-        <v>17</v>
-      </c>
-      <c r="AZ150">
-        <v>19</v>
-      </c>
-      <c r="BA150">
-        <v>3</v>
-      </c>
-      <c r="BB150">
-        <v>1</v>
-      </c>
-      <c r="BC150">
-        <v>4</v>
-      </c>
       <c r="BD150">
-        <v>1.54</v>
+        <v>2.12</v>
       </c>
       <c r="BE150">
         <v>6.25</v>
       </c>
       <c r="BF150">
-        <v>2.55</v>
+        <v>1.8</v>
       </c>
       <c r="BG150">
+        <v>1.31</v>
+      </c>
+      <c r="BH150">
+        <v>3.15</v>
+      </c>
+      <c r="BI150">
+        <v>1.55</v>
+      </c>
+      <c r="BJ150">
+        <v>2.29</v>
+      </c>
+      <c r="BK150">
+        <v>1.92</v>
+      </c>
+      <c r="BL150">
+        <v>1.79</v>
+      </c>
+      <c r="BM150">
+        <v>2.47</v>
+      </c>
+      <c r="BN150">
+        <v>1.48</v>
+      </c>
+      <c r="BO150">
+        <v>3.3</v>
+      </c>
+      <c r="BP150">
         <v>1.29</v>
-      </c>
-      <c r="BH150">
-        <v>3.25</v>
-      </c>
-      <c r="BI150">
-        <v>1.52</v>
-      </c>
-      <c r="BJ150">
-        <v>2.36</v>
-      </c>
-      <c r="BK150">
-        <v>1.87</v>
-      </c>
-      <c r="BL150">
-        <v>1.83</v>
-      </c>
-      <c r="BM150">
-        <v>2.39</v>
-      </c>
-      <c r="BN150">
-        <v>1.51</v>
-      </c>
-      <c r="BO150">
-        <v>3.2</v>
-      </c>
-      <c r="BP150">
-        <v>1.3</v>
       </c>
     </row>
     <row r="151" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,9 @@
     <t>['18', '20', '53', '89']</t>
   </si>
   <si>
+    <t>['8', '79']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -788,6 +791,9 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1614,7 +1620,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1820,7 +1826,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2026,7 +2032,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2232,7 +2238,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2438,7 +2444,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2850,7 +2856,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3056,7 +3062,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3468,7 +3474,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3674,7 +3680,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -3880,7 +3886,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4498,7 +4504,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -5116,7 +5122,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5528,7 +5534,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5815,7 +5821,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ23">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5940,7 +5946,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -6146,7 +6152,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>3.24</v>
@@ -6558,7 +6564,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -7460,7 +7466,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ31">
         <v>0.38</v>
@@ -7794,7 +7800,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8000,7 +8006,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8206,7 +8212,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8412,7 +8418,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -9030,7 +9036,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9236,7 +9242,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9442,7 +9448,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9648,7 +9654,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -10472,7 +10478,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10550,7 +10556,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ46">
         <v>1.5</v>
@@ -10884,7 +10890,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -10965,7 +10971,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ48">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR48">
         <v>1.25</v>
@@ -11090,7 +11096,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11296,7 +11302,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11502,7 +11508,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11708,7 +11714,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -12326,7 +12332,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12819,7 +12825,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ57">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR57">
         <v>0.86</v>
@@ -13150,7 +13156,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13562,7 +13568,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13768,7 +13774,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -14180,7 +14186,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>2.9</v>
@@ -14592,7 +14598,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14876,7 +14882,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ67">
         <v>1.57</v>
@@ -15004,7 +15010,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15416,7 +15422,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15622,7 +15628,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15828,7 +15834,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16034,7 +16040,7 @@
         <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16240,7 +16246,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16652,7 +16658,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -16858,7 +16864,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -16939,7 +16945,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR77">
         <v>1.41</v>
@@ -17064,7 +17070,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17270,7 +17276,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17476,7 +17482,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18094,7 +18100,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18300,7 +18306,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18712,7 +18718,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18918,7 +18924,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19124,7 +19130,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19202,7 +19208,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ88">
         <v>1.63</v>
@@ -19330,7 +19336,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19742,7 +19748,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -21471,7 +21477,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ99">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR99">
         <v>1.26</v>
@@ -22214,7 +22220,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>3.3</v>
@@ -22420,7 +22426,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22498,7 +22504,7 @@
         <v>2.2</v>
       </c>
       <c r="AP104">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ104">
         <v>2.25</v>
@@ -22626,7 +22632,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -23244,7 +23250,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q108">
         <v>3.1</v>
@@ -24274,7 +24280,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24973,7 +24979,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ116">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
         <v>1.53</v>
@@ -25098,7 +25104,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25304,7 +25310,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25716,7 +25722,7 @@
         <v>102</v>
       </c>
       <c r="P120" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26128,7 +26134,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26334,7 +26340,7 @@
         <v>102</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>3.8</v>
@@ -26952,7 +26958,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27364,7 +27370,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27442,7 +27448,7 @@
         <v>1.33</v>
       </c>
       <c r="AP128">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ128">
         <v>1.38</v>
@@ -27570,7 +27576,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -27776,7 +27782,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27982,7 +27988,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28188,7 +28194,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28678,7 +28684,7 @@
         <v>1.17</v>
       </c>
       <c r="AP134">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ134">
         <v>1.14</v>
@@ -29012,7 +29018,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29218,7 +29224,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q137">
         <v>2.6</v>
@@ -29424,7 +29430,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29711,7 +29717,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ139">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR139">
         <v>1.53</v>
@@ -30042,7 +30048,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30248,7 +30254,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -30454,7 +30460,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q143">
         <v>2.55</v>
@@ -30660,7 +30666,7 @@
         <v>102</v>
       </c>
       <c r="P144" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q144">
         <v>3.95</v>
@@ -30866,7 +30872,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q145">
         <v>3.25</v>
@@ -31072,7 +31078,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31690,7 +31696,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q149">
         <v>2.63</v>
@@ -31896,7 +31902,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32102,7 +32108,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q151">
         <v>2.75</v>
@@ -32259,6 +32265,212 @@
       </c>
       <c r="BP151">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7509732</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45632.6875</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>88</v>
+      </c>
+      <c r="H152" t="s">
+        <v>72</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152" t="s">
+        <v>186</v>
+      </c>
+      <c r="P152" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q152">
+        <v>2.95</v>
+      </c>
+      <c r="R152">
+        <v>1.87</v>
+      </c>
+      <c r="S152">
+        <v>4.2</v>
+      </c>
+      <c r="T152">
+        <v>1.59</v>
+      </c>
+      <c r="U152">
+        <v>2.24</v>
+      </c>
+      <c r="V152">
+        <v>3.7</v>
+      </c>
+      <c r="W152">
+        <v>1.24</v>
+      </c>
+      <c r="X152">
+        <v>10.5</v>
+      </c>
+      <c r="Y152">
+        <v>1.02</v>
+      </c>
+      <c r="Z152">
+        <v>2.33</v>
+      </c>
+      <c r="AA152">
+        <v>2.98</v>
+      </c>
+      <c r="AB152">
+        <v>3.46</v>
+      </c>
+      <c r="AC152">
+        <v>1.11</v>
+      </c>
+      <c r="AD152">
+        <v>6.5</v>
+      </c>
+      <c r="AE152">
+        <v>1.54</v>
+      </c>
+      <c r="AF152">
+        <v>2.48</v>
+      </c>
+      <c r="AG152">
+        <v>2.6</v>
+      </c>
+      <c r="AH152">
+        <v>1.42</v>
+      </c>
+      <c r="AI152">
+        <v>2.2</v>
+      </c>
+      <c r="AJ152">
+        <v>1.62</v>
+      </c>
+      <c r="AK152">
+        <v>1.28</v>
+      </c>
+      <c r="AL152">
+        <v>1.3</v>
+      </c>
+      <c r="AM152">
+        <v>1.63</v>
+      </c>
+      <c r="AN152">
+        <v>1.14</v>
+      </c>
+      <c r="AO152">
+        <v>0.86</v>
+      </c>
+      <c r="AP152">
+        <v>1.38</v>
+      </c>
+      <c r="AQ152">
+        <v>0.75</v>
+      </c>
+      <c r="AR152">
+        <v>1.26</v>
+      </c>
+      <c r="AS152">
+        <v>1.07</v>
+      </c>
+      <c r="AT152">
+        <v>2.33</v>
+      </c>
+      <c r="AU152">
+        <v>5</v>
+      </c>
+      <c r="AV152">
+        <v>5</v>
+      </c>
+      <c r="AW152">
+        <v>7</v>
+      </c>
+      <c r="AX152">
+        <v>5</v>
+      </c>
+      <c r="AY152">
+        <v>17</v>
+      </c>
+      <c r="AZ152">
+        <v>14</v>
+      </c>
+      <c r="BA152">
+        <v>7</v>
+      </c>
+      <c r="BB152">
+        <v>3</v>
+      </c>
+      <c r="BC152">
+        <v>10</v>
+      </c>
+      <c r="BD152">
+        <v>1.71</v>
+      </c>
+      <c r="BE152">
+        <v>6.5</v>
+      </c>
+      <c r="BF152">
+        <v>2.4</v>
+      </c>
+      <c r="BG152">
+        <v>1.41</v>
+      </c>
+      <c r="BH152">
+        <v>2.65</v>
+      </c>
+      <c r="BI152">
+        <v>1.68</v>
+      </c>
+      <c r="BJ152">
+        <v>2.05</v>
+      </c>
+      <c r="BK152">
+        <v>2.08</v>
+      </c>
+      <c r="BL152">
+        <v>1.66</v>
+      </c>
+      <c r="BM152">
+        <v>2.65</v>
+      </c>
+      <c r="BN152">
+        <v>1.41</v>
+      </c>
+      <c r="BO152">
+        <v>3.45</v>
+      </c>
+      <c r="BP152">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,12 @@
     <t>['8', '79']</t>
   </si>
   <si>
+    <t>['77']</t>
+  </si>
+  <si>
+    <t>['28', '54']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -620,9 +626,6 @@
   </si>
   <si>
     <t>['12']</t>
-  </si>
-  <si>
-    <t>['77']</t>
   </si>
   <si>
     <t>['20', '35', '43', '87']</t>
@@ -794,6 +797,15 @@
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['8', '12', '66']</t>
+  </si>
+  <si>
+    <t>['47']</t>
+  </si>
+  <si>
+    <t>['13']</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,7 +1507,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1620,7 +1632,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1698,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ3">
         <v>1.38</v>
@@ -1826,7 +1838,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2032,7 +2044,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2238,7 +2250,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2444,7 +2456,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2856,7 +2868,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3062,7 +3074,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3346,7 +3358,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11">
         <v>1.63</v>
@@ -3474,7 +3486,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3552,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1.43</v>
@@ -3680,7 +3692,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -3761,7 +3773,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ13">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>1.31</v>
@@ -3886,7 +3898,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4504,7 +4516,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4585,7 +4597,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ17">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4791,7 +4803,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>1.49</v>
@@ -4997,7 +5009,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ19">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5122,7 +5134,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5200,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ20">
         <v>1.43</v>
@@ -5534,7 +5546,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5612,7 +5624,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ22">
         <v>2.25</v>
@@ -5818,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ23">
         <v>0.75</v>
@@ -5946,7 +5958,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -6152,7 +6164,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>3.24</v>
@@ -6233,7 +6245,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ25">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6564,7 +6576,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -6645,7 +6657,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ27">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR27">
         <v>1.54</v>
@@ -7260,7 +7272,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ30">
         <v>1.38</v>
@@ -7800,7 +7812,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7878,7 +7890,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ33">
         <v>1.13</v>
@@ -8006,7 +8018,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8212,7 +8224,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8418,7 +8430,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8908,10 +8920,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ38">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>1.18</v>
@@ -9036,7 +9048,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9242,7 +9254,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9323,7 +9335,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ40">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR40">
         <v>1.5</v>
@@ -9448,7 +9460,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9654,7 +9666,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -10144,7 +10156,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ44">
         <v>0.38</v>
@@ -10353,7 +10365,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ45">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR45">
         <v>1.98</v>
@@ -10478,7 +10490,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10559,7 +10571,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR46">
         <v>0.96</v>
@@ -10890,7 +10902,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11096,7 +11108,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11174,7 +11186,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ49">
         <v>2.25</v>
@@ -11302,7 +11314,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11380,7 +11392,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ50">
         <v>1.13</v>
@@ -11508,7 +11520,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11589,7 +11601,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -11714,7 +11726,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -11998,7 +12010,7 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ53">
         <v>2.25</v>
@@ -12207,7 +12219,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ54">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR54">
         <v>2.1</v>
@@ -12332,7 +12344,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12619,7 +12631,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ56">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR56">
         <v>1.46</v>
@@ -13028,7 +13040,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ58">
         <v>1.38</v>
@@ -13156,7 +13168,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13440,7 +13452,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ60">
         <v>1.13</v>
@@ -13568,7 +13580,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13774,7 +13786,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -13855,7 +13867,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ62">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.33</v>
@@ -14186,7 +14198,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>2.9</v>
@@ -14264,7 +14276,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ64">
         <v>1.43</v>
@@ -14470,7 +14482,7 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
         <v>0.86</v>
@@ -14598,7 +14610,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14885,7 +14897,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ67">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR67">
         <v>1.2</v>
@@ -15010,7 +15022,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15088,7 +15100,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
         <v>1.13</v>
@@ -15422,7 +15434,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15503,7 +15515,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ70">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.7</v>
@@ -15628,7 +15640,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15834,7 +15846,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16040,7 +16052,7 @@
         <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16246,7 +16258,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16658,7 +16670,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -16739,7 +16751,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ76">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR76">
         <v>1.44</v>
@@ -16864,7 +16876,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -16942,7 +16954,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ77">
         <v>0.75</v>
@@ -17070,7 +17082,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17148,7 +17160,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ78">
         <v>1.14</v>
@@ -17276,7 +17288,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17482,7 +17494,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17769,7 +17781,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ81">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -17972,7 +17984,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ82">
         <v>0.86</v>
@@ -18100,7 +18112,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18181,7 +18193,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ83">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR83">
         <v>1.66</v>
@@ -18306,7 +18318,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18718,7 +18730,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18796,10 +18808,10 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -18924,7 +18936,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19130,7 +19142,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19336,7 +19348,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19414,7 +19426,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ89">
         <v>0.38</v>
@@ -19623,7 +19635,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ90">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.38</v>
@@ -19748,7 +19760,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -20444,7 +20456,7 @@
         <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ94">
         <v>1.38</v>
@@ -20653,7 +20665,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ95">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR95">
         <v>1.55</v>
@@ -21268,7 +21280,7 @@
         <v>1.2</v>
       </c>
       <c r="AP98">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ98">
         <v>1.13</v>
@@ -21683,7 +21695,7 @@
         <v>1</v>
       </c>
       <c r="AQ100">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR100">
         <v>1.52</v>
@@ -22092,7 +22104,7 @@
         <v>0.6</v>
       </c>
       <c r="AP102">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ102">
         <v>0.5</v>
@@ -22220,7 +22232,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q103">
         <v>3.3</v>
@@ -22426,7 +22438,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22632,7 +22644,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -22710,7 +22722,7 @@
         <v>1.8</v>
       </c>
       <c r="AP105">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ105">
         <v>1.63</v>
@@ -23125,7 +23137,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ107">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR107">
         <v>1.73</v>
@@ -23250,7 +23262,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q108">
         <v>3.1</v>
@@ -23331,7 +23343,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ108">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR108">
         <v>1.52</v>
@@ -23740,10 +23752,10 @@
         <v>1.67</v>
       </c>
       <c r="AP110">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ110">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR110">
         <v>1.32</v>
@@ -24280,7 +24292,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24358,7 +24370,7 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ113">
         <v>0.86</v>
@@ -24564,7 +24576,7 @@
         <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ114">
         <v>1.38</v>
@@ -24773,7 +24785,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ115">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>1.26</v>
@@ -25104,7 +25116,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25182,10 +25194,10 @@
         <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ117">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR117">
         <v>1.61</v>
@@ -25310,7 +25322,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25391,7 +25403,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ118">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR118">
         <v>1.42</v>
@@ -25722,7 +25734,7 @@
         <v>102</v>
       </c>
       <c r="P120" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26134,7 +26146,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26215,7 +26227,7 @@
         <v>1</v>
       </c>
       <c r="AQ122">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR122">
         <v>1.46</v>
@@ -26340,7 +26352,7 @@
         <v>102</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q123">
         <v>3.8</v>
@@ -26830,7 +26842,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AQ125">
         <v>0.5</v>
@@ -26958,7 +26970,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27242,7 +27254,7 @@
         <v>1.67</v>
       </c>
       <c r="AP127">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ127">
         <v>1.63</v>
@@ -27370,7 +27382,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27576,7 +27588,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -27657,7 +27669,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ129">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR129">
         <v>1.41</v>
@@ -27782,7 +27794,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27988,7 +28000,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28194,7 +28206,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28272,7 +28284,7 @@
         <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AQ132">
         <v>0.63</v>
@@ -28481,7 +28493,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ133">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AR133">
         <v>1.46</v>
@@ -28890,10 +28902,10 @@
         <v>1.83</v>
       </c>
       <c r="AP135">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ135">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR135">
         <v>1.13</v>
@@ -29018,7 +29030,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29224,7 +29236,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q137">
         <v>2.6</v>
@@ -29430,7 +29442,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29508,7 +29520,7 @@
         <v>1.29</v>
       </c>
       <c r="AP138">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ138">
         <v>1.13</v>
@@ -29923,7 +29935,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ140">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR140">
         <v>1.37</v>
@@ -30048,7 +30060,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30254,7 +30266,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -30460,7 +30472,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q143">
         <v>2.55</v>
@@ -30666,7 +30678,7 @@
         <v>102</v>
       </c>
       <c r="P144" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q144">
         <v>3.95</v>
@@ -30872,7 +30884,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q145">
         <v>3.25</v>
@@ -31078,7 +31090,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31362,7 +31374,7 @@
         <v>0.57</v>
       </c>
       <c r="AP147">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ147">
         <v>0.63</v>
@@ -31696,7 +31708,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q149">
         <v>2.63</v>
@@ -31902,7 +31914,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -31983,7 +31995,7 @@
         <v>1</v>
       </c>
       <c r="AQ150">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR150">
         <v>1.37</v>
@@ -32108,7 +32120,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q151">
         <v>2.75</v>
@@ -32314,7 +32326,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q152">
         <v>2.95</v>
@@ -32471,6 +32483,1036 @@
       </c>
       <c r="BP152">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7509727</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45632.875</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>71</v>
+      </c>
+      <c r="H153" t="s">
+        <v>76</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>126</v>
+      </c>
+      <c r="P153" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q153">
+        <v>3.1</v>
+      </c>
+      <c r="R153">
+        <v>1.95</v>
+      </c>
+      <c r="S153">
+        <v>3.55</v>
+      </c>
+      <c r="T153">
+        <v>1.45</v>
+      </c>
+      <c r="U153">
+        <v>2.55</v>
+      </c>
+      <c r="V153">
+        <v>3</v>
+      </c>
+      <c r="W153">
+        <v>1.33</v>
+      </c>
+      <c r="X153">
+        <v>7.1</v>
+      </c>
+      <c r="Y153">
+        <v>1.06</v>
+      </c>
+      <c r="Z153">
+        <v>2.45</v>
+      </c>
+      <c r="AA153">
+        <v>3</v>
+      </c>
+      <c r="AB153">
+        <v>2.9</v>
+      </c>
+      <c r="AC153">
+        <v>1.07</v>
+      </c>
+      <c r="AD153">
+        <v>8</v>
+      </c>
+      <c r="AE153">
+        <v>1.38</v>
+      </c>
+      <c r="AF153">
+        <v>3</v>
+      </c>
+      <c r="AG153">
+        <v>1.96</v>
+      </c>
+      <c r="AH153">
+        <v>1.75</v>
+      </c>
+      <c r="AI153">
+        <v>1.8</v>
+      </c>
+      <c r="AJ153">
+        <v>1.85</v>
+      </c>
+      <c r="AK153">
+        <v>1.38</v>
+      </c>
+      <c r="AL153">
+        <v>1.3</v>
+      </c>
+      <c r="AM153">
+        <v>1.55</v>
+      </c>
+      <c r="AN153">
+        <v>1.38</v>
+      </c>
+      <c r="AO153">
+        <v>0.71</v>
+      </c>
+      <c r="AP153">
+        <v>1.56</v>
+      </c>
+      <c r="AQ153">
+        <v>0.63</v>
+      </c>
+      <c r="AR153">
+        <v>1.41</v>
+      </c>
+      <c r="AS153">
+        <v>1.4</v>
+      </c>
+      <c r="AT153">
+        <v>2.81</v>
+      </c>
+      <c r="AU153">
+        <v>4</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>2</v>
+      </c>
+      <c r="AX153">
+        <v>6</v>
+      </c>
+      <c r="AY153">
+        <v>6</v>
+      </c>
+      <c r="AZ153">
+        <v>19</v>
+      </c>
+      <c r="BA153">
+        <v>1</v>
+      </c>
+      <c r="BB153">
+        <v>4</v>
+      </c>
+      <c r="BC153">
+        <v>5</v>
+      </c>
+      <c r="BD153">
+        <v>1.88</v>
+      </c>
+      <c r="BE153">
+        <v>6.4</v>
+      </c>
+      <c r="BF153">
+        <v>2.15</v>
+      </c>
+      <c r="BG153">
+        <v>1.38</v>
+      </c>
+      <c r="BH153">
+        <v>2.8</v>
+      </c>
+      <c r="BI153">
+        <v>1.64</v>
+      </c>
+      <c r="BJ153">
+        <v>2.1</v>
+      </c>
+      <c r="BK153">
+        <v>2.02</v>
+      </c>
+      <c r="BL153">
+        <v>1.7</v>
+      </c>
+      <c r="BM153">
+        <v>2.55</v>
+      </c>
+      <c r="BN153">
+        <v>1.44</v>
+      </c>
+      <c r="BO153">
+        <v>3.4</v>
+      </c>
+      <c r="BP153">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7509728</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45633.45833333334</v>
+      </c>
+      <c r="F154">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>86</v>
+      </c>
+      <c r="H154" t="s">
+        <v>89</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>187</v>
+      </c>
+      <c r="P154" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q154">
+        <v>3.7</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>2.95</v>
+      </c>
+      <c r="T154">
+        <v>1.48</v>
+      </c>
+      <c r="U154">
+        <v>2.5</v>
+      </c>
+      <c r="V154">
+        <v>3.1</v>
+      </c>
+      <c r="W154">
+        <v>1.33</v>
+      </c>
+      <c r="X154">
+        <v>8</v>
+      </c>
+      <c r="Y154">
+        <v>1.05</v>
+      </c>
+      <c r="Z154">
+        <v>3.25</v>
+      </c>
+      <c r="AA154">
+        <v>3.1</v>
+      </c>
+      <c r="AB154">
+        <v>2.25</v>
+      </c>
+      <c r="AC154">
+        <v>1.08</v>
+      </c>
+      <c r="AD154">
+        <v>7.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.38</v>
+      </c>
+      <c r="AF154">
+        <v>2.95</v>
+      </c>
+      <c r="AG154">
+        <v>2.11</v>
+      </c>
+      <c r="AH154">
+        <v>1.65</v>
+      </c>
+      <c r="AI154">
+        <v>1.83</v>
+      </c>
+      <c r="AJ154">
+        <v>1.83</v>
+      </c>
+      <c r="AK154">
+        <v>1.6</v>
+      </c>
+      <c r="AL154">
+        <v>1.3</v>
+      </c>
+      <c r="AM154">
+        <v>1.33</v>
+      </c>
+      <c r="AN154">
+        <v>1.71</v>
+      </c>
+      <c r="AO154">
+        <v>1.5</v>
+      </c>
+      <c r="AP154">
+        <v>1.88</v>
+      </c>
+      <c r="AQ154">
+        <v>1.33</v>
+      </c>
+      <c r="AR154">
+        <v>1.17</v>
+      </c>
+      <c r="AS154">
+        <v>1.22</v>
+      </c>
+      <c r="AT154">
+        <v>2.39</v>
+      </c>
+      <c r="AU154">
+        <v>9</v>
+      </c>
+      <c r="AV154">
+        <v>0</v>
+      </c>
+      <c r="AW154">
+        <v>6</v>
+      </c>
+      <c r="AX154">
+        <v>12</v>
+      </c>
+      <c r="AY154">
+        <v>17</v>
+      </c>
+      <c r="AZ154">
+        <v>16</v>
+      </c>
+      <c r="BA154">
+        <v>5</v>
+      </c>
+      <c r="BB154">
+        <v>8</v>
+      </c>
+      <c r="BC154">
+        <v>13</v>
+      </c>
+      <c r="BD154">
+        <v>2.28</v>
+      </c>
+      <c r="BE154">
+        <v>6.4</v>
+      </c>
+      <c r="BF154">
+        <v>1.76</v>
+      </c>
+      <c r="BG154">
+        <v>1.36</v>
+      </c>
+      <c r="BH154">
+        <v>2.8</v>
+      </c>
+      <c r="BI154">
+        <v>1.61</v>
+      </c>
+      <c r="BJ154">
+        <v>2.15</v>
+      </c>
+      <c r="BK154">
+        <v>1.98</v>
+      </c>
+      <c r="BL154">
+        <v>1.73</v>
+      </c>
+      <c r="BM154">
+        <v>2.5</v>
+      </c>
+      <c r="BN154">
+        <v>1.46</v>
+      </c>
+      <c r="BO154">
+        <v>3.3</v>
+      </c>
+      <c r="BP154">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7509733</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45633.45833333334</v>
+      </c>
+      <c r="F155">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>85</v>
+      </c>
+      <c r="H155" t="s">
+        <v>73</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>2</v>
+      </c>
+      <c r="K155">
+        <v>3</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>3</v>
+      </c>
+      <c r="N155">
+        <v>5</v>
+      </c>
+      <c r="O155" t="s">
+        <v>188</v>
+      </c>
+      <c r="P155" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q155">
+        <v>3.7</v>
+      </c>
+      <c r="R155">
+        <v>1.95</v>
+      </c>
+      <c r="S155">
+        <v>2.95</v>
+      </c>
+      <c r="T155">
+        <v>1.48</v>
+      </c>
+      <c r="U155">
+        <v>2.5</v>
+      </c>
+      <c r="V155">
+        <v>3.1</v>
+      </c>
+      <c r="W155">
+        <v>1.33</v>
+      </c>
+      <c r="X155">
+        <v>8.1</v>
+      </c>
+      <c r="Y155">
+        <v>1.04</v>
+      </c>
+      <c r="Z155">
+        <v>3.1</v>
+      </c>
+      <c r="AA155">
+        <v>3.25</v>
+      </c>
+      <c r="AB155">
+        <v>2.25</v>
+      </c>
+      <c r="AC155">
+        <v>1.08</v>
+      </c>
+      <c r="AD155">
+        <v>7.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.4</v>
+      </c>
+      <c r="AF155">
+        <v>2.9</v>
+      </c>
+      <c r="AG155">
+        <v>2.12</v>
+      </c>
+      <c r="AH155">
+        <v>1.64</v>
+      </c>
+      <c r="AI155">
+        <v>1.83</v>
+      </c>
+      <c r="AJ155">
+        <v>1.83</v>
+      </c>
+      <c r="AK155">
+        <v>1.6</v>
+      </c>
+      <c r="AL155">
+        <v>1.3</v>
+      </c>
+      <c r="AM155">
+        <v>1.33</v>
+      </c>
+      <c r="AN155">
+        <v>2.14</v>
+      </c>
+      <c r="AO155">
+        <v>1.57</v>
+      </c>
+      <c r="AP155">
+        <v>1.88</v>
+      </c>
+      <c r="AQ155">
+        <v>1.75</v>
+      </c>
+      <c r="AR155">
+        <v>1.27</v>
+      </c>
+      <c r="AS155">
+        <v>1.05</v>
+      </c>
+      <c r="AT155">
+        <v>2.32</v>
+      </c>
+      <c r="AU155">
+        <v>8</v>
+      </c>
+      <c r="AV155">
+        <v>7</v>
+      </c>
+      <c r="AW155">
+        <v>6</v>
+      </c>
+      <c r="AX155">
+        <v>5</v>
+      </c>
+      <c r="AY155">
+        <v>16</v>
+      </c>
+      <c r="AZ155">
+        <v>16</v>
+      </c>
+      <c r="BA155">
+        <v>6</v>
+      </c>
+      <c r="BB155">
+        <v>3</v>
+      </c>
+      <c r="BC155">
+        <v>9</v>
+      </c>
+      <c r="BD155">
+        <v>2.17</v>
+      </c>
+      <c r="BE155">
+        <v>6.1</v>
+      </c>
+      <c r="BF155">
+        <v>1.85</v>
+      </c>
+      <c r="BG155">
+        <v>1.47</v>
+      </c>
+      <c r="BH155">
+        <v>2.48</v>
+      </c>
+      <c r="BI155">
+        <v>1.78</v>
+      </c>
+      <c r="BJ155">
+        <v>1.92</v>
+      </c>
+      <c r="BK155">
+        <v>2.25</v>
+      </c>
+      <c r="BL155">
+        <v>1.56</v>
+      </c>
+      <c r="BM155">
+        <v>2.9</v>
+      </c>
+      <c r="BN155">
+        <v>1.34</v>
+      </c>
+      <c r="BO155">
+        <v>3.9</v>
+      </c>
+      <c r="BP155">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7509734</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45633.45833333334</v>
+      </c>
+      <c r="F156">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>80</v>
+      </c>
+      <c r="H156" t="s">
+        <v>74</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>174</v>
+      </c>
+      <c r="P156" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q156">
+        <v>2.62</v>
+      </c>
+      <c r="R156">
+        <v>2</v>
+      </c>
+      <c r="S156">
+        <v>4.2</v>
+      </c>
+      <c r="T156">
+        <v>1.48</v>
+      </c>
+      <c r="U156">
+        <v>2.5</v>
+      </c>
+      <c r="V156">
+        <v>3.2</v>
+      </c>
+      <c r="W156">
+        <v>1.3</v>
+      </c>
+      <c r="X156">
+        <v>9.1</v>
+      </c>
+      <c r="Y156">
+        <v>1.03</v>
+      </c>
+      <c r="Z156">
+        <v>1.91</v>
+      </c>
+      <c r="AA156">
+        <v>3.25</v>
+      </c>
+      <c r="AB156">
+        <v>4</v>
+      </c>
+      <c r="AC156">
+        <v>1.07</v>
+      </c>
+      <c r="AD156">
+        <v>8</v>
+      </c>
+      <c r="AE156">
+        <v>1.38</v>
+      </c>
+      <c r="AF156">
+        <v>2.95</v>
+      </c>
+      <c r="AG156">
+        <v>2.11</v>
+      </c>
+      <c r="AH156">
+        <v>1.65</v>
+      </c>
+      <c r="AI156">
+        <v>1.93</v>
+      </c>
+      <c r="AJ156">
+        <v>1.75</v>
+      </c>
+      <c r="AK156">
+        <v>1.25</v>
+      </c>
+      <c r="AL156">
+        <v>1.25</v>
+      </c>
+      <c r="AM156">
+        <v>1.8</v>
+      </c>
+      <c r="AN156">
+        <v>1.57</v>
+      </c>
+      <c r="AO156">
+        <v>0.71</v>
+      </c>
+      <c r="AP156">
+        <v>1.5</v>
+      </c>
+      <c r="AQ156">
+        <v>0.75</v>
+      </c>
+      <c r="AR156">
+        <v>1.49</v>
+      </c>
+      <c r="AS156">
+        <v>1.09</v>
+      </c>
+      <c r="AT156">
+        <v>2.58</v>
+      </c>
+      <c r="AU156">
+        <v>6</v>
+      </c>
+      <c r="AV156">
+        <v>4</v>
+      </c>
+      <c r="AW156">
+        <v>4</v>
+      </c>
+      <c r="AX156">
+        <v>5</v>
+      </c>
+      <c r="AY156">
+        <v>15</v>
+      </c>
+      <c r="AZ156">
+        <v>12</v>
+      </c>
+      <c r="BA156">
+        <v>2</v>
+      </c>
+      <c r="BB156">
+        <v>4</v>
+      </c>
+      <c r="BC156">
+        <v>6</v>
+      </c>
+      <c r="BD156">
+        <v>1.61</v>
+      </c>
+      <c r="BE156">
+        <v>6.75</v>
+      </c>
+      <c r="BF156">
+        <v>2.55</v>
+      </c>
+      <c r="BG156">
+        <v>1.29</v>
+      </c>
+      <c r="BH156">
+        <v>3.15</v>
+      </c>
+      <c r="BI156">
+        <v>1.5</v>
+      </c>
+      <c r="BJ156">
+        <v>2.4</v>
+      </c>
+      <c r="BK156">
+        <v>1.79</v>
+      </c>
+      <c r="BL156">
+        <v>1.9</v>
+      </c>
+      <c r="BM156">
+        <v>2.23</v>
+      </c>
+      <c r="BN156">
+        <v>1.56</v>
+      </c>
+      <c r="BO156">
+        <v>2.9</v>
+      </c>
+      <c r="BP156">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7509730</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45633.55208333334</v>
+      </c>
+      <c r="F157">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>79</v>
+      </c>
+      <c r="H157" t="s">
+        <v>75</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>102</v>
+      </c>
+      <c r="P157" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q157">
+        <v>2.9</v>
+      </c>
+      <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>3.85</v>
+      </c>
+      <c r="T157">
+        <v>1.48</v>
+      </c>
+      <c r="U157">
+        <v>2.45</v>
+      </c>
+      <c r="V157">
+        <v>3.2</v>
+      </c>
+      <c r="W157">
+        <v>1.3</v>
+      </c>
+      <c r="X157">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y157">
+        <v>1.04</v>
+      </c>
+      <c r="Z157">
+        <v>2.31</v>
+      </c>
+      <c r="AA157">
+        <v>3.2</v>
+      </c>
+      <c r="AB157">
+        <v>3.45</v>
+      </c>
+      <c r="AC157">
+        <v>1.09</v>
+      </c>
+      <c r="AD157">
+        <v>7</v>
+      </c>
+      <c r="AE157">
+        <v>1.42</v>
+      </c>
+      <c r="AF157">
+        <v>2.8</v>
+      </c>
+      <c r="AG157">
+        <v>2.21</v>
+      </c>
+      <c r="AH157">
+        <v>1.59</v>
+      </c>
+      <c r="AI157">
+        <v>1.9</v>
+      </c>
+      <c r="AJ157">
+        <v>1.77</v>
+      </c>
+      <c r="AK157">
+        <v>1.3</v>
+      </c>
+      <c r="AL157">
+        <v>1.3</v>
+      </c>
+      <c r="AM157">
+        <v>1.62</v>
+      </c>
+      <c r="AN157">
+        <v>1.25</v>
+      </c>
+      <c r="AO157">
+        <v>0.71</v>
+      </c>
+      <c r="AP157">
+        <v>1.11</v>
+      </c>
+      <c r="AQ157">
+        <v>1</v>
+      </c>
+      <c r="AR157">
+        <v>1.58</v>
+      </c>
+      <c r="AS157">
+        <v>1.09</v>
+      </c>
+      <c r="AT157">
+        <v>2.67</v>
+      </c>
+      <c r="AU157">
+        <v>5</v>
+      </c>
+      <c r="AV157">
+        <v>7</v>
+      </c>
+      <c r="AW157">
+        <v>6</v>
+      </c>
+      <c r="AX157">
+        <v>5</v>
+      </c>
+      <c r="AY157">
+        <v>17</v>
+      </c>
+      <c r="AZ157">
+        <v>15</v>
+      </c>
+      <c r="BA157">
+        <v>9</v>
+      </c>
+      <c r="BB157">
+        <v>3</v>
+      </c>
+      <c r="BC157">
+        <v>12</v>
+      </c>
+      <c r="BD157">
+        <v>1.77</v>
+      </c>
+      <c r="BE157">
+        <v>6.4</v>
+      </c>
+      <c r="BF157">
+        <v>2.3</v>
+      </c>
+      <c r="BG157">
+        <v>1.3</v>
+      </c>
+      <c r="BH157">
+        <v>3.15</v>
+      </c>
+      <c r="BI157">
+        <v>1.52</v>
+      </c>
+      <c r="BJ157">
+        <v>2.33</v>
+      </c>
+      <c r="BK157">
+        <v>1.84</v>
+      </c>
+      <c r="BL157">
+        <v>1.84</v>
+      </c>
+      <c r="BM157">
+        <v>2.32</v>
+      </c>
+      <c r="BN157">
+        <v>1.53</v>
+      </c>
+      <c r="BO157">
+        <v>2.9</v>
+      </c>
+      <c r="BP157">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,10 +577,19 @@
     <t>['8', '79']</t>
   </si>
   <si>
+    <t>['28', '54']</t>
+  </si>
+  <si>
     <t>['77']</t>
   </si>
   <si>
-    <t>['28', '54']</t>
+    <t>['43', '90+8']</t>
+  </si>
+  <si>
+    <t>['34', '43', '45+3', '53', '67']</t>
+  </si>
+  <si>
+    <t>['25', '45', '64', '74', '90']</t>
   </si>
   <si>
     <t>['24', '45+2', '80']</t>
@@ -806,6 +815,12 @@
   </si>
   <si>
     <t>['13']</t>
+  </si>
+  <si>
+    <t>['2', '90']</t>
+  </si>
+  <si>
+    <t>['81']</t>
   </si>
 </sst>
 </file>
@@ -1167,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1632,7 +1647,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1838,7 +1853,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2044,7 +2059,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2250,7 +2265,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2331,7 +2346,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ6">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2456,7 +2471,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2537,7 +2552,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2868,7 +2883,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3074,7 +3089,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3152,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ10">
         <v>2.25</v>
@@ -3486,7 +3501,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3692,7 +3707,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -3898,7 +3913,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3979,7 +3994,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ14">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4185,7 +4200,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ15">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>1.84</v>
@@ -4388,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ16">
         <v>0.5</v>
@@ -4516,7 +4531,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4594,7 +4609,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -5006,7 +5021,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ19">
         <v>0.63</v>
@@ -5134,7 +5149,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5418,7 +5433,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ21">
         <v>1.38</v>
@@ -5546,7 +5561,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5958,7 +5973,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -6039,7 +6054,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR24">
         <v>1.67</v>
@@ -6164,7 +6179,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q25">
         <v>3.24</v>
@@ -6451,7 +6466,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ26">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -6576,7 +6591,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -6654,7 +6669,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ27">
         <v>1.33</v>
@@ -7812,7 +7827,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7893,7 +7908,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR33">
         <v>1.54</v>
@@ -8018,7 +8033,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -8099,7 +8114,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ34">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8224,7 +8239,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8302,7 +8317,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ35">
         <v>1.63</v>
@@ -8430,7 +8445,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8511,7 +8526,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ36">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.54</v>
@@ -9048,7 +9063,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9254,7 +9269,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9332,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ40">
         <v>0.63</v>
@@ -9460,7 +9475,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9538,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ41">
         <v>0.5</v>
@@ -9666,7 +9681,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -10490,7 +10505,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10774,7 +10789,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ47">
         <v>1.38</v>
@@ -10902,7 +10917,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11108,7 +11123,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11314,7 +11329,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11395,7 +11410,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ50">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR50">
         <v>1.3</v>
@@ -11520,7 +11535,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11726,7 +11741,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -11804,7 +11819,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ52">
         <v>1.63</v>
@@ -12344,7 +12359,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12425,7 +12440,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ55">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR55">
         <v>1.42</v>
@@ -13168,7 +13183,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13455,7 +13470,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ60">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>0.97</v>
@@ -13580,7 +13595,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13658,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ61">
         <v>0.5</v>
@@ -13786,7 +13801,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -14070,7 +14085,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ63">
         <v>1.38</v>
@@ -14198,7 +14213,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>2.9</v>
@@ -14485,7 +14500,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ65">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR65">
         <v>1.09</v>
@@ -14610,7 +14625,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15022,7 +15037,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15103,7 +15118,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ68">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR68">
         <v>1.55</v>
@@ -15434,7 +15449,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15640,7 +15655,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15846,7 +15861,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16052,7 +16067,7 @@
         <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16258,7 +16273,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16336,10 +16351,10 @@
         <v>1.5</v>
       </c>
       <c r="AP74">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ74">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.29</v>
@@ -16542,10 +16557,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ75">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR75">
         <v>1.77</v>
@@ -16670,7 +16685,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -16876,7 +16891,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17082,7 +17097,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17163,7 +17178,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ78">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.18</v>
@@ -17288,7 +17303,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17366,7 +17381,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ79">
         <v>1.43</v>
@@ -17494,7 +17509,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17572,7 +17587,7 @@
         <v>0.67</v>
       </c>
       <c r="AP80">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ80">
         <v>0.63</v>
@@ -18112,7 +18127,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18318,7 +18333,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18730,7 +18745,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18936,7 +18951,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19142,7 +19157,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19348,7 +19363,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19760,7 +19775,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -19841,7 +19856,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ91">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR91">
         <v>1.67</v>
@@ -20044,7 +20059,7 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ92">
         <v>1.43</v>
@@ -20253,7 +20268,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ93">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR93">
         <v>1.54</v>
@@ -20662,7 +20677,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ95">
         <v>0.75</v>
@@ -20871,7 +20886,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ96">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21074,7 +21089,7 @@
         <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ97">
         <v>0.63</v>
@@ -21283,7 +21298,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.24</v>
@@ -21486,7 +21501,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ99">
         <v>0.75</v>
@@ -22232,7 +22247,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>3.3</v>
@@ -22438,7 +22453,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22644,7 +22659,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -23262,7 +23277,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>3.1</v>
@@ -23549,7 +23564,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ109">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.52</v>
@@ -24164,7 +24179,7 @@
         <v>0.6</v>
       </c>
       <c r="AP112">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ112">
         <v>0.63</v>
@@ -24292,7 +24307,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24373,7 +24388,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ113">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR113">
         <v>1.36</v>
@@ -24782,7 +24797,7 @@
         <v>0.8</v>
       </c>
       <c r="AP115">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ115">
         <v>1</v>
@@ -25116,7 +25131,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25322,7 +25337,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25400,7 +25415,7 @@
         <v>1.6</v>
       </c>
       <c r="AP118">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ118">
         <v>1.75</v>
@@ -25609,7 +25624,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ119">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR119">
         <v>1.61</v>
@@ -25734,7 +25749,7 @@
         <v>102</v>
       </c>
       <c r="P120" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25815,7 +25830,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ120">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.28</v>
@@ -26018,7 +26033,7 @@
         <v>0.33</v>
       </c>
       <c r="AP121">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ121">
         <v>0.38</v>
@@ -26146,7 +26161,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26352,7 +26367,7 @@
         <v>102</v>
       </c>
       <c r="P123" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>3.8</v>
@@ -26639,7 +26654,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ124">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR124">
         <v>1.36</v>
@@ -26970,7 +26985,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27382,7 +27397,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27588,7 +27603,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -27794,7 +27809,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28000,7 +28015,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28206,7 +28221,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28490,7 +28505,7 @@
         <v>0.83</v>
       </c>
       <c r="AP133">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ133">
         <v>0.75</v>
@@ -28699,7 +28714,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ134">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR134">
         <v>1.28</v>
@@ -29030,7 +29045,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29108,7 +29123,7 @@
         <v>0.29</v>
       </c>
       <c r="AP136">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ136">
         <v>0.38</v>
@@ -29236,7 +29251,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q137">
         <v>2.6</v>
@@ -29317,7 +29332,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ137">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR137">
         <v>1.49</v>
@@ -29442,7 +29457,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29523,7 +29538,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ138">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR138">
         <v>1.4</v>
@@ -29726,7 +29741,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>2.71</v>
+        <v>2.75</v>
       </c>
       <c r="AQ139">
         <v>0.75</v>
@@ -29932,7 +29947,7 @@
         <v>0.83</v>
       </c>
       <c r="AP140">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ140">
         <v>1</v>
@@ -30060,7 +30075,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30141,7 +30156,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ141">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR141">
         <v>1.62</v>
@@ -30266,7 +30281,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -30472,7 +30487,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q143">
         <v>2.55</v>
@@ -30678,7 +30693,7 @@
         <v>102</v>
       </c>
       <c r="P144" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q144">
         <v>3.95</v>
@@ -30884,7 +30899,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q145">
         <v>3.25</v>
@@ -31090,7 +31105,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31708,7 +31723,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q149">
         <v>2.63</v>
@@ -31914,7 +31929,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32120,7 +32135,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q151">
         <v>2.75</v>
@@ -32326,7 +32341,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q152">
         <v>2.95</v>
@@ -32490,7 +32505,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7509727</v>
+        <v>7509733</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32505,190 +32520,190 @@
         <v>16</v>
       </c>
       <c r="G153" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H153" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K153">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M153">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O153" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="Q153">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="R153">
         <v>1.95</v>
       </c>
       <c r="S153">
-        <v>3.55</v>
+        <v>2.95</v>
       </c>
       <c r="T153">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U153">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="V153">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W153">
         <v>1.33</v>
       </c>
       <c r="X153">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="Y153">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z153">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="AA153">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AB153">
+        <v>2.25</v>
+      </c>
+      <c r="AC153">
+        <v>1.08</v>
+      </c>
+      <c r="AD153">
+        <v>7.5</v>
+      </c>
+      <c r="AE153">
+        <v>1.4</v>
+      </c>
+      <c r="AF153">
         <v>2.9</v>
       </c>
-      <c r="AC153">
-        <v>1.07</v>
-      </c>
-      <c r="AD153">
-        <v>8</v>
-      </c>
-      <c r="AE153">
-        <v>1.38</v>
-      </c>
-      <c r="AF153">
-        <v>3</v>
-      </c>
       <c r="AG153">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="AH153">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="AI153">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AJ153">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AK153">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AL153">
         <v>1.3</v>
       </c>
       <c r="AM153">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AN153">
-        <v>1.38</v>
+        <v>2.14</v>
       </c>
       <c r="AO153">
-        <v>0.71</v>
+        <v>1.57</v>
       </c>
       <c r="AP153">
+        <v>1.88</v>
+      </c>
+      <c r="AQ153">
+        <v>1.75</v>
+      </c>
+      <c r="AR153">
+        <v>1.27</v>
+      </c>
+      <c r="AS153">
+        <v>1.05</v>
+      </c>
+      <c r="AT153">
+        <v>2.32</v>
+      </c>
+      <c r="AU153">
+        <v>8</v>
+      </c>
+      <c r="AV153">
+        <v>7</v>
+      </c>
+      <c r="AW153">
+        <v>7</v>
+      </c>
+      <c r="AX153">
+        <v>5</v>
+      </c>
+      <c r="AY153">
+        <v>17</v>
+      </c>
+      <c r="AZ153">
+        <v>16</v>
+      </c>
+      <c r="BA153">
+        <v>6</v>
+      </c>
+      <c r="BB153">
+        <v>3</v>
+      </c>
+      <c r="BC153">
+        <v>9</v>
+      </c>
+      <c r="BD153">
+        <v>2.17</v>
+      </c>
+      <c r="BE153">
+        <v>6.1</v>
+      </c>
+      <c r="BF153">
+        <v>1.85</v>
+      </c>
+      <c r="BG153">
+        <v>1.47</v>
+      </c>
+      <c r="BH153">
+        <v>2.48</v>
+      </c>
+      <c r="BI153">
+        <v>1.78</v>
+      </c>
+      <c r="BJ153">
+        <v>1.92</v>
+      </c>
+      <c r="BK153">
+        <v>2.25</v>
+      </c>
+      <c r="BL153">
         <v>1.56</v>
       </c>
-      <c r="AQ153">
-        <v>0.63</v>
-      </c>
-      <c r="AR153">
-        <v>1.41</v>
-      </c>
-      <c r="AS153">
-        <v>1.4</v>
-      </c>
-      <c r="AT153">
-        <v>2.81</v>
-      </c>
-      <c r="AU153">
-        <v>4</v>
-      </c>
-      <c r="AV153">
-        <v>4</v>
-      </c>
-      <c r="AW153">
-        <v>2</v>
-      </c>
-      <c r="AX153">
-        <v>6</v>
-      </c>
-      <c r="AY153">
-        <v>6</v>
-      </c>
-      <c r="AZ153">
-        <v>19</v>
-      </c>
-      <c r="BA153">
-        <v>1</v>
-      </c>
-      <c r="BB153">
-        <v>4</v>
-      </c>
-      <c r="BC153">
-        <v>5</v>
-      </c>
-      <c r="BD153">
-        <v>1.88</v>
-      </c>
-      <c r="BE153">
-        <v>6.4</v>
-      </c>
-      <c r="BF153">
-        <v>2.15</v>
-      </c>
-      <c r="BG153">
-        <v>1.38</v>
-      </c>
-      <c r="BH153">
-        <v>2.8</v>
-      </c>
-      <c r="BI153">
-        <v>1.64</v>
-      </c>
-      <c r="BJ153">
-        <v>2.1</v>
-      </c>
-      <c r="BK153">
-        <v>2.02</v>
-      </c>
-      <c r="BL153">
-        <v>1.7</v>
-      </c>
       <c r="BM153">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BN153">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="BO153">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="BP153">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="154" spans="1:68">
@@ -32696,7 +32711,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7509728</v>
+        <v>7509734</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32705,16 +32720,16 @@
         <v>69</v>
       </c>
       <c r="E154" s="2">
-        <v>45633.45833333334</v>
+        <v>45632.875</v>
       </c>
       <c r="F154">
         <v>16</v>
       </c>
       <c r="G154" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H154" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -32729,25 +32744,25 @@
         <v>1</v>
       </c>
       <c r="M154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O154" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="P154" t="s">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="Q154">
-        <v>3.7</v>
+        <v>2.62</v>
       </c>
       <c r="R154">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S154">
-        <v>2.95</v>
+        <v>4.2</v>
       </c>
       <c r="T154">
         <v>1.48</v>
@@ -32756,31 +32771,31 @@
         <v>2.5</v>
       </c>
       <c r="V154">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="W154">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X154">
+        <v>9.1</v>
+      </c>
+      <c r="Y154">
+        <v>1.03</v>
+      </c>
+      <c r="Z154">
+        <v>1.91</v>
+      </c>
+      <c r="AA154">
+        <v>3.25</v>
+      </c>
+      <c r="AB154">
+        <v>4</v>
+      </c>
+      <c r="AC154">
+        <v>1.07</v>
+      </c>
+      <c r="AD154">
         <v>8</v>
-      </c>
-      <c r="Y154">
-        <v>1.05</v>
-      </c>
-      <c r="Z154">
-        <v>3.25</v>
-      </c>
-      <c r="AA154">
-        <v>3.1</v>
-      </c>
-      <c r="AB154">
-        <v>2.25</v>
-      </c>
-      <c r="AC154">
-        <v>1.08</v>
-      </c>
-      <c r="AD154">
-        <v>7.5</v>
       </c>
       <c r="AE154">
         <v>1.38</v>
@@ -32795,106 +32810,106 @@
         <v>1.65</v>
       </c>
       <c r="AI154">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AJ154">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AK154">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AL154">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM154">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AN154">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AO154">
+        <v>0.71</v>
+      </c>
+      <c r="AP154">
         <v>1.5</v>
       </c>
-      <c r="AP154">
-        <v>1.88</v>
-      </c>
       <c r="AQ154">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AR154">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="AS154">
-        <v>1.22</v>
+        <v>1.09</v>
       </c>
       <c r="AT154">
-        <v>2.39</v>
+        <v>2.58</v>
       </c>
       <c r="AU154">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV154">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW154">
+        <v>4</v>
+      </c>
+      <c r="AX154">
+        <v>5</v>
+      </c>
+      <c r="AY154">
+        <v>16</v>
+      </c>
+      <c r="AZ154">
+        <v>12</v>
+      </c>
+      <c r="BA154">
+        <v>2</v>
+      </c>
+      <c r="BB154">
+        <v>4</v>
+      </c>
+      <c r="BC154">
         <v>6</v>
       </c>
-      <c r="AX154">
-        <v>12</v>
-      </c>
-      <c r="AY154">
-        <v>17</v>
-      </c>
-      <c r="AZ154">
-        <v>16</v>
-      </c>
-      <c r="BA154">
-        <v>5</v>
-      </c>
-      <c r="BB154">
-        <v>8</v>
-      </c>
-      <c r="BC154">
-        <v>13</v>
-      </c>
       <c r="BD154">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="BE154">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF154">
-        <v>1.76</v>
+        <v>2.55</v>
       </c>
       <c r="BG154">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="BH154">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="BI154">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BJ154">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BK154">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="BL154">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="BM154">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="BN154">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="BO154">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BP154">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -32902,7 +32917,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7509733</v>
+        <v>7509727</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -32917,190 +32932,190 @@
         <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H155" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N155">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O155" t="s">
-        <v>188</v>
+        <v>126</v>
       </c>
       <c r="P155" t="s">
-        <v>261</v>
+        <v>102</v>
       </c>
       <c r="Q155">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="R155">
         <v>1.95</v>
       </c>
       <c r="S155">
-        <v>2.95</v>
+        <v>3.55</v>
       </c>
       <c r="T155">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="U155">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="V155">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="W155">
         <v>1.33</v>
       </c>
       <c r="X155">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="Y155">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z155">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="AA155">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AB155">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="AC155">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD155">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE155">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF155">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AG155">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="AH155">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AI155">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AJ155">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AK155">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AL155">
         <v>1.3</v>
       </c>
       <c r="AM155">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AN155">
-        <v>2.14</v>
+        <v>1.38</v>
       </c>
       <c r="AO155">
-        <v>1.57</v>
+        <v>0.71</v>
       </c>
       <c r="AP155">
+        <v>1.56</v>
+      </c>
+      <c r="AQ155">
+        <v>0.63</v>
+      </c>
+      <c r="AR155">
+        <v>1.41</v>
+      </c>
+      <c r="AS155">
+        <v>1.4</v>
+      </c>
+      <c r="AT155">
+        <v>2.81</v>
+      </c>
+      <c r="AU155">
+        <v>4</v>
+      </c>
+      <c r="AV155">
+        <v>4</v>
+      </c>
+      <c r="AW155">
+        <v>2</v>
+      </c>
+      <c r="AX155">
+        <v>6</v>
+      </c>
+      <c r="AY155">
+        <v>6</v>
+      </c>
+      <c r="AZ155">
+        <v>19</v>
+      </c>
+      <c r="BA155">
+        <v>1</v>
+      </c>
+      <c r="BB155">
+        <v>4</v>
+      </c>
+      <c r="BC155">
+        <v>5</v>
+      </c>
+      <c r="BD155">
         <v>1.88</v>
       </c>
-      <c r="AQ155">
-        <v>1.75</v>
-      </c>
-      <c r="AR155">
-        <v>1.27</v>
-      </c>
-      <c r="AS155">
-        <v>1.05</v>
-      </c>
-      <c r="AT155">
-        <v>2.32</v>
-      </c>
-      <c r="AU155">
-        <v>8</v>
-      </c>
-      <c r="AV155">
-        <v>7</v>
-      </c>
-      <c r="AW155">
-        <v>6</v>
-      </c>
-      <c r="AX155">
-        <v>5</v>
-      </c>
-      <c r="AY155">
-        <v>16</v>
-      </c>
-      <c r="AZ155">
-        <v>16</v>
-      </c>
-      <c r="BA155">
-        <v>6</v>
-      </c>
-      <c r="BB155">
-        <v>3</v>
-      </c>
-      <c r="BC155">
-        <v>9</v>
-      </c>
-      <c r="BD155">
-        <v>2.17</v>
-      </c>
       <c r="BE155">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="BF155">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="BG155">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BH155">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="BI155">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="BJ155">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="BK155">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="BL155">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="BM155">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BN155">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="BO155">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="BP155">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33108,7 +33123,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7509734</v>
+        <v>7509728</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33123,10 +33138,10 @@
         <v>16</v>
       </c>
       <c r="G156" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H156" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -33141,25 +33156,25 @@
         <v>1</v>
       </c>
       <c r="M156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O156" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="P156" t="s">
-        <v>262</v>
+        <v>102</v>
       </c>
       <c r="Q156">
-        <v>2.62</v>
+        <v>3.7</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S156">
-        <v>4.2</v>
+        <v>2.95</v>
       </c>
       <c r="T156">
         <v>1.48</v>
@@ -33168,31 +33183,31 @@
         <v>2.5</v>
       </c>
       <c r="V156">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="W156">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X156">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="Y156">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z156">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="AA156">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AB156">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="AC156">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD156">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE156">
         <v>1.38</v>
@@ -33207,106 +33222,106 @@
         <v>1.65</v>
       </c>
       <c r="AI156">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="AJ156">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AK156">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AL156">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM156">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AN156">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AO156">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="AP156">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AQ156">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR156">
-        <v>1.49</v>
+        <v>1.17</v>
       </c>
       <c r="AS156">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="AT156">
-        <v>2.58</v>
+        <v>2.39</v>
       </c>
       <c r="AU156">
+        <v>9</v>
+      </c>
+      <c r="AV156">
+        <v>0</v>
+      </c>
+      <c r="AW156">
         <v>6</v>
       </c>
-      <c r="AV156">
-        <v>4</v>
-      </c>
-      <c r="AW156">
-        <v>4</v>
-      </c>
       <c r="AX156">
+        <v>12</v>
+      </c>
+      <c r="AY156">
+        <v>17</v>
+      </c>
+      <c r="AZ156">
+        <v>16</v>
+      </c>
+      <c r="BA156">
         <v>5</v>
       </c>
-      <c r="AY156">
-        <v>15</v>
-      </c>
-      <c r="AZ156">
-        <v>12</v>
-      </c>
-      <c r="BA156">
-        <v>2</v>
-      </c>
       <c r="BB156">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC156">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD156">
+        <v>2.28</v>
+      </c>
+      <c r="BE156">
+        <v>6.4</v>
+      </c>
+      <c r="BF156">
+        <v>1.76</v>
+      </c>
+      <c r="BG156">
+        <v>1.36</v>
+      </c>
+      <c r="BH156">
+        <v>2.8</v>
+      </c>
+      <c r="BI156">
         <v>1.61</v>
       </c>
-      <c r="BE156">
-        <v>6.75</v>
-      </c>
-      <c r="BF156">
-        <v>2.55</v>
-      </c>
-      <c r="BG156">
-        <v>1.29</v>
-      </c>
-      <c r="BH156">
-        <v>3.15</v>
-      </c>
-      <c r="BI156">
-        <v>1.5</v>
-      </c>
       <c r="BJ156">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BK156">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="BL156">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="BM156">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="BN156">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="BO156">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BP156">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -33356,7 +33371,7 @@
         <v>102</v>
       </c>
       <c r="P157" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33513,6 +33528,830 @@
       </c>
       <c r="BP157">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7509729</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45634.45833333334</v>
+      </c>
+      <c r="F158">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>78</v>
+      </c>
+      <c r="H158" t="s">
+        <v>70</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>189</v>
+      </c>
+      <c r="P158" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q158">
+        <v>2.8</v>
+      </c>
+      <c r="R158">
+        <v>2.05</v>
+      </c>
+      <c r="S158">
+        <v>3.75</v>
+      </c>
+      <c r="T158">
+        <v>1.42</v>
+      </c>
+      <c r="U158">
+        <v>2.65</v>
+      </c>
+      <c r="V158">
+        <v>2.95</v>
+      </c>
+      <c r="W158">
+        <v>1.35</v>
+      </c>
+      <c r="X158">
+        <v>7.4</v>
+      </c>
+      <c r="Y158">
+        <v>1.06</v>
+      </c>
+      <c r="Z158">
+        <v>2.15</v>
+      </c>
+      <c r="AA158">
+        <v>3.25</v>
+      </c>
+      <c r="AB158">
+        <v>3.4</v>
+      </c>
+      <c r="AC158">
+        <v>1.07</v>
+      </c>
+      <c r="AD158">
+        <v>8</v>
+      </c>
+      <c r="AE158">
+        <v>1.33</v>
+      </c>
+      <c r="AF158">
+        <v>3.2</v>
+      </c>
+      <c r="AG158">
+        <v>2.23</v>
+      </c>
+      <c r="AH158">
+        <v>1.56</v>
+      </c>
+      <c r="AI158">
+        <v>1.8</v>
+      </c>
+      <c r="AJ158">
+        <v>1.95</v>
+      </c>
+      <c r="AK158">
+        <v>1.3</v>
+      </c>
+      <c r="AL158">
+        <v>1.25</v>
+      </c>
+      <c r="AM158">
+        <v>1.68</v>
+      </c>
+      <c r="AN158">
+        <v>1.38</v>
+      </c>
+      <c r="AO158">
+        <v>1.14</v>
+      </c>
+      <c r="AP158">
+        <v>1.56</v>
+      </c>
+      <c r="AQ158">
+        <v>1</v>
+      </c>
+      <c r="AR158">
+        <v>1.22</v>
+      </c>
+      <c r="AS158">
+        <v>1.23</v>
+      </c>
+      <c r="AT158">
+        <v>2.45</v>
+      </c>
+      <c r="AU158">
+        <v>5</v>
+      </c>
+      <c r="AV158">
+        <v>4</v>
+      </c>
+      <c r="AW158">
+        <v>6</v>
+      </c>
+      <c r="AX158">
+        <v>4</v>
+      </c>
+      <c r="AY158">
+        <v>17</v>
+      </c>
+      <c r="AZ158">
+        <v>11</v>
+      </c>
+      <c r="BA158">
+        <v>6</v>
+      </c>
+      <c r="BB158">
+        <v>2</v>
+      </c>
+      <c r="BC158">
+        <v>8</v>
+      </c>
+      <c r="BD158">
+        <v>1.74</v>
+      </c>
+      <c r="BE158">
+        <v>6.75</v>
+      </c>
+      <c r="BF158">
+        <v>2.32</v>
+      </c>
+      <c r="BG158">
+        <v>1.28</v>
+      </c>
+      <c r="BH158">
+        <v>3.3</v>
+      </c>
+      <c r="BI158">
+        <v>1.48</v>
+      </c>
+      <c r="BJ158">
+        <v>2.43</v>
+      </c>
+      <c r="BK158">
+        <v>1.77</v>
+      </c>
+      <c r="BL158">
+        <v>1.92</v>
+      </c>
+      <c r="BM158">
+        <v>2.23</v>
+      </c>
+      <c r="BN158">
+        <v>1.57</v>
+      </c>
+      <c r="BO158">
+        <v>2.88</v>
+      </c>
+      <c r="BP158">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7509731</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45634.45833333334</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159" t="s">
+        <v>82</v>
+      </c>
+      <c r="H159" t="s">
+        <v>77</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>0</v>
+      </c>
+      <c r="M159">
+        <v>2</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>102</v>
+      </c>
+      <c r="P159" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q159">
+        <v>2.2</v>
+      </c>
+      <c r="R159">
+        <v>2.2</v>
+      </c>
+      <c r="S159">
+        <v>5</v>
+      </c>
+      <c r="T159">
+        <v>1.39</v>
+      </c>
+      <c r="U159">
+        <v>2.8</v>
+      </c>
+      <c r="V159">
+        <v>2.8</v>
+      </c>
+      <c r="W159">
+        <v>1.39</v>
+      </c>
+      <c r="X159">
+        <v>6.95</v>
+      </c>
+      <c r="Y159">
+        <v>1.07</v>
+      </c>
+      <c r="Z159">
+        <v>1.61</v>
+      </c>
+      <c r="AA159">
+        <v>3.75</v>
+      </c>
+      <c r="AB159">
+        <v>5.25</v>
+      </c>
+      <c r="AC159">
+        <v>1.05</v>
+      </c>
+      <c r="AD159">
+        <v>9</v>
+      </c>
+      <c r="AE159">
+        <v>1.22</v>
+      </c>
+      <c r="AF159">
+        <v>3.7</v>
+      </c>
+      <c r="AG159">
+        <v>1.91</v>
+      </c>
+      <c r="AH159">
+        <v>1.8</v>
+      </c>
+      <c r="AI159">
+        <v>1.9</v>
+      </c>
+      <c r="AJ159">
+        <v>1.83</v>
+      </c>
+      <c r="AK159">
+        <v>1.11</v>
+      </c>
+      <c r="AL159">
+        <v>1.2</v>
+      </c>
+      <c r="AM159">
+        <v>2.25</v>
+      </c>
+      <c r="AN159">
+        <v>1.57</v>
+      </c>
+      <c r="AO159">
+        <v>0.86</v>
+      </c>
+      <c r="AP159">
+        <v>1.38</v>
+      </c>
+      <c r="AQ159">
+        <v>1.13</v>
+      </c>
+      <c r="AR159">
+        <v>1.43</v>
+      </c>
+      <c r="AS159">
+        <v>1.28</v>
+      </c>
+      <c r="AT159">
+        <v>2.71</v>
+      </c>
+      <c r="AU159">
+        <v>2</v>
+      </c>
+      <c r="AV159">
+        <v>4</v>
+      </c>
+      <c r="AW159">
+        <v>8</v>
+      </c>
+      <c r="AX159">
+        <v>4</v>
+      </c>
+      <c r="AY159">
+        <v>15</v>
+      </c>
+      <c r="AZ159">
+        <v>11</v>
+      </c>
+      <c r="BA159">
+        <v>9</v>
+      </c>
+      <c r="BB159">
+        <v>5</v>
+      </c>
+      <c r="BC159">
+        <v>14</v>
+      </c>
+      <c r="BD159">
+        <v>1.48</v>
+      </c>
+      <c r="BE159">
+        <v>6.75</v>
+      </c>
+      <c r="BF159">
+        <v>2.95</v>
+      </c>
+      <c r="BG159">
+        <v>1.42</v>
+      </c>
+      <c r="BH159">
+        <v>2.65</v>
+      </c>
+      <c r="BI159">
+        <v>1.7</v>
+      </c>
+      <c r="BJ159">
+        <v>2</v>
+      </c>
+      <c r="BK159">
+        <v>2.15</v>
+      </c>
+      <c r="BL159">
+        <v>1.63</v>
+      </c>
+      <c r="BM159">
+        <v>2.7</v>
+      </c>
+      <c r="BN159">
+        <v>1.38</v>
+      </c>
+      <c r="BO159">
+        <v>3.55</v>
+      </c>
+      <c r="BP159">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7509736</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45634.45833333334</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160" t="s">
+        <v>83</v>
+      </c>
+      <c r="H160" t="s">
+        <v>87</v>
+      </c>
+      <c r="I160">
+        <v>3</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>3</v>
+      </c>
+      <c r="L160">
+        <v>5</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>5</v>
+      </c>
+      <c r="O160" t="s">
+        <v>190</v>
+      </c>
+      <c r="P160" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q160">
+        <v>2.3</v>
+      </c>
+      <c r="R160">
+        <v>2.05</v>
+      </c>
+      <c r="S160">
+        <v>5</v>
+      </c>
+      <c r="T160">
+        <v>1.45</v>
+      </c>
+      <c r="U160">
+        <v>2.55</v>
+      </c>
+      <c r="V160">
+        <v>3.1</v>
+      </c>
+      <c r="W160">
+        <v>1.33</v>
+      </c>
+      <c r="X160">
+        <v>7.5</v>
+      </c>
+      <c r="Y160">
+        <v>1.07</v>
+      </c>
+      <c r="Z160">
+        <v>1.62</v>
+      </c>
+      <c r="AA160">
+        <v>3.6</v>
+      </c>
+      <c r="AB160">
+        <v>6</v>
+      </c>
+      <c r="AC160">
+        <v>1.07</v>
+      </c>
+      <c r="AD160">
+        <v>8</v>
+      </c>
+      <c r="AE160">
+        <v>1.38</v>
+      </c>
+      <c r="AF160">
+        <v>2.95</v>
+      </c>
+      <c r="AG160">
+        <v>2.32</v>
+      </c>
+      <c r="AH160">
+        <v>1.52</v>
+      </c>
+      <c r="AI160">
+        <v>2.05</v>
+      </c>
+      <c r="AJ160">
+        <v>1.67</v>
+      </c>
+      <c r="AK160">
+        <v>1.15</v>
+      </c>
+      <c r="AL160">
+        <v>1.22</v>
+      </c>
+      <c r="AM160">
+        <v>2.1</v>
+      </c>
+      <c r="AN160">
+        <v>2.71</v>
+      </c>
+      <c r="AO160">
+        <v>1.13</v>
+      </c>
+      <c r="AP160">
+        <v>2.75</v>
+      </c>
+      <c r="AQ160">
+        <v>1</v>
+      </c>
+      <c r="AR160">
+        <v>1.62</v>
+      </c>
+      <c r="AS160">
+        <v>1.22</v>
+      </c>
+      <c r="AT160">
+        <v>2.84</v>
+      </c>
+      <c r="AU160">
+        <v>11</v>
+      </c>
+      <c r="AV160">
+        <v>3</v>
+      </c>
+      <c r="AW160">
+        <v>5</v>
+      </c>
+      <c r="AX160">
+        <v>4</v>
+      </c>
+      <c r="AY160">
+        <v>19</v>
+      </c>
+      <c r="AZ160">
+        <v>9</v>
+      </c>
+      <c r="BA160">
+        <v>9</v>
+      </c>
+      <c r="BB160">
+        <v>4</v>
+      </c>
+      <c r="BC160">
+        <v>13</v>
+      </c>
+      <c r="BD160">
+        <v>1.49</v>
+      </c>
+      <c r="BE160">
+        <v>6.75</v>
+      </c>
+      <c r="BF160">
+        <v>2.9</v>
+      </c>
+      <c r="BG160">
+        <v>1.38</v>
+      </c>
+      <c r="BH160">
+        <v>2.75</v>
+      </c>
+      <c r="BI160">
+        <v>1.66</v>
+      </c>
+      <c r="BJ160">
+        <v>2.08</v>
+      </c>
+      <c r="BK160">
+        <v>2.05</v>
+      </c>
+      <c r="BL160">
+        <v>1.68</v>
+      </c>
+      <c r="BM160">
+        <v>2.63</v>
+      </c>
+      <c r="BN160">
+        <v>1.43</v>
+      </c>
+      <c r="BO160">
+        <v>3.4</v>
+      </c>
+      <c r="BP160">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7509735</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45634.55208333334</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161" t="s">
+        <v>84</v>
+      </c>
+      <c r="H161" t="s">
+        <v>81</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>5</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>6</v>
+      </c>
+      <c r="O161" t="s">
+        <v>191</v>
+      </c>
+      <c r="P161" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q161">
+        <v>2.2</v>
+      </c>
+      <c r="R161">
+        <v>2.3</v>
+      </c>
+      <c r="S161">
+        <v>4.5</v>
+      </c>
+      <c r="T161">
+        <v>1.33</v>
+      </c>
+      <c r="U161">
+        <v>3.05</v>
+      </c>
+      <c r="V161">
+        <v>2.5</v>
+      </c>
+      <c r="W161">
+        <v>1.47</v>
+      </c>
+      <c r="X161">
+        <v>5.95</v>
+      </c>
+      <c r="Y161">
+        <v>1.1</v>
+      </c>
+      <c r="Z161">
+        <v>1.62</v>
+      </c>
+      <c r="AA161">
+        <v>3.9</v>
+      </c>
+      <c r="AB161">
+        <v>4.8</v>
+      </c>
+      <c r="AC161">
+        <v>1.05</v>
+      </c>
+      <c r="AD161">
+        <v>9.5</v>
+      </c>
+      <c r="AE161">
+        <v>1.22</v>
+      </c>
+      <c r="AF161">
+        <v>4</v>
+      </c>
+      <c r="AG161">
+        <v>1.75</v>
+      </c>
+      <c r="AH161">
+        <v>1.95</v>
+      </c>
+      <c r="AI161">
+        <v>1.7</v>
+      </c>
+      <c r="AJ161">
+        <v>2.1</v>
+      </c>
+      <c r="AK161">
+        <v>1.15</v>
+      </c>
+      <c r="AL161">
+        <v>1.2</v>
+      </c>
+      <c r="AM161">
+        <v>2.15</v>
+      </c>
+      <c r="AN161">
+        <v>2.29</v>
+      </c>
+      <c r="AO161">
+        <v>1.13</v>
+      </c>
+      <c r="AP161">
+        <v>2.38</v>
+      </c>
+      <c r="AQ161">
+        <v>1</v>
+      </c>
+      <c r="AR161">
+        <v>1.67</v>
+      </c>
+      <c r="AS161">
+        <v>1.22</v>
+      </c>
+      <c r="AT161">
+        <v>2.89</v>
+      </c>
+      <c r="AU161">
+        <v>11</v>
+      </c>
+      <c r="AV161">
+        <v>3</v>
+      </c>
+      <c r="AW161">
+        <v>0</v>
+      </c>
+      <c r="AX161">
+        <v>4</v>
+      </c>
+      <c r="AY161">
+        <v>13</v>
+      </c>
+      <c r="AZ161">
+        <v>10</v>
+      </c>
+      <c r="BA161">
+        <v>5</v>
+      </c>
+      <c r="BB161">
+        <v>2</v>
+      </c>
+      <c r="BC161">
+        <v>7</v>
+      </c>
+      <c r="BD161">
+        <v>1.5</v>
+      </c>
+      <c r="BE161">
+        <v>6.5</v>
+      </c>
+      <c r="BF161">
+        <v>2.9</v>
+      </c>
+      <c r="BG161">
+        <v>1.38</v>
+      </c>
+      <c r="BH161">
+        <v>2.75</v>
+      </c>
+      <c r="BI161">
+        <v>1.66</v>
+      </c>
+      <c r="BJ161">
+        <v>2.08</v>
+      </c>
+      <c r="BK161">
+        <v>2.05</v>
+      </c>
+      <c r="BL161">
+        <v>1.68</v>
+      </c>
+      <c r="BM161">
+        <v>2.6</v>
+      </c>
+      <c r="BN161">
+        <v>1.43</v>
+      </c>
+      <c r="BO161">
+        <v>3.4</v>
+      </c>
+      <c r="BP161">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -577,10 +577,10 @@
     <t>['8', '79']</t>
   </si>
   <si>
-    <t>['28', '54']</t>
+    <t>['77']</t>
   </si>
   <si>
-    <t>['77']</t>
+    <t>['28', '54']</t>
   </si>
   <si>
     <t>['43', '90+8']</t>
@@ -8033,7 +8033,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q34">
         <v>2.25</v>
@@ -32505,7 +32505,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7509733</v>
+        <v>7509727</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32514,196 +32514,196 @@
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>45632.875</v>
+        <v>45633.45833333334</v>
       </c>
       <c r="F153">
         <v>16</v>
       </c>
       <c r="G153" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="H153" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I153">
         <v>1</v>
       </c>
       <c r="J153">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K153">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M153">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N153">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O153" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="P153" t="s">
-        <v>264</v>
+        <v>102</v>
       </c>
       <c r="Q153">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="R153">
         <v>1.95</v>
       </c>
       <c r="S153">
-        <v>2.95</v>
+        <v>3.55</v>
       </c>
       <c r="T153">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="U153">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="V153">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="W153">
         <v>1.33</v>
       </c>
       <c r="X153">
-        <v>8.1</v>
+        <v>7.1</v>
       </c>
       <c r="Y153">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="Z153">
-        <v>3.1</v>
+        <v>2.45</v>
       </c>
       <c r="AA153">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AB153">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="AC153">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD153">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE153">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF153">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AG153">
-        <v>2.12</v>
+        <v>1.96</v>
       </c>
       <c r="AH153">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AI153">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AJ153">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AK153">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AL153">
         <v>1.3</v>
       </c>
       <c r="AM153">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AN153">
-        <v>2.14</v>
+        <v>1.38</v>
       </c>
       <c r="AO153">
-        <v>1.57</v>
+        <v>0.71</v>
       </c>
       <c r="AP153">
+        <v>1.56</v>
+      </c>
+      <c r="AQ153">
+        <v>0.63</v>
+      </c>
+      <c r="AR153">
+        <v>1.41</v>
+      </c>
+      <c r="AS153">
+        <v>1.4</v>
+      </c>
+      <c r="AT153">
+        <v>2.81</v>
+      </c>
+      <c r="AU153">
+        <v>4</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>2</v>
+      </c>
+      <c r="AX153">
+        <v>6</v>
+      </c>
+      <c r="AY153">
+        <v>6</v>
+      </c>
+      <c r="AZ153">
+        <v>19</v>
+      </c>
+      <c r="BA153">
+        <v>1</v>
+      </c>
+      <c r="BB153">
+        <v>4</v>
+      </c>
+      <c r="BC153">
+        <v>5</v>
+      </c>
+      <c r="BD153">
         <v>1.88</v>
       </c>
-      <c r="AQ153">
-        <v>1.75</v>
-      </c>
-      <c r="AR153">
-        <v>1.27</v>
-      </c>
-      <c r="AS153">
-        <v>1.05</v>
-      </c>
-      <c r="AT153">
-        <v>2.32</v>
-      </c>
-      <c r="AU153">
-        <v>8</v>
-      </c>
-      <c r="AV153">
-        <v>7</v>
-      </c>
-      <c r="AW153">
-        <v>7</v>
-      </c>
-      <c r="AX153">
-        <v>5</v>
-      </c>
-      <c r="AY153">
-        <v>17</v>
-      </c>
-      <c r="AZ153">
-        <v>16</v>
-      </c>
-      <c r="BA153">
-        <v>6</v>
-      </c>
-      <c r="BB153">
-        <v>3</v>
-      </c>
-      <c r="BC153">
-        <v>9</v>
-      </c>
-      <c r="BD153">
-        <v>2.17</v>
-      </c>
       <c r="BE153">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="BF153">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="BG153">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BH153">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="BI153">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="BJ153">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="BK153">
-        <v>2.25</v>
+        <v>2.02</v>
       </c>
       <c r="BL153">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="BM153">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BN153">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="BO153">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="BP153">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="154" spans="1:68">
@@ -32711,7 +32711,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7509734</v>
+        <v>7509728</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32720,16 +32720,16 @@
         <v>69</v>
       </c>
       <c r="E154" s="2">
-        <v>45632.875</v>
+        <v>45633.45833333334</v>
       </c>
       <c r="F154">
         <v>16</v>
       </c>
       <c r="G154" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H154" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -32744,25 +32744,25 @@
         <v>1</v>
       </c>
       <c r="M154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O154" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>265</v>
+        <v>102</v>
       </c>
       <c r="Q154">
-        <v>2.62</v>
+        <v>3.7</v>
       </c>
       <c r="R154">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S154">
-        <v>4.2</v>
+        <v>2.95</v>
       </c>
       <c r="T154">
         <v>1.48</v>
@@ -32771,31 +32771,31 @@
         <v>2.5</v>
       </c>
       <c r="V154">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="W154">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X154">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="Y154">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="Z154">
-        <v>1.91</v>
+        <v>3.25</v>
       </c>
       <c r="AA154">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="AB154">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="AC154">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD154">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE154">
         <v>1.38</v>
@@ -32810,106 +32810,106 @@
         <v>1.65</v>
       </c>
       <c r="AI154">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="AJ154">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AK154">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AL154">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM154">
-        <v>1.8</v>
+        <v>1.33</v>
       </c>
       <c r="AN154">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="AO154">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AQ154">
-        <v>0.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR154">
-        <v>1.49</v>
+        <v>1.17</v>
       </c>
       <c r="AS154">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="AT154">
-        <v>2.58</v>
+        <v>2.39</v>
       </c>
       <c r="AU154">
+        <v>9</v>
+      </c>
+      <c r="AV154">
+        <v>0</v>
+      </c>
+      <c r="AW154">
         <v>6</v>
       </c>
-      <c r="AV154">
-        <v>4</v>
-      </c>
-      <c r="AW154">
-        <v>4</v>
-      </c>
       <c r="AX154">
+        <v>12</v>
+      </c>
+      <c r="AY154">
+        <v>17</v>
+      </c>
+      <c r="AZ154">
+        <v>16</v>
+      </c>
+      <c r="BA154">
         <v>5</v>
       </c>
-      <c r="AY154">
-        <v>16</v>
-      </c>
-      <c r="AZ154">
-        <v>12</v>
-      </c>
-      <c r="BA154">
-        <v>2</v>
-      </c>
       <c r="BB154">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC154">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD154">
+        <v>2.28</v>
+      </c>
+      <c r="BE154">
+        <v>6.4</v>
+      </c>
+      <c r="BF154">
+        <v>1.76</v>
+      </c>
+      <c r="BG154">
+        <v>1.36</v>
+      </c>
+      <c r="BH154">
+        <v>2.8</v>
+      </c>
+      <c r="BI154">
         <v>1.61</v>
       </c>
-      <c r="BE154">
-        <v>6.75</v>
-      </c>
-      <c r="BF154">
-        <v>2.55</v>
-      </c>
-      <c r="BG154">
-        <v>1.29</v>
-      </c>
-      <c r="BH154">
-        <v>3.15</v>
-      </c>
-      <c r="BI154">
-        <v>1.5</v>
-      </c>
       <c r="BJ154">
-        <v>2.4</v>
+        <v>2.15</v>
       </c>
       <c r="BK154">
-        <v>1.79</v>
+        <v>1.98</v>
       </c>
       <c r="BL154">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="BM154">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="BN154">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
       <c r="BO154">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="BP154">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -32917,7 +32917,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7509727</v>
+        <v>7509733</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -32932,190 +32932,190 @@
         <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="H155" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I155">
         <v>1</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O155" t="s">
-        <v>126</v>
+        <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="Q155">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="R155">
         <v>1.95</v>
       </c>
       <c r="S155">
-        <v>3.55</v>
+        <v>2.95</v>
       </c>
       <c r="T155">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U155">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="V155">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W155">
         <v>1.33</v>
       </c>
       <c r="X155">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="Y155">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="Z155">
-        <v>2.45</v>
+        <v>3.1</v>
       </c>
       <c r="AA155">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AB155">
+        <v>2.25</v>
+      </c>
+      <c r="AC155">
+        <v>1.08</v>
+      </c>
+      <c r="AD155">
+        <v>7.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.4</v>
+      </c>
+      <c r="AF155">
         <v>2.9</v>
       </c>
-      <c r="AC155">
-        <v>1.07</v>
-      </c>
-      <c r="AD155">
-        <v>8</v>
-      </c>
-      <c r="AE155">
-        <v>1.38</v>
-      </c>
-      <c r="AF155">
-        <v>3</v>
-      </c>
       <c r="AG155">
-        <v>1.96</v>
+        <v>2.12</v>
       </c>
       <c r="AH155">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="AI155">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AJ155">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AK155">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AL155">
         <v>1.3</v>
       </c>
       <c r="AM155">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AN155">
-        <v>1.38</v>
+        <v>2.14</v>
       </c>
       <c r="AO155">
-        <v>0.71</v>
+        <v>1.57</v>
       </c>
       <c r="AP155">
+        <v>1.88</v>
+      </c>
+      <c r="AQ155">
+        <v>1.75</v>
+      </c>
+      <c r="AR155">
+        <v>1.27</v>
+      </c>
+      <c r="AS155">
+        <v>1.05</v>
+      </c>
+      <c r="AT155">
+        <v>2.32</v>
+      </c>
+      <c r="AU155">
+        <v>8</v>
+      </c>
+      <c r="AV155">
+        <v>7</v>
+      </c>
+      <c r="AW155">
+        <v>7</v>
+      </c>
+      <c r="AX155">
+        <v>5</v>
+      </c>
+      <c r="AY155">
+        <v>17</v>
+      </c>
+      <c r="AZ155">
+        <v>16</v>
+      </c>
+      <c r="BA155">
+        <v>6</v>
+      </c>
+      <c r="BB155">
+        <v>3</v>
+      </c>
+      <c r="BC155">
+        <v>9</v>
+      </c>
+      <c r="BD155">
+        <v>2.17</v>
+      </c>
+      <c r="BE155">
+        <v>6.1</v>
+      </c>
+      <c r="BF155">
+        <v>1.85</v>
+      </c>
+      <c r="BG155">
+        <v>1.47</v>
+      </c>
+      <c r="BH155">
+        <v>2.48</v>
+      </c>
+      <c r="BI155">
+        <v>1.78</v>
+      </c>
+      <c r="BJ155">
+        <v>1.92</v>
+      </c>
+      <c r="BK155">
+        <v>2.25</v>
+      </c>
+      <c r="BL155">
         <v>1.56</v>
       </c>
-      <c r="AQ155">
-        <v>0.63</v>
-      </c>
-      <c r="AR155">
-        <v>1.41</v>
-      </c>
-      <c r="AS155">
-        <v>1.4</v>
-      </c>
-      <c r="AT155">
-        <v>2.81</v>
-      </c>
-      <c r="AU155">
-        <v>4</v>
-      </c>
-      <c r="AV155">
-        <v>4</v>
-      </c>
-      <c r="AW155">
-        <v>2</v>
-      </c>
-      <c r="AX155">
-        <v>6</v>
-      </c>
-      <c r="AY155">
-        <v>6</v>
-      </c>
-      <c r="AZ155">
-        <v>19</v>
-      </c>
-      <c r="BA155">
-        <v>1</v>
-      </c>
-      <c r="BB155">
-        <v>4</v>
-      </c>
-      <c r="BC155">
-        <v>5</v>
-      </c>
-      <c r="BD155">
-        <v>1.88</v>
-      </c>
-      <c r="BE155">
-        <v>6.4</v>
-      </c>
-      <c r="BF155">
-        <v>2.15</v>
-      </c>
-      <c r="BG155">
-        <v>1.38</v>
-      </c>
-      <c r="BH155">
-        <v>2.8</v>
-      </c>
-      <c r="BI155">
-        <v>1.64</v>
-      </c>
-      <c r="BJ155">
-        <v>2.1</v>
-      </c>
-      <c r="BK155">
-        <v>2.02</v>
-      </c>
-      <c r="BL155">
-        <v>1.7</v>
-      </c>
       <c r="BM155">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BN155">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="BO155">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="BP155">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33123,7 +33123,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7509728</v>
+        <v>7509734</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33138,10 +33138,10 @@
         <v>16</v>
       </c>
       <c r="G156" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H156" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -33156,25 +33156,25 @@
         <v>1</v>
       </c>
       <c r="M156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O156" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="P156" t="s">
-        <v>102</v>
+        <v>265</v>
       </c>
       <c r="Q156">
-        <v>3.7</v>
+        <v>2.62</v>
       </c>
       <c r="R156">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>2.95</v>
+        <v>4.2</v>
       </c>
       <c r="T156">
         <v>1.48</v>
@@ -33183,31 +33183,31 @@
         <v>2.5</v>
       </c>
       <c r="V156">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="W156">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X156">
+        <v>9.1</v>
+      </c>
+      <c r="Y156">
+        <v>1.03</v>
+      </c>
+      <c r="Z156">
+        <v>1.91</v>
+      </c>
+      <c r="AA156">
+        <v>3.25</v>
+      </c>
+      <c r="AB156">
+        <v>4</v>
+      </c>
+      <c r="AC156">
+        <v>1.07</v>
+      </c>
+      <c r="AD156">
         <v>8</v>
-      </c>
-      <c r="Y156">
-        <v>1.05</v>
-      </c>
-      <c r="Z156">
-        <v>3.25</v>
-      </c>
-      <c r="AA156">
-        <v>3.1</v>
-      </c>
-      <c r="AB156">
-        <v>2.25</v>
-      </c>
-      <c r="AC156">
-        <v>1.08</v>
-      </c>
-      <c r="AD156">
-        <v>7.5</v>
       </c>
       <c r="AE156">
         <v>1.38</v>
@@ -33222,106 +33222,106 @@
         <v>1.65</v>
       </c>
       <c r="AI156">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AJ156">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AK156">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AL156">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM156">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AN156">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="AO156">
+        <v>0.71</v>
+      </c>
+      <c r="AP156">
         <v>1.5</v>
       </c>
-      <c r="AP156">
-        <v>1.88</v>
-      </c>
       <c r="AQ156">
-        <v>1.33</v>
+        <v>0.75</v>
       </c>
       <c r="AR156">
-        <v>1.17</v>
+        <v>1.49</v>
       </c>
       <c r="AS156">
-        <v>1.22</v>
+        <v>1.09</v>
       </c>
       <c r="AT156">
-        <v>2.39</v>
+        <v>2.58</v>
       </c>
       <c r="AU156">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV156">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW156">
+        <v>4</v>
+      </c>
+      <c r="AX156">
+        <v>5</v>
+      </c>
+      <c r="AY156">
+        <v>16</v>
+      </c>
+      <c r="AZ156">
+        <v>12</v>
+      </c>
+      <c r="BA156">
+        <v>2</v>
+      </c>
+      <c r="BB156">
+        <v>4</v>
+      </c>
+      <c r="BC156">
         <v>6</v>
       </c>
-      <c r="AX156">
-        <v>12</v>
-      </c>
-      <c r="AY156">
-        <v>17</v>
-      </c>
-      <c r="AZ156">
-        <v>16</v>
-      </c>
-      <c r="BA156">
-        <v>5</v>
-      </c>
-      <c r="BB156">
-        <v>8</v>
-      </c>
-      <c r="BC156">
-        <v>13</v>
-      </c>
       <c r="BD156">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="BE156">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF156">
-        <v>1.76</v>
+        <v>2.55</v>
       </c>
       <c r="BG156">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="BH156">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="BI156">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BJ156">
-        <v>2.15</v>
+        <v>2.4</v>
       </c>
       <c r="BK156">
-        <v>1.98</v>
+        <v>1.79</v>
       </c>
       <c r="BL156">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="BM156">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="BN156">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
       <c r="BO156">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="BP156">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="157" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>['25', '45', '64', '74', '90']</t>
+  </si>
+  <si>
+    <t>['49', '68']</t>
   </si>
   <si>
     <t>['24', '45+2', '80']</t>
@@ -1182,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1647,7 +1650,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1853,7 +1856,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2059,7 +2062,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2137,7 +2140,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ5">
         <v>1.38</v>
@@ -2265,7 +2268,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2471,7 +2474,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2883,7 +2886,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3089,7 +3092,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3501,7 +3504,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3582,7 +3585,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3707,7 +3710,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -3913,7 +3916,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4531,7 +4534,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4815,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>1.33</v>
@@ -5149,7 +5152,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5561,7 +5564,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5973,7 +5976,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -6179,7 +6182,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>3.24</v>
@@ -6591,7 +6594,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -7702,7 +7705,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ32">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>0.67</v>
@@ -7827,7 +7830,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8111,7 +8114,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ34">
         <v>1.13</v>
@@ -8239,7 +8242,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8445,7 +8448,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -9063,7 +9066,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9269,7 +9272,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9475,7 +9478,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9681,7 +9684,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -10505,7 +10508,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10917,7 +10920,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11123,7 +11126,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11329,7 +11332,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11535,7 +11538,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11741,7 +11744,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -12359,7 +12362,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12437,7 +12440,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -13183,7 +13186,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13264,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13595,7 +13598,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13801,7 +13804,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -14213,7 +14216,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>2.9</v>
@@ -14625,7 +14628,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15037,7 +15040,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15449,7 +15452,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15655,7 +15658,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15861,7 +15864,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16067,7 +16070,7 @@
         <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16273,7 +16276,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16685,7 +16688,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -16763,7 +16766,7 @@
         <v>0.33</v>
       </c>
       <c r="AP76">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ76">
         <v>0.63</v>
@@ -16891,7 +16894,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17097,7 +17100,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17303,7 +17306,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17384,7 +17387,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ79">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR79">
         <v>1.53</v>
@@ -17509,7 +17512,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -18127,7 +18130,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18333,7 +18336,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18745,7 +18748,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18951,7 +18954,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19157,7 +19160,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19363,7 +19366,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19775,7 +19778,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -20062,7 +20065,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ92">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR92">
         <v>1.53</v>
@@ -22247,7 +22250,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>3.3</v>
@@ -22453,7 +22456,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22659,7 +22662,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -23277,7 +23280,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>3.1</v>
@@ -23973,7 +23976,7 @@
         <v>0.75</v>
       </c>
       <c r="AP111">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ111">
         <v>0.86</v>
@@ -24307,7 +24310,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -25131,7 +25134,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25337,7 +25340,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25749,7 +25752,7 @@
         <v>102</v>
       </c>
       <c r="P120" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26161,7 +26164,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26367,7 +26370,7 @@
         <v>102</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>3.8</v>
@@ -26651,7 +26654,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ124">
         <v>1</v>
@@ -26985,7 +26988,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27397,7 +27400,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27603,7 +27606,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -27809,7 +27812,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28015,7 +28018,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28096,7 +28099,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ131">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR131">
         <v>1.62</v>
@@ -28221,7 +28224,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29045,7 +29048,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29251,7 +29254,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q137">
         <v>2.6</v>
@@ -29457,7 +29460,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -30075,7 +30078,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30281,7 +30284,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -30487,7 +30490,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q143">
         <v>2.55</v>
@@ -30693,7 +30696,7 @@
         <v>102</v>
       </c>
       <c r="P144" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q144">
         <v>3.95</v>
@@ -30899,7 +30902,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q145">
         <v>3.25</v>
@@ -30980,7 +30983,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ145">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR145">
         <v>1.73</v>
@@ -31105,7 +31108,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31723,7 +31726,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q149">
         <v>2.63</v>
@@ -31801,7 +31804,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ149">
         <v>1.43</v>
@@ -31929,7 +31932,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32135,7 +32138,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q151">
         <v>2.75</v>
@@ -32341,7 +32344,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q152">
         <v>2.95</v>
@@ -32959,7 +32962,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q155">
         <v>3.7</v>
@@ -33165,7 +33168,7 @@
         <v>174</v>
       </c>
       <c r="P156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -33371,7 +33374,7 @@
         <v>102</v>
       </c>
       <c r="P157" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33783,7 +33786,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q159">
         <v>2.2</v>
@@ -34195,7 +34198,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q161">
         <v>2.2</v>
@@ -34352,6 +34355,212 @@
       </c>
       <c r="BP161">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7509742</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45639.6875</v>
+      </c>
+      <c r="F162">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>73</v>
+      </c>
+      <c r="H162" t="s">
+        <v>71</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>2</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>192</v>
+      </c>
+      <c r="P162" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q162">
+        <v>2.8</v>
+      </c>
+      <c r="R162">
+        <v>1.95</v>
+      </c>
+      <c r="S162">
+        <v>4</v>
+      </c>
+      <c r="T162">
+        <v>1.48</v>
+      </c>
+      <c r="U162">
+        <v>2.45</v>
+      </c>
+      <c r="V162">
+        <v>3.2</v>
+      </c>
+      <c r="W162">
+        <v>1.3</v>
+      </c>
+      <c r="X162">
+        <v>8.6</v>
+      </c>
+      <c r="Y162">
+        <v>1.04</v>
+      </c>
+      <c r="Z162">
+        <v>2.1</v>
+      </c>
+      <c r="AA162">
+        <v>3</v>
+      </c>
+      <c r="AB162">
+        <v>3.2</v>
+      </c>
+      <c r="AC162">
+        <v>1.08</v>
+      </c>
+      <c r="AD162">
+        <v>7.5</v>
+      </c>
+      <c r="AE162">
+        <v>1.42</v>
+      </c>
+      <c r="AF162">
+        <v>2.8</v>
+      </c>
+      <c r="AG162">
+        <v>2.2</v>
+      </c>
+      <c r="AH162">
+        <v>1.53</v>
+      </c>
+      <c r="AI162">
+        <v>1.9</v>
+      </c>
+      <c r="AJ162">
+        <v>1.77</v>
+      </c>
+      <c r="AK162">
+        <v>1.3</v>
+      </c>
+      <c r="AL162">
+        <v>1.28</v>
+      </c>
+      <c r="AM162">
+        <v>1.67</v>
+      </c>
+      <c r="AN162">
+        <v>2.25</v>
+      </c>
+      <c r="AO162">
+        <v>1.43</v>
+      </c>
+      <c r="AP162">
+        <v>2.33</v>
+      </c>
+      <c r="AQ162">
+        <v>1.25</v>
+      </c>
+      <c r="AR162">
+        <v>1.37</v>
+      </c>
+      <c r="AS162">
+        <v>1.27</v>
+      </c>
+      <c r="AT162">
+        <v>2.64</v>
+      </c>
+      <c r="AU162">
+        <v>6</v>
+      </c>
+      <c r="AV162">
+        <v>2</v>
+      </c>
+      <c r="AW162">
+        <v>7</v>
+      </c>
+      <c r="AX162">
+        <v>3</v>
+      </c>
+      <c r="AY162">
+        <v>18</v>
+      </c>
+      <c r="AZ162">
+        <v>7</v>
+      </c>
+      <c r="BA162">
+        <v>5</v>
+      </c>
+      <c r="BB162">
+        <v>4</v>
+      </c>
+      <c r="BC162">
+        <v>9</v>
+      </c>
+      <c r="BD162">
+        <v>1.74</v>
+      </c>
+      <c r="BE162">
+        <v>6.4</v>
+      </c>
+      <c r="BF162">
+        <v>2.33</v>
+      </c>
+      <c r="BG162">
+        <v>1.47</v>
+      </c>
+      <c r="BH162">
+        <v>2.48</v>
+      </c>
+      <c r="BI162">
+        <v>1.77</v>
+      </c>
+      <c r="BJ162">
+        <v>1.93</v>
+      </c>
+      <c r="BK162">
+        <v>2.23</v>
+      </c>
+      <c r="BL162">
+        <v>1.56</v>
+      </c>
+      <c r="BM162">
+        <v>2.9</v>
+      </c>
+      <c r="BN162">
+        <v>1.34</v>
+      </c>
+      <c r="BO162">
+        <v>3.9</v>
+      </c>
+      <c r="BP162">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,15 @@
     <t>['49', '68']</t>
   </si>
   <si>
+    <t>['4', '63']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['45+1', '57']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -793,9 +802,6 @@
     <t>['3', '47', '71', '77']</t>
   </si>
   <si>
-    <t>['24']</t>
-  </si>
-  <si>
     <t>['30', '38']</t>
   </si>
   <si>
@@ -824,6 +830,12 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['41', '90']</t>
+  </si>
+  <si>
+    <t>['37', '73']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP162"/>
+  <dimension ref="A1:BP167"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1650,7 +1662,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1856,7 +1868,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -1934,10 +1946,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ4">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2062,7 +2074,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2143,7 +2155,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ5">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2268,7 +2280,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2474,7 +2486,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2552,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2758,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2886,7 +2898,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2964,10 +2976,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3092,7 +3104,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3173,7 +3185,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ10">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3504,7 +3516,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3710,7 +3722,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -3788,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ13">
         <v>0.75</v>
@@ -3916,7 +3928,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -3994,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ14">
         <v>1.13</v>
@@ -4534,7 +4546,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -5152,7 +5164,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5233,7 +5245,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ20">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5564,7 +5576,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5645,7 +5657,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ22">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR22">
         <v>1.6</v>
@@ -5976,7 +5988,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -6182,7 +6194,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>3.24</v>
@@ -6466,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6594,7 +6606,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -6878,10 +6890,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ28">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR28">
         <v>2.15</v>
@@ -7084,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ29">
         <v>0.86</v>
@@ -7293,7 +7305,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ30">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>1.65</v>
@@ -7499,7 +7511,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ31">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7702,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ32">
         <v>1.25</v>
@@ -7830,7 +7842,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8242,7 +8254,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8448,7 +8460,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8526,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8732,7 +8744,7 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ37">
         <v>1.38</v>
@@ -9066,7 +9078,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9147,7 +9159,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ39">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9272,7 +9284,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9478,7 +9490,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9684,7 +9696,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9762,10 +9774,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ42">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR42">
         <v>1.75</v>
@@ -10177,7 +10189,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ44">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR44">
         <v>1.6</v>
@@ -10508,7 +10520,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10795,7 +10807,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ47">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR47">
         <v>1.62</v>
@@ -10920,7 +10932,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -10998,7 +11010,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>0.75</v>
@@ -11126,7 +11138,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11207,7 +11219,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ49">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR49">
         <v>0.9399999999999999</v>
@@ -11332,7 +11344,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11538,7 +11550,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11744,7 +11756,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -12031,7 +12043,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ53">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR53">
         <v>1.32</v>
@@ -12362,7 +12374,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12646,7 +12658,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ56">
         <v>0.75</v>
@@ -12852,7 +12864,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ57">
         <v>0.75</v>
@@ -13186,7 +13198,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13264,7 +13276,7 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ59">
         <v>1.25</v>
@@ -13598,7 +13610,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13804,7 +13816,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -14091,7 +14103,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ63">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.29</v>
@@ -14216,7 +14228,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>2.9</v>
@@ -14297,7 +14309,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ64">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
         <v>1.44</v>
@@ -14628,7 +14640,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14706,10 +14718,10 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ66">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR66">
         <v>1.61</v>
@@ -15040,7 +15052,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15452,7 +15464,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15530,7 +15542,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ70">
         <v>1.33</v>
@@ -15658,7 +15670,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15864,7 +15876,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -15942,7 +15954,7 @@
         <v>1.25</v>
       </c>
       <c r="AP72">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ72">
         <v>1.38</v>
@@ -16070,7 +16082,7 @@
         <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16148,7 +16160,7 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ73">
         <v>0.5</v>
@@ -16276,7 +16288,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16688,7 +16700,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -16894,7 +16906,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17100,7 +17112,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17306,7 +17318,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17512,7 +17524,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17593,7 +17605,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ80">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR80">
         <v>1.3</v>
@@ -18130,7 +18142,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18208,7 +18220,7 @@
         <v>1.33</v>
       </c>
       <c r="AP83">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ83">
         <v>1.75</v>
@@ -18336,7 +18348,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18417,7 +18429,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR84">
         <v>1.72</v>
@@ -18623,7 +18635,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ85">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -18748,7 +18760,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18954,7 +18966,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19035,7 +19047,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ87">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR87">
         <v>1.8</v>
@@ -19160,7 +19172,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19366,7 +19378,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19447,7 +19459,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ89">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR89">
         <v>1.21</v>
@@ -19650,7 +19662,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ90">
         <v>1</v>
@@ -19778,7 +19790,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -19856,7 +19868,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -20268,7 +20280,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -21095,7 +21107,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ97">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR97">
         <v>1.32</v>
@@ -21710,7 +21722,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ100">
         <v>1.75</v>
@@ -21916,10 +21928,10 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ101">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR101">
         <v>1.13</v>
@@ -22250,7 +22262,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q103">
         <v>3.3</v>
@@ -22331,7 +22343,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR103">
         <v>1.86</v>
@@ -22456,7 +22468,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22537,7 +22549,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ104">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR104">
         <v>1.28</v>
@@ -22662,7 +22674,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -22946,10 +22958,10 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR106">
         <v>1.29</v>
@@ -23280,7 +23292,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>3.1</v>
@@ -23358,7 +23370,7 @@
         <v>0.75</v>
       </c>
       <c r="AP108">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -24185,7 +24197,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ112">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR112">
         <v>1.57</v>
@@ -24310,7 +24322,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -25006,7 +25018,7 @@
         <v>1.2</v>
       </c>
       <c r="AP116">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ116">
         <v>0.75</v>
@@ -25134,7 +25146,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25340,7 +25352,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25752,7 +25764,7 @@
         <v>102</v>
       </c>
       <c r="P120" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25830,7 +25842,7 @@
         <v>0.8</v>
       </c>
       <c r="AP120">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26039,7 +26051,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ121">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR121">
         <v>1.35</v>
@@ -26164,7 +26176,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26242,7 +26254,7 @@
         <v>1.57</v>
       </c>
       <c r="AP122">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ122">
         <v>1.33</v>
@@ -26370,7 +26382,7 @@
         <v>102</v>
       </c>
       <c r="P123" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q123">
         <v>3.8</v>
@@ -26448,10 +26460,10 @@
         <v>2</v>
       </c>
       <c r="AP123">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ123">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR123">
         <v>1.52</v>
@@ -26988,7 +27000,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27069,7 +27081,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ126">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR126">
         <v>1.73</v>
@@ -27400,7 +27412,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27481,7 +27493,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ128">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR128">
         <v>1.36</v>
@@ -27606,7 +27618,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -27812,7 +27824,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27890,7 +27902,7 @@
         <v>0.8</v>
       </c>
       <c r="AP130">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ130">
         <v>0.86</v>
@@ -28018,7 +28030,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28224,7 +28236,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28305,7 +28317,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ132">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR132">
         <v>1.56</v>
@@ -29048,7 +29060,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29129,7 +29141,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ136">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR136">
         <v>1.26</v>
@@ -29254,7 +29266,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q137">
         <v>2.6</v>
@@ -29332,7 +29344,7 @@
         <v>0.83</v>
       </c>
       <c r="AP137">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ137">
         <v>1.13</v>
@@ -29460,7 +29472,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -30078,7 +30090,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30284,7 +30296,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -30362,10 +30374,10 @@
         <v>2.14</v>
       </c>
       <c r="AP142">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ142">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AR142">
         <v>1.2</v>
@@ -30490,7 +30502,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q143">
         <v>2.55</v>
@@ -30568,7 +30580,7 @@
         <v>0.83</v>
       </c>
       <c r="AP143">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ143">
         <v>0.86</v>
@@ -30696,7 +30708,7 @@
         <v>102</v>
       </c>
       <c r="P144" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q144">
         <v>3.95</v>
@@ -30774,7 +30786,7 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AQ144">
         <v>1.63</v>
@@ -30902,7 +30914,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>259</v>
+        <v>194</v>
       </c>
       <c r="Q145">
         <v>3.25</v>
@@ -31108,7 +31120,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31395,7 +31407,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ147">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR147">
         <v>1.21</v>
@@ -31601,7 +31613,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ148">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -31726,7 +31738,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q149">
         <v>2.63</v>
@@ -31807,7 +31819,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ149">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR149">
         <v>1.34</v>
@@ -31932,7 +31944,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32010,7 +32022,7 @@
         <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ150">
         <v>0.63</v>
@@ -32138,7 +32150,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q151">
         <v>2.75</v>
@@ -32344,7 +32356,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q152">
         <v>2.95</v>
@@ -32962,7 +32974,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q155">
         <v>3.7</v>
@@ -33168,7 +33180,7 @@
         <v>174</v>
       </c>
       <c r="P156" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -33374,7 +33386,7 @@
         <v>102</v>
       </c>
       <c r="P157" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33786,7 +33798,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q159">
         <v>2.2</v>
@@ -34198,7 +34210,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q161">
         <v>2.2</v>
@@ -34561,6 +34573,1036 @@
       </c>
       <c r="BP162">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7509746</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45640.45833333334</v>
+      </c>
+      <c r="F163">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>72</v>
+      </c>
+      <c r="H163" t="s">
+        <v>85</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>2</v>
+      </c>
+      <c r="N163">
+        <v>4</v>
+      </c>
+      <c r="O163" t="s">
+        <v>193</v>
+      </c>
+      <c r="P163" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q163">
+        <v>3</v>
+      </c>
+      <c r="R163">
+        <v>1.85</v>
+      </c>
+      <c r="S163">
+        <v>3.95</v>
+      </c>
+      <c r="T163">
+        <v>1.55</v>
+      </c>
+      <c r="U163">
+        <v>2.3</v>
+      </c>
+      <c r="V163">
+        <v>3.6</v>
+      </c>
+      <c r="W163">
+        <v>1.25</v>
+      </c>
+      <c r="X163">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y163">
+        <v>1.02</v>
+      </c>
+      <c r="Z163">
+        <v>2.2</v>
+      </c>
+      <c r="AA163">
+        <v>3.1</v>
+      </c>
+      <c r="AB163">
+        <v>3.3</v>
+      </c>
+      <c r="AC163">
+        <v>1.09</v>
+      </c>
+      <c r="AD163">
+        <v>7</v>
+      </c>
+      <c r="AE163">
+        <v>1.5</v>
+      </c>
+      <c r="AF163">
+        <v>2.55</v>
+      </c>
+      <c r="AG163">
+        <v>2.37</v>
+      </c>
+      <c r="AH163">
+        <v>1.51</v>
+      </c>
+      <c r="AI163">
+        <v>2.05</v>
+      </c>
+      <c r="AJ163">
+        <v>1.67</v>
+      </c>
+      <c r="AK163">
+        <v>1.3</v>
+      </c>
+      <c r="AL163">
+        <v>1.3</v>
+      </c>
+      <c r="AM163">
+        <v>1.62</v>
+      </c>
+      <c r="AN163">
+        <v>0.88</v>
+      </c>
+      <c r="AO163">
+        <v>0.38</v>
+      </c>
+      <c r="AP163">
+        <v>0.89</v>
+      </c>
+      <c r="AQ163">
+        <v>0.44</v>
+      </c>
+      <c r="AR163">
+        <v>1.43</v>
+      </c>
+      <c r="AS163">
+        <v>1.08</v>
+      </c>
+      <c r="AT163">
+        <v>2.51</v>
+      </c>
+      <c r="AU163">
+        <v>6</v>
+      </c>
+      <c r="AV163">
+        <v>6</v>
+      </c>
+      <c r="AW163">
+        <v>3</v>
+      </c>
+      <c r="AX163">
+        <v>4</v>
+      </c>
+      <c r="AY163">
+        <v>12</v>
+      </c>
+      <c r="AZ163">
+        <v>15</v>
+      </c>
+      <c r="BA163">
+        <v>3</v>
+      </c>
+      <c r="BB163">
+        <v>5</v>
+      </c>
+      <c r="BC163">
+        <v>8</v>
+      </c>
+      <c r="BD163">
+        <v>1.79</v>
+      </c>
+      <c r="BE163">
+        <v>6.25</v>
+      </c>
+      <c r="BF163">
+        <v>2.28</v>
+      </c>
+      <c r="BG163">
+        <v>1.5</v>
+      </c>
+      <c r="BH163">
+        <v>2.38</v>
+      </c>
+      <c r="BI163">
+        <v>1.85</v>
+      </c>
+      <c r="BJ163">
+        <v>1.83</v>
+      </c>
+      <c r="BK163">
+        <v>2.4</v>
+      </c>
+      <c r="BL163">
+        <v>1.5</v>
+      </c>
+      <c r="BM163">
+        <v>3.15</v>
+      </c>
+      <c r="BN163">
+        <v>1.3</v>
+      </c>
+      <c r="BO163">
+        <v>4.2</v>
+      </c>
+      <c r="BP163">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7509743</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45640.45833333334</v>
+      </c>
+      <c r="F164">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>77</v>
+      </c>
+      <c r="H164" t="s">
+        <v>80</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>102</v>
+      </c>
+      <c r="P164" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q164">
+        <v>3.5</v>
+      </c>
+      <c r="R164">
+        <v>1.91</v>
+      </c>
+      <c r="S164">
+        <v>3.2</v>
+      </c>
+      <c r="T164">
+        <v>1.5</v>
+      </c>
+      <c r="U164">
+        <v>2.4</v>
+      </c>
+      <c r="V164">
+        <v>3.3</v>
+      </c>
+      <c r="W164">
+        <v>1.28</v>
+      </c>
+      <c r="X164">
+        <v>9.1</v>
+      </c>
+      <c r="Y164">
+        <v>1.03</v>
+      </c>
+      <c r="Z164">
+        <v>2.8</v>
+      </c>
+      <c r="AA164">
+        <v>3.1</v>
+      </c>
+      <c r="AB164">
+        <v>2.5</v>
+      </c>
+      <c r="AC164">
+        <v>1.09</v>
+      </c>
+      <c r="AD164">
+        <v>7</v>
+      </c>
+      <c r="AE164">
+        <v>1.45</v>
+      </c>
+      <c r="AF164">
+        <v>2.7</v>
+      </c>
+      <c r="AG164">
+        <v>2.4</v>
+      </c>
+      <c r="AH164">
+        <v>1.49</v>
+      </c>
+      <c r="AI164">
+        <v>1.93</v>
+      </c>
+      <c r="AJ164">
+        <v>1.75</v>
+      </c>
+      <c r="AK164">
+        <v>1.5</v>
+      </c>
+      <c r="AL164">
+        <v>1.3</v>
+      </c>
+      <c r="AM164">
+        <v>1.4</v>
+      </c>
+      <c r="AN164">
+        <v>1.13</v>
+      </c>
+      <c r="AO164">
+        <v>0.63</v>
+      </c>
+      <c r="AP164">
+        <v>1</v>
+      </c>
+      <c r="AQ164">
+        <v>0.89</v>
+      </c>
+      <c r="AR164">
+        <v>1.25</v>
+      </c>
+      <c r="AS164">
+        <v>1.07</v>
+      </c>
+      <c r="AT164">
+        <v>2.32</v>
+      </c>
+      <c r="AU164">
+        <v>3</v>
+      </c>
+      <c r="AV164">
+        <v>5</v>
+      </c>
+      <c r="AW164">
+        <v>6</v>
+      </c>
+      <c r="AX164">
+        <v>6</v>
+      </c>
+      <c r="AY164">
+        <v>14</v>
+      </c>
+      <c r="AZ164">
+        <v>12</v>
+      </c>
+      <c r="BA164">
+        <v>6</v>
+      </c>
+      <c r="BB164">
+        <v>2</v>
+      </c>
+      <c r="BC164">
+        <v>8</v>
+      </c>
+      <c r="BD164">
+        <v>2.08</v>
+      </c>
+      <c r="BE164">
+        <v>6.1</v>
+      </c>
+      <c r="BF164">
+        <v>1.92</v>
+      </c>
+      <c r="BG164">
+        <v>1.53</v>
+      </c>
+      <c r="BH164">
+        <v>2.3</v>
+      </c>
+      <c r="BI164">
+        <v>1.9</v>
+      </c>
+      <c r="BJ164">
+        <v>1.79</v>
+      </c>
+      <c r="BK164">
+        <v>2.43</v>
+      </c>
+      <c r="BL164">
+        <v>1.48</v>
+      </c>
+      <c r="BM164">
+        <v>3.25</v>
+      </c>
+      <c r="BN164">
+        <v>1.28</v>
+      </c>
+      <c r="BO164">
+        <v>4.35</v>
+      </c>
+      <c r="BP164">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7509740</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45640.45833333334</v>
+      </c>
+      <c r="F165">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>75</v>
+      </c>
+      <c r="H165" t="s">
+        <v>84</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="N165">
+        <v>3</v>
+      </c>
+      <c r="O165" t="s">
+        <v>194</v>
+      </c>
+      <c r="P165" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q165">
+        <v>4.33</v>
+      </c>
+      <c r="R165">
+        <v>2.2</v>
+      </c>
+      <c r="S165">
+        <v>2.6</v>
+      </c>
+      <c r="T165">
+        <v>1.4</v>
+      </c>
+      <c r="U165">
+        <v>2.75</v>
+      </c>
+      <c r="V165">
+        <v>3</v>
+      </c>
+      <c r="W165">
+        <v>1.36</v>
+      </c>
+      <c r="X165">
+        <v>8</v>
+      </c>
+      <c r="Y165">
+        <v>1.08</v>
+      </c>
+      <c r="Z165">
+        <v>3.7</v>
+      </c>
+      <c r="AA165">
+        <v>3.5</v>
+      </c>
+      <c r="AB165">
+        <v>1.91</v>
+      </c>
+      <c r="AC165">
+        <v>1.06</v>
+      </c>
+      <c r="AD165">
+        <v>8.5</v>
+      </c>
+      <c r="AE165">
+        <v>1.3</v>
+      </c>
+      <c r="AF165">
+        <v>3.4</v>
+      </c>
+      <c r="AG165">
+        <v>1.99</v>
+      </c>
+      <c r="AH165">
+        <v>1.82</v>
+      </c>
+      <c r="AI165">
+        <v>1.8</v>
+      </c>
+      <c r="AJ165">
+        <v>1.95</v>
+      </c>
+      <c r="AK165">
+        <v>1.83</v>
+      </c>
+      <c r="AL165">
+        <v>1.25</v>
+      </c>
+      <c r="AM165">
+        <v>1.25</v>
+      </c>
+      <c r="AN165">
+        <v>1</v>
+      </c>
+      <c r="AO165">
+        <v>2.25</v>
+      </c>
+      <c r="AP165">
+        <v>0.89</v>
+      </c>
+      <c r="AQ165">
+        <v>2.33</v>
+      </c>
+      <c r="AR165">
+        <v>1.36</v>
+      </c>
+      <c r="AS165">
+        <v>1.43</v>
+      </c>
+      <c r="AT165">
+        <v>2.79</v>
+      </c>
+      <c r="AU165">
+        <v>4</v>
+      </c>
+      <c r="AV165">
+        <v>4</v>
+      </c>
+      <c r="AW165">
+        <v>5</v>
+      </c>
+      <c r="AX165">
+        <v>6</v>
+      </c>
+      <c r="AY165">
+        <v>10</v>
+      </c>
+      <c r="AZ165">
+        <v>16</v>
+      </c>
+      <c r="BA165">
+        <v>1</v>
+      </c>
+      <c r="BB165">
+        <v>7</v>
+      </c>
+      <c r="BC165">
+        <v>8</v>
+      </c>
+      <c r="BD165">
+        <v>2.5</v>
+      </c>
+      <c r="BE165">
+        <v>6.4</v>
+      </c>
+      <c r="BF165">
+        <v>1.65</v>
+      </c>
+      <c r="BG165">
+        <v>1.41</v>
+      </c>
+      <c r="BH165">
+        <v>2.65</v>
+      </c>
+      <c r="BI165">
+        <v>1.68</v>
+      </c>
+      <c r="BJ165">
+        <v>2.02</v>
+      </c>
+      <c r="BK165">
+        <v>2.1</v>
+      </c>
+      <c r="BL165">
+        <v>1.65</v>
+      </c>
+      <c r="BM165">
+        <v>2.65</v>
+      </c>
+      <c r="BN165">
+        <v>1.4</v>
+      </c>
+      <c r="BO165">
+        <v>3.55</v>
+      </c>
+      <c r="BP165">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7509738</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45640.45833333334</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166" t="s">
+        <v>76</v>
+      </c>
+      <c r="H166" t="s">
+        <v>79</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>195</v>
+      </c>
+      <c r="P166" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q166">
+        <v>2.55</v>
+      </c>
+      <c r="R166">
+        <v>2.05</v>
+      </c>
+      <c r="S166">
+        <v>4.33</v>
+      </c>
+      <c r="T166">
+        <v>1.43</v>
+      </c>
+      <c r="U166">
+        <v>2.65</v>
+      </c>
+      <c r="V166">
+        <v>2.95</v>
+      </c>
+      <c r="W166">
+        <v>1.36</v>
+      </c>
+      <c r="X166">
+        <v>7.5</v>
+      </c>
+      <c r="Y166">
+        <v>1.06</v>
+      </c>
+      <c r="Z166">
+        <v>1.91</v>
+      </c>
+      <c r="AA166">
+        <v>3.4</v>
+      </c>
+      <c r="AB166">
+        <v>3.9</v>
+      </c>
+      <c r="AC166">
+        <v>1.06</v>
+      </c>
+      <c r="AD166">
+        <v>8.5</v>
+      </c>
+      <c r="AE166">
+        <v>1.33</v>
+      </c>
+      <c r="AF166">
+        <v>3.1</v>
+      </c>
+      <c r="AG166">
+        <v>2</v>
+      </c>
+      <c r="AH166">
+        <v>1.7</v>
+      </c>
+      <c r="AI166">
+        <v>1.87</v>
+      </c>
+      <c r="AJ166">
+        <v>1.87</v>
+      </c>
+      <c r="AK166">
+        <v>1.2</v>
+      </c>
+      <c r="AL166">
+        <v>1.25</v>
+      </c>
+      <c r="AM166">
+        <v>1.85</v>
+      </c>
+      <c r="AN166">
+        <v>2.13</v>
+      </c>
+      <c r="AO166">
+        <v>1.43</v>
+      </c>
+      <c r="AP166">
+        <v>2.22</v>
+      </c>
+      <c r="AQ166">
+        <v>1.25</v>
+      </c>
+      <c r="AR166">
+        <v>1.6</v>
+      </c>
+      <c r="AS166">
+        <v>1.35</v>
+      </c>
+      <c r="AT166">
+        <v>2.95</v>
+      </c>
+      <c r="AU166">
+        <v>6</v>
+      </c>
+      <c r="AV166">
+        <v>6</v>
+      </c>
+      <c r="AW166">
+        <v>3</v>
+      </c>
+      <c r="AX166">
+        <v>5</v>
+      </c>
+      <c r="AY166">
+        <v>10</v>
+      </c>
+      <c r="AZ166">
+        <v>15</v>
+      </c>
+      <c r="BA166">
+        <v>5</v>
+      </c>
+      <c r="BB166">
+        <v>3</v>
+      </c>
+      <c r="BC166">
+        <v>8</v>
+      </c>
+      <c r="BD166">
+        <v>1.65</v>
+      </c>
+      <c r="BE166">
+        <v>6.1</v>
+      </c>
+      <c r="BF166">
+        <v>2.55</v>
+      </c>
+      <c r="BG166">
+        <v>1.45</v>
+      </c>
+      <c r="BH166">
+        <v>2.55</v>
+      </c>
+      <c r="BI166">
+        <v>1.75</v>
+      </c>
+      <c r="BJ166">
+        <v>1.95</v>
+      </c>
+      <c r="BK166">
+        <v>2.23</v>
+      </c>
+      <c r="BL166">
+        <v>1.57</v>
+      </c>
+      <c r="BM166">
+        <v>2.9</v>
+      </c>
+      <c r="BN166">
+        <v>1.35</v>
+      </c>
+      <c r="BO166">
+        <v>3.9</v>
+      </c>
+      <c r="BP166">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7509745</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45640.55208333334</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167" t="s">
+        <v>81</v>
+      </c>
+      <c r="H167" t="s">
+        <v>83</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167" t="s">
+        <v>102</v>
+      </c>
+      <c r="P167" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q167">
+        <v>3.3</v>
+      </c>
+      <c r="R167">
+        <v>1.93</v>
+      </c>
+      <c r="S167">
+        <v>3.35</v>
+      </c>
+      <c r="T167">
+        <v>1.48</v>
+      </c>
+      <c r="U167">
+        <v>2.45</v>
+      </c>
+      <c r="V167">
+        <v>3.2</v>
+      </c>
+      <c r="W167">
+        <v>1.3</v>
+      </c>
+      <c r="X167">
+        <v>7.5</v>
+      </c>
+      <c r="Y167">
+        <v>1.05</v>
+      </c>
+      <c r="Z167">
+        <v>2.46</v>
+      </c>
+      <c r="AA167">
+        <v>3.1</v>
+      </c>
+      <c r="AB167">
+        <v>2.83</v>
+      </c>
+      <c r="AC167">
+        <v>1.08</v>
+      </c>
+      <c r="AD167">
+        <v>7.5</v>
+      </c>
+      <c r="AE167">
+        <v>1.42</v>
+      </c>
+      <c r="AF167">
+        <v>2.85</v>
+      </c>
+      <c r="AG167">
+        <v>2.25</v>
+      </c>
+      <c r="AH167">
+        <v>1.65</v>
+      </c>
+      <c r="AI167">
+        <v>1.85</v>
+      </c>
+      <c r="AJ167">
+        <v>1.83</v>
+      </c>
+      <c r="AK167">
+        <v>1.44</v>
+      </c>
+      <c r="AL167">
+        <v>1.3</v>
+      </c>
+      <c r="AM167">
+        <v>1.45</v>
+      </c>
+      <c r="AN167">
+        <v>1.14</v>
+      </c>
+      <c r="AO167">
+        <v>1.38</v>
+      </c>
+      <c r="AP167">
+        <v>1.13</v>
+      </c>
+      <c r="AQ167">
+        <v>1.33</v>
+      </c>
+      <c r="AR167">
+        <v>1.43</v>
+      </c>
+      <c r="AS167">
+        <v>1.24</v>
+      </c>
+      <c r="AT167">
+        <v>2.67</v>
+      </c>
+      <c r="AU167">
+        <v>4</v>
+      </c>
+      <c r="AV167">
+        <v>6</v>
+      </c>
+      <c r="AW167">
+        <v>3</v>
+      </c>
+      <c r="AX167">
+        <v>6</v>
+      </c>
+      <c r="AY167">
+        <v>10</v>
+      </c>
+      <c r="AZ167">
+        <v>18</v>
+      </c>
+      <c r="BA167">
+        <v>1</v>
+      </c>
+      <c r="BB167">
+        <v>9</v>
+      </c>
+      <c r="BC167">
+        <v>10</v>
+      </c>
+      <c r="BD167">
+        <v>1.9</v>
+      </c>
+      <c r="BE167">
+        <v>6.4</v>
+      </c>
+      <c r="BF167">
+        <v>2.1</v>
+      </c>
+      <c r="BG167">
+        <v>1.38</v>
+      </c>
+      <c r="BH167">
+        <v>2.75</v>
+      </c>
+      <c r="BI167">
+        <v>1.66</v>
+      </c>
+      <c r="BJ167">
+        <v>2.08</v>
+      </c>
+      <c r="BK167">
+        <v>2.05</v>
+      </c>
+      <c r="BL167">
+        <v>1.68</v>
+      </c>
+      <c r="BM167">
+        <v>2.65</v>
+      </c>
+      <c r="BN167">
+        <v>1.42</v>
+      </c>
+      <c r="BO167">
+        <v>3.45</v>
+      </c>
+      <c r="BP167">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,13 +595,19 @@
     <t>['49', '68']</t>
   </si>
   <si>
+    <t>['45+1', '57']</t>
+  </si>
+  <si>
     <t>['4', '63']</t>
   </si>
   <si>
     <t>['24']</t>
   </si>
   <si>
-    <t>['45+1', '57']</t>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
   </si>
   <si>
     <t>['24', '45+2', '80']</t>
@@ -745,9 +751,6 @@
     <t>['14', '22', '55', '61', '88']</t>
   </si>
   <si>
-    <t>['32']</t>
-  </si>
-  <si>
     <t>['32', '59']</t>
   </si>
   <si>
@@ -836,6 +839,12 @@
   </si>
   <si>
     <t>['37', '73']</t>
+  </si>
+  <si>
+    <t>['3', '82']</t>
+  </si>
+  <si>
+    <t>['7', '73']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP167"/>
+  <dimension ref="A1:BP171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1534,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>1.33</v>
@@ -1662,7 +1671,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1743,7 +1752,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ3">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1868,7 +1877,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2074,7 +2083,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2280,7 +2289,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2358,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2486,7 +2495,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2773,7 +2782,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2898,7 +2907,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3104,7 +3113,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3391,7 +3400,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ11">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3516,7 +3525,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3722,7 +3731,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -3928,7 +3937,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4212,7 +4221,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>1</v>
@@ -4421,7 +4430,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ16">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4546,7 +4555,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -5164,7 +5173,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5451,7 +5460,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ21">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR21">
         <v>1.33</v>
@@ -5576,7 +5585,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5988,7 +5997,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -6066,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6194,7 +6203,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>3.24</v>
@@ -6272,7 +6281,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ25">
         <v>1.75</v>
@@ -6606,7 +6615,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -7099,7 +7108,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ29">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR29">
         <v>1.89</v>
@@ -7842,7 +7851,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8254,7 +8263,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8335,7 +8344,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ35">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR35">
         <v>1.36</v>
@@ -8460,7 +8469,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8747,7 +8756,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ37">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR37">
         <v>1.58</v>
@@ -9078,7 +9087,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9156,7 +9165,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ39">
         <v>1.25</v>
@@ -9284,7 +9293,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9490,7 +9499,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9571,7 +9580,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR41">
         <v>1.16</v>
@@ -9696,7 +9705,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9980,10 +9989,10 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ43">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR43">
         <v>1.15</v>
@@ -10392,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
         <v>1</v>
@@ -10520,7 +10529,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10932,7 +10941,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11138,7 +11147,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11344,7 +11353,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11550,7 +11559,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11628,7 +11637,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -11756,7 +11765,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -11837,7 +11846,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ52">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR52">
         <v>1.42</v>
@@ -12246,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ54">
         <v>0.63</v>
@@ -12374,7 +12383,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -13073,7 +13082,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ58">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR58">
         <v>1.74</v>
@@ -13198,7 +13207,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13610,7 +13619,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13691,7 +13700,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR61">
         <v>1.42</v>
@@ -13816,7 +13825,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -13894,7 +13903,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -14228,7 +14237,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>2.9</v>
@@ -14640,7 +14649,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -15052,7 +15061,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15336,10 +15345,10 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ69">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR69">
         <v>1.8</v>
@@ -15464,7 +15473,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15670,7 +15679,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15748,10 +15757,10 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ71">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR71">
         <v>1.89</v>
@@ -15876,7 +15885,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -15957,7 +15966,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ72">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR72">
         <v>0.97</v>
@@ -16082,7 +16091,7 @@
         <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16163,7 +16172,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ73">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR73">
         <v>1.51</v>
@@ -16288,7 +16297,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16700,7 +16709,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -16906,7 +16915,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17112,7 +17121,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17318,7 +17327,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17524,7 +17533,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17808,7 +17817,7 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ81">
         <v>0.75</v>
@@ -18017,7 +18026,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ82">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR82">
         <v>1.28</v>
@@ -18142,7 +18151,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18348,7 +18357,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18426,7 +18435,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ84">
         <v>1.33</v>
@@ -18632,7 +18641,7 @@
         <v>0.67</v>
       </c>
       <c r="AP85">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ85">
         <v>1.25</v>
@@ -18760,7 +18769,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18966,7 +18975,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19044,7 +19053,7 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
         <v>2.33</v>
@@ -19172,7 +19181,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19253,7 +19262,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ88">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR88">
         <v>1.29</v>
@@ -19378,7 +19387,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19790,7 +19799,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -20489,7 +20498,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ94">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR94">
         <v>1.63</v>
@@ -20898,7 +20907,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ96">
         <v>1.13</v>
@@ -22137,7 +22146,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ102">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR102">
         <v>1.3</v>
@@ -22262,7 +22271,7 @@
         <v>159</v>
       </c>
       <c r="P103" t="s">
-        <v>243</v>
+        <v>196</v>
       </c>
       <c r="Q103">
         <v>3.3</v>
@@ -22340,7 +22349,7 @@
         <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ103">
         <v>1.33</v>
@@ -22468,7 +22477,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22674,7 +22683,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -22755,7 +22764,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ105">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR105">
         <v>1.48</v>
@@ -23164,7 +23173,7 @@
         <v>0.25</v>
       </c>
       <c r="AP107">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ107">
         <v>0.63</v>
@@ -23292,7 +23301,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>3.1</v>
@@ -23576,7 +23585,7 @@
         <v>1.4</v>
       </c>
       <c r="AP109">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23991,7 +24000,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ111">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR111">
         <v>1.35</v>
@@ -24322,7 +24331,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24609,7 +24618,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ114">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR114">
         <v>1.23</v>
@@ -25146,7 +25155,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25352,7 +25361,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25636,7 +25645,7 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ119">
         <v>1</v>
@@ -25764,7 +25773,7 @@
         <v>102</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26176,7 +26185,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26382,7 +26391,7 @@
         <v>102</v>
       </c>
       <c r="P123" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q123">
         <v>3.8</v>
@@ -26875,7 +26884,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ125">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR125">
         <v>1.55</v>
@@ -27000,7 +27009,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27078,7 +27087,7 @@
         <v>1.2</v>
       </c>
       <c r="AP126">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ126">
         <v>1.25</v>
@@ -27287,7 +27296,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ127">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR127">
         <v>1.2</v>
@@ -27412,7 +27421,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27618,7 +27627,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -27696,7 +27705,7 @@
         <v>0.4</v>
       </c>
       <c r="AP129">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ129">
         <v>0.63</v>
@@ -27824,7 +27833,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27905,7 +27914,7 @@
         <v>1</v>
       </c>
       <c r="AQ130">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR130">
         <v>1.24</v>
@@ -28030,7 +28039,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28108,7 +28117,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ131">
         <v>1.25</v>
@@ -28236,7 +28245,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -29060,7 +29069,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29266,7 +29275,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q137">
         <v>2.6</v>
@@ -29472,7 +29481,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -30090,7 +30099,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30168,7 +30177,7 @@
         <v>1.14</v>
       </c>
       <c r="AP141">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ141">
         <v>1</v>
@@ -30296,7 +30305,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -30502,7 +30511,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q143">
         <v>2.55</v>
@@ -30583,7 +30592,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ143">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR143">
         <v>1.37</v>
@@ -30708,7 +30717,7 @@
         <v>102</v>
       </c>
       <c r="P144" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q144">
         <v>3.95</v>
@@ -30789,7 +30798,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ144">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR144">
         <v>1.46</v>
@@ -30914,7 +30923,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q145">
         <v>3.25</v>
@@ -30992,7 +31001,7 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ145">
         <v>1.25</v>
@@ -31120,7 +31129,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31198,10 +31207,10 @@
         <v>1.43</v>
       </c>
       <c r="AP146">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ146">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR146">
         <v>1.34</v>
@@ -31610,7 +31619,7 @@
         <v>1.57</v>
       </c>
       <c r="AP148">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ148">
         <v>1.33</v>
@@ -31738,7 +31747,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q149">
         <v>2.63</v>
@@ -31944,7 +31953,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32150,7 +32159,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>2.75</v>
@@ -32228,10 +32237,10 @@
         <v>0.57</v>
       </c>
       <c r="AP151">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ151">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR151">
         <v>1.67</v>
@@ -32356,7 +32365,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q152">
         <v>2.95</v>
@@ -32520,7 +32529,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7509727</v>
+        <v>7509728</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32535,19 +32544,19 @@
         <v>16</v>
       </c>
       <c r="G153" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H153" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
       <c r="K153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L153">
         <v>1</v>
@@ -32559,166 +32568,166 @@
         <v>1</v>
       </c>
       <c r="O153" t="s">
-        <v>126</v>
+        <v>187</v>
       </c>
       <c r="P153" t="s">
         <v>102</v>
       </c>
       <c r="Q153">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="R153">
         <v>1.95</v>
       </c>
       <c r="S153">
-        <v>3.55</v>
+        <v>2.95</v>
       </c>
       <c r="T153">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U153">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="V153">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="W153">
         <v>1.33</v>
       </c>
       <c r="X153">
-        <v>7.1</v>
+        <v>8</v>
       </c>
       <c r="Y153">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z153">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="AA153">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AB153">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="AC153">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD153">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE153">
         <v>1.38</v>
       </c>
       <c r="AF153">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AG153">
-        <v>1.96</v>
+        <v>2.11</v>
       </c>
       <c r="AH153">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AI153">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AJ153">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AK153">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AL153">
         <v>1.3</v>
       </c>
       <c r="AM153">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="AN153">
-        <v>1.38</v>
+        <v>1.71</v>
       </c>
       <c r="AO153">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="AP153">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="AQ153">
-        <v>0.63</v>
+        <v>1.33</v>
       </c>
       <c r="AR153">
-        <v>1.41</v>
+        <v>1.17</v>
       </c>
       <c r="AS153">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AT153">
-        <v>2.81</v>
+        <v>2.39</v>
       </c>
       <c r="AU153">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV153">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW153">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX153">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AY153">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="AZ153">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA153">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB153">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BC153">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BD153">
-        <v>1.88</v>
+        <v>2.28</v>
       </c>
       <c r="BE153">
         <v>6.4</v>
       </c>
       <c r="BF153">
-        <v>2.15</v>
+        <v>1.76</v>
       </c>
       <c r="BG153">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="BH153">
         <v>2.8</v>
       </c>
       <c r="BI153">
-        <v>1.64</v>
+        <v>1.61</v>
       </c>
       <c r="BJ153">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="BK153">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="BL153">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="BM153">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="BN153">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="BO153">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="BP153">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="154" spans="1:68">
@@ -32726,7 +32735,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7509728</v>
+        <v>7509733</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32741,34 +32750,34 @@
         <v>16</v>
       </c>
       <c r="G154" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H154" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="I154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M154">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O154" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="P154" t="s">
-        <v>102</v>
+        <v>268</v>
       </c>
       <c r="Q154">
         <v>3.7</v>
@@ -32792,16 +32801,16 @@
         <v>1.33</v>
       </c>
       <c r="X154">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="Y154">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Z154">
+        <v>3.1</v>
+      </c>
+      <c r="AA154">
         <v>3.25</v>
-      </c>
-      <c r="AA154">
-        <v>3.1</v>
       </c>
       <c r="AB154">
         <v>2.25</v>
@@ -32813,16 +32822,16 @@
         <v>7.5</v>
       </c>
       <c r="AE154">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="AF154">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="AG154">
-        <v>2.11</v>
+        <v>2.12</v>
       </c>
       <c r="AH154">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="AI154">
         <v>1.83</v>
@@ -32840,37 +32849,37 @@
         <v>1.33</v>
       </c>
       <c r="AN154">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="AO154">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="AP154">
         <v>1.88</v>
       </c>
       <c r="AQ154">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR154">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AS154">
-        <v>1.22</v>
+        <v>1.05</v>
       </c>
       <c r="AT154">
-        <v>2.39</v>
+        <v>2.32</v>
       </c>
       <c r="AU154">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV154">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AW154">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX154">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="AY154">
         <v>17</v>
@@ -32879,52 +32888,52 @@
         <v>16</v>
       </c>
       <c r="BA154">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB154">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BC154">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD154">
-        <v>2.28</v>
+        <v>2.17</v>
       </c>
       <c r="BE154">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="BF154">
-        <v>1.76</v>
+        <v>1.85</v>
       </c>
       <c r="BG154">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
       <c r="BH154">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="BI154">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="BJ154">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="BK154">
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
       <c r="BL154">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="BM154">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="BN154">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="BO154">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="BP154">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -32932,7 +32941,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7509733</v>
+        <v>7509734</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -32947,43 +32956,43 @@
         <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H155" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K155">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M155">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N155">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O155" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="P155" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q155">
-        <v>3.7</v>
+        <v>2.62</v>
       </c>
       <c r="R155">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S155">
-        <v>2.95</v>
+        <v>4.2</v>
       </c>
       <c r="T155">
         <v>1.48</v>
@@ -32992,145 +33001,145 @@
         <v>2.5</v>
       </c>
       <c r="V155">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="W155">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X155">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="Y155">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z155">
-        <v>3.1</v>
+        <v>1.91</v>
       </c>
       <c r="AA155">
         <v>3.25</v>
       </c>
       <c r="AB155">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="AC155">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD155">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE155">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF155">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AG155">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="AH155">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AI155">
-        <v>1.83</v>
+        <v>1.93</v>
       </c>
       <c r="AJ155">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AK155">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AL155">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM155">
-        <v>1.33</v>
+        <v>1.8</v>
       </c>
       <c r="AN155">
-        <v>2.14</v>
+        <v>1.57</v>
       </c>
       <c r="AO155">
-        <v>1.57</v>
+        <v>0.71</v>
       </c>
       <c r="AP155">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AQ155">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AR155">
-        <v>1.27</v>
+        <v>1.49</v>
       </c>
       <c r="AS155">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="AT155">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="AU155">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV155">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW155">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX155">
         <v>5</v>
       </c>
       <c r="AY155">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ155">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BA155">
+        <v>2</v>
+      </c>
+      <c r="BB155">
+        <v>4</v>
+      </c>
+      <c r="BC155">
         <v>6</v>
       </c>
-      <c r="BB155">
-        <v>3</v>
-      </c>
-      <c r="BC155">
-        <v>9</v>
-      </c>
       <c r="BD155">
-        <v>2.17</v>
+        <v>1.61</v>
       </c>
       <c r="BE155">
-        <v>6.1</v>
+        <v>6.75</v>
       </c>
       <c r="BF155">
-        <v>1.85</v>
+        <v>2.55</v>
       </c>
       <c r="BG155">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="BH155">
-        <v>2.48</v>
+        <v>3.15</v>
       </c>
       <c r="BI155">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="BJ155">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="BK155">
-        <v>2.25</v>
+        <v>1.79</v>
       </c>
       <c r="BL155">
+        <v>1.9</v>
+      </c>
+      <c r="BM155">
+        <v>2.23</v>
+      </c>
+      <c r="BN155">
         <v>1.56</v>
       </c>
-      <c r="BM155">
+      <c r="BO155">
         <v>2.9</v>
       </c>
-      <c r="BN155">
-        <v>1.34</v>
-      </c>
-      <c r="BO155">
-        <v>3.9</v>
-      </c>
       <c r="BP155">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33138,7 +33147,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7509734</v>
+        <v>7509727</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33153,70 +33162,70 @@
         <v>16</v>
       </c>
       <c r="G156" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H156" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J156">
         <v>0</v>
       </c>
       <c r="K156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L156">
         <v>1</v>
       </c>
       <c r="M156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O156" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="P156" t="s">
-        <v>268</v>
+        <v>102</v>
       </c>
       <c r="Q156">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="R156">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S156">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="T156">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="U156">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="V156">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="W156">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X156">
-        <v>9.1</v>
+        <v>7.1</v>
       </c>
       <c r="Y156">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="Z156">
-        <v>1.91</v>
+        <v>2.45</v>
       </c>
       <c r="AA156">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AB156">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="AC156">
         <v>1.07</v>
@@ -33228,115 +33237,115 @@
         <v>1.38</v>
       </c>
       <c r="AF156">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AG156">
-        <v>2.11</v>
+        <v>1.96</v>
       </c>
       <c r="AH156">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AI156">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AJ156">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AK156">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AL156">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM156">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="AN156">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AO156">
         <v>0.71</v>
       </c>
       <c r="AP156">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AQ156">
-        <v>0.75</v>
+        <v>0.63</v>
       </c>
       <c r="AR156">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
       <c r="AS156">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AT156">
-        <v>2.58</v>
+        <v>2.81</v>
       </c>
       <c r="AU156">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV156">
         <v>4</v>
       </c>
       <c r="AW156">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX156">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY156">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AZ156">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BA156">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB156">
         <v>4</v>
       </c>
       <c r="BC156">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD156">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="BE156">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF156">
+        <v>2.15</v>
+      </c>
+      <c r="BG156">
+        <v>1.38</v>
+      </c>
+      <c r="BH156">
+        <v>2.8</v>
+      </c>
+      <c r="BI156">
+        <v>1.64</v>
+      </c>
+      <c r="BJ156">
+        <v>2.1</v>
+      </c>
+      <c r="BK156">
+        <v>2.02</v>
+      </c>
+      <c r="BL156">
+        <v>1.7</v>
+      </c>
+      <c r="BM156">
         <v>2.55</v>
       </c>
-      <c r="BG156">
-        <v>1.29</v>
-      </c>
-      <c r="BH156">
-        <v>3.15</v>
-      </c>
-      <c r="BI156">
-        <v>1.5</v>
-      </c>
-      <c r="BJ156">
-        <v>2.4</v>
-      </c>
-      <c r="BK156">
-        <v>1.79</v>
-      </c>
-      <c r="BL156">
-        <v>1.9</v>
-      </c>
-      <c r="BM156">
-        <v>2.23</v>
-      </c>
       <c r="BN156">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="BO156">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="BP156">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -33386,7 +33395,7 @@
         <v>102</v>
       </c>
       <c r="P157" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33798,7 +33807,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q159">
         <v>2.2</v>
@@ -34210,7 +34219,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q161">
         <v>2.2</v>
@@ -34580,7 +34589,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>7509746</v>
+        <v>7509743</v>
       </c>
       <c r="C163" t="s">
         <v>68</v>
@@ -34589,76 +34598,76 @@
         <v>69</v>
       </c>
       <c r="E163" s="2">
-        <v>45640.45833333334</v>
+        <v>45639.875</v>
       </c>
       <c r="F163">
         <v>17</v>
       </c>
       <c r="G163" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H163" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163">
         <v>1</v>
       </c>
       <c r="K163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L163">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N163">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O163" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="P163" t="s">
-        <v>272</v>
+        <v>131</v>
       </c>
       <c r="Q163">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R163">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="S163">
-        <v>3.95</v>
+        <v>3.2</v>
       </c>
       <c r="T163">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="U163">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="V163">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="W163">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="X163">
-        <v>9.800000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="Y163">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="Z163">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="AA163">
         <v>3.1</v>
       </c>
       <c r="AB163">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="AC163">
         <v>1.09</v>
@@ -34667,118 +34676,118 @@
         <v>7</v>
       </c>
       <c r="AE163">
+        <v>1.45</v>
+      </c>
+      <c r="AF163">
+        <v>2.7</v>
+      </c>
+      <c r="AG163">
+        <v>2.4</v>
+      </c>
+      <c r="AH163">
+        <v>1.49</v>
+      </c>
+      <c r="AI163">
+        <v>1.93</v>
+      </c>
+      <c r="AJ163">
+        <v>1.75</v>
+      </c>
+      <c r="AK163">
         <v>1.5</v>
-      </c>
-      <c r="AF163">
-        <v>2.55</v>
-      </c>
-      <c r="AG163">
-        <v>2.37</v>
-      </c>
-      <c r="AH163">
-        <v>1.51</v>
-      </c>
-      <c r="AI163">
-        <v>2.05</v>
-      </c>
-      <c r="AJ163">
-        <v>1.67</v>
-      </c>
-      <c r="AK163">
-        <v>1.3</v>
       </c>
       <c r="AL163">
         <v>1.3</v>
       </c>
       <c r="AM163">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="AN163">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="AO163">
-        <v>0.38</v>
+        <v>0.63</v>
       </c>
       <c r="AP163">
+        <v>1</v>
+      </c>
+      <c r="AQ163">
         <v>0.89</v>
       </c>
-      <c r="AQ163">
-        <v>0.44</v>
-      </c>
       <c r="AR163">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AS163">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AT163">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="AU163">
+        <v>3</v>
+      </c>
+      <c r="AV163">
+        <v>5</v>
+      </c>
+      <c r="AW163">
         <v>6</v>
       </c>
-      <c r="AV163">
+      <c r="AX163">
         <v>6</v>
       </c>
-      <c r="AW163">
-        <v>3</v>
-      </c>
-      <c r="AX163">
-        <v>4</v>
-      </c>
       <c r="AY163">
+        <v>14</v>
+      </c>
+      <c r="AZ163">
         <v>12</v>
       </c>
-      <c r="AZ163">
-        <v>15</v>
-      </c>
       <c r="BA163">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB163">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC163">
         <v>8</v>
       </c>
       <c r="BD163">
+        <v>2.08</v>
+      </c>
+      <c r="BE163">
+        <v>6.1</v>
+      </c>
+      <c r="BF163">
+        <v>1.92</v>
+      </c>
+      <c r="BG163">
+        <v>1.53</v>
+      </c>
+      <c r="BH163">
+        <v>2.3</v>
+      </c>
+      <c r="BI163">
+        <v>1.9</v>
+      </c>
+      <c r="BJ163">
         <v>1.79</v>
       </c>
-      <c r="BE163">
-        <v>6.25</v>
-      </c>
-      <c r="BF163">
-        <v>2.28</v>
-      </c>
-      <c r="BG163">
-        <v>1.5</v>
-      </c>
-      <c r="BH163">
-        <v>2.38</v>
-      </c>
-      <c r="BI163">
-        <v>1.85</v>
-      </c>
-      <c r="BJ163">
-        <v>1.83</v>
-      </c>
       <c r="BK163">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="BL163">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BM163">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="BN163">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BO163">
-        <v>4.2</v>
+        <v>4.35</v>
       </c>
       <c r="BP163">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="164" spans="1:68">
@@ -34786,7 +34795,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7509743</v>
+        <v>7509738</v>
       </c>
       <c r="C164" t="s">
         <v>68</v>
@@ -34795,196 +34804,196 @@
         <v>69</v>
       </c>
       <c r="E164" s="2">
-        <v>45640.45833333334</v>
+        <v>45639.875</v>
       </c>
       <c r="F164">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G164" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H164" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K164">
         <v>1</v>
       </c>
       <c r="L164">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M164">
         <v>1</v>
       </c>
       <c r="N164">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O164" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="P164" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q164">
-        <v>3.5</v>
+        <v>2.55</v>
       </c>
       <c r="R164">
+        <v>2.05</v>
+      </c>
+      <c r="S164">
+        <v>4.33</v>
+      </c>
+      <c r="T164">
+        <v>1.43</v>
+      </c>
+      <c r="U164">
+        <v>2.65</v>
+      </c>
+      <c r="V164">
+        <v>2.95</v>
+      </c>
+      <c r="W164">
+        <v>1.36</v>
+      </c>
+      <c r="X164">
+        <v>7.5</v>
+      </c>
+      <c r="Y164">
+        <v>1.06</v>
+      </c>
+      <c r="Z164">
         <v>1.91</v>
       </c>
-      <c r="S164">
-        <v>3.2</v>
-      </c>
-      <c r="T164">
-        <v>1.5</v>
-      </c>
-      <c r="U164">
-        <v>2.4</v>
-      </c>
-      <c r="V164">
-        <v>3.3</v>
-      </c>
-      <c r="W164">
-        <v>1.28</v>
-      </c>
-      <c r="X164">
-        <v>9.1</v>
-      </c>
-      <c r="Y164">
-        <v>1.03</v>
-      </c>
-      <c r="Z164">
-        <v>2.8</v>
-      </c>
       <c r="AA164">
+        <v>3.4</v>
+      </c>
+      <c r="AB164">
+        <v>3.9</v>
+      </c>
+      <c r="AC164">
+        <v>1.06</v>
+      </c>
+      <c r="AD164">
+        <v>8.5</v>
+      </c>
+      <c r="AE164">
+        <v>1.33</v>
+      </c>
+      <c r="AF164">
         <v>3.1</v>
       </c>
-      <c r="AB164">
-        <v>2.5</v>
-      </c>
-      <c r="AC164">
-        <v>1.09</v>
-      </c>
-      <c r="AD164">
-        <v>7</v>
-      </c>
-      <c r="AE164">
-        <v>1.45</v>
-      </c>
-      <c r="AF164">
-        <v>2.7</v>
-      </c>
       <c r="AG164">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AH164">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="AI164">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AJ164">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="AK164">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AL164">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM164">
-        <v>1.4</v>
+        <v>1.85</v>
       </c>
       <c r="AN164">
-        <v>1.13</v>
+        <v>2.13</v>
       </c>
       <c r="AO164">
-        <v>0.63</v>
+        <v>1.43</v>
       </c>
       <c r="AP164">
-        <v>1</v>
+        <v>2.22</v>
       </c>
       <c r="AQ164">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
       <c r="AR164">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AS164">
-        <v>1.07</v>
+        <v>1.35</v>
       </c>
       <c r="AT164">
-        <v>2.32</v>
+        <v>2.95</v>
       </c>
       <c r="AU164">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV164">
+        <v>6</v>
+      </c>
+      <c r="AW164">
+        <v>3</v>
+      </c>
+      <c r="AX164">
         <v>5</v>
       </c>
-      <c r="AW164">
-        <v>6</v>
-      </c>
-      <c r="AX164">
-        <v>6</v>
-      </c>
       <c r="AY164">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ164">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA164">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC164">
         <v>8</v>
       </c>
       <c r="BD164">
-        <v>2.08</v>
+        <v>1.65</v>
       </c>
       <c r="BE164">
         <v>6.1</v>
       </c>
       <c r="BF164">
-        <v>1.92</v>
+        <v>2.55</v>
       </c>
       <c r="BG164">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="BH164">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="BI164">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="BJ164">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="BK164">
-        <v>2.43</v>
+        <v>2.23</v>
       </c>
       <c r="BL164">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="BM164">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="BN164">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="BO164">
-        <v>4.35</v>
+        <v>3.9</v>
       </c>
       <c r="BP164">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="165" spans="1:68">
@@ -34992,7 +35001,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>7509740</v>
+        <v>7509746</v>
       </c>
       <c r="C165" t="s">
         <v>68</v>
@@ -35007,10 +35016,10 @@
         <v>17</v>
       </c>
       <c r="G165" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H165" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -35022,13 +35031,13 @@
         <v>2</v>
       </c>
       <c r="L165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M165">
         <v>2</v>
       </c>
       <c r="N165">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O165" t="s">
         <v>194</v>
@@ -35037,160 +35046,160 @@
         <v>273</v>
       </c>
       <c r="Q165">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="R165">
+        <v>1.85</v>
+      </c>
+      <c r="S165">
+        <v>3.95</v>
+      </c>
+      <c r="T165">
+        <v>1.55</v>
+      </c>
+      <c r="U165">
+        <v>2.3</v>
+      </c>
+      <c r="V165">
+        <v>3.6</v>
+      </c>
+      <c r="W165">
+        <v>1.25</v>
+      </c>
+      <c r="X165">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y165">
+        <v>1.02</v>
+      </c>
+      <c r="Z165">
         <v>2.2</v>
       </c>
-      <c r="S165">
-        <v>2.6</v>
-      </c>
-      <c r="T165">
-        <v>1.4</v>
-      </c>
-      <c r="U165">
-        <v>2.75</v>
-      </c>
-      <c r="V165">
-        <v>3</v>
-      </c>
-      <c r="W165">
-        <v>1.36</v>
-      </c>
-      <c r="X165">
-        <v>8</v>
-      </c>
-      <c r="Y165">
-        <v>1.08</v>
-      </c>
-      <c r="Z165">
-        <v>3.7</v>
-      </c>
       <c r="AA165">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB165">
-        <v>1.91</v>
+        <v>3.3</v>
       </c>
       <c r="AC165">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AD165">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE165">
+        <v>1.5</v>
+      </c>
+      <c r="AF165">
+        <v>2.55</v>
+      </c>
+      <c r="AG165">
+        <v>2.37</v>
+      </c>
+      <c r="AH165">
+        <v>1.51</v>
+      </c>
+      <c r="AI165">
+        <v>2.05</v>
+      </c>
+      <c r="AJ165">
+        <v>1.67</v>
+      </c>
+      <c r="AK165">
         <v>1.3</v>
       </c>
-      <c r="AF165">
-        <v>3.4</v>
-      </c>
-      <c r="AG165">
-        <v>1.99</v>
-      </c>
-      <c r="AH165">
-        <v>1.82</v>
-      </c>
-      <c r="AI165">
-        <v>1.8</v>
-      </c>
-      <c r="AJ165">
-        <v>1.95</v>
-      </c>
-      <c r="AK165">
-        <v>1.83</v>
-      </c>
       <c r="AL165">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM165">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="AN165">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AO165">
-        <v>2.25</v>
+        <v>0.38</v>
       </c>
       <c r="AP165">
         <v>0.89</v>
       </c>
       <c r="AQ165">
-        <v>2.33</v>
+        <v>0.44</v>
       </c>
       <c r="AR165">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="AS165">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
       <c r="AT165">
-        <v>2.79</v>
+        <v>2.51</v>
       </c>
       <c r="AU165">
+        <v>6</v>
+      </c>
+      <c r="AV165">
+        <v>6</v>
+      </c>
+      <c r="AW165">
+        <v>3</v>
+      </c>
+      <c r="AX165">
         <v>4</v>
       </c>
-      <c r="AV165">
-        <v>4</v>
-      </c>
-      <c r="AW165">
+      <c r="AY165">
+        <v>12</v>
+      </c>
+      <c r="AZ165">
+        <v>15</v>
+      </c>
+      <c r="BA165">
+        <v>3</v>
+      </c>
+      <c r="BB165">
         <v>5</v>
-      </c>
-      <c r="AX165">
-        <v>6</v>
-      </c>
-      <c r="AY165">
-        <v>10</v>
-      </c>
-      <c r="AZ165">
-        <v>16</v>
-      </c>
-      <c r="BA165">
-        <v>1</v>
-      </c>
-      <c r="BB165">
-        <v>7</v>
       </c>
       <c r="BC165">
         <v>8</v>
       </c>
       <c r="BD165">
-        <v>2.5</v>
+        <v>1.79</v>
       </c>
       <c r="BE165">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF165">
-        <v>1.65</v>
+        <v>2.28</v>
       </c>
       <c r="BG165">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="BH165">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
       <c r="BI165">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="BJ165">
-        <v>2.02</v>
+        <v>1.83</v>
       </c>
       <c r="BK165">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BL165">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="BM165">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="BN165">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BO165">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="BP165">
-        <v>1.24</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="166" spans="1:68">
@@ -35198,7 +35207,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7509738</v>
+        <v>7509740</v>
       </c>
       <c r="C166" t="s">
         <v>68</v>
@@ -35210,28 +35219,28 @@
         <v>45640.45833333334</v>
       </c>
       <c r="F166">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G166" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H166" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
       <c r="J166">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N166">
         <v>3</v>
@@ -35240,43 +35249,43 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>134</v>
+        <v>274</v>
       </c>
       <c r="Q166">
-        <v>2.55</v>
+        <v>4.33</v>
       </c>
       <c r="R166">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S166">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="T166">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="U166">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="V166">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="W166">
         <v>1.36</v>
       </c>
       <c r="X166">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y166">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z166">
+        <v>3.7</v>
+      </c>
+      <c r="AA166">
+        <v>3.5</v>
+      </c>
+      <c r="AB166">
         <v>1.91</v>
-      </c>
-      <c r="AA166">
-        <v>3.4</v>
-      </c>
-      <c r="AB166">
-        <v>3.9</v>
       </c>
       <c r="AC166">
         <v>1.06</v>
@@ -35285,118 +35294,118 @@
         <v>8.5</v>
       </c>
       <c r="AE166">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF166">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AG166">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="AH166">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AI166">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AJ166">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AK166">
-        <v>1.2</v>
+        <v>1.83</v>
       </c>
       <c r="AL166">
         <v>1.25</v>
       </c>
       <c r="AM166">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="AN166">
-        <v>2.13</v>
+        <v>1</v>
       </c>
       <c r="AO166">
+        <v>2.25</v>
+      </c>
+      <c r="AP166">
+        <v>0.89</v>
+      </c>
+      <c r="AQ166">
+        <v>2.33</v>
+      </c>
+      <c r="AR166">
+        <v>1.36</v>
+      </c>
+      <c r="AS166">
         <v>1.43</v>
       </c>
-      <c r="AP166">
-        <v>2.22</v>
-      </c>
-      <c r="AQ166">
-        <v>1.25</v>
-      </c>
-      <c r="AR166">
-        <v>1.6</v>
-      </c>
-      <c r="AS166">
-        <v>1.35</v>
-      </c>
       <c r="AT166">
-        <v>2.95</v>
+        <v>2.79</v>
       </c>
       <c r="AU166">
+        <v>4</v>
+      </c>
+      <c r="AV166">
+        <v>4</v>
+      </c>
+      <c r="AW166">
+        <v>5</v>
+      </c>
+      <c r="AX166">
         <v>6</v>
-      </c>
-      <c r="AV166">
-        <v>6</v>
-      </c>
-      <c r="AW166">
-        <v>3</v>
-      </c>
-      <c r="AX166">
-        <v>5</v>
       </c>
       <c r="AY166">
         <v>10</v>
       </c>
       <c r="AZ166">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA166">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB166">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC166">
         <v>8</v>
       </c>
       <c r="BD166">
+        <v>2.5</v>
+      </c>
+      <c r="BE166">
+        <v>6.4</v>
+      </c>
+      <c r="BF166">
         <v>1.65</v>
       </c>
-      <c r="BE166">
-        <v>6.1</v>
-      </c>
-      <c r="BF166">
-        <v>2.55</v>
-      </c>
       <c r="BG166">
-        <v>1.45</v>
+        <v>1.41</v>
       </c>
       <c r="BH166">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="BI166">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="BJ166">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="BK166">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="BL166">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="BM166">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BN166">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="BO166">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="BP166">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="167" spans="1:68">
@@ -35548,13 +35557,13 @@
         <v>3</v>
       </c>
       <c r="AX167">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY167">
         <v>10</v>
       </c>
       <c r="AZ167">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA167">
         <v>1</v>
@@ -35603,6 +35612,830 @@
       </c>
       <c r="BP167">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7509739</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45641.45833333334</v>
+      </c>
+      <c r="F168">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>87</v>
+      </c>
+      <c r="H168" t="s">
+        <v>82</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>0</v>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>0</v>
+      </c>
+      <c r="O168" t="s">
+        <v>102</v>
+      </c>
+      <c r="P168" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q168">
+        <v>4.2</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>2.65</v>
+      </c>
+      <c r="T168">
+        <v>1.45</v>
+      </c>
+      <c r="U168">
+        <v>2.55</v>
+      </c>
+      <c r="V168">
+        <v>3</v>
+      </c>
+      <c r="W168">
+        <v>1.33</v>
+      </c>
+      <c r="X168">
+        <v>7.2</v>
+      </c>
+      <c r="Y168">
+        <v>1.06</v>
+      </c>
+      <c r="Z168">
+        <v>3.4</v>
+      </c>
+      <c r="AA168">
+        <v>3.1</v>
+      </c>
+      <c r="AB168">
+        <v>2.06</v>
+      </c>
+      <c r="AC168">
+        <v>1.07</v>
+      </c>
+      <c r="AD168">
+        <v>8</v>
+      </c>
+      <c r="AE168">
+        <v>1.36</v>
+      </c>
+      <c r="AF168">
+        <v>3.1</v>
+      </c>
+      <c r="AG168">
+        <v>2.15</v>
+      </c>
+      <c r="AH168">
+        <v>1.62</v>
+      </c>
+      <c r="AI168">
+        <v>1.83</v>
+      </c>
+      <c r="AJ168">
+        <v>1.83</v>
+      </c>
+      <c r="AK168">
+        <v>1.75</v>
+      </c>
+      <c r="AL168">
+        <v>1.25</v>
+      </c>
+      <c r="AM168">
+        <v>1.25</v>
+      </c>
+      <c r="AN168">
+        <v>0.71</v>
+      </c>
+      <c r="AO168">
+        <v>1.63</v>
+      </c>
+      <c r="AP168">
+        <v>0.75</v>
+      </c>
+      <c r="AQ168">
+        <v>1.56</v>
+      </c>
+      <c r="AR168">
+        <v>1.38</v>
+      </c>
+      <c r="AS168">
+        <v>1.43</v>
+      </c>
+      <c r="AT168">
+        <v>2.81</v>
+      </c>
+      <c r="AU168">
+        <v>0</v>
+      </c>
+      <c r="AV168">
+        <v>5</v>
+      </c>
+      <c r="AW168">
+        <v>5</v>
+      </c>
+      <c r="AX168">
+        <v>4</v>
+      </c>
+      <c r="AY168">
+        <v>8</v>
+      </c>
+      <c r="AZ168">
+        <v>10</v>
+      </c>
+      <c r="BA168">
+        <v>2</v>
+      </c>
+      <c r="BB168">
+        <v>4</v>
+      </c>
+      <c r="BC168">
+        <v>6</v>
+      </c>
+      <c r="BD168">
+        <v>2.48</v>
+      </c>
+      <c r="BE168">
+        <v>6.25</v>
+      </c>
+      <c r="BF168">
+        <v>1.67</v>
+      </c>
+      <c r="BG168">
+        <v>1.46</v>
+      </c>
+      <c r="BH168">
+        <v>2.48</v>
+      </c>
+      <c r="BI168">
+        <v>1.77</v>
+      </c>
+      <c r="BJ168">
+        <v>1.93</v>
+      </c>
+      <c r="BK168">
+        <v>2.23</v>
+      </c>
+      <c r="BL168">
+        <v>1.57</v>
+      </c>
+      <c r="BM168">
+        <v>2.9</v>
+      </c>
+      <c r="BN168">
+        <v>1.35</v>
+      </c>
+      <c r="BO168">
+        <v>3.9</v>
+      </c>
+      <c r="BP168">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7509737</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45641.45833333334</v>
+      </c>
+      <c r="F169">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>70</v>
+      </c>
+      <c r="H169" t="s">
+        <v>86</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169" t="s">
+        <v>102</v>
+      </c>
+      <c r="P169" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q169">
+        <v>2.65</v>
+      </c>
+      <c r="R169">
+        <v>2.05</v>
+      </c>
+      <c r="S169">
+        <v>4</v>
+      </c>
+      <c r="T169">
+        <v>1.42</v>
+      </c>
+      <c r="U169">
+        <v>2.62</v>
+      </c>
+      <c r="V169">
+        <v>2.95</v>
+      </c>
+      <c r="W169">
+        <v>1.35</v>
+      </c>
+      <c r="X169">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y169">
+        <v>1.04</v>
+      </c>
+      <c r="Z169">
+        <v>2.11</v>
+      </c>
+      <c r="AA169">
+        <v>3.4</v>
+      </c>
+      <c r="AB169">
+        <v>3.2</v>
+      </c>
+      <c r="AC169">
+        <v>1.06</v>
+      </c>
+      <c r="AD169">
+        <v>8.5</v>
+      </c>
+      <c r="AE169">
+        <v>1.35</v>
+      </c>
+      <c r="AF169">
+        <v>3.1</v>
+      </c>
+      <c r="AG169">
+        <v>1.95</v>
+      </c>
+      <c r="AH169">
+        <v>1.75</v>
+      </c>
+      <c r="AI169">
+        <v>1.83</v>
+      </c>
+      <c r="AJ169">
+        <v>1.85</v>
+      </c>
+      <c r="AK169">
+        <v>1.28</v>
+      </c>
+      <c r="AL169">
+        <v>1.25</v>
+      </c>
+      <c r="AM169">
+        <v>1.73</v>
+      </c>
+      <c r="AN169">
+        <v>1.38</v>
+      </c>
+      <c r="AO169">
+        <v>0.5</v>
+      </c>
+      <c r="AP169">
+        <v>1.33</v>
+      </c>
+      <c r="AQ169">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR169">
+        <v>1.68</v>
+      </c>
+      <c r="AS169">
+        <v>1.14</v>
+      </c>
+      <c r="AT169">
+        <v>2.82</v>
+      </c>
+      <c r="AU169">
+        <v>2</v>
+      </c>
+      <c r="AV169">
+        <v>5</v>
+      </c>
+      <c r="AW169">
+        <v>2</v>
+      </c>
+      <c r="AX169">
+        <v>3</v>
+      </c>
+      <c r="AY169">
+        <v>6</v>
+      </c>
+      <c r="AZ169">
+        <v>17</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>7</v>
+      </c>
+      <c r="BC169">
+        <v>7</v>
+      </c>
+      <c r="BD169">
+        <v>1.7</v>
+      </c>
+      <c r="BE169">
+        <v>6.5</v>
+      </c>
+      <c r="BF169">
+        <v>2.4</v>
+      </c>
+      <c r="BG169">
+        <v>1.45</v>
+      </c>
+      <c r="BH169">
+        <v>2.55</v>
+      </c>
+      <c r="BI169">
+        <v>1.75</v>
+      </c>
+      <c r="BJ169">
+        <v>1.95</v>
+      </c>
+      <c r="BK169">
+        <v>2.2</v>
+      </c>
+      <c r="BL169">
+        <v>1.57</v>
+      </c>
+      <c r="BM169">
+        <v>2.9</v>
+      </c>
+      <c r="BN169">
+        <v>1.35</v>
+      </c>
+      <c r="BO169">
+        <v>3.8</v>
+      </c>
+      <c r="BP169">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7509741</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45641.45833333334</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170" t="s">
+        <v>89</v>
+      </c>
+      <c r="H170" t="s">
+        <v>78</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>2</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>196</v>
+      </c>
+      <c r="P170" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q170">
+        <v>2.4</v>
+      </c>
+      <c r="R170">
+        <v>2.1</v>
+      </c>
+      <c r="S170">
+        <v>4.33</v>
+      </c>
+      <c r="T170">
+        <v>1.4</v>
+      </c>
+      <c r="U170">
+        <v>2.75</v>
+      </c>
+      <c r="V170">
+        <v>2.8</v>
+      </c>
+      <c r="W170">
+        <v>1.38</v>
+      </c>
+      <c r="X170">
+        <v>7.6</v>
+      </c>
+      <c r="Y170">
+        <v>1.05</v>
+      </c>
+      <c r="Z170">
+        <v>1.86</v>
+      </c>
+      <c r="AA170">
+        <v>3.6</v>
+      </c>
+      <c r="AB170">
+        <v>3.8</v>
+      </c>
+      <c r="AC170">
+        <v>1.05</v>
+      </c>
+      <c r="AD170">
+        <v>9</v>
+      </c>
+      <c r="AE170">
+        <v>1.3</v>
+      </c>
+      <c r="AF170">
+        <v>3.35</v>
+      </c>
+      <c r="AG170">
+        <v>1.9</v>
+      </c>
+      <c r="AH170">
+        <v>1.8</v>
+      </c>
+      <c r="AI170">
+        <v>1.77</v>
+      </c>
+      <c r="AJ170">
+        <v>1.9</v>
+      </c>
+      <c r="AK170">
+        <v>1.22</v>
+      </c>
+      <c r="AL170">
+        <v>1.25</v>
+      </c>
+      <c r="AM170">
+        <v>1.91</v>
+      </c>
+      <c r="AN170">
+        <v>1.29</v>
+      </c>
+      <c r="AO170">
+        <v>0.86</v>
+      </c>
+      <c r="AP170">
+        <v>1.13</v>
+      </c>
+      <c r="AQ170">
+        <v>1.13</v>
+      </c>
+      <c r="AR170">
+        <v>1.83</v>
+      </c>
+      <c r="AS170">
+        <v>1.16</v>
+      </c>
+      <c r="AT170">
+        <v>2.99</v>
+      </c>
+      <c r="AU170">
+        <v>8</v>
+      </c>
+      <c r="AV170">
+        <v>6</v>
+      </c>
+      <c r="AW170">
+        <v>11</v>
+      </c>
+      <c r="AX170">
+        <v>3</v>
+      </c>
+      <c r="AY170">
+        <v>28</v>
+      </c>
+      <c r="AZ170">
+        <v>11</v>
+      </c>
+      <c r="BA170">
+        <v>7</v>
+      </c>
+      <c r="BB170">
+        <v>3</v>
+      </c>
+      <c r="BC170">
+        <v>10</v>
+      </c>
+      <c r="BD170">
+        <v>1.63</v>
+      </c>
+      <c r="BE170">
+        <v>6.5</v>
+      </c>
+      <c r="BF170">
+        <v>2.55</v>
+      </c>
+      <c r="BG170">
+        <v>1.43</v>
+      </c>
+      <c r="BH170">
+        <v>2.55</v>
+      </c>
+      <c r="BI170">
+        <v>1.72</v>
+      </c>
+      <c r="BJ170">
+        <v>1.98</v>
+      </c>
+      <c r="BK170">
+        <v>2.15</v>
+      </c>
+      <c r="BL170">
+        <v>1.61</v>
+      </c>
+      <c r="BM170">
+        <v>2.75</v>
+      </c>
+      <c r="BN170">
+        <v>1.38</v>
+      </c>
+      <c r="BO170">
+        <v>3.65</v>
+      </c>
+      <c r="BP170">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7509744</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45641.55208333334</v>
+      </c>
+      <c r="F171">
+        <v>17</v>
+      </c>
+      <c r="G171" t="s">
+        <v>74</v>
+      </c>
+      <c r="H171" t="s">
+        <v>88</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>3</v>
+      </c>
+      <c r="O171" t="s">
+        <v>197</v>
+      </c>
+      <c r="P171" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q171">
+        <v>3</v>
+      </c>
+      <c r="R171">
+        <v>1.95</v>
+      </c>
+      <c r="S171">
+        <v>3.75</v>
+      </c>
+      <c r="T171">
+        <v>1.49</v>
+      </c>
+      <c r="U171">
+        <v>2.45</v>
+      </c>
+      <c r="V171">
+        <v>3.25</v>
+      </c>
+      <c r="W171">
+        <v>1.3</v>
+      </c>
+      <c r="X171">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y171">
+        <v>1.04</v>
+      </c>
+      <c r="Z171">
+        <v>2.25</v>
+      </c>
+      <c r="AA171">
+        <v>3.4</v>
+      </c>
+      <c r="AB171">
+        <v>3</v>
+      </c>
+      <c r="AC171">
+        <v>1.08</v>
+      </c>
+      <c r="AD171">
+        <v>7.5</v>
+      </c>
+      <c r="AE171">
+        <v>1.4</v>
+      </c>
+      <c r="AF171">
+        <v>2.8</v>
+      </c>
+      <c r="AG171">
+        <v>2</v>
+      </c>
+      <c r="AH171">
+        <v>1.67</v>
+      </c>
+      <c r="AI171">
+        <v>1.9</v>
+      </c>
+      <c r="AJ171">
+        <v>1.83</v>
+      </c>
+      <c r="AK171">
+        <v>1.36</v>
+      </c>
+      <c r="AL171">
+        <v>1.28</v>
+      </c>
+      <c r="AM171">
+        <v>1.57</v>
+      </c>
+      <c r="AN171">
+        <v>1.38</v>
+      </c>
+      <c r="AO171">
+        <v>1.38</v>
+      </c>
+      <c r="AP171">
+        <v>1.22</v>
+      </c>
+      <c r="AQ171">
+        <v>1.56</v>
+      </c>
+      <c r="AR171">
+        <v>1.73</v>
+      </c>
+      <c r="AS171">
+        <v>1.08</v>
+      </c>
+      <c r="AT171">
+        <v>2.81</v>
+      </c>
+      <c r="AU171">
+        <v>6</v>
+      </c>
+      <c r="AV171">
+        <v>4</v>
+      </c>
+      <c r="AW171">
+        <v>7</v>
+      </c>
+      <c r="AX171">
+        <v>3</v>
+      </c>
+      <c r="AY171">
+        <v>15</v>
+      </c>
+      <c r="AZ171">
+        <v>10</v>
+      </c>
+      <c r="BA171">
+        <v>5</v>
+      </c>
+      <c r="BB171">
+        <v>5</v>
+      </c>
+      <c r="BC171">
+        <v>10</v>
+      </c>
+      <c r="BD171">
+        <v>1.82</v>
+      </c>
+      <c r="BE171">
+        <v>6.25</v>
+      </c>
+      <c r="BF171">
+        <v>2.2</v>
+      </c>
+      <c r="BG171">
+        <v>1.49</v>
+      </c>
+      <c r="BH171">
+        <v>2.43</v>
+      </c>
+      <c r="BI171">
+        <v>1.81</v>
+      </c>
+      <c r="BJ171">
+        <v>1.89</v>
+      </c>
+      <c r="BK171">
+        <v>2.3</v>
+      </c>
+      <c r="BL171">
+        <v>1.54</v>
+      </c>
+      <c r="BM171">
+        <v>3</v>
+      </c>
+      <c r="BN171">
+        <v>1.32</v>
+      </c>
+      <c r="BO171">
+        <v>4</v>
+      </c>
+      <c r="BP171">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -35628,7 +35628,7 @@
         <v>69</v>
       </c>
       <c r="E168" s="2">
-        <v>45641.45833333334</v>
+        <v>45640.875</v>
       </c>
       <c r="F168">
         <v>17</v>
@@ -35760,13 +35760,13 @@
         <v>5</v>
       </c>
       <c r="AW168">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX168">
         <v>4</v>
       </c>
       <c r="AY168">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ168">
         <v>10</v>
@@ -35834,7 +35834,7 @@
         <v>69</v>
       </c>
       <c r="E169" s="2">
-        <v>45641.45833333334</v>
+        <v>45640.875</v>
       </c>
       <c r="F169">
         <v>17</v>
@@ -36175,13 +36175,13 @@
         <v>11</v>
       </c>
       <c r="AX170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY170">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AZ170">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA170">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -595,13 +595,13 @@
     <t>['49', '68']</t>
   </si>
   <si>
-    <t>['45+1', '57']</t>
-  </si>
-  <si>
     <t>['4', '63']</t>
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['45+1', '57']</t>
   </si>
   <si>
     <t>['32']</t>
@@ -30923,7 +30923,7 @@
         <v>180</v>
       </c>
       <c r="P145" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q145">
         <v>3.25</v>
@@ -32529,7 +32529,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7509728</v>
+        <v>7509727</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32544,19 +32544,19 @@
         <v>16</v>
       </c>
       <c r="G153" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H153" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="I153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J153">
         <v>0</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153">
         <v>1</v>
@@ -32568,166 +32568,166 @@
         <v>1</v>
       </c>
       <c r="O153" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="P153" t="s">
         <v>102</v>
       </c>
       <c r="Q153">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="R153">
         <v>1.95</v>
       </c>
       <c r="S153">
-        <v>2.95</v>
+        <v>3.55</v>
       </c>
       <c r="T153">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="U153">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="V153">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="W153">
         <v>1.33</v>
       </c>
       <c r="X153">
+        <v>7.1</v>
+      </c>
+      <c r="Y153">
+        <v>1.06</v>
+      </c>
+      <c r="Z153">
+        <v>2.45</v>
+      </c>
+      <c r="AA153">
+        <v>3</v>
+      </c>
+      <c r="AB153">
+        <v>2.9</v>
+      </c>
+      <c r="AC153">
+        <v>1.07</v>
+      </c>
+      <c r="AD153">
         <v>8</v>
-      </c>
-      <c r="Y153">
-        <v>1.05</v>
-      </c>
-      <c r="Z153">
-        <v>3.25</v>
-      </c>
-      <c r="AA153">
-        <v>3.1</v>
-      </c>
-      <c r="AB153">
-        <v>2.25</v>
-      </c>
-      <c r="AC153">
-        <v>1.08</v>
-      </c>
-      <c r="AD153">
-        <v>7.5</v>
       </c>
       <c r="AE153">
         <v>1.38</v>
       </c>
       <c r="AF153">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AG153">
-        <v>2.11</v>
+        <v>1.96</v>
       </c>
       <c r="AH153">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AI153">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AJ153">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AK153">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AL153">
         <v>1.3</v>
       </c>
       <c r="AM153">
-        <v>1.33</v>
+        <v>1.55</v>
       </c>
       <c r="AN153">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="AO153">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="AP153">
+        <v>1.56</v>
+      </c>
+      <c r="AQ153">
+        <v>0.63</v>
+      </c>
+      <c r="AR153">
+        <v>1.41</v>
+      </c>
+      <c r="AS153">
+        <v>1.4</v>
+      </c>
+      <c r="AT153">
+        <v>2.81</v>
+      </c>
+      <c r="AU153">
+        <v>4</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>2</v>
+      </c>
+      <c r="AX153">
+        <v>6</v>
+      </c>
+      <c r="AY153">
+        <v>6</v>
+      </c>
+      <c r="AZ153">
+        <v>19</v>
+      </c>
+      <c r="BA153">
+        <v>1</v>
+      </c>
+      <c r="BB153">
+        <v>4</v>
+      </c>
+      <c r="BC153">
+        <v>5</v>
+      </c>
+      <c r="BD153">
         <v>1.88</v>
-      </c>
-      <c r="AQ153">
-        <v>1.33</v>
-      </c>
-      <c r="AR153">
-        <v>1.17</v>
-      </c>
-      <c r="AS153">
-        <v>1.22</v>
-      </c>
-      <c r="AT153">
-        <v>2.39</v>
-      </c>
-      <c r="AU153">
-        <v>9</v>
-      </c>
-      <c r="AV153">
-        <v>0</v>
-      </c>
-      <c r="AW153">
-        <v>6</v>
-      </c>
-      <c r="AX153">
-        <v>12</v>
-      </c>
-      <c r="AY153">
-        <v>17</v>
-      </c>
-      <c r="AZ153">
-        <v>16</v>
-      </c>
-      <c r="BA153">
-        <v>5</v>
-      </c>
-      <c r="BB153">
-        <v>8</v>
-      </c>
-      <c r="BC153">
-        <v>13</v>
-      </c>
-      <c r="BD153">
-        <v>2.28</v>
       </c>
       <c r="BE153">
         <v>6.4</v>
       </c>
       <c r="BF153">
-        <v>1.76</v>
+        <v>2.15</v>
       </c>
       <c r="BG153">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="BH153">
         <v>2.8</v>
       </c>
       <c r="BI153">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="BJ153">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="BK153">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="BL153">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="BM153">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="BN153">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="BO153">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="BP153">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="154" spans="1:68">
@@ -32735,7 +32735,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7509733</v>
+        <v>7509728</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32750,34 +32750,34 @@
         <v>16</v>
       </c>
       <c r="G154" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H154" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J154">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L154">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M154">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N154">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O154" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>268</v>
+        <v>102</v>
       </c>
       <c r="Q154">
         <v>3.7</v>
@@ -32801,16 +32801,16 @@
         <v>1.33</v>
       </c>
       <c r="X154">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="Y154">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z154">
+        <v>3.25</v>
+      </c>
+      <c r="AA154">
         <v>3.1</v>
-      </c>
-      <c r="AA154">
-        <v>3.25</v>
       </c>
       <c r="AB154">
         <v>2.25</v>
@@ -32822,16 +32822,16 @@
         <v>7.5</v>
       </c>
       <c r="AE154">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="AF154">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AG154">
-        <v>2.12</v>
+        <v>2.11</v>
       </c>
       <c r="AH154">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="AI154">
         <v>1.83</v>
@@ -32849,37 +32849,37 @@
         <v>1.33</v>
       </c>
       <c r="AN154">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="AO154">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AP154">
         <v>1.88</v>
       </c>
       <c r="AQ154">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR154">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AS154">
-        <v>1.05</v>
+        <v>1.22</v>
       </c>
       <c r="AT154">
-        <v>2.32</v>
+        <v>2.39</v>
       </c>
       <c r="AU154">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV154">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AW154">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX154">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="AY154">
         <v>17</v>
@@ -32888,52 +32888,52 @@
         <v>16</v>
       </c>
       <c r="BA154">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB154">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BC154">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BD154">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="BE154">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="BF154">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="BG154">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
       <c r="BH154">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="BI154">
-        <v>1.78</v>
+        <v>1.61</v>
       </c>
       <c r="BJ154">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="BK154">
-        <v>2.25</v>
+        <v>1.98</v>
       </c>
       <c r="BL154">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="BM154">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="BN154">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="BO154">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="BP154">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="155" spans="1:68">
@@ -32941,7 +32941,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7509734</v>
+        <v>7509733</v>
       </c>
       <c r="C155" t="s">
         <v>68</v>
@@ -32956,43 +32956,43 @@
         <v>16</v>
       </c>
       <c r="G155" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="H155" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K155">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M155">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N155">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O155" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="Q155">
-        <v>2.62</v>
+        <v>3.7</v>
       </c>
       <c r="R155">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S155">
-        <v>4.2</v>
+        <v>2.95</v>
       </c>
       <c r="T155">
         <v>1.48</v>
@@ -33001,145 +33001,145 @@
         <v>2.5</v>
       </c>
       <c r="V155">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="W155">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X155">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="Y155">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z155">
-        <v>1.91</v>
+        <v>3.1</v>
       </c>
       <c r="AA155">
         <v>3.25</v>
       </c>
       <c r="AB155">
-        <v>4</v>
+        <v>2.25</v>
       </c>
       <c r="AC155">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AD155">
+        <v>7.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.4</v>
+      </c>
+      <c r="AF155">
+        <v>2.9</v>
+      </c>
+      <c r="AG155">
+        <v>2.12</v>
+      </c>
+      <c r="AH155">
+        <v>1.64</v>
+      </c>
+      <c r="AI155">
+        <v>1.83</v>
+      </c>
+      <c r="AJ155">
+        <v>1.83</v>
+      </c>
+      <c r="AK155">
+        <v>1.6</v>
+      </c>
+      <c r="AL155">
+        <v>1.3</v>
+      </c>
+      <c r="AM155">
+        <v>1.33</v>
+      </c>
+      <c r="AN155">
+        <v>2.14</v>
+      </c>
+      <c r="AO155">
+        <v>1.57</v>
+      </c>
+      <c r="AP155">
+        <v>1.88</v>
+      </c>
+      <c r="AQ155">
+        <v>1.75</v>
+      </c>
+      <c r="AR155">
+        <v>1.27</v>
+      </c>
+      <c r="AS155">
+        <v>1.05</v>
+      </c>
+      <c r="AT155">
+        <v>2.32</v>
+      </c>
+      <c r="AU155">
         <v>8</v>
       </c>
-      <c r="AE155">
-        <v>1.38</v>
-      </c>
-      <c r="AF155">
-        <v>2.95</v>
-      </c>
-      <c r="AG155">
-        <v>2.11</v>
-      </c>
-      <c r="AH155">
-        <v>1.65</v>
-      </c>
-      <c r="AI155">
-        <v>1.93</v>
-      </c>
-      <c r="AJ155">
-        <v>1.75</v>
-      </c>
-      <c r="AK155">
-        <v>1.25</v>
-      </c>
-      <c r="AL155">
-        <v>1.25</v>
-      </c>
-      <c r="AM155">
-        <v>1.8</v>
-      </c>
-      <c r="AN155">
-        <v>1.57</v>
-      </c>
-      <c r="AO155">
-        <v>0.71</v>
-      </c>
-      <c r="AP155">
-        <v>1.5</v>
-      </c>
-      <c r="AQ155">
-        <v>0.75</v>
-      </c>
-      <c r="AR155">
-        <v>1.49</v>
-      </c>
-      <c r="AS155">
-        <v>1.09</v>
-      </c>
-      <c r="AT155">
-        <v>2.58</v>
-      </c>
-      <c r="AU155">
-        <v>6</v>
-      </c>
       <c r="AV155">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AW155">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX155">
         <v>5</v>
       </c>
       <c r="AY155">
+        <v>17</v>
+      </c>
+      <c r="AZ155">
         <v>16</v>
       </c>
-      <c r="AZ155">
-        <v>12</v>
-      </c>
       <c r="BA155">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB155">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC155">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD155">
-        <v>1.61</v>
+        <v>2.17</v>
       </c>
       <c r="BE155">
-        <v>6.75</v>
+        <v>6.1</v>
       </c>
       <c r="BF155">
-        <v>2.55</v>
+        <v>1.85</v>
       </c>
       <c r="BG155">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
       <c r="BH155">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="BI155">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="BJ155">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="BK155">
-        <v>1.79</v>
+        <v>2.25</v>
       </c>
       <c r="BL155">
-        <v>1.9</v>
+        <v>1.56</v>
       </c>
       <c r="BM155">
-        <v>2.23</v>
+        <v>2.9</v>
       </c>
       <c r="BN155">
-        <v>1.56</v>
+        <v>1.34</v>
       </c>
       <c r="BO155">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="BP155">
-        <v>1.35</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="156" spans="1:68">
@@ -33147,7 +33147,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>7509727</v>
+        <v>7509734</v>
       </c>
       <c r="C156" t="s">
         <v>68</v>
@@ -33162,70 +33162,70 @@
         <v>16</v>
       </c>
       <c r="G156" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="H156" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J156">
         <v>0</v>
       </c>
       <c r="K156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L156">
         <v>1</v>
       </c>
       <c r="M156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O156" t="s">
-        <v>126</v>
+        <v>174</v>
       </c>
       <c r="P156" t="s">
-        <v>102</v>
+        <v>269</v>
       </c>
       <c r="Q156">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="R156">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S156">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="T156">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="U156">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="V156">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="W156">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X156">
-        <v>7.1</v>
+        <v>9.1</v>
       </c>
       <c r="Y156">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="Z156">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="AA156">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AB156">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="AC156">
         <v>1.07</v>
@@ -33237,115 +33237,115 @@
         <v>1.38</v>
       </c>
       <c r="AF156">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AG156">
-        <v>1.96</v>
+        <v>2.11</v>
       </c>
       <c r="AH156">
+        <v>1.65</v>
+      </c>
+      <c r="AI156">
+        <v>1.93</v>
+      </c>
+      <c r="AJ156">
         <v>1.75</v>
       </c>
-      <c r="AI156">
+      <c r="AK156">
+        <v>1.25</v>
+      </c>
+      <c r="AL156">
+        <v>1.25</v>
+      </c>
+      <c r="AM156">
         <v>1.8</v>
       </c>
-      <c r="AJ156">
-        <v>1.85</v>
-      </c>
-      <c r="AK156">
-        <v>1.38</v>
-      </c>
-      <c r="AL156">
-        <v>1.3</v>
-      </c>
-      <c r="AM156">
-        <v>1.55</v>
-      </c>
       <c r="AN156">
-        <v>1.38</v>
+        <v>1.57</v>
       </c>
       <c r="AO156">
         <v>0.71</v>
       </c>
       <c r="AP156">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ156">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="AR156">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="AS156">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AT156">
-        <v>2.81</v>
+        <v>2.58</v>
       </c>
       <c r="AU156">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV156">
         <v>4</v>
       </c>
       <c r="AW156">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX156">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY156">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AZ156">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BA156">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB156">
         <v>4</v>
       </c>
       <c r="BC156">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD156">
-        <v>1.88</v>
+        <v>1.61</v>
       </c>
       <c r="BE156">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF156">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="BG156">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="BH156">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="BI156">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="BJ156">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="BK156">
-        <v>2.02</v>
+        <v>1.79</v>
       </c>
       <c r="BL156">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="BM156">
-        <v>2.55</v>
+        <v>2.23</v>
       </c>
       <c r="BN156">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="BO156">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="BP156">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="157" spans="1:68">
@@ -34589,7 +34589,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>7509743</v>
+        <v>7509746</v>
       </c>
       <c r="C163" t="s">
         <v>68</v>
@@ -34598,76 +34598,76 @@
         <v>69</v>
       </c>
       <c r="E163" s="2">
-        <v>45639.875</v>
+        <v>45640.45833333334</v>
       </c>
       <c r="F163">
         <v>17</v>
       </c>
       <c r="G163" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H163" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163">
         <v>1</v>
       </c>
       <c r="K163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L163">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N163">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O163" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>131</v>
+        <v>273</v>
       </c>
       <c r="Q163">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="R163">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="S163">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="T163">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="U163">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="V163">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="W163">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="X163">
-        <v>9.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y163">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="Z163">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="AA163">
         <v>3.1</v>
       </c>
       <c r="AB163">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="AC163">
         <v>1.09</v>
@@ -34676,118 +34676,118 @@
         <v>7</v>
       </c>
       <c r="AE163">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="AF163">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="AG163">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="AH163">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="AI163">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="AJ163">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AK163">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="AL163">
         <v>1.3</v>
       </c>
       <c r="AM163">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="AN163">
-        <v>1.13</v>
+        <v>0.88</v>
       </c>
       <c r="AO163">
-        <v>0.63</v>
+        <v>0.38</v>
       </c>
       <c r="AP163">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ163">
-        <v>0.89</v>
+        <v>0.44</v>
       </c>
       <c r="AR163">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="AS163">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AT163">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="AU163">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV163">
+        <v>6</v>
+      </c>
+      <c r="AW163">
+        <v>3</v>
+      </c>
+      <c r="AX163">
+        <v>4</v>
+      </c>
+      <c r="AY163">
+        <v>12</v>
+      </c>
+      <c r="AZ163">
+        <v>15</v>
+      </c>
+      <c r="BA163">
+        <v>3</v>
+      </c>
+      <c r="BB163">
         <v>5</v>
-      </c>
-      <c r="AW163">
-        <v>6</v>
-      </c>
-      <c r="AX163">
-        <v>6</v>
-      </c>
-      <c r="AY163">
-        <v>14</v>
-      </c>
-      <c r="AZ163">
-        <v>12</v>
-      </c>
-      <c r="BA163">
-        <v>6</v>
-      </c>
-      <c r="BB163">
-        <v>2</v>
       </c>
       <c r="BC163">
         <v>8</v>
       </c>
       <c r="BD163">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="BE163">
-        <v>6.1</v>
+        <v>6.25</v>
       </c>
       <c r="BF163">
-        <v>1.92</v>
+        <v>2.28</v>
       </c>
       <c r="BG163">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="BH163">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="BI163">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="BJ163">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="BK163">
-        <v>2.43</v>
+        <v>2.4</v>
       </c>
       <c r="BL163">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BM163">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="BN163">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BO163">
-        <v>4.35</v>
+        <v>4.2</v>
       </c>
       <c r="BP163">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="164" spans="1:68">
@@ -34795,7 +34795,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>7509738</v>
+        <v>7509743</v>
       </c>
       <c r="C164" t="s">
         <v>68</v>
@@ -34804,196 +34804,196 @@
         <v>69</v>
       </c>
       <c r="E164" s="2">
-        <v>45639.875</v>
+        <v>45640.45833333334</v>
       </c>
       <c r="F164">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G164" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H164" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K164">
         <v>1</v>
       </c>
       <c r="L164">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M164">
         <v>1</v>
       </c>
       <c r="N164">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O164" t="s">
-        <v>193</v>
+        <v>102</v>
       </c>
       <c r="P164" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="Q164">
-        <v>2.55</v>
+        <v>3.5</v>
       </c>
       <c r="R164">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S164">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="T164">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="U164">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="V164">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="W164">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="X164">
-        <v>7.5</v>
+        <v>9.1</v>
       </c>
       <c r="Y164">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="Z164">
-        <v>1.91</v>
+        <v>2.8</v>
       </c>
       <c r="AA164">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AB164">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="AC164">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AD164">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AE164">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AF164">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AG164">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="AH164">
-        <v>1.7</v>
+        <v>1.49</v>
       </c>
       <c r="AI164">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AJ164">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AK164">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AL164">
+        <v>1.3</v>
+      </c>
+      <c r="AM164">
+        <v>1.4</v>
+      </c>
+      <c r="AN164">
+        <v>1.13</v>
+      </c>
+      <c r="AO164">
+        <v>0.63</v>
+      </c>
+      <c r="AP164">
+        <v>1</v>
+      </c>
+      <c r="AQ164">
+        <v>0.89</v>
+      </c>
+      <c r="AR164">
         <v>1.25</v>
       </c>
-      <c r="AM164">
-        <v>1.85</v>
-      </c>
-      <c r="AN164">
-        <v>2.13</v>
-      </c>
-      <c r="AO164">
-        <v>1.43</v>
-      </c>
-      <c r="AP164">
-        <v>2.22</v>
-      </c>
-      <c r="AQ164">
-        <v>1.25</v>
-      </c>
-      <c r="AR164">
-        <v>1.6</v>
-      </c>
       <c r="AS164">
-        <v>1.35</v>
+        <v>1.07</v>
       </c>
       <c r="AT164">
-        <v>2.95</v>
+        <v>2.32</v>
       </c>
       <c r="AU164">
+        <v>4</v>
+      </c>
+      <c r="AV164">
+        <v>4</v>
+      </c>
+      <c r="AW164">
+        <v>11</v>
+      </c>
+      <c r="AX164">
+        <v>7</v>
+      </c>
+      <c r="AY164">
+        <v>15</v>
+      </c>
+      <c r="AZ164">
+        <v>11</v>
+      </c>
+      <c r="BA164">
         <v>6</v>
       </c>
-      <c r="AV164">
-        <v>6</v>
-      </c>
-      <c r="AW164">
-        <v>3</v>
-      </c>
-      <c r="AX164">
-        <v>5</v>
-      </c>
-      <c r="AY164">
-        <v>10</v>
-      </c>
-      <c r="AZ164">
-        <v>15</v>
-      </c>
-      <c r="BA164">
-        <v>5</v>
-      </c>
       <c r="BB164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC164">
         <v>8</v>
       </c>
       <c r="BD164">
-        <v>1.65</v>
+        <v>2.08</v>
       </c>
       <c r="BE164">
         <v>6.1</v>
       </c>
       <c r="BF164">
-        <v>2.55</v>
+        <v>1.92</v>
       </c>
       <c r="BG164">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="BH164">
-        <v>2.55</v>
+        <v>2.3</v>
       </c>
       <c r="BI164">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="BJ164">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="BK164">
-        <v>2.23</v>
+        <v>2.43</v>
       </c>
       <c r="BL164">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="BM164">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="BN164">
-        <v>1.35</v>
+        <v>1.28</v>
       </c>
       <c r="BO164">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="BP164">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="165" spans="1:68">
@@ -35001,7 +35001,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>7509746</v>
+        <v>7509740</v>
       </c>
       <c r="C165" t="s">
         <v>68</v>
@@ -35016,10 +35016,10 @@
         <v>17</v>
       </c>
       <c r="G165" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H165" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I165">
         <v>1</v>
@@ -35031,175 +35031,175 @@
         <v>2</v>
       </c>
       <c r="L165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M165">
         <v>2</v>
       </c>
       <c r="N165">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O165" t="s">
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q165">
-        <v>3</v>
+        <v>4.33</v>
       </c>
       <c r="R165">
-        <v>1.85</v>
+        <v>2.2</v>
       </c>
       <c r="S165">
-        <v>3.95</v>
+        <v>2.6</v>
       </c>
       <c r="T165">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="U165">
-        <v>2.3</v>
+        <v>2.75</v>
       </c>
       <c r="V165">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="W165">
+        <v>1.36</v>
+      </c>
+      <c r="X165">
+        <v>8</v>
+      </c>
+      <c r="Y165">
+        <v>1.08</v>
+      </c>
+      <c r="Z165">
+        <v>3.7</v>
+      </c>
+      <c r="AA165">
+        <v>3.5</v>
+      </c>
+      <c r="AB165">
+        <v>1.91</v>
+      </c>
+      <c r="AC165">
+        <v>1.06</v>
+      </c>
+      <c r="AD165">
+        <v>8.5</v>
+      </c>
+      <c r="AE165">
+        <v>1.3</v>
+      </c>
+      <c r="AF165">
+        <v>3.4</v>
+      </c>
+      <c r="AG165">
+        <v>1.99</v>
+      </c>
+      <c r="AH165">
+        <v>1.82</v>
+      </c>
+      <c r="AI165">
+        <v>1.8</v>
+      </c>
+      <c r="AJ165">
+        <v>1.95</v>
+      </c>
+      <c r="AK165">
+        <v>1.83</v>
+      </c>
+      <c r="AL165">
         <v>1.25</v>
       </c>
-      <c r="X165">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Y165">
-        <v>1.02</v>
-      </c>
-      <c r="Z165">
-        <v>2.2</v>
-      </c>
-      <c r="AA165">
-        <v>3.1</v>
-      </c>
-      <c r="AB165">
-        <v>3.3</v>
-      </c>
-      <c r="AC165">
-        <v>1.09</v>
-      </c>
-      <c r="AD165">
-        <v>7</v>
-      </c>
-      <c r="AE165">
-        <v>1.5</v>
-      </c>
-      <c r="AF165">
-        <v>2.55</v>
-      </c>
-      <c r="AG165">
-        <v>2.37</v>
-      </c>
-      <c r="AH165">
-        <v>1.51</v>
-      </c>
-      <c r="AI165">
-        <v>2.05</v>
-      </c>
-      <c r="AJ165">
-        <v>1.67</v>
-      </c>
-      <c r="AK165">
-        <v>1.3</v>
-      </c>
-      <c r="AL165">
-        <v>1.3</v>
-      </c>
       <c r="AM165">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="AN165">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AO165">
-        <v>0.38</v>
+        <v>2.25</v>
       </c>
       <c r="AP165">
         <v>0.89</v>
       </c>
       <c r="AQ165">
-        <v>0.44</v>
+        <v>2.33</v>
       </c>
       <c r="AR165">
+        <v>1.36</v>
+      </c>
+      <c r="AS165">
         <v>1.43</v>
       </c>
-      <c r="AS165">
-        <v>1.08</v>
-      </c>
       <c r="AT165">
-        <v>2.51</v>
+        <v>2.79</v>
       </c>
       <c r="AU165">
+        <v>4</v>
+      </c>
+      <c r="AV165">
+        <v>4</v>
+      </c>
+      <c r="AW165">
+        <v>5</v>
+      </c>
+      <c r="AX165">
         <v>6</v>
       </c>
-      <c r="AV165">
-        <v>6</v>
-      </c>
-      <c r="AW165">
-        <v>3</v>
-      </c>
-      <c r="AX165">
-        <v>4</v>
-      </c>
       <c r="AY165">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ165">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA165">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB165">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC165">
         <v>8</v>
       </c>
       <c r="BD165">
-        <v>1.79</v>
+        <v>2.5</v>
       </c>
       <c r="BE165">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF165">
-        <v>2.28</v>
+        <v>1.65</v>
       </c>
       <c r="BG165">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="BH165">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="BI165">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="BJ165">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="BK165">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="BL165">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="BM165">
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
       <c r="BN165">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BO165">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="BP165">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="166" spans="1:68">
@@ -35207,7 +35207,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>7509740</v>
+        <v>7509738</v>
       </c>
       <c r="C166" t="s">
         <v>68</v>
@@ -35222,25 +35222,25 @@
         <v>17</v>
       </c>
       <c r="G166" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H166" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="I166">
         <v>1</v>
       </c>
       <c r="J166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N166">
         <v>3</v>
@@ -35249,43 +35249,43 @@
         <v>195</v>
       </c>
       <c r="P166" t="s">
-        <v>274</v>
+        <v>134</v>
       </c>
       <c r="Q166">
+        <v>2.55</v>
+      </c>
+      <c r="R166">
+        <v>2.05</v>
+      </c>
+      <c r="S166">
         <v>4.33</v>
       </c>
-      <c r="R166">
-        <v>2.2</v>
-      </c>
-      <c r="S166">
-        <v>2.6</v>
-      </c>
       <c r="T166">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="U166">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="V166">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="W166">
         <v>1.36</v>
       </c>
       <c r="X166">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y166">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="Z166">
-        <v>3.7</v>
+        <v>1.91</v>
       </c>
       <c r="AA166">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB166">
-        <v>1.91</v>
+        <v>3.9</v>
       </c>
       <c r="AC166">
         <v>1.06</v>
@@ -35294,118 +35294,118 @@
         <v>8.5</v>
       </c>
       <c r="AE166">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF166">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AG166">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="AH166">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="AI166">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AJ166">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AK166">
-        <v>1.83</v>
+        <v>1.2</v>
       </c>
       <c r="AL166">
         <v>1.25</v>
       </c>
       <c r="AM166">
+        <v>1.85</v>
+      </c>
+      <c r="AN166">
+        <v>2.13</v>
+      </c>
+      <c r="AO166">
+        <v>1.43</v>
+      </c>
+      <c r="AP166">
+        <v>2.22</v>
+      </c>
+      <c r="AQ166">
         <v>1.25</v>
       </c>
-      <c r="AN166">
-        <v>1</v>
-      </c>
-      <c r="AO166">
-        <v>2.25</v>
-      </c>
-      <c r="AP166">
-        <v>0.89</v>
-      </c>
-      <c r="AQ166">
-        <v>2.33</v>
-      </c>
       <c r="AR166">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="AS166">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="AT166">
-        <v>2.79</v>
+        <v>2.95</v>
       </c>
       <c r="AU166">
+        <v>6</v>
+      </c>
+      <c r="AV166">
+        <v>5</v>
+      </c>
+      <c r="AW166">
         <v>4</v>
       </c>
-      <c r="AV166">
-        <v>4</v>
-      </c>
-      <c r="AW166">
-        <v>5</v>
-      </c>
       <c r="AX166">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY166">
         <v>10</v>
       </c>
       <c r="AZ166">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BA166">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BB166">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC166">
         <v>8</v>
       </c>
       <c r="BD166">
-        <v>2.5</v>
+        <v>1.65</v>
       </c>
       <c r="BE166">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="BF166">
-        <v>1.65</v>
+        <v>2.55</v>
       </c>
       <c r="BG166">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="BH166">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="BI166">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="BJ166">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="BK166">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="BL166">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="BM166">
-        <v>2.65</v>
+        <v>2.9</v>
       </c>
       <c r="BN166">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="BO166">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="BP166">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="167" spans="1:68">
@@ -35619,7 +35619,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>7509739</v>
+        <v>7509741</v>
       </c>
       <c r="C168" t="s">
         <v>68</v>
@@ -35628,196 +35628,196 @@
         <v>69</v>
       </c>
       <c r="E168" s="2">
-        <v>45640.875</v>
+        <v>45641.45833333334</v>
       </c>
       <c r="F168">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G168" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H168" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M168">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N168">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O168" t="s">
-        <v>102</v>
+        <v>196</v>
       </c>
       <c r="P168" t="s">
-        <v>102</v>
+        <v>275</v>
       </c>
       <c r="Q168">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="R168">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S168">
-        <v>2.65</v>
+        <v>4.33</v>
       </c>
       <c r="T168">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="U168">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="V168">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="W168">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="X168">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="Y168">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="Z168">
-        <v>3.4</v>
+        <v>1.86</v>
       </c>
       <c r="AA168">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AB168">
-        <v>2.06</v>
+        <v>3.8</v>
       </c>
       <c r="AC168">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="AD168">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE168">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AF168">
-        <v>3.1</v>
+        <v>3.35</v>
       </c>
       <c r="AG168">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="AH168">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AI168">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AJ168">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AK168">
-        <v>1.75</v>
+        <v>1.22</v>
       </c>
       <c r="AL168">
         <v>1.25</v>
       </c>
       <c r="AM168">
-        <v>1.25</v>
+        <v>1.91</v>
       </c>
       <c r="AN168">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AO168">
-        <v>1.63</v>
+        <v>0.86</v>
       </c>
       <c r="AP168">
-        <v>0.75</v>
+        <v>1.13</v>
       </c>
       <c r="AQ168">
-        <v>1.56</v>
+        <v>1.13</v>
       </c>
       <c r="AR168">
-        <v>1.38</v>
+        <v>1.83</v>
       </c>
       <c r="AS168">
-        <v>1.43</v>
+        <v>1.16</v>
       </c>
       <c r="AT168">
-        <v>2.81</v>
+        <v>2.99</v>
       </c>
       <c r="AU168">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV168">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW168">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AX168">
         <v>4</v>
       </c>
       <c r="AY168">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AZ168">
+        <v>12</v>
+      </c>
+      <c r="BA168">
+        <v>7</v>
+      </c>
+      <c r="BB168">
+        <v>3</v>
+      </c>
+      <c r="BC168">
         <v>10</v>
       </c>
-      <c r="BA168">
-        <v>2</v>
-      </c>
-      <c r="BB168">
-        <v>4</v>
-      </c>
-      <c r="BC168">
-        <v>6</v>
-      </c>
       <c r="BD168">
-        <v>2.48</v>
+        <v>1.63</v>
       </c>
       <c r="BE168">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="BF168">
-        <v>1.67</v>
+        <v>2.55</v>
       </c>
       <c r="BG168">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BH168">
-        <v>2.48</v>
+        <v>2.55</v>
       </c>
       <c r="BI168">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="BJ168">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="BK168">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="BL168">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="BM168">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="BN168">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="BO168">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="BP168">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="169" spans="1:68">
@@ -35834,7 +35834,7 @@
         <v>69</v>
       </c>
       <c r="E169" s="2">
-        <v>45640.875</v>
+        <v>45641.45833333334</v>
       </c>
       <c r="F169">
         <v>17</v>
@@ -36031,7 +36031,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>7509741</v>
+        <v>7509739</v>
       </c>
       <c r="C170" t="s">
         <v>68</v>
@@ -36043,193 +36043,193 @@
         <v>45641.45833333334</v>
       </c>
       <c r="F170">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G170" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="H170" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M170">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N170">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O170" t="s">
-        <v>196</v>
+        <v>102</v>
       </c>
       <c r="P170" t="s">
-        <v>275</v>
+        <v>102</v>
       </c>
       <c r="Q170">
-        <v>2.4</v>
+        <v>4.2</v>
       </c>
       <c r="R170">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S170">
-        <v>4.33</v>
+        <v>2.65</v>
       </c>
       <c r="T170">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="U170">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="V170">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="W170">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="X170">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="Y170">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z170">
-        <v>1.86</v>
+        <v>3.4</v>
       </c>
       <c r="AA170">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="AB170">
-        <v>3.8</v>
+        <v>2.06</v>
       </c>
       <c r="AC170">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="AD170">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE170">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="AF170">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AG170">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="AH170">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AI170">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AJ170">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AK170">
-        <v>1.22</v>
+        <v>1.75</v>
       </c>
       <c r="AL170">
         <v>1.25</v>
       </c>
       <c r="AM170">
-        <v>1.91</v>
+        <v>1.25</v>
       </c>
       <c r="AN170">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AO170">
-        <v>0.86</v>
+        <v>1.63</v>
       </c>
       <c r="AP170">
-        <v>1.13</v>
+        <v>0.75</v>
       </c>
       <c r="AQ170">
-        <v>1.13</v>
+        <v>1.56</v>
       </c>
       <c r="AR170">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="AS170">
-        <v>1.16</v>
+        <v>1.43</v>
       </c>
       <c r="AT170">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="AU170">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AV170">
+        <v>5</v>
+      </c>
+      <c r="AW170">
         <v>6</v>
-      </c>
-      <c r="AW170">
-        <v>11</v>
       </c>
       <c r="AX170">
         <v>4</v>
       </c>
       <c r="AY170">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="AZ170">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA170">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB170">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC170">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BD170">
-        <v>1.63</v>
+        <v>2.48</v>
       </c>
       <c r="BE170">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF170">
-        <v>2.55</v>
+        <v>1.67</v>
       </c>
       <c r="BG170">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BH170">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BI170">
-        <v>1.72</v>
+        <v>1.77</v>
       </c>
       <c r="BJ170">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="BK170">
-        <v>2.15</v>
+        <v>2.23</v>
       </c>
       <c r="BL170">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="BM170">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="BN170">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="BO170">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="BP170">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="171" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1206,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP171"/>
+  <dimension ref="A1:BP172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="AP24">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -11637,7 +11637,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ51">
         <v>1.75</v>
@@ -15345,7 +15345,7 @@
         <v>0.5</v>
       </c>
       <c r="AP69">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ69">
         <v>1.13</v>
@@ -18435,7 +18435,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ84">
         <v>1.33</v>
@@ -23173,7 +23173,7 @@
         <v>0.25</v>
       </c>
       <c r="AP107">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ107">
         <v>0.63</v>
@@ -28117,7 +28117,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ131">
         <v>1.25</v>
@@ -32237,7 +32237,7 @@
         <v>0.57</v>
       </c>
       <c r="AP151">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ151">
         <v>0.5600000000000001</v>
@@ -36357,7 +36357,7 @@
         <v>1.38</v>
       </c>
       <c r="AP171">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AQ171">
         <v>1.56</v>
@@ -36436,6 +36436,212 @@
       </c>
       <c r="BP171">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7509755</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45646.6875</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>74</v>
+      </c>
+      <c r="H172" t="s">
+        <v>70</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>102</v>
+      </c>
+      <c r="P172" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q172">
+        <v>2.7</v>
+      </c>
+      <c r="R172">
+        <v>2</v>
+      </c>
+      <c r="S172">
+        <v>3.95</v>
+      </c>
+      <c r="T172">
+        <v>1.42</v>
+      </c>
+      <c r="U172">
+        <v>2.65</v>
+      </c>
+      <c r="V172">
+        <v>2.9</v>
+      </c>
+      <c r="W172">
+        <v>1.36</v>
+      </c>
+      <c r="X172">
+        <v>6.75</v>
+      </c>
+      <c r="Y172">
+        <v>1.07</v>
+      </c>
+      <c r="Z172">
+        <v>2.05</v>
+      </c>
+      <c r="AA172">
+        <v>3.1</v>
+      </c>
+      <c r="AB172">
+        <v>3.2</v>
+      </c>
+      <c r="AC172">
+        <v>1.07</v>
+      </c>
+      <c r="AD172">
+        <v>8</v>
+      </c>
+      <c r="AE172">
+        <v>1.35</v>
+      </c>
+      <c r="AF172">
+        <v>3.1</v>
+      </c>
+      <c r="AG172">
+        <v>1.95</v>
+      </c>
+      <c r="AH172">
+        <v>1.7</v>
+      </c>
+      <c r="AI172">
+        <v>1.77</v>
+      </c>
+      <c r="AJ172">
+        <v>1.9</v>
+      </c>
+      <c r="AK172">
+        <v>1.28</v>
+      </c>
+      <c r="AL172">
+        <v>1.28</v>
+      </c>
+      <c r="AM172">
+        <v>1.7</v>
+      </c>
+      <c r="AN172">
+        <v>1.22</v>
+      </c>
+      <c r="AO172">
+        <v>1</v>
+      </c>
+      <c r="AP172">
+        <v>1.2</v>
+      </c>
+      <c r="AQ172">
+        <v>1</v>
+      </c>
+      <c r="AR172">
+        <v>1.72</v>
+      </c>
+      <c r="AS172">
+        <v>1.2</v>
+      </c>
+      <c r="AT172">
+        <v>2.92</v>
+      </c>
+      <c r="AU172">
+        <v>5</v>
+      </c>
+      <c r="AV172">
+        <v>3</v>
+      </c>
+      <c r="AW172">
+        <v>6</v>
+      </c>
+      <c r="AX172">
+        <v>5</v>
+      </c>
+      <c r="AY172">
+        <v>18</v>
+      </c>
+      <c r="AZ172">
+        <v>10</v>
+      </c>
+      <c r="BA172">
+        <v>7</v>
+      </c>
+      <c r="BB172">
+        <v>3</v>
+      </c>
+      <c r="BC172">
+        <v>10</v>
+      </c>
+      <c r="BD172">
+        <v>1.75</v>
+      </c>
+      <c r="BE172">
+        <v>6.4</v>
+      </c>
+      <c r="BF172">
+        <v>2.3</v>
+      </c>
+      <c r="BG172">
+        <v>1.44</v>
+      </c>
+      <c r="BH172">
+        <v>2.55</v>
+      </c>
+      <c r="BI172">
+        <v>1.74</v>
+      </c>
+      <c r="BJ172">
+        <v>1.97</v>
+      </c>
+      <c r="BK172">
+        <v>2.18</v>
+      </c>
+      <c r="BL172">
+        <v>1.58</v>
+      </c>
+      <c r="BM172">
+        <v>2.8</v>
+      </c>
+      <c r="BN172">
+        <v>1.37</v>
+      </c>
+      <c r="BO172">
+        <v>3.8</v>
+      </c>
+      <c r="BP172">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -610,6 +610,18 @@
     <t>['45+1']</t>
   </si>
   <si>
+    <t>['9', '70']</t>
+  </si>
+  <si>
+    <t>['23', '38', '44']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['62', '78', '90+6']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -769,9 +781,6 @@
     <t>['2']</t>
   </si>
   <si>
-    <t>['57']</t>
-  </si>
-  <si>
     <t>['34', '45+1', '90+5']</t>
   </si>
   <si>
@@ -845,6 +854,9 @@
   </si>
   <si>
     <t>['7', '73']</t>
+  </si>
+  <si>
+    <t>['18']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP172"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1546,7 +1558,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ2">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1671,7 +1683,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1749,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ3">
         <v>1.56</v>
@@ -1877,7 +1889,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2083,7 +2095,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2164,7 +2176,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ5">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2289,7 +2301,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2495,7 +2507,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2907,7 +2919,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3113,7 +3125,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3191,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ10">
         <v>2.33</v>
@@ -3525,7 +3537,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3603,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
         <v>1.25</v>
@@ -3731,7 +3743,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -3937,7 +3949,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4018,7 +4030,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4555,7 +4567,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4636,7 +4648,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4842,7 +4854,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR18">
         <v>1.49</v>
@@ -5045,7 +5057,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ19">
         <v>0.63</v>
@@ -5173,7 +5185,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5251,10 +5263,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5457,7 +5469,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ21">
         <v>1.56</v>
@@ -5585,7 +5597,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5663,7 +5675,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ22">
         <v>2.33</v>
@@ -5869,10 +5881,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5997,7 +6009,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -6203,7 +6215,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>3.24</v>
@@ -6281,10 +6293,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6615,7 +6627,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -6696,7 +6708,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR27">
         <v>1.54</v>
@@ -7314,7 +7326,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR30">
         <v>1.65</v>
@@ -7851,7 +7863,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7929,7 +7941,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ33">
         <v>1</v>
@@ -8138,7 +8150,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ34">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8263,7 +8275,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8341,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ35">
         <v>1.56</v>
@@ -8469,7 +8481,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8959,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ38">
         <v>0.75</v>
@@ -9087,7 +9099,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9168,7 +9180,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ39">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9293,7 +9305,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9499,7 +9511,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9577,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41">
         <v>0.5600000000000001</v>
@@ -9705,7 +9717,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9989,7 +10001,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1.13</v>
@@ -10195,7 +10207,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44">
         <v>0.44</v>
@@ -10404,7 +10416,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR45">
         <v>1.98</v>
@@ -10529,7 +10541,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10610,7 +10622,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ46">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR46">
         <v>0.96</v>
@@ -10816,7 +10828,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ47">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.62</v>
@@ -10941,7 +10953,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11022,7 +11034,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.25</v>
@@ -11147,7 +11159,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11225,7 +11237,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>2.33</v>
@@ -11353,7 +11365,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11559,7 +11571,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11640,7 +11652,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ51">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -11765,7 +11777,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -11843,7 +11855,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ52">
         <v>1.56</v>
@@ -12383,7 +12395,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12876,7 +12888,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ57">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>0.86</v>
@@ -13079,7 +13091,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58">
         <v>1.56</v>
@@ -13207,7 +13219,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13491,7 +13503,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13619,7 +13631,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13825,7 +13837,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -13903,10 +13915,10 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR62">
         <v>1.33</v>
@@ -14109,10 +14121,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.29</v>
@@ -14237,7 +14249,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>2.9</v>
@@ -14315,10 +14327,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR64">
         <v>1.44</v>
@@ -14521,10 +14533,10 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.09</v>
@@ -14649,7 +14661,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14936,7 +14948,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ67">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR67">
         <v>1.2</v>
@@ -15061,7 +15073,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15139,7 +15151,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15473,7 +15485,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15554,7 +15566,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR70">
         <v>1.7</v>
@@ -15679,7 +15691,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15885,7 +15897,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16091,7 +16103,7 @@
         <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16297,7 +16309,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16375,7 +16387,7 @@
         <v>1.5</v>
       </c>
       <c r="AP74">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16584,7 +16596,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ75">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR75">
         <v>1.77</v>
@@ -16709,7 +16721,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -16915,7 +16927,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -16996,7 +17008,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ77">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR77">
         <v>1.41</v>
@@ -17121,7 +17133,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17199,7 +17211,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17327,7 +17339,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17533,7 +17545,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17611,7 +17623,7 @@
         <v>0.67</v>
       </c>
       <c r="AP80">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ80">
         <v>0.89</v>
@@ -18023,7 +18035,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ82">
         <v>1.13</v>
@@ -18151,7 +18163,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18232,7 +18244,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ83">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR83">
         <v>1.66</v>
@@ -18357,7 +18369,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18438,7 +18450,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ84">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR84">
         <v>1.72</v>
@@ -18641,10 +18653,10 @@
         <v>0.67</v>
       </c>
       <c r="AP85">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ85">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -18769,7 +18781,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18847,10 +18859,10 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -18975,7 +18987,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19181,7 +19193,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19387,7 +19399,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19465,7 +19477,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>0.44</v>
@@ -19674,7 +19686,7 @@
         <v>1</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR90">
         <v>1.38</v>
@@ -19799,7 +19811,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -20910,7 +20922,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ96">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21113,7 +21125,7 @@
         <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ97">
         <v>0.89</v>
@@ -21319,7 +21331,7 @@
         <v>1.2</v>
       </c>
       <c r="AP98">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21525,10 +21537,10 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ99">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR99">
         <v>1.26</v>
@@ -21734,7 +21746,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ100">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR100">
         <v>1.52</v>
@@ -22143,7 +22155,7 @@
         <v>0.6</v>
       </c>
       <c r="AP102">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ102">
         <v>0.5600000000000001</v>
@@ -22352,7 +22364,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ103">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR103">
         <v>1.86</v>
@@ -22477,7 +22489,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22683,7 +22695,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -22761,7 +22773,7 @@
         <v>1.8</v>
       </c>
       <c r="AP105">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ105">
         <v>1.56</v>
@@ -22970,7 +22982,7 @@
         <v>1</v>
       </c>
       <c r="AQ106">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR106">
         <v>1.29</v>
@@ -23301,7 +23313,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>3.1</v>
@@ -23382,7 +23394,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR108">
         <v>1.52</v>
@@ -23585,7 +23597,7 @@
         <v>1.4</v>
       </c>
       <c r="AP109">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23791,10 +23803,10 @@
         <v>1.67</v>
       </c>
       <c r="AP110">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ110">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR110">
         <v>1.32</v>
@@ -24331,7 +24343,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24409,10 +24421,10 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ113">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR113">
         <v>1.36</v>
@@ -24615,7 +24627,7 @@
         <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ114">
         <v>1.56</v>
@@ -24821,10 +24833,10 @@
         <v>0.8</v>
       </c>
       <c r="AP115">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR115">
         <v>1.26</v>
@@ -25030,7 +25042,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ116">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.53</v>
@@ -25155,7 +25167,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25361,7 +25373,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25442,7 +25454,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ118">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR118">
         <v>1.42</v>
@@ -25773,7 +25785,7 @@
         <v>102</v>
       </c>
       <c r="P120" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -26057,7 +26069,7 @@
         <v>0.33</v>
       </c>
       <c r="AP121">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ121">
         <v>0.44</v>
@@ -26185,7 +26197,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26266,7 +26278,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR122">
         <v>1.46</v>
@@ -26391,7 +26403,7 @@
         <v>102</v>
       </c>
       <c r="P123" t="s">
-        <v>251</v>
+        <v>200</v>
       </c>
       <c r="Q123">
         <v>3.8</v>
@@ -26881,7 +26893,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ125">
         <v>0.5600000000000001</v>
@@ -27009,7 +27021,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27090,7 +27102,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ126">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR126">
         <v>1.73</v>
@@ -27293,7 +27305,7 @@
         <v>1.67</v>
       </c>
       <c r="AP127">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ127">
         <v>1.56</v>
@@ -27421,7 +27433,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27502,7 +27514,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ128">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR128">
         <v>1.36</v>
@@ -27627,7 +27639,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -27705,7 +27717,7 @@
         <v>0.4</v>
       </c>
       <c r="AP129">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ129">
         <v>0.63</v>
@@ -27833,7 +27845,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28039,7 +28051,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28245,7 +28257,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28529,7 +28541,7 @@
         <v>0.83</v>
       </c>
       <c r="AP133">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ133">
         <v>0.75</v>
@@ -28941,10 +28953,10 @@
         <v>1.83</v>
       </c>
       <c r="AP135">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ135">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR135">
         <v>1.13</v>
@@ -29069,7 +29081,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29147,7 +29159,7 @@
         <v>0.29</v>
       </c>
       <c r="AP136">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ136">
         <v>0.44</v>
@@ -29275,7 +29287,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q137">
         <v>2.6</v>
@@ -29356,7 +29368,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ137">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR137">
         <v>1.49</v>
@@ -29481,7 +29493,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29559,7 +29571,7 @@
         <v>1.29</v>
       </c>
       <c r="AP138">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ138">
         <v>1</v>
@@ -29768,7 +29780,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ139">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR139">
         <v>1.53</v>
@@ -29974,7 +29986,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ140">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR140">
         <v>1.37</v>
@@ -30099,7 +30111,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30305,7 +30317,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -30511,7 +30523,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q143">
         <v>2.55</v>
@@ -30717,7 +30729,7 @@
         <v>102</v>
       </c>
       <c r="P144" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q144">
         <v>3.95</v>
@@ -31129,7 +31141,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31207,7 +31219,7 @@
         <v>1.43</v>
       </c>
       <c r="AP146">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ146">
         <v>1.56</v>
@@ -31413,7 +31425,7 @@
         <v>0.57</v>
       </c>
       <c r="AP147">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ147">
         <v>0.89</v>
@@ -31622,7 +31634,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ148">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -31747,7 +31759,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q149">
         <v>2.63</v>
@@ -31828,7 +31840,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ149">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR149">
         <v>1.34</v>
@@ -31953,7 +31965,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32159,7 +32171,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q151">
         <v>2.75</v>
@@ -32365,7 +32377,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q152">
         <v>2.95</v>
@@ -32446,7 +32458,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ152">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR152">
         <v>1.26</v>
@@ -32649,7 +32661,7 @@
         <v>0.71</v>
       </c>
       <c r="AP153">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ153">
         <v>0.63</v>
@@ -32855,10 +32867,10 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ154">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR154">
         <v>1.17</v>
@@ -32983,7 +32995,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q155">
         <v>3.7</v>
@@ -33061,10 +33073,10 @@
         <v>1.57</v>
       </c>
       <c r="AP155">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AQ155">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR155">
         <v>1.27</v>
@@ -33189,7 +33201,7 @@
         <v>174</v>
       </c>
       <c r="P156" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -33267,7 +33279,7 @@
         <v>0.71</v>
       </c>
       <c r="AP156">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ156">
         <v>0.75</v>
@@ -33395,7 +33407,7 @@
         <v>102</v>
       </c>
       <c r="P157" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33476,7 +33488,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ157">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR157">
         <v>1.58</v>
@@ -33679,7 +33691,7 @@
         <v>1.14</v>
       </c>
       <c r="AP158">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -33807,7 +33819,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q159">
         <v>2.2</v>
@@ -33888,7 +33900,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ159">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR159">
         <v>1.43</v>
@@ -34219,7 +34231,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q161">
         <v>2.2</v>
@@ -34297,7 +34309,7 @@
         <v>1.13</v>
       </c>
       <c r="AP161">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AQ161">
         <v>1</v>
@@ -34631,7 +34643,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35043,7 +35055,7 @@
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35330,7 +35342,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ166">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR166">
         <v>1.6</v>
@@ -35536,7 +35548,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ167">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR167">
         <v>1.43</v>
@@ -35661,7 +35673,7 @@
         <v>196</v>
       </c>
       <c r="P168" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -36151,7 +36163,7 @@
         <v>1.63</v>
       </c>
       <c r="AP170">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ170">
         <v>1.56</v>
@@ -36279,7 +36291,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36452,7 +36464,7 @@
         <v>69</v>
       </c>
       <c r="E172" s="2">
-        <v>45646.6875</v>
+        <v>45645.875</v>
       </c>
       <c r="F172">
         <v>18</v>
@@ -36642,6 +36654,1448 @@
       </c>
       <c r="BP172">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7509756</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45647.45833333334</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>84</v>
+      </c>
+      <c r="H173" t="s">
+        <v>89</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>3</v>
+      </c>
+      <c r="O173" t="s">
+        <v>198</v>
+      </c>
+      <c r="P173" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q173">
+        <v>2.3</v>
+      </c>
+      <c r="R173">
+        <v>2.2</v>
+      </c>
+      <c r="S173">
+        <v>4.33</v>
+      </c>
+      <c r="T173">
+        <v>1.33</v>
+      </c>
+      <c r="U173">
+        <v>3</v>
+      </c>
+      <c r="V173">
+        <v>2.45</v>
+      </c>
+      <c r="W173">
+        <v>1.48</v>
+      </c>
+      <c r="X173">
+        <v>5.35</v>
+      </c>
+      <c r="Y173">
+        <v>1.12</v>
+      </c>
+      <c r="Z173">
+        <v>1.82</v>
+      </c>
+      <c r="AA173">
+        <v>3.8</v>
+      </c>
+      <c r="AB173">
+        <v>3.97</v>
+      </c>
+      <c r="AC173">
+        <v>1.04</v>
+      </c>
+      <c r="AD173">
+        <v>10</v>
+      </c>
+      <c r="AE173">
+        <v>1.22</v>
+      </c>
+      <c r="AF173">
+        <v>4.2</v>
+      </c>
+      <c r="AG173">
+        <v>1.58</v>
+      </c>
+      <c r="AH173">
+        <v>2.2</v>
+      </c>
+      <c r="AI173">
+        <v>1.6</v>
+      </c>
+      <c r="AJ173">
+        <v>2.15</v>
+      </c>
+      <c r="AK173">
+        <v>1.22</v>
+      </c>
+      <c r="AL173">
+        <v>1.22</v>
+      </c>
+      <c r="AM173">
+        <v>1.95</v>
+      </c>
+      <c r="AN173">
+        <v>2.38</v>
+      </c>
+      <c r="AO173">
+        <v>1.33</v>
+      </c>
+      <c r="AP173">
+        <v>2.44</v>
+      </c>
+      <c r="AQ173">
+        <v>1.2</v>
+      </c>
+      <c r="AR173">
+        <v>1.69</v>
+      </c>
+      <c r="AS173">
+        <v>1.21</v>
+      </c>
+      <c r="AT173">
+        <v>2.9</v>
+      </c>
+      <c r="AU173">
+        <v>4</v>
+      </c>
+      <c r="AV173">
+        <v>5</v>
+      </c>
+      <c r="AW173">
+        <v>7</v>
+      </c>
+      <c r="AX173">
+        <v>8</v>
+      </c>
+      <c r="AY173">
+        <v>17</v>
+      </c>
+      <c r="AZ173">
+        <v>17</v>
+      </c>
+      <c r="BA173">
+        <v>7</v>
+      </c>
+      <c r="BB173">
+        <v>8</v>
+      </c>
+      <c r="BC173">
+        <v>15</v>
+      </c>
+      <c r="BD173">
+        <v>1.65</v>
+      </c>
+      <c r="BE173">
+        <v>6.4</v>
+      </c>
+      <c r="BF173">
+        <v>2.55</v>
+      </c>
+      <c r="BG173">
+        <v>1.34</v>
+      </c>
+      <c r="BH173">
+        <v>2.9</v>
+      </c>
+      <c r="BI173">
+        <v>1.58</v>
+      </c>
+      <c r="BJ173">
+        <v>2.2</v>
+      </c>
+      <c r="BK173">
+        <v>1.93</v>
+      </c>
+      <c r="BL173">
+        <v>1.76</v>
+      </c>
+      <c r="BM173">
+        <v>2.43</v>
+      </c>
+      <c r="BN173">
+        <v>1.48</v>
+      </c>
+      <c r="BO173">
+        <v>3.15</v>
+      </c>
+      <c r="BP173">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7509747</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45647.45833333334</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>71</v>
+      </c>
+      <c r="H174" t="s">
+        <v>72</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>0</v>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>1</v>
+      </c>
+      <c r="O174" t="s">
+        <v>102</v>
+      </c>
+      <c r="P174" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q174">
+        <v>2.6</v>
+      </c>
+      <c r="R174">
+        <v>1.9</v>
+      </c>
+      <c r="S174">
+        <v>4.75</v>
+      </c>
+      <c r="T174">
+        <v>1.55</v>
+      </c>
+      <c r="U174">
+        <v>2.3</v>
+      </c>
+      <c r="V174">
+        <v>3.55</v>
+      </c>
+      <c r="W174">
+        <v>1.25</v>
+      </c>
+      <c r="X174">
+        <v>9.5</v>
+      </c>
+      <c r="Y174">
+        <v>1.02</v>
+      </c>
+      <c r="Z174">
+        <v>1.91</v>
+      </c>
+      <c r="AA174">
+        <v>3.18</v>
+      </c>
+      <c r="AB174">
+        <v>4.44</v>
+      </c>
+      <c r="AC174">
+        <v>1.1</v>
+      </c>
+      <c r="AD174">
+        <v>6.5</v>
+      </c>
+      <c r="AE174">
+        <v>1.51</v>
+      </c>
+      <c r="AF174">
+        <v>2.55</v>
+      </c>
+      <c r="AG174">
+        <v>2.25</v>
+      </c>
+      <c r="AH174">
+        <v>1.55</v>
+      </c>
+      <c r="AI174">
+        <v>2.1</v>
+      </c>
+      <c r="AJ174">
+        <v>1.62</v>
+      </c>
+      <c r="AK174">
+        <v>1.2</v>
+      </c>
+      <c r="AL174">
+        <v>1.3</v>
+      </c>
+      <c r="AM174">
+        <v>1.85</v>
+      </c>
+      <c r="AN174">
+        <v>1.56</v>
+      </c>
+      <c r="AO174">
+        <v>0.75</v>
+      </c>
+      <c r="AP174">
+        <v>1.4</v>
+      </c>
+      <c r="AQ174">
+        <v>1</v>
+      </c>
+      <c r="AR174">
+        <v>1.36</v>
+      </c>
+      <c r="AS174">
+        <v>1.1</v>
+      </c>
+      <c r="AT174">
+        <v>2.46</v>
+      </c>
+      <c r="AU174">
+        <v>3</v>
+      </c>
+      <c r="AV174">
+        <v>7</v>
+      </c>
+      <c r="AW174">
+        <v>6</v>
+      </c>
+      <c r="AX174">
+        <v>7</v>
+      </c>
+      <c r="AY174">
+        <v>15</v>
+      </c>
+      <c r="AZ174">
+        <v>20</v>
+      </c>
+      <c r="BA174">
+        <v>7</v>
+      </c>
+      <c r="BB174">
+        <v>5</v>
+      </c>
+      <c r="BC174">
+        <v>12</v>
+      </c>
+      <c r="BD174">
+        <v>1.56</v>
+      </c>
+      <c r="BE174">
+        <v>6.4</v>
+      </c>
+      <c r="BF174">
+        <v>2.7</v>
+      </c>
+      <c r="BG174">
+        <v>1.5</v>
+      </c>
+      <c r="BH174">
+        <v>2.4</v>
+      </c>
+      <c r="BI174">
+        <v>1.83</v>
+      </c>
+      <c r="BJ174">
+        <v>1.85</v>
+      </c>
+      <c r="BK174">
+        <v>2.33</v>
+      </c>
+      <c r="BL174">
+        <v>1.52</v>
+      </c>
+      <c r="BM174">
+        <v>3.05</v>
+      </c>
+      <c r="BN174">
+        <v>1.3</v>
+      </c>
+      <c r="BO174">
+        <v>4.1</v>
+      </c>
+      <c r="BP174">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7509748</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45647.45833333334</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>86</v>
+      </c>
+      <c r="H175" t="s">
+        <v>79</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>0</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>1</v>
+      </c>
+      <c r="O175" t="s">
+        <v>187</v>
+      </c>
+      <c r="P175" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q175">
+        <v>3.1</v>
+      </c>
+      <c r="R175">
+        <v>1.91</v>
+      </c>
+      <c r="S175">
+        <v>3.6</v>
+      </c>
+      <c r="T175">
+        <v>1.53</v>
+      </c>
+      <c r="U175">
+        <v>2.38</v>
+      </c>
+      <c r="V175">
+        <v>3.35</v>
+      </c>
+      <c r="W175">
+        <v>1.28</v>
+      </c>
+      <c r="X175">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Y175">
+        <v>1.03</v>
+      </c>
+      <c r="Z175">
+        <v>2.54</v>
+      </c>
+      <c r="AA175">
+        <v>3.05</v>
+      </c>
+      <c r="AB175">
+        <v>2.95</v>
+      </c>
+      <c r="AC175">
+        <v>1.09</v>
+      </c>
+      <c r="AD175">
+        <v>7</v>
+      </c>
+      <c r="AE175">
+        <v>1.48</v>
+      </c>
+      <c r="AF175">
+        <v>2.65</v>
+      </c>
+      <c r="AG175">
+        <v>2.14</v>
+      </c>
+      <c r="AH175">
+        <v>1.61</v>
+      </c>
+      <c r="AI175">
+        <v>1.93</v>
+      </c>
+      <c r="AJ175">
+        <v>1.75</v>
+      </c>
+      <c r="AK175">
+        <v>1.38</v>
+      </c>
+      <c r="AL175">
+        <v>1.3</v>
+      </c>
+      <c r="AM175">
+        <v>1.53</v>
+      </c>
+      <c r="AN175">
+        <v>1.88</v>
+      </c>
+      <c r="AO175">
+        <v>1.25</v>
+      </c>
+      <c r="AP175">
+        <v>2</v>
+      </c>
+      <c r="AQ175">
+        <v>1.11</v>
+      </c>
+      <c r="AR175">
+        <v>1.25</v>
+      </c>
+      <c r="AS175">
+        <v>1.38</v>
+      </c>
+      <c r="AT175">
+        <v>2.63</v>
+      </c>
+      <c r="AU175">
+        <v>5</v>
+      </c>
+      <c r="AV175">
+        <v>4</v>
+      </c>
+      <c r="AW175">
+        <v>9</v>
+      </c>
+      <c r="AX175">
+        <v>4</v>
+      </c>
+      <c r="AY175">
+        <v>19</v>
+      </c>
+      <c r="AZ175">
+        <v>13</v>
+      </c>
+      <c r="BA175">
+        <v>6</v>
+      </c>
+      <c r="BB175">
+        <v>3</v>
+      </c>
+      <c r="BC175">
+        <v>9</v>
+      </c>
+      <c r="BD175">
+        <v>1.84</v>
+      </c>
+      <c r="BE175">
+        <v>6.25</v>
+      </c>
+      <c r="BF175">
+        <v>2.18</v>
+      </c>
+      <c r="BG175">
+        <v>1.48</v>
+      </c>
+      <c r="BH175">
+        <v>2.48</v>
+      </c>
+      <c r="BI175">
+        <v>1.78</v>
+      </c>
+      <c r="BJ175">
+        <v>1.91</v>
+      </c>
+      <c r="BK175">
+        <v>2.25</v>
+      </c>
+      <c r="BL175">
+        <v>1.55</v>
+      </c>
+      <c r="BM175">
+        <v>2.95</v>
+      </c>
+      <c r="BN175">
+        <v>1.33</v>
+      </c>
+      <c r="BO175">
+        <v>3.95</v>
+      </c>
+      <c r="BP175">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7509753</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45647.45833333334</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176" t="s">
+        <v>85</v>
+      </c>
+      <c r="H176" t="s">
+        <v>75</v>
+      </c>
+      <c r="I176">
+        <v>3</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>3</v>
+      </c>
+      <c r="L176">
+        <v>3</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>4</v>
+      </c>
+      <c r="O176" t="s">
+        <v>199</v>
+      </c>
+      <c r="P176" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q176">
+        <v>3.1</v>
+      </c>
+      <c r="R176">
+        <v>1.95</v>
+      </c>
+      <c r="S176">
+        <v>3.45</v>
+      </c>
+      <c r="T176">
+        <v>1.45</v>
+      </c>
+      <c r="U176">
+        <v>2.55</v>
+      </c>
+      <c r="V176">
+        <v>3</v>
+      </c>
+      <c r="W176">
+        <v>1.33</v>
+      </c>
+      <c r="X176">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y176">
+        <v>1.03</v>
+      </c>
+      <c r="Z176">
+        <v>2.56</v>
+      </c>
+      <c r="AA176">
+        <v>3.13</v>
+      </c>
+      <c r="AB176">
+        <v>2.86</v>
+      </c>
+      <c r="AC176">
+        <v>1.07</v>
+      </c>
+      <c r="AD176">
+        <v>8</v>
+      </c>
+      <c r="AE176">
+        <v>1.38</v>
+      </c>
+      <c r="AF176">
+        <v>3</v>
+      </c>
+      <c r="AG176">
+        <v>2</v>
+      </c>
+      <c r="AH176">
+        <v>1.7</v>
+      </c>
+      <c r="AI176">
+        <v>1.8</v>
+      </c>
+      <c r="AJ176">
+        <v>1.85</v>
+      </c>
+      <c r="AK176">
+        <v>1.4</v>
+      </c>
+      <c r="AL176">
+        <v>1.28</v>
+      </c>
+      <c r="AM176">
+        <v>1.5</v>
+      </c>
+      <c r="AN176">
+        <v>1.88</v>
+      </c>
+      <c r="AO176">
+        <v>1</v>
+      </c>
+      <c r="AP176">
+        <v>2</v>
+      </c>
+      <c r="AQ176">
+        <v>0.89</v>
+      </c>
+      <c r="AR176">
+        <v>1.34</v>
+      </c>
+      <c r="AS176">
+        <v>1.13</v>
+      </c>
+      <c r="AT176">
+        <v>2.47</v>
+      </c>
+      <c r="AU176">
+        <v>8</v>
+      </c>
+      <c r="AV176">
+        <v>6</v>
+      </c>
+      <c r="AW176">
+        <v>6</v>
+      </c>
+      <c r="AX176">
+        <v>6</v>
+      </c>
+      <c r="AY176">
+        <v>15</v>
+      </c>
+      <c r="AZ176">
+        <v>15</v>
+      </c>
+      <c r="BA176">
+        <v>1</v>
+      </c>
+      <c r="BB176">
+        <v>8</v>
+      </c>
+      <c r="BC176">
+        <v>9</v>
+      </c>
+      <c r="BD176">
+        <v>1.89</v>
+      </c>
+      <c r="BE176">
+        <v>6.25</v>
+      </c>
+      <c r="BF176">
+        <v>2.15</v>
+      </c>
+      <c r="BG176">
+        <v>1.44</v>
+      </c>
+      <c r="BH176">
+        <v>2.55</v>
+      </c>
+      <c r="BI176">
+        <v>1.74</v>
+      </c>
+      <c r="BJ176">
+        <v>1.97</v>
+      </c>
+      <c r="BK176">
+        <v>2.18</v>
+      </c>
+      <c r="BL176">
+        <v>1.58</v>
+      </c>
+      <c r="BM176">
+        <v>2.8</v>
+      </c>
+      <c r="BN176">
+        <v>1.36</v>
+      </c>
+      <c r="BO176">
+        <v>3.8</v>
+      </c>
+      <c r="BP176">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7509754</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45647.55208333334</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>80</v>
+      </c>
+      <c r="H177" t="s">
+        <v>73</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
+        <v>200</v>
+      </c>
+      <c r="P177" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q177">
+        <v>3.3</v>
+      </c>
+      <c r="R177">
+        <v>1.85</v>
+      </c>
+      <c r="S177">
+        <v>3.55</v>
+      </c>
+      <c r="T177">
+        <v>1.55</v>
+      </c>
+      <c r="U177">
+        <v>2.3</v>
+      </c>
+      <c r="V177">
+        <v>3.55</v>
+      </c>
+      <c r="W177">
+        <v>1.25</v>
+      </c>
+      <c r="X177">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y177">
+        <v>1.03</v>
+      </c>
+      <c r="Z177">
+        <v>3.43</v>
+      </c>
+      <c r="AA177">
+        <v>2.12</v>
+      </c>
+      <c r="AB177">
+        <v>2.89</v>
+      </c>
+      <c r="AC177">
+        <v>1.1</v>
+      </c>
+      <c r="AD177">
+        <v>6.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.5</v>
+      </c>
+      <c r="AF177">
+        <v>2.4</v>
+      </c>
+      <c r="AG177">
+        <v>2.45</v>
+      </c>
+      <c r="AH177">
+        <v>1.55</v>
+      </c>
+      <c r="AI177">
+        <v>2</v>
+      </c>
+      <c r="AJ177">
+        <v>1.7</v>
+      </c>
+      <c r="AK177">
+        <v>1.4</v>
+      </c>
+      <c r="AL177">
+        <v>1.33</v>
+      </c>
+      <c r="AM177">
+        <v>1.48</v>
+      </c>
+      <c r="AN177">
+        <v>1.5</v>
+      </c>
+      <c r="AO177">
+        <v>1.75</v>
+      </c>
+      <c r="AP177">
+        <v>1.67</v>
+      </c>
+      <c r="AQ177">
+        <v>1.56</v>
+      </c>
+      <c r="AR177">
+        <v>1.48</v>
+      </c>
+      <c r="AS177">
+        <v>1.11</v>
+      </c>
+      <c r="AT177">
+        <v>2.59</v>
+      </c>
+      <c r="AU177">
+        <v>3</v>
+      </c>
+      <c r="AV177">
+        <v>3</v>
+      </c>
+      <c r="AW177">
+        <v>3</v>
+      </c>
+      <c r="AX177">
+        <v>6</v>
+      </c>
+      <c r="AY177">
+        <v>7</v>
+      </c>
+      <c r="AZ177">
+        <v>16</v>
+      </c>
+      <c r="BA177">
+        <v>3</v>
+      </c>
+      <c r="BB177">
+        <v>2</v>
+      </c>
+      <c r="BC177">
+        <v>5</v>
+      </c>
+      <c r="BD177">
+        <v>1.95</v>
+      </c>
+      <c r="BE177">
+        <v>6.1</v>
+      </c>
+      <c r="BF177">
+        <v>2.07</v>
+      </c>
+      <c r="BG177">
+        <v>1.54</v>
+      </c>
+      <c r="BH177">
+        <v>2.3</v>
+      </c>
+      <c r="BI177">
+        <v>1.92</v>
+      </c>
+      <c r="BJ177">
+        <v>1.77</v>
+      </c>
+      <c r="BK177">
+        <v>2.43</v>
+      </c>
+      <c r="BL177">
+        <v>1.48</v>
+      </c>
+      <c r="BM177">
+        <v>3.2</v>
+      </c>
+      <c r="BN177">
+        <v>1.29</v>
+      </c>
+      <c r="BO177">
+        <v>4.35</v>
+      </c>
+      <c r="BP177">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7509750</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45647.55208333334</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>87</v>
+      </c>
+      <c r="H178" t="s">
+        <v>77</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>0</v>
+      </c>
+      <c r="L178">
+        <v>3</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>4</v>
+      </c>
+      <c r="O178" t="s">
+        <v>201</v>
+      </c>
+      <c r="P178" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q178">
+        <v>3.1</v>
+      </c>
+      <c r="R178">
+        <v>1.9</v>
+      </c>
+      <c r="S178">
+        <v>3.65</v>
+      </c>
+      <c r="T178">
+        <v>1.53</v>
+      </c>
+      <c r="U178">
+        <v>2.35</v>
+      </c>
+      <c r="V178">
+        <v>3.35</v>
+      </c>
+      <c r="W178">
+        <v>1.28</v>
+      </c>
+      <c r="X178">
+        <v>10.25</v>
+      </c>
+      <c r="Y178">
+        <v>1.02</v>
+      </c>
+      <c r="Z178">
+        <v>3.14</v>
+      </c>
+      <c r="AA178">
+        <v>2.17</v>
+      </c>
+      <c r="AB178">
+        <v>3.04</v>
+      </c>
+      <c r="AC178">
+        <v>1.1</v>
+      </c>
+      <c r="AD178">
+        <v>6.5</v>
+      </c>
+      <c r="AE178">
+        <v>1.48</v>
+      </c>
+      <c r="AF178">
+        <v>2.62</v>
+      </c>
+      <c r="AG178">
+        <v>2.4</v>
+      </c>
+      <c r="AH178">
+        <v>1.57</v>
+      </c>
+      <c r="AI178">
+        <v>1.93</v>
+      </c>
+      <c r="AJ178">
+        <v>1.75</v>
+      </c>
+      <c r="AK178">
+        <v>1.36</v>
+      </c>
+      <c r="AL178">
+        <v>1.33</v>
+      </c>
+      <c r="AM178">
+        <v>1.5</v>
+      </c>
+      <c r="AN178">
+        <v>0.75</v>
+      </c>
+      <c r="AO178">
+        <v>1.13</v>
+      </c>
+      <c r="AP178">
+        <v>1</v>
+      </c>
+      <c r="AQ178">
+        <v>1</v>
+      </c>
+      <c r="AR178">
+        <v>1.29</v>
+      </c>
+      <c r="AS178">
+        <v>1.25</v>
+      </c>
+      <c r="AT178">
+        <v>2.54</v>
+      </c>
+      <c r="AU178">
+        <v>6</v>
+      </c>
+      <c r="AV178">
+        <v>5</v>
+      </c>
+      <c r="AW178">
+        <v>2</v>
+      </c>
+      <c r="AX178">
+        <v>4</v>
+      </c>
+      <c r="AY178">
+        <v>10</v>
+      </c>
+      <c r="AZ178">
+        <v>12</v>
+      </c>
+      <c r="BA178">
+        <v>4</v>
+      </c>
+      <c r="BB178">
+        <v>1</v>
+      </c>
+      <c r="BC178">
+        <v>5</v>
+      </c>
+      <c r="BD178">
+        <v>1.82</v>
+      </c>
+      <c r="BE178">
+        <v>6.25</v>
+      </c>
+      <c r="BF178">
+        <v>2.23</v>
+      </c>
+      <c r="BG178">
+        <v>1.52</v>
+      </c>
+      <c r="BH178">
+        <v>2.33</v>
+      </c>
+      <c r="BI178">
+        <v>1.86</v>
+      </c>
+      <c r="BJ178">
+        <v>1.82</v>
+      </c>
+      <c r="BK178">
+        <v>2.4</v>
+      </c>
+      <c r="BL178">
+        <v>1.5</v>
+      </c>
+      <c r="BM178">
+        <v>3.15</v>
+      </c>
+      <c r="BN178">
+        <v>1.29</v>
+      </c>
+      <c r="BO178">
+        <v>4.3</v>
+      </c>
+      <c r="BP178">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7509749</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45647.55208333334</v>
+      </c>
+      <c r="F179">
+        <v>18</v>
+      </c>
+      <c r="G179" t="s">
+        <v>78</v>
+      </c>
+      <c r="H179" t="s">
+        <v>83</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
+        <v>102</v>
+      </c>
+      <c r="P179" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q179">
+        <v>3.55</v>
+      </c>
+      <c r="R179">
+        <v>1.95</v>
+      </c>
+      <c r="S179">
+        <v>3.1</v>
+      </c>
+      <c r="T179">
+        <v>1.48</v>
+      </c>
+      <c r="U179">
+        <v>2.45</v>
+      </c>
+      <c r="V179">
+        <v>3.2</v>
+      </c>
+      <c r="W179">
+        <v>1.3</v>
+      </c>
+      <c r="X179">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="Y179">
+        <v>1.03</v>
+      </c>
+      <c r="Z179">
+        <v>3.09</v>
+      </c>
+      <c r="AA179">
+        <v>3.13</v>
+      </c>
+      <c r="AB179">
+        <v>2.46</v>
+      </c>
+      <c r="AC179">
+        <v>1.08</v>
+      </c>
+      <c r="AD179">
+        <v>7.5</v>
+      </c>
+      <c r="AE179">
+        <v>1.42</v>
+      </c>
+      <c r="AF179">
+        <v>2.8</v>
+      </c>
+      <c r="AG179">
+        <v>2.25</v>
+      </c>
+      <c r="AH179">
+        <v>1.65</v>
+      </c>
+      <c r="AI179">
+        <v>1.85</v>
+      </c>
+      <c r="AJ179">
+        <v>1.8</v>
+      </c>
+      <c r="AK179">
+        <v>1.53</v>
+      </c>
+      <c r="AL179">
+        <v>1.3</v>
+      </c>
+      <c r="AM179">
+        <v>1.38</v>
+      </c>
+      <c r="AN179">
+        <v>1.56</v>
+      </c>
+      <c r="AO179">
+        <v>1.33</v>
+      </c>
+      <c r="AP179">
+        <v>1.4</v>
+      </c>
+      <c r="AQ179">
+        <v>1.5</v>
+      </c>
+      <c r="AR179">
+        <v>1.23</v>
+      </c>
+      <c r="AS179">
+        <v>1.3</v>
+      </c>
+      <c r="AT179">
+        <v>2.53</v>
+      </c>
+      <c r="AU179">
+        <v>4</v>
+      </c>
+      <c r="AV179">
+        <v>4</v>
+      </c>
+      <c r="AW179">
+        <v>3</v>
+      </c>
+      <c r="AX179">
+        <v>8</v>
+      </c>
+      <c r="AY179">
+        <v>16</v>
+      </c>
+      <c r="AZ179">
+        <v>17</v>
+      </c>
+      <c r="BA179">
+        <v>6</v>
+      </c>
+      <c r="BB179">
+        <v>6</v>
+      </c>
+      <c r="BC179">
+        <v>12</v>
+      </c>
+      <c r="BD179">
+        <v>2.2</v>
+      </c>
+      <c r="BE179">
+        <v>6.4</v>
+      </c>
+      <c r="BF179">
+        <v>1.81</v>
+      </c>
+      <c r="BG179">
+        <v>1.49</v>
+      </c>
+      <c r="BH179">
+        <v>2.43</v>
+      </c>
+      <c r="BI179">
+        <v>1.79</v>
+      </c>
+      <c r="BJ179">
+        <v>1.9</v>
+      </c>
+      <c r="BK179">
+        <v>2.28</v>
+      </c>
+      <c r="BL179">
+        <v>1.55</v>
+      </c>
+      <c r="BM179">
+        <v>2.95</v>
+      </c>
+      <c r="BN179">
+        <v>1.33</v>
+      </c>
+      <c r="BO179">
+        <v>3.95</v>
+      </c>
+      <c r="BP179">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1218,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ16">
         <v>0.5600000000000001</v>
@@ -5060,7 +5060,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ19">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -6705,7 +6705,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ27">
         <v>1.2</v>
@@ -7529,7 +7529,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ31">
         <v>0.44</v>
@@ -9386,7 +9386,7 @@
         <v>2.75</v>
       </c>
       <c r="AQ40">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR40">
         <v>1.5</v>
@@ -10619,7 +10619,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ46">
         <v>1.2</v>
@@ -10825,7 +10825,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47">
         <v>1.5</v>
@@ -12270,7 +12270,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ54">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR54">
         <v>2.1</v>
@@ -14945,7 +14945,7 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ67">
         <v>1.56</v>
@@ -16802,7 +16802,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ76">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR76">
         <v>1.44</v>
@@ -17417,7 +17417,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
         <v>1.25</v>
@@ -19271,7 +19271,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ88">
         <v>1.56</v>
@@ -20713,7 +20713,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95">
         <v>0.75</v>
@@ -22567,7 +22567,7 @@
         <v>2.2</v>
       </c>
       <c r="AP104">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ104">
         <v>2.33</v>
@@ -23188,7 +23188,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ107">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR107">
         <v>1.73</v>
@@ -25451,7 +25451,7 @@
         <v>1.6</v>
       </c>
       <c r="AP118">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ118">
         <v>1.56</v>
@@ -27511,7 +27511,7 @@
         <v>1.33</v>
       </c>
       <c r="AP128">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ128">
         <v>1.5</v>
@@ -27720,7 +27720,7 @@
         <v>1</v>
       </c>
       <c r="AQ129">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR129">
         <v>1.41</v>
@@ -28747,7 +28747,7 @@
         <v>1.17</v>
       </c>
       <c r="AP134">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ134">
         <v>1</v>
@@ -29983,7 +29983,7 @@
         <v>0.83</v>
       </c>
       <c r="AP140">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ140">
         <v>0.89</v>
@@ -32046,7 +32046,7 @@
         <v>0.89</v>
       </c>
       <c r="AQ150">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR150">
         <v>1.37</v>
@@ -32455,7 +32455,7 @@
         <v>0.86</v>
       </c>
       <c r="AP152">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -32664,7 +32664,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ153">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -33897,7 +33897,7 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AQ159">
         <v>1</v>
@@ -36464,7 +36464,7 @@
         <v>69</v>
       </c>
       <c r="E172" s="2">
-        <v>45645.875</v>
+        <v>45646.6875</v>
       </c>
       <c r="F172">
         <v>18</v>
@@ -37626,13 +37626,13 @@
         <v>3</v>
       </c>
       <c r="AW177">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX177">
         <v>6</v>
       </c>
       <c r="AY177">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ177">
         <v>16</v>
@@ -37703,7 +37703,7 @@
         <v>45647.55208333334</v>
       </c>
       <c r="F178">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G178" t="s">
         <v>87</v>
@@ -38096,6 +38096,418 @@
       </c>
       <c r="BP179">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7509752</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45648.45833333334</v>
+      </c>
+      <c r="F180">
+        <v>18</v>
+      </c>
+      <c r="G180" t="s">
+        <v>88</v>
+      </c>
+      <c r="H180" t="s">
+        <v>76</v>
+      </c>
+      <c r="I180">
+        <v>1</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>1</v>
+      </c>
+      <c r="O180" t="s">
+        <v>149</v>
+      </c>
+      <c r="P180" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q180">
+        <v>3.5</v>
+      </c>
+      <c r="R180">
+        <v>1.95</v>
+      </c>
+      <c r="S180">
+        <v>3.5</v>
+      </c>
+      <c r="T180">
+        <v>1.53</v>
+      </c>
+      <c r="U180">
+        <v>2.38</v>
+      </c>
+      <c r="V180">
+        <v>3.5</v>
+      </c>
+      <c r="W180">
+        <v>1.29</v>
+      </c>
+      <c r="X180">
+        <v>11</v>
+      </c>
+      <c r="Y180">
+        <v>1.05</v>
+      </c>
+      <c r="Z180">
+        <v>2.73</v>
+      </c>
+      <c r="AA180">
+        <v>3.09</v>
+      </c>
+      <c r="AB180">
+        <v>2.89</v>
+      </c>
+      <c r="AC180">
+        <v>1.09</v>
+      </c>
+      <c r="AD180">
+        <v>7</v>
+      </c>
+      <c r="AE180">
+        <v>1.45</v>
+      </c>
+      <c r="AF180">
+        <v>2.7</v>
+      </c>
+      <c r="AG180">
+        <v>2.2</v>
+      </c>
+      <c r="AH180">
+        <v>1.6</v>
+      </c>
+      <c r="AI180">
+        <v>1.95</v>
+      </c>
+      <c r="AJ180">
+        <v>1.8</v>
+      </c>
+      <c r="AK180">
+        <v>1.42</v>
+      </c>
+      <c r="AL180">
+        <v>1.3</v>
+      </c>
+      <c r="AM180">
+        <v>1.45</v>
+      </c>
+      <c r="AN180">
+        <v>1.38</v>
+      </c>
+      <c r="AO180">
+        <v>0.63</v>
+      </c>
+      <c r="AP180">
+        <v>1.56</v>
+      </c>
+      <c r="AQ180">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR180">
+        <v>1.28</v>
+      </c>
+      <c r="AS180">
+        <v>1.39</v>
+      </c>
+      <c r="AT180">
+        <v>2.67</v>
+      </c>
+      <c r="AU180">
+        <v>3</v>
+      </c>
+      <c r="AV180">
+        <v>2</v>
+      </c>
+      <c r="AW180">
+        <v>4</v>
+      </c>
+      <c r="AX180">
+        <v>2</v>
+      </c>
+      <c r="AY180">
+        <v>9</v>
+      </c>
+      <c r="AZ180">
+        <v>7</v>
+      </c>
+      <c r="BA180">
+        <v>8</v>
+      </c>
+      <c r="BB180">
+        <v>3</v>
+      </c>
+      <c r="BC180">
+        <v>11</v>
+      </c>
+      <c r="BD180">
+        <v>1.93</v>
+      </c>
+      <c r="BE180">
+        <v>6.25</v>
+      </c>
+      <c r="BF180">
+        <v>2.08</v>
+      </c>
+      <c r="BG180">
+        <v>1.48</v>
+      </c>
+      <c r="BH180">
+        <v>2.43</v>
+      </c>
+      <c r="BI180">
+        <v>1.8</v>
+      </c>
+      <c r="BJ180">
+        <v>1.9</v>
+      </c>
+      <c r="BK180">
+        <v>2.3</v>
+      </c>
+      <c r="BL180">
+        <v>1.54</v>
+      </c>
+      <c r="BM180">
+        <v>2.95</v>
+      </c>
+      <c r="BN180">
+        <v>1.33</v>
+      </c>
+      <c r="BO180">
+        <v>3.95</v>
+      </c>
+      <c r="BP180">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7509751</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45648.55208333334</v>
+      </c>
+      <c r="F181">
+        <v>18</v>
+      </c>
+      <c r="G181" t="s">
+        <v>82</v>
+      </c>
+      <c r="H181" t="s">
+        <v>81</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>125</v>
+      </c>
+      <c r="P181" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q181">
+        <v>2.5</v>
+      </c>
+      <c r="R181">
+        <v>2.2</v>
+      </c>
+      <c r="S181">
+        <v>4.5</v>
+      </c>
+      <c r="T181">
+        <v>1.4</v>
+      </c>
+      <c r="U181">
+        <v>2.75</v>
+      </c>
+      <c r="V181">
+        <v>3</v>
+      </c>
+      <c r="W181">
+        <v>1.36</v>
+      </c>
+      <c r="X181">
+        <v>8</v>
+      </c>
+      <c r="Y181">
+        <v>1.08</v>
+      </c>
+      <c r="Z181">
+        <v>1.85</v>
+      </c>
+      <c r="AA181">
+        <v>3.74</v>
+      </c>
+      <c r="AB181">
+        <v>4.4</v>
+      </c>
+      <c r="AC181">
+        <v>1.06</v>
+      </c>
+      <c r="AD181">
+        <v>8.5</v>
+      </c>
+      <c r="AE181">
+        <v>1.3</v>
+      </c>
+      <c r="AF181">
+        <v>3.4</v>
+      </c>
+      <c r="AG181">
+        <v>1.88</v>
+      </c>
+      <c r="AH181">
+        <v>1.87</v>
+      </c>
+      <c r="AI181">
+        <v>1.8</v>
+      </c>
+      <c r="AJ181">
+        <v>1.95</v>
+      </c>
+      <c r="AK181">
+        <v>1.2</v>
+      </c>
+      <c r="AL181">
+        <v>1.25</v>
+      </c>
+      <c r="AM181">
+        <v>1.95</v>
+      </c>
+      <c r="AN181">
+        <v>1.38</v>
+      </c>
+      <c r="AO181">
+        <v>1</v>
+      </c>
+      <c r="AP181">
+        <v>1.33</v>
+      </c>
+      <c r="AQ181">
+        <v>1</v>
+      </c>
+      <c r="AR181">
+        <v>1.41</v>
+      </c>
+      <c r="AS181">
+        <v>1.18</v>
+      </c>
+      <c r="AT181">
+        <v>2.59</v>
+      </c>
+      <c r="AU181">
+        <v>10</v>
+      </c>
+      <c r="AV181">
+        <v>5</v>
+      </c>
+      <c r="AW181">
+        <v>11</v>
+      </c>
+      <c r="AX181">
+        <v>1</v>
+      </c>
+      <c r="AY181">
+        <v>35</v>
+      </c>
+      <c r="AZ181">
+        <v>7</v>
+      </c>
+      <c r="BA181">
+        <v>11</v>
+      </c>
+      <c r="BB181">
+        <v>1</v>
+      </c>
+      <c r="BC181">
+        <v>12</v>
+      </c>
+      <c r="BD181">
+        <v>1.45</v>
+      </c>
+      <c r="BE181">
+        <v>6.4</v>
+      </c>
+      <c r="BF181">
+        <v>3.5</v>
+      </c>
+      <c r="BG181">
+        <v>1.25</v>
+      </c>
+      <c r="BH181">
+        <v>3.45</v>
+      </c>
+      <c r="BI181">
+        <v>1.5</v>
+      </c>
+      <c r="BJ181">
+        <v>2.35</v>
+      </c>
+      <c r="BK181">
+        <v>1.9</v>
+      </c>
+      <c r="BL181">
+        <v>1.78</v>
+      </c>
+      <c r="BM181">
+        <v>2.52</v>
+      </c>
+      <c r="BN181">
+        <v>1.45</v>
+      </c>
+      <c r="BO181">
+        <v>3.65</v>
+      </c>
+      <c r="BP181">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -38250,7 +38250,7 @@
         <v>2</v>
       </c>
       <c r="AY180">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ180">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="292">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,30 @@
     <t>['62', '78', '90+6']</t>
   </si>
   <si>
+    <t>['24', '33', '61']</t>
+  </si>
+  <si>
+    <t>['12', '24']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['90+16']</t>
+  </si>
+  <si>
+    <t>['34', '50', '83']</t>
+  </si>
+  <si>
+    <t>['63', '85']</t>
+  </si>
+  <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -823,9 +847,6 @@
     <t>['38', '80']</t>
   </si>
   <si>
-    <t>['41']</t>
-  </si>
-  <si>
     <t>['73']</t>
   </si>
   <si>
@@ -857,6 +878,18 @@
   </si>
   <si>
     <t>['18']</t>
+  </si>
+  <si>
+    <t>['45', '80']</t>
+  </si>
+  <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['16', '45', '88']</t>
+  </si>
+  <si>
+    <t>['4']</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP181"/>
+  <dimension ref="A1:BP191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1555,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ2">
         <v>1.2</v>
@@ -1683,7 +1716,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1764,7 +1797,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ3">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1889,7 +1922,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -1967,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ4">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2095,7 +2128,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2173,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ5">
         <v>1.5</v>
@@ -2301,7 +2334,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2382,7 +2415,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2507,7 +2540,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2585,7 +2618,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2791,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2919,7 +2952,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -2997,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ9">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3125,7 +3158,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3206,7 +3239,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ10">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3409,10 +3442,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ11">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3537,7 +3570,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3618,7 +3651,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3743,7 +3776,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -3821,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ13">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR13">
         <v>1.31</v>
@@ -3949,7 +3982,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4027,7 +4060,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4233,10 +4266,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR15">
         <v>1.84</v>
@@ -4442,7 +4475,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ16">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4567,7 +4600,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4645,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ17">
         <v>0.89</v>
@@ -4851,7 +4884,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ18">
         <v>1.2</v>
@@ -5185,7 +5218,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5472,7 +5505,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ21">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR21">
         <v>1.33</v>
@@ -5597,7 +5630,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5678,7 +5711,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ22">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR22">
         <v>1.6</v>
@@ -6009,7 +6042,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -6215,7 +6248,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q25">
         <v>3.24</v>
@@ -6499,7 +6532,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6627,7 +6660,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -6911,10 +6944,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ28">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR28">
         <v>2.15</v>
@@ -7117,10 +7150,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR29">
         <v>1.89</v>
@@ -7323,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -7532,7 +7565,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ31">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>0</v>
@@ -7735,10 +7768,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR32">
         <v>0.67</v>
@@ -7863,7 +7896,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7944,7 +7977,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR33">
         <v>1.54</v>
@@ -8147,7 +8180,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8275,7 +8308,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8356,7 +8389,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ35">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR35">
         <v>1.36</v>
@@ -8481,7 +8514,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -8559,7 +8592,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8765,10 +8798,10 @@
         <v>2</v>
       </c>
       <c r="AP37">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ37">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR37">
         <v>1.58</v>
@@ -8974,7 +9007,7 @@
         <v>2</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR38">
         <v>1.18</v>
@@ -9099,7 +9132,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9177,7 +9210,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39">
         <v>1.11</v>
@@ -9305,7 +9338,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9383,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ40">
         <v>0.5600000000000001</v>
@@ -9511,7 +9544,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9592,7 +9625,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR41">
         <v>1.16</v>
@@ -9717,7 +9750,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -9795,10 +9828,10 @@
         <v>0.5</v>
       </c>
       <c r="AP42">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR42">
         <v>1.75</v>
@@ -10004,7 +10037,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR43">
         <v>1.15</v>
@@ -10210,7 +10243,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ44">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>1.6</v>
@@ -10413,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ45">
         <v>0.89</v>
@@ -10541,7 +10574,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10953,7 +10986,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11031,7 +11064,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11159,7 +11192,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11240,7 +11273,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR49">
         <v>0.9399999999999999</v>
@@ -11365,7 +11398,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11443,7 +11476,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11571,7 +11604,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11777,7 +11810,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -11858,7 +11891,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ52">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR52">
         <v>1.42</v>
@@ -12061,10 +12094,10 @@
         <v>1.67</v>
       </c>
       <c r="AP53">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ53">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR53">
         <v>1.32</v>
@@ -12267,7 +12300,7 @@
         <v>0</v>
       </c>
       <c r="AP54">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
         <v>0.5600000000000001</v>
@@ -12395,7 +12428,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12473,7 +12506,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12679,10 +12712,10 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR56">
         <v>1.46</v>
@@ -12885,7 +12918,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13094,7 +13127,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ58">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR58">
         <v>1.74</v>
@@ -13219,7 +13252,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13297,10 +13330,10 @@
         <v>0.5</v>
       </c>
       <c r="AP59">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ59">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR59">
         <v>1.43</v>
@@ -13506,7 +13539,7 @@
         <v>2</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR60">
         <v>0.97</v>
@@ -13631,7 +13664,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13709,10 +13742,10 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ61">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR61">
         <v>1.42</v>
@@ -13837,7 +13870,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -14249,7 +14282,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q64">
         <v>2.9</v>
@@ -14661,7 +14694,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14739,10 +14772,10 @@
         <v>0.33</v>
       </c>
       <c r="AP66">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>1.61</v>
@@ -15073,7 +15106,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15360,7 +15393,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ69">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR69">
         <v>1.8</v>
@@ -15485,7 +15518,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15563,7 +15596,7 @@
         <v>1.5</v>
       </c>
       <c r="AP70">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ70">
         <v>1.2</v>
@@ -15691,7 +15724,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15769,10 +15802,10 @@
         <v>2</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ71">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR71">
         <v>1.89</v>
@@ -15897,7 +15930,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -15975,10 +16008,10 @@
         <v>1.25</v>
       </c>
       <c r="AP72">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ72">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR72">
         <v>0.97</v>
@@ -16103,7 +16136,7 @@
         <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16181,10 +16214,10 @@
         <v>0</v>
       </c>
       <c r="AP73">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ73">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR73">
         <v>1.51</v>
@@ -16309,7 +16342,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16390,7 +16423,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR74">
         <v>1.29</v>
@@ -16593,7 +16626,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ75">
         <v>1</v>
@@ -16721,7 +16754,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -16799,7 +16832,7 @@
         <v>0.33</v>
       </c>
       <c r="AP76">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ76">
         <v>0.5600000000000001</v>
@@ -16927,7 +16960,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17005,7 +17038,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17133,7 +17166,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17339,7 +17372,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17420,7 +17453,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR79">
         <v>1.53</v>
@@ -17545,7 +17578,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17626,7 +17659,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ80">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR80">
         <v>1.3</v>
@@ -17829,10 +17862,10 @@
         <v>0.33</v>
       </c>
       <c r="AP81">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -18038,7 +18071,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ82">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR82">
         <v>1.28</v>
@@ -18163,7 +18196,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18241,7 +18274,7 @@
         <v>1.33</v>
       </c>
       <c r="AP83">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ83">
         <v>1.56</v>
@@ -18369,7 +18402,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18781,7 +18814,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18987,7 +19020,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19065,10 +19098,10 @@
         <v>2</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ87">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR87">
         <v>1.8</v>
@@ -19193,7 +19226,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19274,7 +19307,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ88">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR88">
         <v>1.29</v>
@@ -19399,7 +19432,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19480,7 +19513,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.21</v>
@@ -19683,7 +19716,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ90">
         <v>0.89</v>
@@ -19811,7 +19844,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -19889,7 +19922,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ91">
         <v>1</v>
@@ -20095,10 +20128,10 @@
         <v>1.25</v>
       </c>
       <c r="AP92">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ92">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR92">
         <v>1.53</v>
@@ -20301,7 +20334,7 @@
         <v>1</v>
       </c>
       <c r="AP93">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ93">
         <v>1</v>
@@ -20507,10 +20540,10 @@
         <v>1.6</v>
       </c>
       <c r="AP94">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ94">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR94">
         <v>1.63</v>
@@ -20716,7 +20749,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ95">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR95">
         <v>1.55</v>
@@ -20919,7 +20952,7 @@
         <v>1</v>
       </c>
       <c r="AP96">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21128,7 +21161,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ97">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR97">
         <v>1.32</v>
@@ -21334,7 +21367,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR98">
         <v>1.24</v>
@@ -21743,7 +21776,7 @@
         <v>1.75</v>
       </c>
       <c r="AP100">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ100">
         <v>1.56</v>
@@ -21949,10 +21982,10 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ101">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR101">
         <v>1.13</v>
@@ -22158,7 +22191,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ102">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR102">
         <v>1.3</v>
@@ -22361,7 +22394,7 @@
         <v>1.4</v>
       </c>
       <c r="AP103">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ103">
         <v>1.5</v>
@@ -22489,7 +22522,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22570,7 +22603,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ104">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR104">
         <v>1.28</v>
@@ -22695,7 +22728,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -22776,7 +22809,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ105">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR105">
         <v>1.48</v>
@@ -22979,7 +23012,7 @@
         <v>0.75</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ106">
         <v>1.11</v>
@@ -23313,7 +23346,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Q108">
         <v>3.1</v>
@@ -23391,7 +23424,7 @@
         <v>0.75</v>
       </c>
       <c r="AP108">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ108">
         <v>0.89</v>
@@ -24009,10 +24042,10 @@
         <v>0.75</v>
       </c>
       <c r="AP111">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ111">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR111">
         <v>1.35</v>
@@ -24215,10 +24248,10 @@
         <v>0.6</v>
       </c>
       <c r="AP112">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ112">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR112">
         <v>1.57</v>
@@ -24343,7 +24376,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24630,7 +24663,7 @@
         <v>2</v>
       </c>
       <c r="AQ114">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR114">
         <v>1.23</v>
@@ -25039,7 +25072,7 @@
         <v>1.2</v>
       </c>
       <c r="AP116">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -25167,7 +25200,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25245,10 +25278,10 @@
         <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ117">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR117">
         <v>1.61</v>
@@ -25373,7 +25406,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25657,10 +25690,10 @@
         <v>1</v>
       </c>
       <c r="AP119">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ119">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR119">
         <v>1.61</v>
@@ -25785,7 +25818,7 @@
         <v>102</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25863,7 +25896,7 @@
         <v>0.8</v>
       </c>
       <c r="AP120">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26072,7 +26105,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ121">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR121">
         <v>1.35</v>
@@ -26197,7 +26230,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26275,7 +26308,7 @@
         <v>1.57</v>
       </c>
       <c r="AP122">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ122">
         <v>1.2</v>
@@ -26481,10 +26514,10 @@
         <v>2</v>
       </c>
       <c r="AP123">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ123">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR123">
         <v>1.52</v>
@@ -26687,7 +26720,7 @@
         <v>1.33</v>
       </c>
       <c r="AP124">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ124">
         <v>1</v>
@@ -26896,7 +26929,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ125">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR125">
         <v>1.55</v>
@@ -27021,7 +27054,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27099,7 +27132,7 @@
         <v>1.2</v>
       </c>
       <c r="AP126">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ126">
         <v>1.11</v>
@@ -27308,7 +27341,7 @@
         <v>2</v>
       </c>
       <c r="AQ127">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR127">
         <v>1.2</v>
@@ -27433,7 +27466,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27639,7 +27672,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -27845,7 +27878,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27923,10 +27956,10 @@
         <v>0.8</v>
       </c>
       <c r="AP130">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ130">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR130">
         <v>1.24</v>
@@ -28051,7 +28084,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28132,7 +28165,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ131">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR131">
         <v>1.62</v>
@@ -28257,7 +28290,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28335,10 +28368,10 @@
         <v>0.5</v>
       </c>
       <c r="AP132">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ132">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR132">
         <v>1.56</v>
@@ -28544,7 +28577,7 @@
         <v>2.44</v>
       </c>
       <c r="AQ133">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR133">
         <v>1.46</v>
@@ -29081,7 +29114,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29162,7 +29195,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ136">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR136">
         <v>1.26</v>
@@ -29287,7 +29320,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Q137">
         <v>2.6</v>
@@ -29365,7 +29398,7 @@
         <v>0.83</v>
       </c>
       <c r="AP137">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ137">
         <v>1</v>
@@ -29493,7 +29526,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29574,7 +29607,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR138">
         <v>1.4</v>
@@ -29777,7 +29810,7 @@
         <v>1</v>
       </c>
       <c r="AP139">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ139">
         <v>1</v>
@@ -30111,7 +30144,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30189,7 +30222,7 @@
         <v>1.14</v>
       </c>
       <c r="AP141">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ141">
         <v>1</v>
@@ -30317,7 +30350,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -30395,10 +30428,10 @@
         <v>2.14</v>
       </c>
       <c r="AP142">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ142">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR142">
         <v>1.2</v>
@@ -30523,7 +30556,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q143">
         <v>2.55</v>
@@ -30601,10 +30634,10 @@
         <v>0.83</v>
       </c>
       <c r="AP143">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ143">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR143">
         <v>1.37</v>
@@ -30729,7 +30762,7 @@
         <v>102</v>
       </c>
       <c r="P144" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q144">
         <v>3.95</v>
@@ -30807,10 +30840,10 @@
         <v>1.43</v>
       </c>
       <c r="AP144">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ144">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR144">
         <v>1.46</v>
@@ -31013,10 +31046,10 @@
         <v>1.5</v>
       </c>
       <c r="AP145">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ145">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR145">
         <v>1.73</v>
@@ -31141,7 +31174,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31222,7 +31255,7 @@
         <v>1</v>
       </c>
       <c r="AQ146">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR146">
         <v>1.34</v>
@@ -31428,7 +31461,7 @@
         <v>2</v>
       </c>
       <c r="AQ147">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR147">
         <v>1.21</v>
@@ -31631,7 +31664,7 @@
         <v>1.57</v>
       </c>
       <c r="AP148">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ148">
         <v>1.5</v>
@@ -31759,7 +31792,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q149">
         <v>2.63</v>
@@ -31837,7 +31870,7 @@
         <v>1.5</v>
       </c>
       <c r="AP149">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ149">
         <v>1.11</v>
@@ -31965,7 +31998,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32043,7 +32076,7 @@
         <v>0.83</v>
       </c>
       <c r="AP150">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ150">
         <v>0.5600000000000001</v>
@@ -32171,7 +32204,7 @@
         <v>185</v>
       </c>
       <c r="P151" t="s">
-        <v>269</v>
+        <v>208</v>
       </c>
       <c r="Q151">
         <v>2.75</v>
@@ -32252,7 +32285,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ151">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR151">
         <v>1.67</v>
@@ -32377,7 +32410,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="Q152">
         <v>2.95</v>
@@ -32995,7 +33028,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="Q155">
         <v>3.7</v>
@@ -33201,7 +33234,7 @@
         <v>174</v>
       </c>
       <c r="P156" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -33282,7 +33315,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ156">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR156">
         <v>1.49</v>
@@ -33407,7 +33440,7 @@
         <v>102</v>
       </c>
       <c r="P157" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33485,7 +33518,7 @@
         <v>0.71</v>
       </c>
       <c r="AP157">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AQ157">
         <v>0.89</v>
@@ -33819,7 +33852,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q159">
         <v>2.2</v>
@@ -34103,10 +34136,10 @@
         <v>1.13</v>
       </c>
       <c r="AP160">
-        <v>2.75</v>
+        <v>2.56</v>
       </c>
       <c r="AQ160">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR160">
         <v>1.62</v>
@@ -34231,7 +34264,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="Q161">
         <v>2.2</v>
@@ -34515,10 +34548,10 @@
         <v>1.43</v>
       </c>
       <c r="AP162">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ162">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR162">
         <v>1.37</v>
@@ -34643,7 +34676,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -34721,10 +34754,10 @@
         <v>0.38</v>
       </c>
       <c r="AP163">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AQ163">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR163">
         <v>1.43</v>
@@ -34927,10 +34960,10 @@
         <v>0.63</v>
       </c>
       <c r="AP164">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ164">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR164">
         <v>1.25</v>
@@ -35055,7 +35088,7 @@
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35133,10 +35166,10 @@
         <v>2.25</v>
       </c>
       <c r="AP165">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AQ165">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AR165">
         <v>1.36</v>
@@ -35339,7 +35372,7 @@
         <v>1.43</v>
       </c>
       <c r="AP166">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ166">
         <v>1.11</v>
@@ -35545,7 +35578,7 @@
         <v>1.38</v>
       </c>
       <c r="AP167">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ167">
         <v>1.5</v>
@@ -35673,7 +35706,7 @@
         <v>196</v>
       </c>
       <c r="P168" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -35751,10 +35784,10 @@
         <v>0.86</v>
       </c>
       <c r="AP168">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ168">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR168">
         <v>1.83</v>
@@ -35957,10 +35990,10 @@
         <v>0.5</v>
       </c>
       <c r="AP169">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ169">
-        <v>0.5600000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="AR169">
         <v>1.68</v>
@@ -36166,7 +36199,7 @@
         <v>1</v>
       </c>
       <c r="AQ170">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR170">
         <v>1.38</v>
@@ -36291,7 +36324,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36372,7 +36405,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ171">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR171">
         <v>1.73</v>
@@ -37733,7 +37766,7 @@
         <v>201</v>
       </c>
       <c r="P178" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q178">
         <v>3.1</v>
@@ -37939,7 +37972,7 @@
         <v>102</v>
       </c>
       <c r="P179" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="Q179">
         <v>3.55</v>
@@ -38508,6 +38541,2066 @@
       </c>
       <c r="BP181">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7509762</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45652.35416666666</v>
+      </c>
+      <c r="F182">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s">
+        <v>73</v>
+      </c>
+      <c r="H182" t="s">
+        <v>84</v>
+      </c>
+      <c r="I182">
+        <v>2</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>2</v>
+      </c>
+      <c r="L182">
+        <v>3</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>4</v>
+      </c>
+      <c r="O182" t="s">
+        <v>202</v>
+      </c>
+      <c r="P182" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q182">
+        <v>3.25</v>
+      </c>
+      <c r="R182">
+        <v>2.1</v>
+      </c>
+      <c r="S182">
+        <v>3.4</v>
+      </c>
+      <c r="T182">
+        <v>1.4</v>
+      </c>
+      <c r="U182">
+        <v>2.75</v>
+      </c>
+      <c r="V182">
+        <v>3</v>
+      </c>
+      <c r="W182">
+        <v>1.36</v>
+      </c>
+      <c r="X182">
+        <v>8</v>
+      </c>
+      <c r="Y182">
+        <v>1.08</v>
+      </c>
+      <c r="Z182">
+        <v>2.85</v>
+      </c>
+      <c r="AA182">
+        <v>3.3</v>
+      </c>
+      <c r="AB182">
+        <v>2.4</v>
+      </c>
+      <c r="AC182">
+        <v>1.06</v>
+      </c>
+      <c r="AD182">
+        <v>8.5</v>
+      </c>
+      <c r="AE182">
+        <v>1.33</v>
+      </c>
+      <c r="AF182">
+        <v>3.3</v>
+      </c>
+      <c r="AG182">
+        <v>1.95</v>
+      </c>
+      <c r="AH182">
+        <v>1.8</v>
+      </c>
+      <c r="AI182">
+        <v>1.7</v>
+      </c>
+      <c r="AJ182">
+        <v>2.05</v>
+      </c>
+      <c r="AK182">
+        <v>1.44</v>
+      </c>
+      <c r="AL182">
+        <v>1.3</v>
+      </c>
+      <c r="AM182">
+        <v>1.48</v>
+      </c>
+      <c r="AN182">
+        <v>2.33</v>
+      </c>
+      <c r="AO182">
+        <v>2.33</v>
+      </c>
+      <c r="AP182">
+        <v>2.4</v>
+      </c>
+      <c r="AQ182">
+        <v>2.1</v>
+      </c>
+      <c r="AR182">
+        <v>1.39</v>
+      </c>
+      <c r="AS182">
+        <v>1.42</v>
+      </c>
+      <c r="AT182">
+        <v>2.81</v>
+      </c>
+      <c r="AU182">
+        <v>4</v>
+      </c>
+      <c r="AV182">
+        <v>5</v>
+      </c>
+      <c r="AW182">
+        <v>5</v>
+      </c>
+      <c r="AX182">
+        <v>9</v>
+      </c>
+      <c r="AY182">
+        <v>12</v>
+      </c>
+      <c r="AZ182">
+        <v>17</v>
+      </c>
+      <c r="BA182">
+        <v>1</v>
+      </c>
+      <c r="BB182">
+        <v>2</v>
+      </c>
+      <c r="BC182">
+        <v>3</v>
+      </c>
+      <c r="BD182">
+        <v>2.08</v>
+      </c>
+      <c r="BE182">
+        <v>6.25</v>
+      </c>
+      <c r="BF182">
+        <v>1.93</v>
+      </c>
+      <c r="BG182">
+        <v>1.41</v>
+      </c>
+      <c r="BH182">
+        <v>2.65</v>
+      </c>
+      <c r="BI182">
+        <v>1.7</v>
+      </c>
+      <c r="BJ182">
+        <v>2.02</v>
+      </c>
+      <c r="BK182">
+        <v>1.98</v>
+      </c>
+      <c r="BL182">
+        <v>1.82</v>
+      </c>
+      <c r="BM182">
+        <v>2.7</v>
+      </c>
+      <c r="BN182">
+        <v>1.4</v>
+      </c>
+      <c r="BO182">
+        <v>3.55</v>
+      </c>
+      <c r="BP182">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7509763</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45652.45833333334</v>
+      </c>
+      <c r="F183">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s">
+        <v>77</v>
+      </c>
+      <c r="H183" t="s">
+        <v>88</v>
+      </c>
+      <c r="I183">
+        <v>2</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>2</v>
+      </c>
+      <c r="L183">
+        <v>2</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>3</v>
+      </c>
+      <c r="O183" t="s">
+        <v>203</v>
+      </c>
+      <c r="P183" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q183">
+        <v>3.4</v>
+      </c>
+      <c r="R183">
+        <v>1.95</v>
+      </c>
+      <c r="S183">
+        <v>3.6</v>
+      </c>
+      <c r="T183">
+        <v>1.53</v>
+      </c>
+      <c r="U183">
+        <v>2.38</v>
+      </c>
+      <c r="V183">
+        <v>3.5</v>
+      </c>
+      <c r="W183">
+        <v>1.29</v>
+      </c>
+      <c r="X183">
+        <v>11</v>
+      </c>
+      <c r="Y183">
+        <v>1.05</v>
+      </c>
+      <c r="Z183">
+        <v>2.4</v>
+      </c>
+      <c r="AA183">
+        <v>2.85</v>
+      </c>
+      <c r="AB183">
+        <v>2.8</v>
+      </c>
+      <c r="AC183">
+        <v>1.1</v>
+      </c>
+      <c r="AD183">
+        <v>6.5</v>
+      </c>
+      <c r="AE183">
+        <v>1.45</v>
+      </c>
+      <c r="AF183">
+        <v>2.7</v>
+      </c>
+      <c r="AG183">
+        <v>2.35</v>
+      </c>
+      <c r="AH183">
+        <v>1.53</v>
+      </c>
+      <c r="AI183">
+        <v>1.95</v>
+      </c>
+      <c r="AJ183">
+        <v>1.8</v>
+      </c>
+      <c r="AK183">
+        <v>1.4</v>
+      </c>
+      <c r="AL183">
+        <v>1.33</v>
+      </c>
+      <c r="AM183">
+        <v>1.48</v>
+      </c>
+      <c r="AN183">
+        <v>1</v>
+      </c>
+      <c r="AO183">
+        <v>1.56</v>
+      </c>
+      <c r="AP183">
+        <v>1.2</v>
+      </c>
+      <c r="AQ183">
+        <v>1.4</v>
+      </c>
+      <c r="AR183">
+        <v>1.3</v>
+      </c>
+      <c r="AS183">
+        <v>1.07</v>
+      </c>
+      <c r="AT183">
+        <v>2.37</v>
+      </c>
+      <c r="AU183">
+        <v>10</v>
+      </c>
+      <c r="AV183">
+        <v>5</v>
+      </c>
+      <c r="AW183">
+        <v>6</v>
+      </c>
+      <c r="AX183">
+        <v>6</v>
+      </c>
+      <c r="AY183">
+        <v>19</v>
+      </c>
+      <c r="AZ183">
+        <v>13</v>
+      </c>
+      <c r="BA183">
+        <v>7</v>
+      </c>
+      <c r="BB183">
+        <v>2</v>
+      </c>
+      <c r="BC183">
+        <v>9</v>
+      </c>
+      <c r="BD183">
+        <v>1.91</v>
+      </c>
+      <c r="BE183">
+        <v>6.25</v>
+      </c>
+      <c r="BF183">
+        <v>2.1</v>
+      </c>
+      <c r="BG183">
+        <v>1.53</v>
+      </c>
+      <c r="BH183">
+        <v>2.3</v>
+      </c>
+      <c r="BI183">
+        <v>1.9</v>
+      </c>
+      <c r="BJ183">
+        <v>1.79</v>
+      </c>
+      <c r="BK183">
+        <v>2.43</v>
+      </c>
+      <c r="BL183">
+        <v>1.48</v>
+      </c>
+      <c r="BM183">
+        <v>3.2</v>
+      </c>
+      <c r="BN183">
+        <v>1.29</v>
+      </c>
+      <c r="BO183">
+        <v>4.35</v>
+      </c>
+      <c r="BP183">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7509765</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45652.45833333334</v>
+      </c>
+      <c r="F184">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s">
+        <v>83</v>
+      </c>
+      <c r="H184" t="s">
+        <v>85</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+      <c r="M184">
+        <v>1</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>91</v>
+      </c>
+      <c r="P184" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q184">
+        <v>2.3</v>
+      </c>
+      <c r="R184">
+        <v>2.2</v>
+      </c>
+      <c r="S184">
+        <v>5.5</v>
+      </c>
+      <c r="T184">
+        <v>1.44</v>
+      </c>
+      <c r="U184">
+        <v>2.63</v>
+      </c>
+      <c r="V184">
+        <v>3</v>
+      </c>
+      <c r="W184">
+        <v>1.36</v>
+      </c>
+      <c r="X184">
+        <v>9</v>
+      </c>
+      <c r="Y184">
+        <v>1.07</v>
+      </c>
+      <c r="Z184">
+        <v>1.55</v>
+      </c>
+      <c r="AA184">
+        <v>3.65</v>
+      </c>
+      <c r="AB184">
+        <v>5</v>
+      </c>
+      <c r="AC184">
+        <v>1.06</v>
+      </c>
+      <c r="AD184">
+        <v>8.5</v>
+      </c>
+      <c r="AE184">
+        <v>1.33</v>
+      </c>
+      <c r="AF184">
+        <v>3.2</v>
+      </c>
+      <c r="AG184">
+        <v>1.9</v>
+      </c>
+      <c r="AH184">
+        <v>1.8</v>
+      </c>
+      <c r="AI184">
+        <v>1.95</v>
+      </c>
+      <c r="AJ184">
+        <v>1.8</v>
+      </c>
+      <c r="AK184">
+        <v>1.15</v>
+      </c>
+      <c r="AL184">
+        <v>1.22</v>
+      </c>
+      <c r="AM184">
+        <v>2.15</v>
+      </c>
+      <c r="AN184">
+        <v>2.75</v>
+      </c>
+      <c r="AO184">
+        <v>0.44</v>
+      </c>
+      <c r="AP184">
+        <v>2.56</v>
+      </c>
+      <c r="AQ184">
+        <v>0.5</v>
+      </c>
+      <c r="AR184">
+        <v>1.68</v>
+      </c>
+      <c r="AS184">
+        <v>1.11</v>
+      </c>
+      <c r="AT184">
+        <v>2.79</v>
+      </c>
+      <c r="AU184">
+        <v>6</v>
+      </c>
+      <c r="AV184">
+        <v>3</v>
+      </c>
+      <c r="AW184">
+        <v>12</v>
+      </c>
+      <c r="AX184">
+        <v>3</v>
+      </c>
+      <c r="AY184">
+        <v>27</v>
+      </c>
+      <c r="AZ184">
+        <v>7</v>
+      </c>
+      <c r="BA184">
+        <v>8</v>
+      </c>
+      <c r="BB184">
+        <v>3</v>
+      </c>
+      <c r="BC184">
+        <v>11</v>
+      </c>
+      <c r="BD184">
+        <v>1.5</v>
+      </c>
+      <c r="BE184">
+        <v>6.75</v>
+      </c>
+      <c r="BF184">
+        <v>2.9</v>
+      </c>
+      <c r="BG184">
+        <v>1.43</v>
+      </c>
+      <c r="BH184">
+        <v>2.55</v>
+      </c>
+      <c r="BI184">
+        <v>1.73</v>
+      </c>
+      <c r="BJ184">
+        <v>1.98</v>
+      </c>
+      <c r="BK184">
+        <v>2.17</v>
+      </c>
+      <c r="BL184">
+        <v>1.6</v>
+      </c>
+      <c r="BM184">
+        <v>2.8</v>
+      </c>
+      <c r="BN184">
+        <v>1.38</v>
+      </c>
+      <c r="BO184">
+        <v>3.65</v>
+      </c>
+      <c r="BP184">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7509766</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45652.45833333334</v>
+      </c>
+      <c r="F185">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s">
+        <v>72</v>
+      </c>
+      <c r="H185" t="s">
+        <v>87</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>2</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+      <c r="M185">
+        <v>2</v>
+      </c>
+      <c r="N185">
+        <v>3</v>
+      </c>
+      <c r="O185" t="s">
+        <v>204</v>
+      </c>
+      <c r="P185" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q185">
+        <v>3.1</v>
+      </c>
+      <c r="R185">
+        <v>1.95</v>
+      </c>
+      <c r="S185">
+        <v>4</v>
+      </c>
+      <c r="T185">
+        <v>1.53</v>
+      </c>
+      <c r="U185">
+        <v>2.38</v>
+      </c>
+      <c r="V185">
+        <v>3.75</v>
+      </c>
+      <c r="W185">
+        <v>1.25</v>
+      </c>
+      <c r="X185">
+        <v>11</v>
+      </c>
+      <c r="Y185">
+        <v>1.05</v>
+      </c>
+      <c r="Z185">
+        <v>2.1</v>
+      </c>
+      <c r="AA185">
+        <v>2.8</v>
+      </c>
+      <c r="AB185">
+        <v>3.4</v>
+      </c>
+      <c r="AC185">
+        <v>1.1</v>
+      </c>
+      <c r="AD185">
+        <v>6.5</v>
+      </c>
+      <c r="AE185">
+        <v>1.53</v>
+      </c>
+      <c r="AF185">
+        <v>2.38</v>
+      </c>
+      <c r="AG185">
+        <v>2.55</v>
+      </c>
+      <c r="AH185">
+        <v>1.45</v>
+      </c>
+      <c r="AI185">
+        <v>2.05</v>
+      </c>
+      <c r="AJ185">
+        <v>1.7</v>
+      </c>
+      <c r="AK185">
+        <v>1.3</v>
+      </c>
+      <c r="AL185">
+        <v>1.33</v>
+      </c>
+      <c r="AM185">
+        <v>1.62</v>
+      </c>
+      <c r="AN185">
+        <v>0.89</v>
+      </c>
+      <c r="AO185">
+        <v>1</v>
+      </c>
+      <c r="AP185">
+        <v>0.8</v>
+      </c>
+      <c r="AQ185">
+        <v>1.2</v>
+      </c>
+      <c r="AR185">
+        <v>1.43</v>
+      </c>
+      <c r="AS185">
+        <v>1.19</v>
+      </c>
+      <c r="AT185">
+        <v>2.62</v>
+      </c>
+      <c r="AU185">
+        <v>3</v>
+      </c>
+      <c r="AV185">
+        <v>7</v>
+      </c>
+      <c r="AW185">
+        <v>5</v>
+      </c>
+      <c r="AX185">
+        <v>3</v>
+      </c>
+      <c r="AY185">
+        <v>12</v>
+      </c>
+      <c r="AZ185">
+        <v>18</v>
+      </c>
+      <c r="BA185">
+        <v>4</v>
+      </c>
+      <c r="BB185">
+        <v>8</v>
+      </c>
+      <c r="BC185">
+        <v>12</v>
+      </c>
+      <c r="BD185">
+        <v>1.72</v>
+      </c>
+      <c r="BE185">
+        <v>6.25</v>
+      </c>
+      <c r="BF185">
+        <v>2.4</v>
+      </c>
+      <c r="BG185">
+        <v>1.56</v>
+      </c>
+      <c r="BH185">
+        <v>2.23</v>
+      </c>
+      <c r="BI185">
+        <v>1.96</v>
+      </c>
+      <c r="BJ185">
+        <v>1.74</v>
+      </c>
+      <c r="BK185">
+        <v>2.5</v>
+      </c>
+      <c r="BL185">
+        <v>1.46</v>
+      </c>
+      <c r="BM185">
+        <v>3.3</v>
+      </c>
+      <c r="BN185">
+        <v>1.27</v>
+      </c>
+      <c r="BO185">
+        <v>4.4</v>
+      </c>
+      <c r="BP185">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7509759</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45652.45833333334</v>
+      </c>
+      <c r="F186">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s">
+        <v>79</v>
+      </c>
+      <c r="H186" t="s">
+        <v>78</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>0</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>1</v>
+      </c>
+      <c r="N186">
+        <v>2</v>
+      </c>
+      <c r="O186" t="s">
+        <v>205</v>
+      </c>
+      <c r="P186" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q186">
+        <v>3.2</v>
+      </c>
+      <c r="R186">
+        <v>2</v>
+      </c>
+      <c r="S186">
+        <v>3.75</v>
+      </c>
+      <c r="T186">
+        <v>1.53</v>
+      </c>
+      <c r="U186">
+        <v>2.38</v>
+      </c>
+      <c r="V186">
+        <v>3.5</v>
+      </c>
+      <c r="W186">
+        <v>1.29</v>
+      </c>
+      <c r="X186">
+        <v>11</v>
+      </c>
+      <c r="Y186">
+        <v>1.05</v>
+      </c>
+      <c r="Z186">
+        <v>2.2</v>
+      </c>
+      <c r="AA186">
+        <v>3</v>
+      </c>
+      <c r="AB186">
+        <v>3.05</v>
+      </c>
+      <c r="AC186">
+        <v>1.09</v>
+      </c>
+      <c r="AD186">
+        <v>7</v>
+      </c>
+      <c r="AE186">
+        <v>1.45</v>
+      </c>
+      <c r="AF186">
+        <v>2.7</v>
+      </c>
+      <c r="AG186">
+        <v>2.2</v>
+      </c>
+      <c r="AH186">
+        <v>1.6</v>
+      </c>
+      <c r="AI186">
+        <v>1.95</v>
+      </c>
+      <c r="AJ186">
+        <v>1.8</v>
+      </c>
+      <c r="AK186">
+        <v>1.38</v>
+      </c>
+      <c r="AL186">
+        <v>1.33</v>
+      </c>
+      <c r="AM186">
+        <v>1.5</v>
+      </c>
+      <c r="AN186">
+        <v>1.11</v>
+      </c>
+      <c r="AO186">
+        <v>1.13</v>
+      </c>
+      <c r="AP186">
+        <v>1.1</v>
+      </c>
+      <c r="AQ186">
+        <v>1.11</v>
+      </c>
+      <c r="AR186">
+        <v>1.56</v>
+      </c>
+      <c r="AS186">
+        <v>1.18</v>
+      </c>
+      <c r="AT186">
+        <v>2.74</v>
+      </c>
+      <c r="AU186">
+        <v>7</v>
+      </c>
+      <c r="AV186">
+        <v>5</v>
+      </c>
+      <c r="AW186">
+        <v>6</v>
+      </c>
+      <c r="AX186">
+        <v>6</v>
+      </c>
+      <c r="AY186">
+        <v>16</v>
+      </c>
+      <c r="AZ186">
+        <v>23</v>
+      </c>
+      <c r="BA186">
+        <v>1</v>
+      </c>
+      <c r="BB186">
+        <v>8</v>
+      </c>
+      <c r="BC186">
+        <v>9</v>
+      </c>
+      <c r="BD186">
+        <v>1.81</v>
+      </c>
+      <c r="BE186">
+        <v>6.4</v>
+      </c>
+      <c r="BF186">
+        <v>2.23</v>
+      </c>
+      <c r="BG186">
+        <v>1.46</v>
+      </c>
+      <c r="BH186">
+        <v>2.5</v>
+      </c>
+      <c r="BI186">
+        <v>1.75</v>
+      </c>
+      <c r="BJ186">
+        <v>1.95</v>
+      </c>
+      <c r="BK186">
+        <v>2</v>
+      </c>
+      <c r="BL186">
+        <v>1.8</v>
+      </c>
+      <c r="BM186">
+        <v>2.88</v>
+      </c>
+      <c r="BN186">
+        <v>1.35</v>
+      </c>
+      <c r="BO186">
+        <v>3.8</v>
+      </c>
+      <c r="BP186">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7509758</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45652.45833333334</v>
+      </c>
+      <c r="F187">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s">
+        <v>76</v>
+      </c>
+      <c r="H187" t="s">
+        <v>82</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>1</v>
+      </c>
+      <c r="N187">
+        <v>1</v>
+      </c>
+      <c r="O187" t="s">
+        <v>102</v>
+      </c>
+      <c r="P187" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q187">
+        <v>3.25</v>
+      </c>
+      <c r="R187">
+        <v>2</v>
+      </c>
+      <c r="S187">
+        <v>3.75</v>
+      </c>
+      <c r="T187">
+        <v>1.5</v>
+      </c>
+      <c r="U187">
+        <v>2.5</v>
+      </c>
+      <c r="V187">
+        <v>3.5</v>
+      </c>
+      <c r="W187">
+        <v>1.29</v>
+      </c>
+      <c r="X187">
+        <v>10</v>
+      </c>
+      <c r="Y187">
+        <v>1.06</v>
+      </c>
+      <c r="Z187">
+        <v>2.45</v>
+      </c>
+      <c r="AA187">
+        <v>2.85</v>
+      </c>
+      <c r="AB187">
+        <v>2.75</v>
+      </c>
+      <c r="AC187">
+        <v>1.09</v>
+      </c>
+      <c r="AD187">
+        <v>7</v>
+      </c>
+      <c r="AE187">
+        <v>1.42</v>
+      </c>
+      <c r="AF187">
+        <v>2.8</v>
+      </c>
+      <c r="AG187">
+        <v>2.15</v>
+      </c>
+      <c r="AH187">
+        <v>1.62</v>
+      </c>
+      <c r="AI187">
+        <v>1.95</v>
+      </c>
+      <c r="AJ187">
+        <v>1.8</v>
+      </c>
+      <c r="AK187">
+        <v>1.38</v>
+      </c>
+      <c r="AL187">
+        <v>1.3</v>
+      </c>
+      <c r="AM187">
+        <v>1.5</v>
+      </c>
+      <c r="AN187">
+        <v>2.22</v>
+      </c>
+      <c r="AO187">
+        <v>1.56</v>
+      </c>
+      <c r="AP187">
+        <v>2</v>
+      </c>
+      <c r="AQ187">
+        <v>1.7</v>
+      </c>
+      <c r="AR187">
+        <v>1.56</v>
+      </c>
+      <c r="AS187">
+        <v>1.41</v>
+      </c>
+      <c r="AT187">
+        <v>2.97</v>
+      </c>
+      <c r="AU187">
+        <v>4</v>
+      </c>
+      <c r="AV187">
+        <v>2</v>
+      </c>
+      <c r="AW187">
+        <v>5</v>
+      </c>
+      <c r="AX187">
+        <v>5</v>
+      </c>
+      <c r="AY187">
+        <v>12</v>
+      </c>
+      <c r="AZ187">
+        <v>9</v>
+      </c>
+      <c r="BA187">
+        <v>5</v>
+      </c>
+      <c r="BB187">
+        <v>4</v>
+      </c>
+      <c r="BC187">
+        <v>9</v>
+      </c>
+      <c r="BD187">
+        <v>1.86</v>
+      </c>
+      <c r="BE187">
+        <v>6.25</v>
+      </c>
+      <c r="BF187">
+        <v>2.15</v>
+      </c>
+      <c r="BG187">
+        <v>1.45</v>
+      </c>
+      <c r="BH187">
+        <v>2.55</v>
+      </c>
+      <c r="BI187">
+        <v>1.74</v>
+      </c>
+      <c r="BJ187">
+        <v>1.96</v>
+      </c>
+      <c r="BK187">
+        <v>2</v>
+      </c>
+      <c r="BL187">
+        <v>1.8</v>
+      </c>
+      <c r="BM187">
+        <v>2.8</v>
+      </c>
+      <c r="BN187">
+        <v>1.36</v>
+      </c>
+      <c r="BO187">
+        <v>3.8</v>
+      </c>
+      <c r="BP187">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7509757</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45652.45833333334</v>
+      </c>
+      <c r="F188">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s">
+        <v>70</v>
+      </c>
+      <c r="H188" t="s">
+        <v>80</v>
+      </c>
+      <c r="I188">
+        <v>1</v>
+      </c>
+      <c r="J188">
+        <v>2</v>
+      </c>
+      <c r="K188">
+        <v>3</v>
+      </c>
+      <c r="L188">
+        <v>3</v>
+      </c>
+      <c r="M188">
+        <v>3</v>
+      </c>
+      <c r="N188">
+        <v>6</v>
+      </c>
+      <c r="O188" t="s">
+        <v>206</v>
+      </c>
+      <c r="P188" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q188">
+        <v>3.25</v>
+      </c>
+      <c r="R188">
+        <v>1.95</v>
+      </c>
+      <c r="S188">
+        <v>3.75</v>
+      </c>
+      <c r="T188">
+        <v>1.53</v>
+      </c>
+      <c r="U188">
+        <v>2.38</v>
+      </c>
+      <c r="V188">
+        <v>3.75</v>
+      </c>
+      <c r="W188">
+        <v>1.25</v>
+      </c>
+      <c r="X188">
+        <v>11</v>
+      </c>
+      <c r="Y188">
+        <v>1.05</v>
+      </c>
+      <c r="Z188">
+        <v>2.4</v>
+      </c>
+      <c r="AA188">
+        <v>2.85</v>
+      </c>
+      <c r="AB188">
+        <v>2.85</v>
+      </c>
+      <c r="AC188">
+        <v>1.1</v>
+      </c>
+      <c r="AD188">
+        <v>6.5</v>
+      </c>
+      <c r="AE188">
+        <v>1.48</v>
+      </c>
+      <c r="AF188">
+        <v>2.62</v>
+      </c>
+      <c r="AG188">
+        <v>2.3</v>
+      </c>
+      <c r="AH188">
+        <v>1.55</v>
+      </c>
+      <c r="AI188">
+        <v>2</v>
+      </c>
+      <c r="AJ188">
+        <v>1.75</v>
+      </c>
+      <c r="AK188">
+        <v>1.36</v>
+      </c>
+      <c r="AL188">
+        <v>1.35</v>
+      </c>
+      <c r="AM188">
+        <v>1.5</v>
+      </c>
+      <c r="AN188">
+        <v>1.33</v>
+      </c>
+      <c r="AO188">
+        <v>0.89</v>
+      </c>
+      <c r="AP188">
+        <v>1.3</v>
+      </c>
+      <c r="AQ188">
+        <v>0.9</v>
+      </c>
+      <c r="AR188">
+        <v>1.56</v>
+      </c>
+      <c r="AS188">
+        <v>1.08</v>
+      </c>
+      <c r="AT188">
+        <v>2.64</v>
+      </c>
+      <c r="AU188">
+        <v>7</v>
+      </c>
+      <c r="AV188">
+        <v>10</v>
+      </c>
+      <c r="AW188">
+        <v>5</v>
+      </c>
+      <c r="AX188">
+        <v>3</v>
+      </c>
+      <c r="AY188">
+        <v>17</v>
+      </c>
+      <c r="AZ188">
+        <v>18</v>
+      </c>
+      <c r="BA188">
+        <v>5</v>
+      </c>
+      <c r="BB188">
+        <v>4</v>
+      </c>
+      <c r="BC188">
+        <v>9</v>
+      </c>
+      <c r="BD188">
+        <v>1.93</v>
+      </c>
+      <c r="BE188">
+        <v>6.1</v>
+      </c>
+      <c r="BF188">
+        <v>2.1</v>
+      </c>
+      <c r="BG188">
+        <v>1.54</v>
+      </c>
+      <c r="BH188">
+        <v>2.3</v>
+      </c>
+      <c r="BI188">
+        <v>1.92</v>
+      </c>
+      <c r="BJ188">
+        <v>1.77</v>
+      </c>
+      <c r="BK188">
+        <v>2.48</v>
+      </c>
+      <c r="BL188">
+        <v>1.47</v>
+      </c>
+      <c r="BM188">
+        <v>3.3</v>
+      </c>
+      <c r="BN188">
+        <v>1.28</v>
+      </c>
+      <c r="BO188">
+        <v>4.4</v>
+      </c>
+      <c r="BP188">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7509760</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45652.45833333334</v>
+      </c>
+      <c r="F189">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s">
+        <v>75</v>
+      </c>
+      <c r="H189" t="s">
+        <v>74</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>0</v>
+      </c>
+      <c r="L189">
+        <v>2</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>2</v>
+      </c>
+      <c r="O189" t="s">
+        <v>207</v>
+      </c>
+      <c r="P189" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q189">
+        <v>3.2</v>
+      </c>
+      <c r="R189">
+        <v>2.05</v>
+      </c>
+      <c r="S189">
+        <v>3.6</v>
+      </c>
+      <c r="T189">
+        <v>1.44</v>
+      </c>
+      <c r="U189">
+        <v>2.63</v>
+      </c>
+      <c r="V189">
+        <v>3.25</v>
+      </c>
+      <c r="W189">
+        <v>1.33</v>
+      </c>
+      <c r="X189">
+        <v>9</v>
+      </c>
+      <c r="Y189">
+        <v>1.07</v>
+      </c>
+      <c r="Z189">
+        <v>2.2</v>
+      </c>
+      <c r="AA189">
+        <v>2.95</v>
+      </c>
+      <c r="AB189">
+        <v>3</v>
+      </c>
+      <c r="AC189">
+        <v>1.07</v>
+      </c>
+      <c r="AD189">
+        <v>8</v>
+      </c>
+      <c r="AE189">
+        <v>1.38</v>
+      </c>
+      <c r="AF189">
+        <v>3</v>
+      </c>
+      <c r="AG189">
+        <v>2.15</v>
+      </c>
+      <c r="AH189">
+        <v>1.62</v>
+      </c>
+      <c r="AI189">
+        <v>1.8</v>
+      </c>
+      <c r="AJ189">
+        <v>1.95</v>
+      </c>
+      <c r="AK189">
+        <v>1.4</v>
+      </c>
+      <c r="AL189">
+        <v>1.3</v>
+      </c>
+      <c r="AM189">
+        <v>1.5</v>
+      </c>
+      <c r="AN189">
+        <v>0.89</v>
+      </c>
+      <c r="AO189">
+        <v>0.75</v>
+      </c>
+      <c r="AP189">
+        <v>1.1</v>
+      </c>
+      <c r="AQ189">
+        <v>0.67</v>
+      </c>
+      <c r="AR189">
+        <v>1.33</v>
+      </c>
+      <c r="AS189">
+        <v>1.11</v>
+      </c>
+      <c r="AT189">
+        <v>2.44</v>
+      </c>
+      <c r="AU189">
+        <v>10</v>
+      </c>
+      <c r="AV189">
+        <v>2</v>
+      </c>
+      <c r="AW189">
+        <v>8</v>
+      </c>
+      <c r="AX189">
+        <v>2</v>
+      </c>
+      <c r="AY189">
+        <v>20</v>
+      </c>
+      <c r="AZ189">
+        <v>6</v>
+      </c>
+      <c r="BA189">
+        <v>5</v>
+      </c>
+      <c r="BB189">
+        <v>1</v>
+      </c>
+      <c r="BC189">
+        <v>6</v>
+      </c>
+      <c r="BD189">
+        <v>1.79</v>
+      </c>
+      <c r="BE189">
+        <v>6.25</v>
+      </c>
+      <c r="BF189">
+        <v>2.23</v>
+      </c>
+      <c r="BG189">
+        <v>1.47</v>
+      </c>
+      <c r="BH189">
+        <v>2.48</v>
+      </c>
+      <c r="BI189">
+        <v>1.78</v>
+      </c>
+      <c r="BJ189">
+        <v>1.91</v>
+      </c>
+      <c r="BK189">
+        <v>1.9</v>
+      </c>
+      <c r="BL189">
+        <v>1.9</v>
+      </c>
+      <c r="BM189">
+        <v>2.9</v>
+      </c>
+      <c r="BN189">
+        <v>1.34</v>
+      </c>
+      <c r="BO189">
+        <v>3.9</v>
+      </c>
+      <c r="BP189">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7509761</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45652.58333333334</v>
+      </c>
+      <c r="F190">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s">
+        <v>89</v>
+      </c>
+      <c r="H190" t="s">
+        <v>71</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190">
+        <v>0</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>1</v>
+      </c>
+      <c r="O190" t="s">
+        <v>208</v>
+      </c>
+      <c r="P190" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q190">
+        <v>2.63</v>
+      </c>
+      <c r="R190">
+        <v>2.1</v>
+      </c>
+      <c r="S190">
+        <v>4.5</v>
+      </c>
+      <c r="T190">
+        <v>1.44</v>
+      </c>
+      <c r="U190">
+        <v>2.63</v>
+      </c>
+      <c r="V190">
+        <v>3.25</v>
+      </c>
+      <c r="W190">
+        <v>1.33</v>
+      </c>
+      <c r="X190">
+        <v>9</v>
+      </c>
+      <c r="Y190">
+        <v>1.07</v>
+      </c>
+      <c r="Z190">
+        <v>1.85</v>
+      </c>
+      <c r="AA190">
+        <v>3.2</v>
+      </c>
+      <c r="AB190">
+        <v>3.75</v>
+      </c>
+      <c r="AC190">
+        <v>1.07</v>
+      </c>
+      <c r="AD190">
+        <v>8</v>
+      </c>
+      <c r="AE190">
+        <v>1.36</v>
+      </c>
+      <c r="AF190">
+        <v>3.1</v>
+      </c>
+      <c r="AG190">
+        <v>1.95</v>
+      </c>
+      <c r="AH190">
+        <v>1.75</v>
+      </c>
+      <c r="AI190">
+        <v>1.91</v>
+      </c>
+      <c r="AJ190">
+        <v>1.91</v>
+      </c>
+      <c r="AK190">
+        <v>1.22</v>
+      </c>
+      <c r="AL190">
+        <v>1.25</v>
+      </c>
+      <c r="AM190">
+        <v>1.83</v>
+      </c>
+      <c r="AN190">
+        <v>1.13</v>
+      </c>
+      <c r="AO190">
+        <v>1.25</v>
+      </c>
+      <c r="AP190">
+        <v>1.33</v>
+      </c>
+      <c r="AQ190">
+        <v>1.11</v>
+      </c>
+      <c r="AR190">
+        <v>1.89</v>
+      </c>
+      <c r="AS190">
+        <v>1.21</v>
+      </c>
+      <c r="AT190">
+        <v>3.1</v>
+      </c>
+      <c r="AU190">
+        <v>7</v>
+      </c>
+      <c r="AV190">
+        <v>7</v>
+      </c>
+      <c r="AW190">
+        <v>8</v>
+      </c>
+      <c r="AX190">
+        <v>6</v>
+      </c>
+      <c r="AY190">
+        <v>20</v>
+      </c>
+      <c r="AZ190">
+        <v>20</v>
+      </c>
+      <c r="BA190">
+        <v>2</v>
+      </c>
+      <c r="BB190">
+        <v>12</v>
+      </c>
+      <c r="BC190">
+        <v>14</v>
+      </c>
+      <c r="BD190">
+        <v>1.64</v>
+      </c>
+      <c r="BE190">
+        <v>6.4</v>
+      </c>
+      <c r="BF190">
+        <v>2.55</v>
+      </c>
+      <c r="BG190">
+        <v>1.45</v>
+      </c>
+      <c r="BH190">
+        <v>2.55</v>
+      </c>
+      <c r="BI190">
+        <v>1.74</v>
+      </c>
+      <c r="BJ190">
+        <v>1.96</v>
+      </c>
+      <c r="BK190">
+        <v>2</v>
+      </c>
+      <c r="BL190">
+        <v>1.8</v>
+      </c>
+      <c r="BM190">
+        <v>2.8</v>
+      </c>
+      <c r="BN190">
+        <v>1.36</v>
+      </c>
+      <c r="BO190">
+        <v>3.8</v>
+      </c>
+      <c r="BP190">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7509764</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45652.6875</v>
+      </c>
+      <c r="F191">
+        <v>19</v>
+      </c>
+      <c r="G191" t="s">
+        <v>81</v>
+      </c>
+      <c r="H191" t="s">
+        <v>86</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>2</v>
+      </c>
+      <c r="O191" t="s">
+        <v>209</v>
+      </c>
+      <c r="P191" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q191">
+        <v>2.75</v>
+      </c>
+      <c r="R191">
+        <v>2.1</v>
+      </c>
+      <c r="S191">
+        <v>4.33</v>
+      </c>
+      <c r="T191">
+        <v>1.44</v>
+      </c>
+      <c r="U191">
+        <v>2.63</v>
+      </c>
+      <c r="V191">
+        <v>3.25</v>
+      </c>
+      <c r="W191">
+        <v>1.33</v>
+      </c>
+      <c r="X191">
+        <v>9</v>
+      </c>
+      <c r="Y191">
+        <v>1.07</v>
+      </c>
+      <c r="Z191">
+        <v>1.95</v>
+      </c>
+      <c r="AA191">
+        <v>3.1</v>
+      </c>
+      <c r="AB191">
+        <v>3.5</v>
+      </c>
+      <c r="AC191">
+        <v>1.07</v>
+      </c>
+      <c r="AD191">
+        <v>8</v>
+      </c>
+      <c r="AE191">
+        <v>1.36</v>
+      </c>
+      <c r="AF191">
+        <v>3.1</v>
+      </c>
+      <c r="AG191">
+        <v>2.1</v>
+      </c>
+      <c r="AH191">
+        <v>1.65</v>
+      </c>
+      <c r="AI191">
+        <v>1.91</v>
+      </c>
+      <c r="AJ191">
+        <v>1.91</v>
+      </c>
+      <c r="AK191">
+        <v>1.25</v>
+      </c>
+      <c r="AL191">
+        <v>1.28</v>
+      </c>
+      <c r="AM191">
+        <v>1.75</v>
+      </c>
+      <c r="AN191">
+        <v>1.13</v>
+      </c>
+      <c r="AO191">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP191">
+        <v>1.11</v>
+      </c>
+      <c r="AQ191">
+        <v>0.6</v>
+      </c>
+      <c r="AR191">
+        <v>1.37</v>
+      </c>
+      <c r="AS191">
+        <v>1.14</v>
+      </c>
+      <c r="AT191">
+        <v>2.51</v>
+      </c>
+      <c r="AU191">
+        <v>10</v>
+      </c>
+      <c r="AV191">
+        <v>4</v>
+      </c>
+      <c r="AW191">
+        <v>9</v>
+      </c>
+      <c r="AX191">
+        <v>2</v>
+      </c>
+      <c r="AY191">
+        <v>32</v>
+      </c>
+      <c r="AZ191">
+        <v>6</v>
+      </c>
+      <c r="BA191">
+        <v>8</v>
+      </c>
+      <c r="BB191">
+        <v>3</v>
+      </c>
+      <c r="BC191">
+        <v>11</v>
+      </c>
+      <c r="BD191">
+        <v>1.67</v>
+      </c>
+      <c r="BE191">
+        <v>6.25</v>
+      </c>
+      <c r="BF191">
+        <v>2.48</v>
+      </c>
+      <c r="BG191">
+        <v>1.45</v>
+      </c>
+      <c r="BH191">
+        <v>2.55</v>
+      </c>
+      <c r="BI191">
+        <v>1.75</v>
+      </c>
+      <c r="BJ191">
+        <v>1.95</v>
+      </c>
+      <c r="BK191">
+        <v>2.2</v>
+      </c>
+      <c r="BL191">
+        <v>1.58</v>
+      </c>
+      <c r="BM191">
+        <v>2.88</v>
+      </c>
+      <c r="BN191">
+        <v>1.35</v>
+      </c>
+      <c r="BO191">
+        <v>3.8</v>
+      </c>
+      <c r="BP191">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="299">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -646,6 +646,21 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['60']</t>
+  </si>
+  <si>
+    <t>['42', '56']</t>
+  </si>
+  <si>
+    <t>['46', '77']</t>
+  </si>
+  <si>
+    <t>['86', '90']</t>
+  </si>
+  <si>
+    <t>['44', '90+1']</t>
+  </si>
+  <si>
     <t>['24', '45+2', '80']</t>
   </si>
   <si>
@@ -883,13 +898,19 @@
     <t>['45', '80']</t>
   </si>
   <si>
-    <t>['60']</t>
-  </si>
-  <si>
     <t>['16', '45', '88']</t>
   </si>
   <si>
     <t>['4']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['11', '85']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP191"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1591,7 +1612,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ2">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1716,7 +1737,7 @@
         <v>91</v>
       </c>
       <c r="P3" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q3">
         <v>2.63</v>
@@ -1794,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ3">
         <v>1.4</v>
@@ -1922,7 +1943,7 @@
         <v>92</v>
       </c>
       <c r="P4" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q4">
         <v>3.5</v>
@@ -2128,7 +2149,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q5">
         <v>3.2</v>
@@ -2209,7 +2230,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ5">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2334,7 +2355,7 @@
         <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q6">
         <v>2.88</v>
@@ -2540,7 +2561,7 @@
         <v>95</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q7">
         <v>3.25</v>
@@ -2952,7 +2973,7 @@
         <v>97</v>
       </c>
       <c r="P9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q9">
         <v>3.4</v>
@@ -3158,7 +3179,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3236,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ10">
         <v>2.1</v>
@@ -3570,7 +3591,7 @@
         <v>100</v>
       </c>
       <c r="P12" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q12">
         <v>3.25</v>
@@ -3648,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ12">
         <v>1.11</v>
@@ -3776,7 +3797,7 @@
         <v>101</v>
       </c>
       <c r="P13" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q13">
         <v>3.4</v>
@@ -3857,7 +3878,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ13">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR13">
         <v>1.31</v>
@@ -3982,7 +4003,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q14">
         <v>2.3</v>
@@ -4060,10 +4081,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4472,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ16">
         <v>0.6</v>
@@ -4600,7 +4621,7 @@
         <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q17">
         <v>2.88</v>
@@ -4681,7 +4702,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ17">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4887,7 +4908,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ18">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR18">
         <v>1.49</v>
@@ -5090,10 +5111,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ19">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5218,7 +5239,7 @@
         <v>107</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5296,10 +5317,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ20">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5502,7 +5523,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ21">
         <v>1.4</v>
@@ -5630,7 +5651,7 @@
         <v>91</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q22">
         <v>3.4</v>
@@ -5708,7 +5729,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ22">
         <v>2.1</v>
@@ -5914,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -6042,7 +6063,7 @@
         <v>109</v>
       </c>
       <c r="P24" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q24">
         <v>2.98</v>
@@ -6248,7 +6269,7 @@
         <v>110</v>
       </c>
       <c r="P25" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q25">
         <v>3.24</v>
@@ -6326,10 +6347,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ25">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6660,7 +6681,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q27">
         <v>2.74</v>
@@ -6738,10 +6759,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ27">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR27">
         <v>1.54</v>
@@ -7359,7 +7380,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR30">
         <v>1.65</v>
@@ -7562,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ31">
         <v>0.5</v>
@@ -7768,7 +7789,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>1.11</v>
@@ -7896,7 +7917,7 @@
         <v>102</v>
       </c>
       <c r="P33" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7974,7 +7995,7 @@
         <v>1.5</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ33">
         <v>1.2</v>
@@ -8183,7 +8204,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR34">
         <v>1.4</v>
@@ -8308,7 +8329,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -8386,7 +8407,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35">
         <v>1.7</v>
@@ -8514,7 +8535,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q36">
         <v>2.9</v>
@@ -9004,10 +9025,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ38">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR38">
         <v>1.18</v>
@@ -9132,7 +9153,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9213,7 +9234,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR39">
         <v>0</v>
@@ -9338,7 +9359,7 @@
         <v>120</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q40">
         <v>3.2</v>
@@ -9419,7 +9440,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ40">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR40">
         <v>1.5</v>
@@ -9544,7 +9565,7 @@
         <v>121</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q41">
         <v>2.63</v>
@@ -9622,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ41">
         <v>0.6</v>
@@ -9750,7 +9771,7 @@
         <v>122</v>
       </c>
       <c r="P42" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q42">
         <v>2.88</v>
@@ -10034,7 +10055,7 @@
         <v>0</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
         <v>1.11</v>
@@ -10240,7 +10261,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10449,7 +10470,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ45">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR45">
         <v>1.98</v>
@@ -10574,7 +10595,7 @@
         <v>125</v>
       </c>
       <c r="P46" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q46">
         <v>3.75</v>
@@ -10652,10 +10673,10 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR46">
         <v>0.96</v>
@@ -10858,10 +10879,10 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR47">
         <v>1.62</v>
@@ -10986,7 +11007,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q48">
         <v>3.4</v>
@@ -11192,7 +11213,7 @@
         <v>102</v>
       </c>
       <c r="P49" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q49">
         <v>3.75</v>
@@ -11270,7 +11291,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ49">
         <v>2.1</v>
@@ -11398,7 +11419,7 @@
         <v>127</v>
       </c>
       <c r="P50" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11604,7 +11625,7 @@
         <v>128</v>
       </c>
       <c r="P51" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q51">
         <v>3.1</v>
@@ -11685,7 +11706,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ51">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR51">
         <v>1.83</v>
@@ -11810,7 +11831,7 @@
         <v>129</v>
       </c>
       <c r="P52" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q52">
         <v>3.79</v>
@@ -11888,7 +11909,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ52">
         <v>1.7</v>
@@ -12303,7 +12324,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>2.1</v>
@@ -12428,7 +12449,7 @@
         <v>130</v>
       </c>
       <c r="P55" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q55">
         <v>2.5</v>
@@ -12715,7 +12736,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ56">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR56">
         <v>1.46</v>
@@ -12918,7 +12939,7 @@
         <v>1.5</v>
       </c>
       <c r="AP57">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13124,7 +13145,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ58">
         <v>1.4</v>
@@ -13252,7 +13273,7 @@
         <v>102</v>
       </c>
       <c r="P59" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q59">
         <v>3.1</v>
@@ -13536,7 +13557,7 @@
         <v>2</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60">
         <v>1.2</v>
@@ -13664,7 +13685,7 @@
         <v>133</v>
       </c>
       <c r="P61" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q61">
         <v>2.38</v>
@@ -13870,7 +13891,7 @@
         <v>134</v>
       </c>
       <c r="P62" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q62">
         <v>3.25</v>
@@ -13948,10 +13969,10 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ62">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR62">
         <v>1.33</v>
@@ -14154,10 +14175,10 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR63">
         <v>1.29</v>
@@ -14282,7 +14303,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q64">
         <v>2.9</v>
@@ -14360,10 +14381,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ64">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.44</v>
@@ -14566,10 +14587,10 @@
         <v>1.5</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR65">
         <v>1.09</v>
@@ -14694,7 +14715,7 @@
         <v>136</v>
       </c>
       <c r="P66" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q66">
         <v>2.4</v>
@@ -14978,10 +14999,10 @@
         <v>2</v>
       </c>
       <c r="AP67">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ67">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR67">
         <v>1.2</v>
@@ -15106,7 +15127,7 @@
         <v>138</v>
       </c>
       <c r="P68" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15184,7 +15205,7 @@
         <v>0.33</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ68">
         <v>1</v>
@@ -15518,7 +15539,7 @@
         <v>139</v>
       </c>
       <c r="P70" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q70">
         <v>3.5</v>
@@ -15599,7 +15620,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ70">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR70">
         <v>1.7</v>
@@ -15724,7 +15745,7 @@
         <v>140</v>
       </c>
       <c r="P71" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q71">
         <v>3.5</v>
@@ -15930,7 +15951,7 @@
         <v>141</v>
       </c>
       <c r="P72" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q72">
         <v>2.4</v>
@@ -16008,7 +16029,7 @@
         <v>1.25</v>
       </c>
       <c r="AP72">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
         <v>1.4</v>
@@ -16136,7 +16157,7 @@
         <v>102</v>
       </c>
       <c r="P73" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q73">
         <v>2.5</v>
@@ -16342,7 +16363,7 @@
         <v>142</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q74">
         <v>2.5</v>
@@ -16420,7 +16441,7 @@
         <v>1.5</v>
       </c>
       <c r="AP74">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ74">
         <v>1.2</v>
@@ -16629,7 +16650,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ75">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR75">
         <v>1.77</v>
@@ -16754,7 +16775,7 @@
         <v>143</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q76">
         <v>2.95</v>
@@ -16835,7 +16856,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ76">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR76">
         <v>1.44</v>
@@ -16960,7 +16981,7 @@
         <v>102</v>
       </c>
       <c r="P77" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q77">
         <v>3.2</v>
@@ -17166,7 +17187,7 @@
         <v>144</v>
       </c>
       <c r="P78" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q78">
         <v>3.1</v>
@@ -17244,7 +17265,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17372,7 +17393,7 @@
         <v>134</v>
       </c>
       <c r="P79" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q79">
         <v>2.5</v>
@@ -17450,7 +17471,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ79">
         <v>1.11</v>
@@ -17578,7 +17599,7 @@
         <v>145</v>
       </c>
       <c r="P80" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q80">
         <v>3.4</v>
@@ -17656,7 +17677,7 @@
         <v>0.67</v>
       </c>
       <c r="AP80">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ80">
         <v>0.9</v>
@@ -17865,7 +17886,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR81">
         <v>1.68</v>
@@ -18068,7 +18089,7 @@
         <v>0.67</v>
       </c>
       <c r="AP82">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ82">
         <v>1.11</v>
@@ -18196,7 +18217,7 @@
         <v>146</v>
       </c>
       <c r="P83" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18277,7 +18298,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ83">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR83">
         <v>1.66</v>
@@ -18402,7 +18423,7 @@
         <v>102</v>
       </c>
       <c r="P84" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18483,7 +18504,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ84">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR84">
         <v>1.72</v>
@@ -18686,10 +18707,10 @@
         <v>0.67</v>
       </c>
       <c r="AP85">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ85">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR85">
         <v>1.41</v>
@@ -18814,7 +18835,7 @@
         <v>147</v>
       </c>
       <c r="P86" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q86">
         <v>3.2</v>
@@ -18892,10 +18913,10 @@
         <v>1.8</v>
       </c>
       <c r="AP86">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ86">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR86">
         <v>1.48</v>
@@ -19020,7 +19041,7 @@
         <v>148</v>
       </c>
       <c r="P87" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q87">
         <v>3.2</v>
@@ -19226,7 +19247,7 @@
         <v>149</v>
       </c>
       <c r="P88" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19304,7 +19325,7 @@
         <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
         <v>1.7</v>
@@ -19432,7 +19453,7 @@
         <v>150</v>
       </c>
       <c r="P89" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q89">
         <v>2.88</v>
@@ -19510,7 +19531,7 @@
         <v>0.25</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ89">
         <v>0.5</v>
@@ -19719,7 +19740,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ90">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR90">
         <v>1.38</v>
@@ -19844,7 +19865,7 @@
         <v>152</v>
       </c>
       <c r="P91" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q91">
         <v>3.1</v>
@@ -20746,10 +20767,10 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ95">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR95">
         <v>1.55</v>
@@ -20955,7 +20976,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR96">
         <v>1.62</v>
@@ -21158,7 +21179,7 @@
         <v>0.75</v>
       </c>
       <c r="AP97">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ97">
         <v>0.9</v>
@@ -21364,7 +21385,7 @@
         <v>1.2</v>
       </c>
       <c r="AP98">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ98">
         <v>1.2</v>
@@ -21570,7 +21591,7 @@
         <v>1.5</v>
       </c>
       <c r="AP99">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ99">
         <v>1</v>
@@ -21779,7 +21800,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ100">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR100">
         <v>1.52</v>
@@ -21982,7 +22003,7 @@
         <v>0.4</v>
       </c>
       <c r="AP101">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
         <v>0.5</v>
@@ -22188,7 +22209,7 @@
         <v>0.6</v>
       </c>
       <c r="AP102">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ102">
         <v>0.6</v>
@@ -22397,7 +22418,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ103">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR103">
         <v>1.86</v>
@@ -22522,7 +22543,7 @@
         <v>160</v>
       </c>
       <c r="P104" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q104">
         <v>3.9</v>
@@ -22600,7 +22621,7 @@
         <v>2.2</v>
       </c>
       <c r="AP104">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ104">
         <v>2.1</v>
@@ -22728,7 +22749,7 @@
         <v>161</v>
       </c>
       <c r="P105" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q105">
         <v>3.25</v>
@@ -22806,7 +22827,7 @@
         <v>1.8</v>
       </c>
       <c r="AP105">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ105">
         <v>1.7</v>
@@ -23015,7 +23036,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ106">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.29</v>
@@ -23221,7 +23242,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ107">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR107">
         <v>1.73</v>
@@ -23346,7 +23367,7 @@
         <v>162</v>
       </c>
       <c r="P108" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q108">
         <v>3.1</v>
@@ -23427,7 +23448,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ108">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR108">
         <v>1.52</v>
@@ -23630,7 +23651,7 @@
         <v>1.4</v>
       </c>
       <c r="AP109">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23836,10 +23857,10 @@
         <v>1.67</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ110">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR110">
         <v>1.32</v>
@@ -24376,7 +24397,7 @@
         <v>163</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q113">
         <v>2.75</v>
@@ -24454,10 +24475,10 @@
         <v>0.8</v>
       </c>
       <c r="AP113">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR113">
         <v>1.36</v>
@@ -24660,7 +24681,7 @@
         <v>1.5</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ114">
         <v>1.4</v>
@@ -24866,10 +24887,10 @@
         <v>0.8</v>
       </c>
       <c r="AP115">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ115">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR115">
         <v>1.26</v>
@@ -25200,7 +25221,7 @@
         <v>164</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25281,7 +25302,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ117">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR117">
         <v>1.61</v>
@@ -25406,7 +25427,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q118">
         <v>2.88</v>
@@ -25484,10 +25505,10 @@
         <v>1.6</v>
       </c>
       <c r="AP118">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ118">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR118">
         <v>1.42</v>
@@ -25818,7 +25839,7 @@
         <v>102</v>
       </c>
       <c r="P120" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q120">
         <v>2.4</v>
@@ -25896,7 +25917,7 @@
         <v>0.8</v>
       </c>
       <c r="AP120">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -26102,7 +26123,7 @@
         <v>0.33</v>
       </c>
       <c r="AP121">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ121">
         <v>0.5</v>
@@ -26230,7 +26251,7 @@
         <v>166</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>3.45</v>
@@ -26311,7 +26332,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ122">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR122">
         <v>1.46</v>
@@ -26926,7 +26947,7 @@
         <v>0.67</v>
       </c>
       <c r="AP125">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ125">
         <v>0.6</v>
@@ -27054,7 +27075,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q126">
         <v>3.1</v>
@@ -27135,7 +27156,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ126">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR126">
         <v>1.73</v>
@@ -27338,7 +27359,7 @@
         <v>1.67</v>
       </c>
       <c r="AP127">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ127">
         <v>1.7</v>
@@ -27466,7 +27487,7 @@
         <v>102</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q128">
         <v>3.65</v>
@@ -27544,10 +27565,10 @@
         <v>1.33</v>
       </c>
       <c r="AP128">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ128">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR128">
         <v>1.36</v>
@@ -27672,7 +27693,7 @@
         <v>102</v>
       </c>
       <c r="P129" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>3.35</v>
@@ -27750,10 +27771,10 @@
         <v>0.4</v>
       </c>
       <c r="AP129">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ129">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR129">
         <v>1.41</v>
@@ -27878,7 +27899,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28084,7 +28105,7 @@
         <v>102</v>
       </c>
       <c r="P131" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q131">
         <v>3.1</v>
@@ -28290,7 +28311,7 @@
         <v>119</v>
       </c>
       <c r="P132" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q132">
         <v>3.4</v>
@@ -28574,10 +28595,10 @@
         <v>0.83</v>
       </c>
       <c r="AP133">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ133">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR133">
         <v>1.46</v>
@@ -28780,7 +28801,7 @@
         <v>1.17</v>
       </c>
       <c r="AP134">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ134">
         <v>1</v>
@@ -28986,10 +29007,10 @@
         <v>1.83</v>
       </c>
       <c r="AP135">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ135">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR135">
         <v>1.13</v>
@@ -29114,7 +29135,7 @@
         <v>173</v>
       </c>
       <c r="P136" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q136">
         <v>2.5</v>
@@ -29192,7 +29213,7 @@
         <v>0.29</v>
       </c>
       <c r="AP136">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ136">
         <v>0.5</v>
@@ -29320,7 +29341,7 @@
         <v>174</v>
       </c>
       <c r="P137" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>2.6</v>
@@ -29401,7 +29422,7 @@
         <v>2</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR137">
         <v>1.49</v>
@@ -29526,7 +29547,7 @@
         <v>175</v>
       </c>
       <c r="P138" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q138">
         <v>2.6</v>
@@ -29604,7 +29625,7 @@
         <v>1.29</v>
       </c>
       <c r="AP138">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ138">
         <v>1.2</v>
@@ -30016,10 +30037,10 @@
         <v>0.83</v>
       </c>
       <c r="AP140">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ140">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR140">
         <v>1.37</v>
@@ -30144,7 +30165,7 @@
         <v>178</v>
       </c>
       <c r="P141" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30350,7 +30371,7 @@
         <v>102</v>
       </c>
       <c r="P142" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q142">
         <v>4.2</v>
@@ -30556,7 +30577,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q143">
         <v>2.55</v>
@@ -30634,7 +30655,7 @@
         <v>0.83</v>
       </c>
       <c r="AP143">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
         <v>1.11</v>
@@ -30762,7 +30783,7 @@
         <v>102</v>
       </c>
       <c r="P144" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q144">
         <v>3.95</v>
@@ -31174,7 +31195,7 @@
         <v>181</v>
       </c>
       <c r="P146" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q146">
         <v>3.1</v>
@@ -31252,7 +31273,7 @@
         <v>1.43</v>
       </c>
       <c r="AP146">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ146">
         <v>1.4</v>
@@ -31458,7 +31479,7 @@
         <v>0.57</v>
       </c>
       <c r="AP147">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ147">
         <v>0.9</v>
@@ -31667,7 +31688,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ148">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR148">
         <v>1.81</v>
@@ -31792,7 +31813,7 @@
         <v>183</v>
       </c>
       <c r="P149" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q149">
         <v>2.63</v>
@@ -31873,7 +31894,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ149">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR149">
         <v>1.34</v>
@@ -31998,7 +32019,7 @@
         <v>184</v>
       </c>
       <c r="P150" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q150">
         <v>3.6</v>
@@ -32079,7 +32100,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ150">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR150">
         <v>1.37</v>
@@ -32410,7 +32431,7 @@
         <v>186</v>
       </c>
       <c r="P152" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q152">
         <v>2.95</v>
@@ -32488,7 +32509,7 @@
         <v>0.86</v>
       </c>
       <c r="AP152">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ152">
         <v>1</v>
@@ -32694,10 +32715,10 @@
         <v>0.71</v>
       </c>
       <c r="AP153">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ153">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR153">
         <v>1.41</v>
@@ -32900,10 +32921,10 @@
         <v>1.5</v>
       </c>
       <c r="AP154">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ154">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR154">
         <v>1.17</v>
@@ -33028,7 +33049,7 @@
         <v>188</v>
       </c>
       <c r="P155" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q155">
         <v>3.7</v>
@@ -33106,10 +33127,10 @@
         <v>1.57</v>
       </c>
       <c r="AP155">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ155">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR155">
         <v>1.27</v>
@@ -33234,7 +33255,7 @@
         <v>174</v>
       </c>
       <c r="P156" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q156">
         <v>2.62</v>
@@ -33312,10 +33333,10 @@
         <v>0.71</v>
       </c>
       <c r="AP156">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ156">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR156">
         <v>1.49</v>
@@ -33440,7 +33461,7 @@
         <v>102</v>
       </c>
       <c r="P157" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q157">
         <v>2.9</v>
@@ -33521,7 +33542,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ157">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR157">
         <v>1.58</v>
@@ -33724,7 +33745,7 @@
         <v>1.14</v>
       </c>
       <c r="AP158">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ158">
         <v>1</v>
@@ -33852,7 +33873,7 @@
         <v>102</v>
       </c>
       <c r="P159" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q159">
         <v>2.2</v>
@@ -33930,10 +33951,10 @@
         <v>0.86</v>
       </c>
       <c r="AP159">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ159">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR159">
         <v>1.43</v>
@@ -34264,7 +34285,7 @@
         <v>191</v>
       </c>
       <c r="P161" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q161">
         <v>2.2</v>
@@ -34342,7 +34363,7 @@
         <v>1.13</v>
       </c>
       <c r="AP161">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ161">
         <v>1</v>
@@ -34676,7 +34697,7 @@
         <v>193</v>
       </c>
       <c r="P163" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -35088,7 +35109,7 @@
         <v>194</v>
       </c>
       <c r="P165" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q165">
         <v>4.33</v>
@@ -35375,7 +35396,7 @@
         <v>2</v>
       </c>
       <c r="AQ166">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR166">
         <v>1.6</v>
@@ -35578,10 +35599,10 @@
         <v>1.38</v>
       </c>
       <c r="AP167">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ167">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR167">
         <v>1.43</v>
@@ -35706,7 +35727,7 @@
         <v>196</v>
       </c>
       <c r="P168" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q168">
         <v>2.4</v>
@@ -36196,7 +36217,7 @@
         <v>1.63</v>
       </c>
       <c r="AP170">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ170">
         <v>1.7</v>
@@ -36324,7 +36345,7 @@
         <v>197</v>
       </c>
       <c r="P171" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q171">
         <v>3</v>
@@ -36814,10 +36835,10 @@
         <v>1.33</v>
       </c>
       <c r="AP173">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="AQ173">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AR173">
         <v>1.69</v>
@@ -37020,7 +37041,7 @@
         <v>0.75</v>
       </c>
       <c r="AP174">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ174">
         <v>1</v>
@@ -37226,10 +37247,10 @@
         <v>1.25</v>
       </c>
       <c r="AP175">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ175">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR175">
         <v>1.25</v>
@@ -37432,10 +37453,10 @@
         <v>1</v>
       </c>
       <c r="AP176">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ176">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR176">
         <v>1.34</v>
@@ -37638,10 +37659,10 @@
         <v>1.75</v>
       </c>
       <c r="AP177">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="AQ177">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AR177">
         <v>1.48</v>
@@ -37766,7 +37787,7 @@
         <v>201</v>
       </c>
       <c r="P178" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q178">
         <v>3.1</v>
@@ -37844,10 +37865,10 @@
         <v>1.13</v>
       </c>
       <c r="AP178">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ178">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR178">
         <v>1.29</v>
@@ -37972,7 +37993,7 @@
         <v>102</v>
       </c>
       <c r="P179" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q179">
         <v>3.55</v>
@@ -38050,10 +38071,10 @@
         <v>1.33</v>
       </c>
       <c r="AP179">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AQ179">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AR179">
         <v>1.23</v>
@@ -38256,10 +38277,10 @@
         <v>0.63</v>
       </c>
       <c r="AP180">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AQ180">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AR180">
         <v>1.28</v>
@@ -38462,7 +38483,7 @@
         <v>1</v>
       </c>
       <c r="AP181">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ181">
         <v>1</v>
@@ -39002,7 +39023,7 @@
         <v>91</v>
       </c>
       <c r="P184" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q184">
         <v>2.3</v>
@@ -39208,7 +39229,7 @@
         <v>204</v>
       </c>
       <c r="P185" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q185">
         <v>3.1</v>
@@ -39620,7 +39641,7 @@
         <v>102</v>
       </c>
       <c r="P187" t="s">
-        <v>289</v>
+        <v>210</v>
       </c>
       <c r="Q187">
         <v>3.25</v>
@@ -39826,7 +39847,7 @@
         <v>206</v>
       </c>
       <c r="P188" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q188">
         <v>3.25</v>
@@ -40113,7 +40134,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ189">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR189">
         <v>1.33</v>
@@ -40444,7 +40465,7 @@
         <v>209</v>
       </c>
       <c r="P191" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q191">
         <v>2.75</v>
@@ -40522,7 +40543,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AP191">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AQ191">
         <v>0.6</v>
@@ -40601,6 +40622,2066 @@
       </c>
       <c r="BP191">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="192" spans="1:68">
+      <c r="A192" s="1">
+        <v>191</v>
+      </c>
+      <c r="B192">
+        <v>7509771</v>
+      </c>
+      <c r="C192" t="s">
+        <v>68</v>
+      </c>
+      <c r="D192" t="s">
+        <v>69</v>
+      </c>
+      <c r="E192" s="2">
+        <v>45655.35416666666</v>
+      </c>
+      <c r="F192">
+        <v>20</v>
+      </c>
+      <c r="G192" t="s">
+        <v>82</v>
+      </c>
+      <c r="H192" t="s">
+        <v>70</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+      <c r="J192">
+        <v>0</v>
+      </c>
+      <c r="K192">
+        <v>0</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+      <c r="M192">
+        <v>1</v>
+      </c>
+      <c r="N192">
+        <v>2</v>
+      </c>
+      <c r="O192" t="s">
+        <v>210</v>
+      </c>
+      <c r="P192" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q192">
+        <v>2.4</v>
+      </c>
+      <c r="R192">
+        <v>2.1</v>
+      </c>
+      <c r="S192">
+        <v>5</v>
+      </c>
+      <c r="T192">
+        <v>1.44</v>
+      </c>
+      <c r="U192">
+        <v>2.63</v>
+      </c>
+      <c r="V192">
+        <v>3.25</v>
+      </c>
+      <c r="W192">
+        <v>1.33</v>
+      </c>
+      <c r="X192">
+        <v>10</v>
+      </c>
+      <c r="Y192">
+        <v>1.06</v>
+      </c>
+      <c r="Z192">
+        <v>1.68</v>
+      </c>
+      <c r="AA192">
+        <v>3.26</v>
+      </c>
+      <c r="AB192">
+        <v>4.39</v>
+      </c>
+      <c r="AC192">
+        <v>1.07</v>
+      </c>
+      <c r="AD192">
+        <v>8</v>
+      </c>
+      <c r="AE192">
+        <v>1.38</v>
+      </c>
+      <c r="AF192">
+        <v>3</v>
+      </c>
+      <c r="AG192">
+        <v>2.1</v>
+      </c>
+      <c r="AH192">
+        <v>1.65</v>
+      </c>
+      <c r="AI192">
+        <v>2</v>
+      </c>
+      <c r="AJ192">
+        <v>1.75</v>
+      </c>
+      <c r="AK192">
+        <v>1.18</v>
+      </c>
+      <c r="AL192">
+        <v>1.25</v>
+      </c>
+      <c r="AM192">
+        <v>2</v>
+      </c>
+      <c r="AN192">
+        <v>1.33</v>
+      </c>
+      <c r="AO192">
+        <v>1</v>
+      </c>
+      <c r="AP192">
+        <v>1.3</v>
+      </c>
+      <c r="AQ192">
+        <v>1</v>
+      </c>
+      <c r="AR192">
+        <v>1.54</v>
+      </c>
+      <c r="AS192">
+        <v>1.18</v>
+      </c>
+      <c r="AT192">
+        <v>2.72</v>
+      </c>
+      <c r="AU192">
+        <v>7</v>
+      </c>
+      <c r="AV192">
+        <v>5</v>
+      </c>
+      <c r="AW192">
+        <v>5</v>
+      </c>
+      <c r="AX192">
+        <v>3</v>
+      </c>
+      <c r="AY192">
+        <v>17</v>
+      </c>
+      <c r="AZ192">
+        <v>10</v>
+      </c>
+      <c r="BA192">
+        <v>7</v>
+      </c>
+      <c r="BB192">
+        <v>6</v>
+      </c>
+      <c r="BC192">
+        <v>13</v>
+      </c>
+      <c r="BD192">
+        <v>1.5</v>
+      </c>
+      <c r="BE192">
+        <v>7</v>
+      </c>
+      <c r="BF192">
+        <v>2.8</v>
+      </c>
+      <c r="BG192">
+        <v>1.28</v>
+      </c>
+      <c r="BH192">
+        <v>3.2</v>
+      </c>
+      <c r="BI192">
+        <v>1.49</v>
+      </c>
+      <c r="BJ192">
+        <v>2.43</v>
+      </c>
+      <c r="BK192">
+        <v>1.78</v>
+      </c>
+      <c r="BL192">
+        <v>1.92</v>
+      </c>
+      <c r="BM192">
+        <v>2.23</v>
+      </c>
+      <c r="BN192">
+        <v>1.57</v>
+      </c>
+      <c r="BO192">
+        <v>2.8</v>
+      </c>
+      <c r="BP192">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="193" spans="1:68">
+      <c r="A193" s="1">
+        <v>192</v>
+      </c>
+      <c r="B193">
+        <v>7509767</v>
+      </c>
+      <c r="C193" t="s">
+        <v>68</v>
+      </c>
+      <c r="D193" t="s">
+        <v>69</v>
+      </c>
+      <c r="E193" s="2">
+        <v>45655.45833333334</v>
+      </c>
+      <c r="F193">
+        <v>20</v>
+      </c>
+      <c r="G193" t="s">
+        <v>71</v>
+      </c>
+      <c r="H193" t="s">
+        <v>83</v>
+      </c>
+      <c r="I193">
+        <v>1</v>
+      </c>
+      <c r="J193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>2</v>
+      </c>
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193">
+        <v>2</v>
+      </c>
+      <c r="O193" t="s">
+        <v>211</v>
+      </c>
+      <c r="P193" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q193">
+        <v>3.75</v>
+      </c>
+      <c r="R193">
+        <v>1.91</v>
+      </c>
+      <c r="S193">
+        <v>3.5</v>
+      </c>
+      <c r="T193">
+        <v>1.57</v>
+      </c>
+      <c r="U193">
+        <v>2.25</v>
+      </c>
+      <c r="V193">
+        <v>3.75</v>
+      </c>
+      <c r="W193">
+        <v>1.25</v>
+      </c>
+      <c r="X193">
+        <v>13</v>
+      </c>
+      <c r="Y193">
+        <v>1.04</v>
+      </c>
+      <c r="Z193">
+        <v>2.95</v>
+      </c>
+      <c r="AA193">
+        <v>2.95</v>
+      </c>
+      <c r="AB193">
+        <v>2.49</v>
+      </c>
+      <c r="AC193">
+        <v>1.11</v>
+      </c>
+      <c r="AD193">
+        <v>6.25</v>
+      </c>
+      <c r="AE193">
+        <v>1.46</v>
+      </c>
+      <c r="AF193">
+        <v>2.4</v>
+      </c>
+      <c r="AG193">
+        <v>2.35</v>
+      </c>
+      <c r="AH193">
+        <v>1.55</v>
+      </c>
+      <c r="AI193">
+        <v>2.05</v>
+      </c>
+      <c r="AJ193">
+        <v>1.7</v>
+      </c>
+      <c r="AK193">
+        <v>1.42</v>
+      </c>
+      <c r="AL193">
+        <v>1.33</v>
+      </c>
+      <c r="AM193">
+        <v>1.42</v>
+      </c>
+      <c r="AN193">
+        <v>1.4</v>
+      </c>
+      <c r="AO193">
+        <v>1.5</v>
+      </c>
+      <c r="AP193">
+        <v>1.55</v>
+      </c>
+      <c r="AQ193">
+        <v>1.36</v>
+      </c>
+      <c r="AR193">
+        <v>1.34</v>
+      </c>
+      <c r="AS193">
+        <v>1.3</v>
+      </c>
+      <c r="AT193">
+        <v>2.64</v>
+      </c>
+      <c r="AU193">
+        <v>5</v>
+      </c>
+      <c r="AV193">
+        <v>5</v>
+      </c>
+      <c r="AW193">
+        <v>4</v>
+      </c>
+      <c r="AX193">
+        <v>8</v>
+      </c>
+      <c r="AY193">
+        <v>16</v>
+      </c>
+      <c r="AZ193">
+        <v>14</v>
+      </c>
+      <c r="BA193">
+        <v>6</v>
+      </c>
+      <c r="BB193">
+        <v>2</v>
+      </c>
+      <c r="BC193">
+        <v>8</v>
+      </c>
+      <c r="BD193">
+        <v>1.96</v>
+      </c>
+      <c r="BE193">
+        <v>6.75</v>
+      </c>
+      <c r="BF193">
+        <v>2</v>
+      </c>
+      <c r="BG193">
+        <v>1.27</v>
+      </c>
+      <c r="BH193">
+        <v>3.4</v>
+      </c>
+      <c r="BI193">
+        <v>1.47</v>
+      </c>
+      <c r="BJ193">
+        <v>2.48</v>
+      </c>
+      <c r="BK193">
+        <v>1.74</v>
+      </c>
+      <c r="BL193">
+        <v>1.96</v>
+      </c>
+      <c r="BM193">
+        <v>2.17</v>
+      </c>
+      <c r="BN193">
+        <v>1.6</v>
+      </c>
+      <c r="BO193">
+        <v>2.75</v>
+      </c>
+      <c r="BP193">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="194" spans="1:68">
+      <c r="A194" s="1">
+        <v>193</v>
+      </c>
+      <c r="B194">
+        <v>7509768</v>
+      </c>
+      <c r="C194" t="s">
+        <v>68</v>
+      </c>
+      <c r="D194" t="s">
+        <v>69</v>
+      </c>
+      <c r="E194" s="2">
+        <v>45655.45833333334</v>
+      </c>
+      <c r="F194">
+        <v>20</v>
+      </c>
+      <c r="G194" t="s">
+        <v>86</v>
+      </c>
+      <c r="H194" t="s">
+        <v>76</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+      <c r="J194">
+        <v>0</v>
+      </c>
+      <c r="K194">
+        <v>0</v>
+      </c>
+      <c r="L194">
+        <v>2</v>
+      </c>
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194">
+        <v>2</v>
+      </c>
+      <c r="O194" t="s">
+        <v>212</v>
+      </c>
+      <c r="P194" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q194">
+        <v>3.2</v>
+      </c>
+      <c r="R194">
+        <v>2</v>
+      </c>
+      <c r="S194">
+        <v>3.75</v>
+      </c>
+      <c r="T194">
+        <v>1.5</v>
+      </c>
+      <c r="U194">
+        <v>2.5</v>
+      </c>
+      <c r="V194">
+        <v>3.4</v>
+      </c>
+      <c r="W194">
+        <v>1.3</v>
+      </c>
+      <c r="X194">
+        <v>10</v>
+      </c>
+      <c r="Y194">
+        <v>1.06</v>
+      </c>
+      <c r="Z194">
+        <v>2.58</v>
+      </c>
+      <c r="AA194">
+        <v>2.8</v>
+      </c>
+      <c r="AB194">
+        <v>2.96</v>
+      </c>
+      <c r="AC194">
+        <v>1.08</v>
+      </c>
+      <c r="AD194">
+        <v>7.5</v>
+      </c>
+      <c r="AE194">
+        <v>1.42</v>
+      </c>
+      <c r="AF194">
+        <v>2.8</v>
+      </c>
+      <c r="AG194">
+        <v>2.35</v>
+      </c>
+      <c r="AH194">
+        <v>1.55</v>
+      </c>
+      <c r="AI194">
+        <v>1.95</v>
+      </c>
+      <c r="AJ194">
+        <v>1.8</v>
+      </c>
+      <c r="AK194">
+        <v>1.36</v>
+      </c>
+      <c r="AL194">
+        <v>1.3</v>
+      </c>
+      <c r="AM194">
+        <v>1.53</v>
+      </c>
+      <c r="AN194">
+        <v>2</v>
+      </c>
+      <c r="AO194">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AP194">
+        <v>2.1</v>
+      </c>
+      <c r="AQ194">
+        <v>0.5</v>
+      </c>
+      <c r="AR194">
+        <v>1.3</v>
+      </c>
+      <c r="AS194">
+        <v>1.31</v>
+      </c>
+      <c r="AT194">
+        <v>2.61</v>
+      </c>
+      <c r="AU194">
+        <v>7</v>
+      </c>
+      <c r="AV194">
+        <v>3</v>
+      </c>
+      <c r="AW194">
+        <v>6</v>
+      </c>
+      <c r="AX194">
+        <v>1</v>
+      </c>
+      <c r="AY194">
+        <v>20</v>
+      </c>
+      <c r="AZ194">
+        <v>13</v>
+      </c>
+      <c r="BA194">
+        <v>6</v>
+      </c>
+      <c r="BB194">
+        <v>6</v>
+      </c>
+      <c r="BC194">
+        <v>12</v>
+      </c>
+      <c r="BD194">
+        <v>1.85</v>
+      </c>
+      <c r="BE194">
+        <v>6.1</v>
+      </c>
+      <c r="BF194">
+        <v>2.17</v>
+      </c>
+      <c r="BG194">
+        <v>1.46</v>
+      </c>
+      <c r="BH194">
+        <v>2.5</v>
+      </c>
+      <c r="BI194">
+        <v>1.75</v>
+      </c>
+      <c r="BJ194">
+        <v>1.95</v>
+      </c>
+      <c r="BK194">
+        <v>2.2</v>
+      </c>
+      <c r="BL194">
+        <v>1.57</v>
+      </c>
+      <c r="BM194">
+        <v>2.9</v>
+      </c>
+      <c r="BN194">
+        <v>1.35</v>
+      </c>
+      <c r="BO194">
+        <v>3.9</v>
+      </c>
+      <c r="BP194">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="195" spans="1:68">
+      <c r="A195" s="1">
+        <v>194</v>
+      </c>
+      <c r="B195">
+        <v>7509776</v>
+      </c>
+      <c r="C195" t="s">
+        <v>68</v>
+      </c>
+      <c r="D195" t="s">
+        <v>69</v>
+      </c>
+      <c r="E195" s="2">
+        <v>45655.45833333334</v>
+      </c>
+      <c r="F195">
+        <v>20</v>
+      </c>
+      <c r="G195" t="s">
+        <v>84</v>
+      </c>
+      <c r="H195" t="s">
+        <v>79</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+      <c r="J195">
+        <v>0</v>
+      </c>
+      <c r="K195">
+        <v>0</v>
+      </c>
+      <c r="L195">
+        <v>2</v>
+      </c>
+      <c r="M195">
+        <v>1</v>
+      </c>
+      <c r="N195">
+        <v>3</v>
+      </c>
+      <c r="O195" t="s">
+        <v>213</v>
+      </c>
+      <c r="P195" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q195">
+        <v>1.8</v>
+      </c>
+      <c r="R195">
+        <v>2.5</v>
+      </c>
+      <c r="S195">
+        <v>9</v>
+      </c>
+      <c r="T195">
+        <v>1.33</v>
+      </c>
+      <c r="U195">
+        <v>3.25</v>
+      </c>
+      <c r="V195">
+        <v>2.63</v>
+      </c>
+      <c r="W195">
+        <v>1.44</v>
+      </c>
+      <c r="X195">
+        <v>6.5</v>
+      </c>
+      <c r="Y195">
+        <v>1.11</v>
+      </c>
+      <c r="Z195">
+        <v>1.44</v>
+      </c>
+      <c r="AA195">
+        <v>4.25</v>
+      </c>
+      <c r="AB195">
+        <v>6.5</v>
+      </c>
+      <c r="AC195">
+        <v>1.04</v>
+      </c>
+      <c r="AD195">
+        <v>10</v>
+      </c>
+      <c r="AE195">
+        <v>1.22</v>
+      </c>
+      <c r="AF195">
+        <v>4.2</v>
+      </c>
+      <c r="AG195">
+        <v>1.75</v>
+      </c>
+      <c r="AH195">
+        <v>2</v>
+      </c>
+      <c r="AI195">
+        <v>2.2</v>
+      </c>
+      <c r="AJ195">
+        <v>1.62</v>
+      </c>
+      <c r="AK195">
+        <v>1.05</v>
+      </c>
+      <c r="AL195">
+        <v>1.15</v>
+      </c>
+      <c r="AM195">
+        <v>3.35</v>
+      </c>
+      <c r="AN195">
+        <v>2.44</v>
+      </c>
+      <c r="AO195">
+        <v>1.11</v>
+      </c>
+      <c r="AP195">
+        <v>2.5</v>
+      </c>
+      <c r="AQ195">
+        <v>1</v>
+      </c>
+      <c r="AR195">
+        <v>1.65</v>
+      </c>
+      <c r="AS195">
+        <v>1.34</v>
+      </c>
+      <c r="AT195">
+        <v>2.99</v>
+      </c>
+      <c r="AU195">
+        <v>12</v>
+      </c>
+      <c r="AV195">
+        <v>4</v>
+      </c>
+      <c r="AW195">
+        <v>6</v>
+      </c>
+      <c r="AX195">
+        <v>3</v>
+      </c>
+      <c r="AY195">
+        <v>21</v>
+      </c>
+      <c r="AZ195">
+        <v>10</v>
+      </c>
+      <c r="BA195">
+        <v>7</v>
+      </c>
+      <c r="BB195">
+        <v>0</v>
+      </c>
+      <c r="BC195">
+        <v>7</v>
+      </c>
+      <c r="BD195">
+        <v>1.24</v>
+      </c>
+      <c r="BE195">
+        <v>8</v>
+      </c>
+      <c r="BF195">
+        <v>4.4</v>
+      </c>
+      <c r="BG195">
+        <v>1.25</v>
+      </c>
+      <c r="BH195">
+        <v>3.45</v>
+      </c>
+      <c r="BI195">
+        <v>1.44</v>
+      </c>
+      <c r="BJ195">
+        <v>2.55</v>
+      </c>
+      <c r="BK195">
+        <v>1.7</v>
+      </c>
+      <c r="BL195">
+        <v>2.02</v>
+      </c>
+      <c r="BM195">
+        <v>2.07</v>
+      </c>
+      <c r="BN195">
+        <v>1.67</v>
+      </c>
+      <c r="BO195">
+        <v>2.55</v>
+      </c>
+      <c r="BP195">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="196" spans="1:68">
+      <c r="A196" s="1">
+        <v>195</v>
+      </c>
+      <c r="B196">
+        <v>7509774</v>
+      </c>
+      <c r="C196" t="s">
+        <v>68</v>
+      </c>
+      <c r="D196" t="s">
+        <v>69</v>
+      </c>
+      <c r="E196" s="2">
+        <v>45655.45833333334</v>
+      </c>
+      <c r="F196">
+        <v>20</v>
+      </c>
+      <c r="G196" t="s">
+        <v>80</v>
+      </c>
+      <c r="H196" t="s">
+        <v>72</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196">
+        <v>0</v>
+      </c>
+      <c r="K196">
+        <v>0</v>
+      </c>
+      <c r="L196">
+        <v>0</v>
+      </c>
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196">
+        <v>0</v>
+      </c>
+      <c r="O196" t="s">
+        <v>102</v>
+      </c>
+      <c r="P196" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q196">
+        <v>2.4</v>
+      </c>
+      <c r="R196">
+        <v>2.1</v>
+      </c>
+      <c r="S196">
+        <v>5</v>
+      </c>
+      <c r="T196">
+        <v>1.44</v>
+      </c>
+      <c r="U196">
+        <v>2.63</v>
+      </c>
+      <c r="V196">
+        <v>3</v>
+      </c>
+      <c r="W196">
+        <v>1.36</v>
+      </c>
+      <c r="X196">
+        <v>9</v>
+      </c>
+      <c r="Y196">
+        <v>1.07</v>
+      </c>
+      <c r="Z196">
+        <v>2.01</v>
+      </c>
+      <c r="AA196">
+        <v>2.97</v>
+      </c>
+      <c r="AB196">
+        <v>4.05</v>
+      </c>
+      <c r="AC196">
+        <v>1.06</v>
+      </c>
+      <c r="AD196">
+        <v>8.5</v>
+      </c>
+      <c r="AE196">
+        <v>1.33</v>
+      </c>
+      <c r="AF196">
+        <v>3.25</v>
+      </c>
+      <c r="AG196">
+        <v>2.4</v>
+      </c>
+      <c r="AH196">
+        <v>1.53</v>
+      </c>
+      <c r="AI196">
+        <v>1.95</v>
+      </c>
+      <c r="AJ196">
+        <v>1.8</v>
+      </c>
+      <c r="AK196">
+        <v>1.18</v>
+      </c>
+      <c r="AL196">
+        <v>1.22</v>
+      </c>
+      <c r="AM196">
+        <v>2</v>
+      </c>
+      <c r="AN196">
+        <v>1.67</v>
+      </c>
+      <c r="AO196">
+        <v>1</v>
+      </c>
+      <c r="AP196">
+        <v>1.6</v>
+      </c>
+      <c r="AQ196">
+        <v>1</v>
+      </c>
+      <c r="AR196">
+        <v>1.41</v>
+      </c>
+      <c r="AS196">
+        <v>1.17</v>
+      </c>
+      <c r="AT196">
+        <v>2.58</v>
+      </c>
+      <c r="AU196">
+        <v>3</v>
+      </c>
+      <c r="AV196">
+        <v>3</v>
+      </c>
+      <c r="AW196">
+        <v>5</v>
+      </c>
+      <c r="AX196">
+        <v>9</v>
+      </c>
+      <c r="AY196">
+        <v>9</v>
+      </c>
+      <c r="AZ196">
+        <v>17</v>
+      </c>
+      <c r="BA196">
+        <v>2</v>
+      </c>
+      <c r="BB196">
+        <v>2</v>
+      </c>
+      <c r="BC196">
+        <v>4</v>
+      </c>
+      <c r="BD196">
+        <v>1.57</v>
+      </c>
+      <c r="BE196">
+        <v>6.25</v>
+      </c>
+      <c r="BF196">
+        <v>2.7</v>
+      </c>
+      <c r="BG196">
+        <v>1.46</v>
+      </c>
+      <c r="BH196">
+        <v>2.5</v>
+      </c>
+      <c r="BI196">
+        <v>1.77</v>
+      </c>
+      <c r="BJ196">
+        <v>1.93</v>
+      </c>
+      <c r="BK196">
+        <v>2.2</v>
+      </c>
+      <c r="BL196">
+        <v>1.58</v>
+      </c>
+      <c r="BM196">
+        <v>2.9</v>
+      </c>
+      <c r="BN196">
+        <v>1.35</v>
+      </c>
+      <c r="BO196">
+        <v>3.9</v>
+      </c>
+      <c r="BP196">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7509773</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45655.45833333334</v>
+      </c>
+      <c r="F197">
+        <v>20</v>
+      </c>
+      <c r="G197" t="s">
+        <v>85</v>
+      </c>
+      <c r="H197" t="s">
+        <v>77</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>0</v>
+      </c>
+      <c r="M197">
+        <v>2</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>102</v>
+      </c>
+      <c r="P197" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q197">
+        <v>2.5</v>
+      </c>
+      <c r="R197">
+        <v>2.05</v>
+      </c>
+      <c r="S197">
+        <v>5.5</v>
+      </c>
+      <c r="T197">
+        <v>1.5</v>
+      </c>
+      <c r="U197">
+        <v>2.5</v>
+      </c>
+      <c r="V197">
+        <v>3.5</v>
+      </c>
+      <c r="W197">
+        <v>1.29</v>
+      </c>
+      <c r="X197">
+        <v>11</v>
+      </c>
+      <c r="Y197">
+        <v>1.05</v>
+      </c>
+      <c r="Z197">
+        <v>2.85</v>
+      </c>
+      <c r="AA197">
+        <v>2.93</v>
+      </c>
+      <c r="AB197">
+        <v>2.56</v>
+      </c>
+      <c r="AC197">
+        <v>1.09</v>
+      </c>
+      <c r="AD197">
+        <v>7</v>
+      </c>
+      <c r="AE197">
+        <v>1.44</v>
+      </c>
+      <c r="AF197">
+        <v>2.7</v>
+      </c>
+      <c r="AG197">
+        <v>2.25</v>
+      </c>
+      <c r="AH197">
+        <v>1.6</v>
+      </c>
+      <c r="AI197">
+        <v>2.1</v>
+      </c>
+      <c r="AJ197">
+        <v>1.67</v>
+      </c>
+      <c r="AK197">
+        <v>1.18</v>
+      </c>
+      <c r="AL197">
+        <v>1.28</v>
+      </c>
+      <c r="AM197">
+        <v>1.95</v>
+      </c>
+      <c r="AN197">
+        <v>2</v>
+      </c>
+      <c r="AO197">
+        <v>1</v>
+      </c>
+      <c r="AP197">
+        <v>1.8</v>
+      </c>
+      <c r="AQ197">
+        <v>1.2</v>
+      </c>
+      <c r="AR197">
+        <v>1.37</v>
+      </c>
+      <c r="AS197">
+        <v>1.25</v>
+      </c>
+      <c r="AT197">
+        <v>2.62</v>
+      </c>
+      <c r="AU197">
+        <v>2</v>
+      </c>
+      <c r="AV197">
+        <v>6</v>
+      </c>
+      <c r="AW197">
+        <v>2</v>
+      </c>
+      <c r="AX197">
+        <v>7</v>
+      </c>
+      <c r="AY197">
+        <v>8</v>
+      </c>
+      <c r="AZ197">
+        <v>18</v>
+      </c>
+      <c r="BA197">
+        <v>1</v>
+      </c>
+      <c r="BB197">
+        <v>5</v>
+      </c>
+      <c r="BC197">
+        <v>6</v>
+      </c>
+      <c r="BD197">
+        <v>1.55</v>
+      </c>
+      <c r="BE197">
+        <v>6.4</v>
+      </c>
+      <c r="BF197">
+        <v>2.8</v>
+      </c>
+      <c r="BG197">
+        <v>1.5</v>
+      </c>
+      <c r="BH197">
+        <v>2.4</v>
+      </c>
+      <c r="BI197">
+        <v>1.84</v>
+      </c>
+      <c r="BJ197">
+        <v>1.84</v>
+      </c>
+      <c r="BK197">
+        <v>2.35</v>
+      </c>
+      <c r="BL197">
+        <v>1.5</v>
+      </c>
+      <c r="BM197">
+        <v>3.1</v>
+      </c>
+      <c r="BN197">
+        <v>1.3</v>
+      </c>
+      <c r="BO197">
+        <v>4.1</v>
+      </c>
+      <c r="BP197">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7509770</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45655.55208333334</v>
+      </c>
+      <c r="F198">
+        <v>20</v>
+      </c>
+      <c r="G198" t="s">
+        <v>87</v>
+      </c>
+      <c r="H198" t="s">
+        <v>89</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>2</v>
+      </c>
+      <c r="M198">
+        <v>1</v>
+      </c>
+      <c r="N198">
+        <v>3</v>
+      </c>
+      <c r="O198" t="s">
+        <v>214</v>
+      </c>
+      <c r="P198" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q198">
+        <v>4</v>
+      </c>
+      <c r="R198">
+        <v>1.91</v>
+      </c>
+      <c r="S198">
+        <v>3.2</v>
+      </c>
+      <c r="T198">
+        <v>1.57</v>
+      </c>
+      <c r="U198">
+        <v>2.25</v>
+      </c>
+      <c r="V198">
+        <v>3.75</v>
+      </c>
+      <c r="W198">
+        <v>1.25</v>
+      </c>
+      <c r="X198">
+        <v>13</v>
+      </c>
+      <c r="Y198">
+        <v>1.04</v>
+      </c>
+      <c r="Z198">
+        <v>2.65</v>
+      </c>
+      <c r="AA198">
+        <v>3.05</v>
+      </c>
+      <c r="AB198">
+        <v>2.65</v>
+      </c>
+      <c r="AC198">
+        <v>1.1</v>
+      </c>
+      <c r="AD198">
+        <v>6.5</v>
+      </c>
+      <c r="AE198">
+        <v>1.5</v>
+      </c>
+      <c r="AF198">
+        <v>2.45</v>
+      </c>
+      <c r="AG198">
+        <v>2.38</v>
+      </c>
+      <c r="AH198">
+        <v>1.5</v>
+      </c>
+      <c r="AI198">
+        <v>2.1</v>
+      </c>
+      <c r="AJ198">
+        <v>1.67</v>
+      </c>
+      <c r="AK198">
+        <v>1.42</v>
+      </c>
+      <c r="AL198">
+        <v>1.33</v>
+      </c>
+      <c r="AM198">
+        <v>1.45</v>
+      </c>
+      <c r="AN198">
+        <v>1</v>
+      </c>
+      <c r="AO198">
+        <v>1.2</v>
+      </c>
+      <c r="AP198">
+        <v>1.2</v>
+      </c>
+      <c r="AQ198">
+        <v>1.09</v>
+      </c>
+      <c r="AR198">
+        <v>1.28</v>
+      </c>
+      <c r="AS198">
+        <v>1.25</v>
+      </c>
+      <c r="AT198">
+        <v>2.53</v>
+      </c>
+      <c r="AU198">
+        <v>5</v>
+      </c>
+      <c r="AV198">
+        <v>7</v>
+      </c>
+      <c r="AW198">
+        <v>5</v>
+      </c>
+      <c r="AX198">
+        <v>7</v>
+      </c>
+      <c r="AY198">
+        <v>11</v>
+      </c>
+      <c r="AZ198">
+        <v>19</v>
+      </c>
+      <c r="BA198">
+        <v>4</v>
+      </c>
+      <c r="BB198">
+        <v>5</v>
+      </c>
+      <c r="BC198">
+        <v>9</v>
+      </c>
+      <c r="BD198">
+        <v>1.98</v>
+      </c>
+      <c r="BE198">
+        <v>6.4</v>
+      </c>
+      <c r="BF198">
+        <v>2.02</v>
+      </c>
+      <c r="BG198">
+        <v>1.38</v>
+      </c>
+      <c r="BH198">
+        <v>2.8</v>
+      </c>
+      <c r="BI198">
+        <v>1.65</v>
+      </c>
+      <c r="BJ198">
+        <v>2.08</v>
+      </c>
+      <c r="BK198">
+        <v>2.02</v>
+      </c>
+      <c r="BL198">
+        <v>1.7</v>
+      </c>
+      <c r="BM198">
+        <v>2.55</v>
+      </c>
+      <c r="BN198">
+        <v>1.43</v>
+      </c>
+      <c r="BO198">
+        <v>3.4</v>
+      </c>
+      <c r="BP198">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7509769</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45655.55208333334</v>
+      </c>
+      <c r="F199">
+        <v>20</v>
+      </c>
+      <c r="G199" t="s">
+        <v>78</v>
+      </c>
+      <c r="H199" t="s">
+        <v>74</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="J199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>0</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>0</v>
+      </c>
+      <c r="N199">
+        <v>1</v>
+      </c>
+      <c r="O199" t="s">
+        <v>200</v>
+      </c>
+      <c r="P199" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q199">
+        <v>2.88</v>
+      </c>
+      <c r="R199">
+        <v>2.05</v>
+      </c>
+      <c r="S199">
+        <v>4.33</v>
+      </c>
+      <c r="T199">
+        <v>1.5</v>
+      </c>
+      <c r="U199">
+        <v>2.5</v>
+      </c>
+      <c r="V199">
+        <v>3.4</v>
+      </c>
+      <c r="W199">
+        <v>1.3</v>
+      </c>
+      <c r="X199">
+        <v>10</v>
+      </c>
+      <c r="Y199">
+        <v>1.06</v>
+      </c>
+      <c r="Z199">
+        <v>2.08</v>
+      </c>
+      <c r="AA199">
+        <v>3.15</v>
+      </c>
+      <c r="AB199">
+        <v>3.6</v>
+      </c>
+      <c r="AC199">
+        <v>1.09</v>
+      </c>
+      <c r="AD199">
+        <v>7</v>
+      </c>
+      <c r="AE199">
+        <v>1.42</v>
+      </c>
+      <c r="AF199">
+        <v>2.8</v>
+      </c>
+      <c r="AG199">
+        <v>2.12</v>
+      </c>
+      <c r="AH199">
+        <v>1.63</v>
+      </c>
+      <c r="AI199">
+        <v>1.95</v>
+      </c>
+      <c r="AJ199">
+        <v>1.8</v>
+      </c>
+      <c r="AK199">
+        <v>1.25</v>
+      </c>
+      <c r="AL199">
+        <v>1.3</v>
+      </c>
+      <c r="AM199">
+        <v>1.7</v>
+      </c>
+      <c r="AN199">
+        <v>1.4</v>
+      </c>
+      <c r="AO199">
+        <v>0.67</v>
+      </c>
+      <c r="AP199">
+        <v>1.55</v>
+      </c>
+      <c r="AQ199">
+        <v>0.6</v>
+      </c>
+      <c r="AR199">
+        <v>1.22</v>
+      </c>
+      <c r="AS199">
+        <v>1.06</v>
+      </c>
+      <c r="AT199">
+        <v>2.28</v>
+      </c>
+      <c r="AU199">
+        <v>8</v>
+      </c>
+      <c r="AV199">
+        <v>3</v>
+      </c>
+      <c r="AW199">
+        <v>2</v>
+      </c>
+      <c r="AX199">
+        <v>4</v>
+      </c>
+      <c r="AY199">
+        <v>15</v>
+      </c>
+      <c r="AZ199">
+        <v>10</v>
+      </c>
+      <c r="BA199">
+        <v>4</v>
+      </c>
+      <c r="BB199">
+        <v>5</v>
+      </c>
+      <c r="BC199">
+        <v>9</v>
+      </c>
+      <c r="BD199">
+        <v>1.71</v>
+      </c>
+      <c r="BE199">
+        <v>6.25</v>
+      </c>
+      <c r="BF199">
+        <v>2.4</v>
+      </c>
+      <c r="BG199">
+        <v>1.47</v>
+      </c>
+      <c r="BH199">
+        <v>2.48</v>
+      </c>
+      <c r="BI199">
+        <v>1.79</v>
+      </c>
+      <c r="BJ199">
+        <v>1.9</v>
+      </c>
+      <c r="BK199">
+        <v>2.25</v>
+      </c>
+      <c r="BL199">
+        <v>1.55</v>
+      </c>
+      <c r="BM199">
+        <v>2.9</v>
+      </c>
+      <c r="BN199">
+        <v>1.34</v>
+      </c>
+      <c r="BO199">
+        <v>3.9</v>
+      </c>
+      <c r="BP199">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7509772</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45655.55208333334</v>
+      </c>
+      <c r="F200">
+        <v>20</v>
+      </c>
+      <c r="G200" t="s">
+        <v>88</v>
+      </c>
+      <c r="H200" t="s">
+        <v>75</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>0</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+      <c r="M200">
+        <v>1</v>
+      </c>
+      <c r="N200">
+        <v>2</v>
+      </c>
+      <c r="O200" t="s">
+        <v>149</v>
+      </c>
+      <c r="P200" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q200">
+        <v>2.63</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>5</v>
+      </c>
+      <c r="T200">
+        <v>1.53</v>
+      </c>
+      <c r="U200">
+        <v>2.38</v>
+      </c>
+      <c r="V200">
+        <v>3.75</v>
+      </c>
+      <c r="W200">
+        <v>1.25</v>
+      </c>
+      <c r="X200">
+        <v>11</v>
+      </c>
+      <c r="Y200">
+        <v>1.05</v>
+      </c>
+      <c r="Z200">
+        <v>1.86</v>
+      </c>
+      <c r="AA200">
+        <v>3.2</v>
+      </c>
+      <c r="AB200">
+        <v>4.4</v>
+      </c>
+      <c r="AC200">
+        <v>1.09</v>
+      </c>
+      <c r="AD200">
+        <v>7</v>
+      </c>
+      <c r="AE200">
+        <v>1.5</v>
+      </c>
+      <c r="AF200">
+        <v>2.4</v>
+      </c>
+      <c r="AG200">
+        <v>2.4</v>
+      </c>
+      <c r="AH200">
+        <v>1.49</v>
+      </c>
+      <c r="AI200">
+        <v>2.2</v>
+      </c>
+      <c r="AJ200">
+        <v>1.62</v>
+      </c>
+      <c r="AK200">
+        <v>1.2</v>
+      </c>
+      <c r="AL200">
+        <v>1.28</v>
+      </c>
+      <c r="AM200">
+        <v>1.85</v>
+      </c>
+      <c r="AN200">
+        <v>1.56</v>
+      </c>
+      <c r="AO200">
+        <v>0.89</v>
+      </c>
+      <c r="AP200">
+        <v>1.5</v>
+      </c>
+      <c r="AQ200">
+        <v>0.9</v>
+      </c>
+      <c r="AR200">
+        <v>1.24</v>
+      </c>
+      <c r="AS200">
+        <v>1.19</v>
+      </c>
+      <c r="AT200">
+        <v>2.43</v>
+      </c>
+      <c r="AU200">
+        <v>5</v>
+      </c>
+      <c r="AV200">
+        <v>3</v>
+      </c>
+      <c r="AW200">
+        <v>4</v>
+      </c>
+      <c r="AX200">
+        <v>4</v>
+      </c>
+      <c r="AY200">
+        <v>11</v>
+      </c>
+      <c r="AZ200">
+        <v>9</v>
+      </c>
+      <c r="BA200">
+        <v>4</v>
+      </c>
+      <c r="BB200">
+        <v>2</v>
+      </c>
+      <c r="BC200">
+        <v>6</v>
+      </c>
+      <c r="BD200">
+        <v>1.57</v>
+      </c>
+      <c r="BE200">
+        <v>6.5</v>
+      </c>
+      <c r="BF200">
+        <v>2.65</v>
+      </c>
+      <c r="BG200">
+        <v>1.53</v>
+      </c>
+      <c r="BH200">
+        <v>2.32</v>
+      </c>
+      <c r="BI200">
+        <v>1.9</v>
+      </c>
+      <c r="BJ200">
+        <v>1.79</v>
+      </c>
+      <c r="BK200">
+        <v>2.4</v>
+      </c>
+      <c r="BL200">
+        <v>1.49</v>
+      </c>
+      <c r="BM200">
+        <v>3.15</v>
+      </c>
+      <c r="BN200">
+        <v>1.3</v>
+      </c>
+      <c r="BO200">
+        <v>4.3</v>
+      </c>
+      <c r="BP200">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7509775</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45655.64583333334</v>
+      </c>
+      <c r="F201">
+        <v>20</v>
+      </c>
+      <c r="G201" t="s">
+        <v>81</v>
+      </c>
+      <c r="H201" t="s">
+        <v>73</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201">
+        <v>1</v>
+      </c>
+      <c r="O201" t="s">
+        <v>102</v>
+      </c>
+      <c r="P201" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q201">
+        <v>3.2</v>
+      </c>
+      <c r="R201">
+        <v>2.2</v>
+      </c>
+      <c r="S201">
+        <v>3.25</v>
+      </c>
+      <c r="T201">
+        <v>1.4</v>
+      </c>
+      <c r="U201">
+        <v>2.75</v>
+      </c>
+      <c r="V201">
+        <v>2.75</v>
+      </c>
+      <c r="W201">
+        <v>1.4</v>
+      </c>
+      <c r="X201">
+        <v>8</v>
+      </c>
+      <c r="Y201">
+        <v>1.08</v>
+      </c>
+      <c r="Z201">
+        <v>2.33</v>
+      </c>
+      <c r="AA201">
+        <v>3.7</v>
+      </c>
+      <c r="AB201">
+        <v>2.7</v>
+      </c>
+      <c r="AC201">
+        <v>1.05</v>
+      </c>
+      <c r="AD201">
+        <v>9.5</v>
+      </c>
+      <c r="AE201">
+        <v>1.28</v>
+      </c>
+      <c r="AF201">
+        <v>3.5</v>
+      </c>
+      <c r="AG201">
+        <v>1.83</v>
+      </c>
+      <c r="AH201">
+        <v>1.85</v>
+      </c>
+      <c r="AI201">
+        <v>1.7</v>
+      </c>
+      <c r="AJ201">
+        <v>2.05</v>
+      </c>
+      <c r="AK201">
+        <v>1.48</v>
+      </c>
+      <c r="AL201">
+        <v>1.25</v>
+      </c>
+      <c r="AM201">
+        <v>1.5</v>
+      </c>
+      <c r="AN201">
+        <v>1.11</v>
+      </c>
+      <c r="AO201">
+        <v>1.56</v>
+      </c>
+      <c r="AP201">
+        <v>1</v>
+      </c>
+      <c r="AQ201">
+        <v>1.7</v>
+      </c>
+      <c r="AR201">
+        <v>1.5</v>
+      </c>
+      <c r="AS201">
+        <v>1.13</v>
+      </c>
+      <c r="AT201">
+        <v>2.63</v>
+      </c>
+      <c r="AU201">
+        <v>6</v>
+      </c>
+      <c r="AV201">
+        <v>3</v>
+      </c>
+      <c r="AW201">
+        <v>2</v>
+      </c>
+      <c r="AX201">
+        <v>3</v>
+      </c>
+      <c r="AY201">
+        <v>15</v>
+      </c>
+      <c r="AZ201">
+        <v>7</v>
+      </c>
+      <c r="BA201">
+        <v>6</v>
+      </c>
+      <c r="BB201">
+        <v>3</v>
+      </c>
+      <c r="BC201">
+        <v>9</v>
+      </c>
+      <c r="BD201">
+        <v>1.95</v>
+      </c>
+      <c r="BE201">
+        <v>5.8</v>
+      </c>
+      <c r="BF201">
+        <v>2.08</v>
+      </c>
+      <c r="BG201">
+        <v>1.63</v>
+      </c>
+      <c r="BH201">
+        <v>2.15</v>
+      </c>
+      <c r="BI201">
+        <v>2.02</v>
+      </c>
+      <c r="BJ201">
+        <v>1.68</v>
+      </c>
+      <c r="BK201">
+        <v>2.65</v>
+      </c>
+      <c r="BL201">
+        <v>1.42</v>
+      </c>
+      <c r="BM201">
+        <v>3.55</v>
+      </c>
+      <c r="BN201">
+        <v>1.24</v>
+      </c>
+      <c r="BO201">
+        <v>4.8</v>
+      </c>
+      <c r="BP201">
+        <v>1.14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Italy Serie B_20242025.xlsx
@@ -40773,13 +40773,13 @@
         <v>5</v>
       </c>
       <c r="AX192">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY192">
         <v>17</v>
       </c>
       <c r="AZ192">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA192">
         <v>7</v>
@@ -41588,7 +41588,7 @@
         <v>2.58</v>
       </c>
       <c r="AU196">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV196">
         <v>3</v>
@@ -41600,7 +41600,7 @@
         <v>9</v>
       </c>
       <c r="AY196">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ196">
         <v>17</v>
@@ -42000,7 +42000,7 @@
         <v>2.53</v>
       </c>
       <c r="AU198">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV198">
         <v>7</v>
@@ -42012,10 +42012,10 @@
         <v>7</v>
       </c>
       <c r="AY198">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ198">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA198">
         <v>4</v>
